--- a/financial_models/opportunities/9992.HK_Valuation.xlsx
+++ b/financial_models/opportunities/9992.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{89059760-9456-401E-9B8D-BF735B5DEF82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{01085C81-E690-4693-B50D-CCEE5141F05A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3573,8 +3573,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48ED7348-D356-493F-B1FA-0B9102624322}">
   <dimension ref="A2:M98"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A75" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E91" sqref="E91:F98"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A72" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E85" sqref="E85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
@@ -4151,11 +4151,11 @@
       </c>
       <c r="C45" s="152">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>3.3415902761853339E-3</v>
+        <v>3.3326888286825925E-3</v>
       </c>
       <c r="D45" s="152">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>1.0305507055233037E-3</v>
+        <v>1.0278054877539365E-3</v>
       </c>
       <c r="E45" s="152" t="str">
         <f>IF(E44="","",E44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -4575,7 +4575,9 @@
       <c r="C87" s="236" t="s">
         <v>251</v>
       </c>
-      <c r="D87" s="269"/>
+      <c r="D87" s="269">
+        <v>0.02</v>
+      </c>
     </row>
     <row r="89" spans="2:8" ht="13.5" x14ac:dyDescent="0.35">
       <c r="B89" s="106" t="s">
@@ -4887,7 +4889,7 @@
         <v>1</v>
       </c>
       <c r="G3" s="132">
-        <v>90.45</v>
+        <v>90.5</v>
       </c>
       <c r="H3" s="134" t="s">
         <v>266</v>
@@ -4928,7 +4930,7 @@
       </c>
       <c r="G5" s="275">
         <f>G3*G4/1000000</f>
-        <v>121469.2079175</v>
+        <v>121536.355075</v>
       </c>
       <c r="H5" s="275"/>
       <c r="I5" s="38"/>
@@ -4977,7 +4979,7 @@
         <v>5</v>
       </c>
       <c r="G7" s="133">
-        <v>1.0714173714319866</v>
+        <v>1.0691539843877156</v>
       </c>
       <c r="H7" s="71" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -5023,10 +5025,10 @@
         <v>254</v>
       </c>
       <c r="C12" s="174">
-        <v>0.06</v>
+        <v>0.08</v>
       </c>
       <c r="D12" s="172">
-        <v>6.6000000000000003E-2</v>
+        <v>8.5999999999999993E-2</v>
       </c>
       <c r="F12" s="110"/>
     </row>
@@ -5073,7 +5075,7 @@
         <v>255</v>
       </c>
       <c r="C17" s="175">
-        <v>7.1999999999999995E-2</v>
+        <v>9.1999999999999998E-2</v>
       </c>
       <c r="D17" s="176"/>
     </row>
@@ -5160,7 +5162,7 @@
       </c>
       <c r="G24" s="268">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>136.0411124515141</v>
+        <v>136.40447155371396</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5192,7 +5194,7 @@
       </c>
       <c r="G26" s="178">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>3.3415902761853339E-3</v>
+        <v>3.3326888286825925E-3</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5222,20 +5224,20 @@
       </c>
       <c r="C29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>4.0479871759029997</v>
+        <v>4.0390431535632452</v>
       </c>
       <c r="D29" s="129">
         <f>G29*(1+G20)</f>
-        <v>7.780962416638185</v>
+        <v>7.0783725670999784</v>
       </c>
       <c r="E29" s="87"/>
       <c r="F29" s="131">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>4.7623378540035288</v>
+        <v>4.7518154747802885</v>
       </c>
       <c r="G29" s="274">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>6.7660542753375523</v>
+        <v>6.1551065800869385</v>
       </c>
       <c r="H29" s="274"/>
     </row>
@@ -12107,17 +12109,17 @@
       </c>
       <c r="C87" s="261">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>7.3507190729302976E-3</v>
+        <v>7.3311379649765775E-3</v>
       </c>
       <c r="D87" s="209"/>
       <c r="E87" s="262">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>7.3507190729302976E-3</v>
+        <v>7.3311379649765775E-3</v>
       </c>
       <c r="F87" s="209"/>
       <c r="H87" s="262">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>7.3507190729302976E-3</v>
+        <v>7.3311379649765775E-3</v>
       </c>
       <c r="I87" s="209"/>
       <c r="K87" s="24"/>
@@ -12158,17 +12160,17 @@
       </c>
       <c r="C89" s="261">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>3.3415902761853339E-3</v>
+        <v>3.3326888286825925E-3</v>
       </c>
       <c r="D89" s="209"/>
       <c r="E89" s="261">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>3.3415902761853339E-3</v>
+        <v>3.3326888286825925E-3</v>
       </c>
       <c r="F89" s="209"/>
       <c r="H89" s="261">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>3.3415902761853339E-3</v>
+        <v>3.3326888286825925E-3</v>
       </c>
       <c r="I89" s="209"/>
       <c r="K89" s="24"/>
@@ -12217,7 +12219,7 @@
       </c>
       <c r="C93" s="136">
         <f>IF(C92="CN",Dashboard!C17,IF(C92="US",Dashboard!C12,IF(C92="HK",Dashboard!D12,Dashboard!D17)))</f>
-        <v>7.1999999999999995E-2</v>
+        <v>9.1999999999999998E-2</v>
       </c>
       <c r="D93" s="239">
         <f>Inputs!C86</f>
@@ -12228,14 +12230,14 @@
       </c>
       <c r="F93" s="144">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>9.5787624719533202</v>
+        <v>9.5575982088730544</v>
       </c>
       <c r="H93" s="87" t="s">
         <v>209</v>
       </c>
       <c r="I93" s="144">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>9.5787624719533202</v>
+        <v>9.5575982088730544</v>
       </c>
       <c r="K93" s="24"/>
     </row>
@@ -12249,21 +12251,21 @@
       </c>
       <c r="D94" s="270">
         <f>Inputs!D87</f>
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="E94" s="87" t="s">
         <v>210</v>
       </c>
       <c r="F94" s="144">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
-        <v>4.2684809517572857</v>
+        <v>4.2592747724125788</v>
       </c>
       <c r="H94" s="87" t="s">
         <v>210</v>
       </c>
       <c r="I94" s="144">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>4.2684809517572857</v>
+        <v>4.2592747724125788</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -12306,21 +12308,21 @@
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>6395548.9990197392</v>
+        <v>6381418.041920186</v>
       </c>
       <c r="D97" s="213"/>
       <c r="E97" s="123">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>4.7623378540035288</v>
+        <v>4.7518154747802885</v>
       </c>
       <c r="F97" s="213"/>
       <c r="H97" s="123">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>4.7623378540035288</v>
+        <v>4.7518154747802885</v>
       </c>
       <c r="I97" s="123">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>6.7660542753375523</v>
+        <v>6.1551065800869385</v>
       </c>
       <c r="K97" s="24"/>
     </row>
@@ -12369,27 +12371,27 @@
       </c>
       <c r="C100" s="91">
         <f>C97-C98+$C$99</f>
-        <v>6395548.9990197392</v>
+        <v>6381418.041920186</v>
       </c>
       <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>4.0479871759029997</v>
+        <v>4.0390431535632452</v>
       </c>
       <c r="E100" s="109">
         <f>MAX(E97-H98+E99,0)</f>
-        <v>4.7623378540035288</v>
+        <v>4.7518154747802885</v>
       </c>
       <c r="F100" s="109">
         <f>(E100+H100)/2</f>
-        <v>4.7623378540035288</v>
+        <v>4.7518154747802885</v>
       </c>
       <c r="H100" s="109">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>4.7623378540035288</v>
+        <v>4.7518154747802885</v>
       </c>
       <c r="I100" s="109">
         <f>MAX(I97-H98+H99,0)</f>
-        <v>6.7660542753375523</v>
+        <v>6.1551065800869385</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -12430,27 +12432,27 @@
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>2849979.7503360794</v>
+        <v>2843832.9676733678</v>
       </c>
       <c r="D103" s="109">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>1.8038610106359809</v>
+        <v>1.7999704771734848</v>
       </c>
       <c r="E103" s="123">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>2.1221894242776247</v>
+        <v>2.1176123260864528</v>
       </c>
       <c r="F103" s="109">
         <f>(E103+H103)/2</f>
-        <v>2.1221894242776247</v>
+        <v>2.1176123260864528</v>
       </c>
       <c r="H103" s="123">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>2.1221894242776247</v>
+        <v>2.1176123260864528</v>
       </c>
       <c r="I103" s="109">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>3.015084033808896</v>
+        <v>2.7429788954442924</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -12491,27 +12493,27 @@
       </c>
       <c r="C106" s="91">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>4622764.3746779086</v>
+        <v>4612625.5047967779</v>
       </c>
       <c r="D106" s="109">
         <f>(D100+D103)/2</f>
-        <v>2.9259240932694901</v>
+        <v>2.919506815368365</v>
       </c>
       <c r="E106" s="123">
         <f>(E100+E103)/2</f>
-        <v>3.4422636391405765</v>
+        <v>3.4347139004333709</v>
       </c>
       <c r="F106" s="109">
         <f>(F100+F103)/2</f>
-        <v>3.4422636391405765</v>
+        <v>3.4347139004333709</v>
       </c>
       <c r="H106" s="123">
         <f>(H100+H103)/2</f>
-        <v>3.4422636391405765</v>
+        <v>3.4347139004333709</v>
       </c>
       <c r="I106" s="123">
         <f>(I100+I103)/2</f>
-        <v>4.8905691545732246</v>
+        <v>4.4490427377656152</v>
       </c>
       <c r="K106" s="24"/>
     </row>

--- a/financial_models/opportunities/9992.HK_Valuation.xlsx
+++ b/financial_models/opportunities/9992.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{01085C81-E690-4693-B50D-CCEE5141F05A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{DBFD26C5-F5BA-4BB3-867A-FCBCB7077BB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4151,11 +4151,11 @@
       </c>
       <c r="C45" s="152">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>3.3326888286825925E-3</v>
+        <v>3.2685793165606681E-3</v>
       </c>
       <c r="D45" s="152">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>1.0278054877539365E-3</v>
+        <v>1.0080340324026163E-3</v>
       </c>
       <c r="E45" s="152" t="str">
         <f>IF(E44="","",E44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -4889,7 +4889,7 @@
         <v>1</v>
       </c>
       <c r="G3" s="132">
-        <v>90.5</v>
+        <v>92.4</v>
       </c>
       <c r="H3" s="134" t="s">
         <v>266</v>
@@ -4930,7 +4930,7 @@
       </c>
       <c r="G5" s="275">
         <f>G3*G4/1000000</f>
-        <v>121536.355075</v>
+        <v>124087.94706000002</v>
       </c>
       <c r="H5" s="275"/>
       <c r="I5" s="38"/>
@@ -4979,7 +4979,7 @@
         <v>5</v>
       </c>
       <c r="G7" s="133">
-        <v>1.0691539843877156</v>
+        <v>1.0706016620000203</v>
       </c>
       <c r="H7" s="71" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -5162,7 +5162,7 @@
       </c>
       <c r="G24" s="268">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>136.40447155371396</v>
+        <v>139.07989205773868</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5194,7 +5194,7 @@
       </c>
       <c r="G26" s="178">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>3.3326888286825925E-3</v>
+        <v>3.2685793165606681E-3</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5224,20 +5224,20 @@
       </c>
       <c r="C29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>4.0390431535632452</v>
+        <v>4.0416818227592159</v>
       </c>
       <c r="D29" s="129">
         <f>G29*(1+G20)</f>
-        <v>7.0783725670999784</v>
+        <v>7.0829968018358569</v>
       </c>
       <c r="E29" s="87"/>
       <c r="F29" s="131">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>4.7518154747802885</v>
+        <v>4.7549197914814307</v>
       </c>
       <c r="G29" s="274">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>6.1551065800869385</v>
+        <v>6.1591276537703106</v>
       </c>
       <c r="H29" s="274"/>
     </row>
@@ -12109,17 +12109,17 @@
       </c>
       <c r="C87" s="261">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>7.3311379649765775E-3</v>
+        <v>7.1901119939383647E-3</v>
       </c>
       <c r="D87" s="209"/>
       <c r="E87" s="262">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>7.3311379649765775E-3</v>
+        <v>7.1901119939383647E-3</v>
       </c>
       <c r="F87" s="209"/>
       <c r="H87" s="262">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>7.3311379649765775E-3</v>
+        <v>7.1901119939383647E-3</v>
       </c>
       <c r="I87" s="209"/>
       <c r="K87" s="24"/>
@@ -12160,17 +12160,17 @@
       </c>
       <c r="C89" s="261">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>3.3326888286825925E-3</v>
+        <v>3.2685793165606681E-3</v>
       </c>
       <c r="D89" s="209"/>
       <c r="E89" s="261">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>3.3326888286825925E-3</v>
+        <v>3.2685793165606681E-3</v>
       </c>
       <c r="F89" s="209"/>
       <c r="H89" s="261">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>3.3326888286825925E-3</v>
+        <v>3.2685793165606681E-3</v>
       </c>
       <c r="I89" s="209"/>
       <c r="K89" s="24"/>
@@ -12230,14 +12230,14 @@
       </c>
       <c r="F93" s="144">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>9.5575982088730544</v>
+        <v>9.5638420985821746</v>
       </c>
       <c r="H93" s="87" t="s">
         <v>209</v>
       </c>
       <c r="I93" s="144">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>9.5575982088730544</v>
+        <v>9.5638420985821746</v>
       </c>
       <c r="K93" s="24"/>
     </row>
@@ -12258,14 +12258,14 @@
       </c>
       <c r="F94" s="144">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
-        <v>4.2592747724125788</v>
+        <v>4.263679568683254</v>
       </c>
       <c r="H94" s="87" t="s">
         <v>210</v>
       </c>
       <c r="I94" s="144">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>4.2592747724125788</v>
+        <v>4.263679568683254</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -12308,21 +12308,21 @@
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>6381418.041920186</v>
+        <v>6385586.9627694162</v>
       </c>
       <c r="D97" s="213"/>
       <c r="E97" s="123">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>4.7518154747802885</v>
+        <v>4.7549197914814307</v>
       </c>
       <c r="F97" s="213"/>
       <c r="H97" s="123">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>4.7518154747802885</v>
+        <v>4.7549197914814307</v>
       </c>
       <c r="I97" s="123">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>6.1551065800869385</v>
+        <v>6.1591276537703106</v>
       </c>
       <c r="K97" s="24"/>
     </row>
@@ -12371,27 +12371,27 @@
       </c>
       <c r="C100" s="91">
         <f>C97-C98+$C$99</f>
-        <v>6381418.041920186</v>
+        <v>6385586.9627694162</v>
       </c>
       <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>4.0390431535632452</v>
+        <v>4.0416818227592159</v>
       </c>
       <c r="E100" s="109">
         <f>MAX(E97-H98+E99,0)</f>
-        <v>4.7518154747802885</v>
+        <v>4.7549197914814307</v>
       </c>
       <c r="F100" s="109">
         <f>(E100+H100)/2</f>
-        <v>4.7518154747802885</v>
+        <v>4.7549197914814307</v>
       </c>
       <c r="H100" s="109">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>4.7518154747802885</v>
+        <v>4.7549197914814307</v>
       </c>
       <c r="I100" s="109">
         <f>MAX(I97-H98+H99,0)</f>
-        <v>6.1551065800869385</v>
+        <v>6.1591276537703106</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -12432,27 +12432,27 @@
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>2843832.9676733678</v>
+        <v>2846773.9624482444</v>
       </c>
       <c r="D103" s="109">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>1.7999704771734848</v>
+        <v>1.8018319450685667</v>
       </c>
       <c r="E103" s="123">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>2.1176123260864528</v>
+        <v>2.1198022883159608</v>
       </c>
       <c r="F103" s="109">
         <f>(E103+H103)/2</f>
-        <v>2.1176123260864528</v>
+        <v>2.1198022883159608</v>
       </c>
       <c r="H103" s="123">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>2.1176123260864528</v>
+        <v>2.1198022883159608</v>
       </c>
       <c r="I103" s="109">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>2.7429788954442924</v>
+        <v>2.7458155903876316</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -12493,27 +12493,27 @@
       </c>
       <c r="C106" s="91">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>4612625.5047967779</v>
+        <v>4616180.4626088301</v>
       </c>
       <c r="D106" s="109">
         <f>(D100+D103)/2</f>
-        <v>2.919506815368365</v>
+        <v>2.9217568839138912</v>
       </c>
       <c r="E106" s="123">
         <f>(E100+E103)/2</f>
-        <v>3.4347139004333709</v>
+        <v>3.437361039898696</v>
       </c>
       <c r="F106" s="109">
         <f>(F100+F103)/2</f>
-        <v>3.4347139004333709</v>
+        <v>3.437361039898696</v>
       </c>
       <c r="H106" s="123">
         <f>(H100+H103)/2</f>
-        <v>3.4347139004333709</v>
+        <v>3.437361039898696</v>
       </c>
       <c r="I106" s="123">
         <f>(I100+I103)/2</f>
-        <v>4.4490427377656152</v>
+        <v>4.4524716220789706</v>
       </c>
       <c r="K106" s="24"/>
     </row>

--- a/financial_models/opportunities/9992.HK_Valuation.xlsx
+++ b/financial_models/opportunities/9992.HK_Valuation.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DBFD26C5-F5BA-4BB3-867A-FCBCB7077BB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{CA1848C4-4BD9-47B8-B5EF-C34B11C6FA79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="267">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="269">
   <si>
     <t>Company Info:</t>
   </si>
@@ -941,6 +941,17 @@
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
+    <t>CN</t>
+  </si>
+  <si>
+    <t>LT AR or Prepayments</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prepayments or Contract Assets</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
     <t>9992.HK</t>
   </si>
   <si>
@@ -951,9 +962,6 @@
   </si>
   <si>
     <t>CNY</t>
-  </si>
-  <si>
-    <t>CN</t>
   </si>
   <si>
     <t>HKD</t>
@@ -3573,8 +3581,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48ED7348-D356-493F-B1FA-0B9102624322}">
   <dimension ref="A2:M98"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A72" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E85" sqref="E85"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A75" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E91" sqref="E91:F98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
@@ -3595,7 +3603,7 @@
         <v>194</v>
       </c>
       <c r="C4" s="188" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
@@ -3603,7 +3611,7 @@
         <v>195</v>
       </c>
       <c r="C5" s="191" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
@@ -3636,7 +3644,7 @@
         <v>216</v>
       </c>
       <c r="C9" s="192" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
@@ -3652,7 +3660,7 @@
         <v>218</v>
       </c>
       <c r="C11" s="192" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
@@ -3684,7 +3692,7 @@
         <v>256</v>
       </c>
       <c r="C15" s="176" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
@@ -4151,11 +4159,11 @@
       </c>
       <c r="C45" s="152">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>3.2685793165606681E-3</v>
+        <v>3.3022943397688735E-3</v>
       </c>
       <c r="D45" s="152">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>1.0080340324026163E-3</v>
+        <v>1.0184317885852251E-3</v>
       </c>
       <c r="E45" s="152" t="str">
         <f>IF(E44="","",E44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -4272,7 +4280,7 @@
     </row>
     <row r="54" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B54" s="3" t="s">
-        <v>117</v>
+        <v>263</v>
       </c>
       <c r="C54" s="59"/>
       <c r="D54" s="60">
@@ -4384,7 +4392,7 @@
     </row>
     <row r="64" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B64" s="3" t="s">
-        <v>67</v>
+        <v>262</v>
       </c>
       <c r="C64" s="59"/>
       <c r="D64" s="60">
@@ -4889,10 +4897,10 @@
         <v>1</v>
       </c>
       <c r="G3" s="132">
-        <v>92.4</v>
+        <v>91.5</v>
       </c>
       <c r="H3" s="134" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -4930,7 +4938,7 @@
       </c>
       <c r="G5" s="275">
         <f>G3*G4/1000000</f>
-        <v>124087.94706000002</v>
+        <v>122879.29822500001</v>
       </c>
       <c r="H5" s="275"/>
       <c r="I5" s="38"/>
@@ -4979,7 +4987,7 @@
         <v>5</v>
       </c>
       <c r="G7" s="133">
-        <v>1.0706016620000203</v>
+        <v>1.0711092948913574</v>
       </c>
       <c r="H7" s="71" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -5025,10 +5033,10 @@
         <v>254</v>
       </c>
       <c r="C12" s="174">
-        <v>0.08</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="D12" s="172">
-        <v>8.5999999999999993E-2</v>
+        <v>7.5250000000000011E-2</v>
       </c>
       <c r="F12" s="110"/>
     </row>
@@ -5075,7 +5083,7 @@
         <v>255</v>
       </c>
       <c r="C17" s="175">
-        <v>9.1999999999999998E-2</v>
+        <v>8.0500000000000002E-2</v>
       </c>
       <c r="D17" s="176"/>
     </row>
@@ -5162,7 +5170,7 @@
       </c>
       <c r="G24" s="268">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>139.07989205773868</v>
+        <v>137.65994540669317</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5194,7 +5202,7 @@
       </c>
       <c r="G26" s="178">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>3.2685793165606681E-3</v>
+        <v>3.3022943397688735E-3</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5224,20 +5232,20 @@
       </c>
       <c r="C29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>4.0416818227592159</v>
+        <v>4.8139880715201784</v>
       </c>
       <c r="D29" s="129">
         <f>G29*(1+G20)</f>
-        <v>7.0829968018358569</v>
+        <v>8.8950679517608826</v>
       </c>
       <c r="E29" s="87"/>
       <c r="F29" s="131">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>4.7549197914814307</v>
+        <v>5.6635153782590333</v>
       </c>
       <c r="G29" s="274">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>6.1591276537703106</v>
+        <v>7.7348416971833771</v>
       </c>
       <c r="H29" s="274"/>
     </row>
@@ -12109,17 +12117,17 @@
       </c>
       <c r="C87" s="261">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>7.1901119939383647E-3</v>
+        <v>7.2642771798700646E-3</v>
       </c>
       <c r="D87" s="209"/>
       <c r="E87" s="262">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>7.1901119939383647E-3</v>
+        <v>7.2642771798700646E-3</v>
       </c>
       <c r="F87" s="209"/>
       <c r="H87" s="262">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>7.1901119939383647E-3</v>
+        <v>7.2642771798700646E-3</v>
       </c>
       <c r="I87" s="209"/>
       <c r="K87" s="24"/>
@@ -12160,17 +12168,17 @@
       </c>
       <c r="C89" s="261">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>3.2685793165606681E-3</v>
+        <v>3.3022943397688735E-3</v>
       </c>
       <c r="D89" s="209"/>
       <c r="E89" s="261">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>3.2685793165606681E-3</v>
+        <v>3.3022943397688735E-3</v>
       </c>
       <c r="F89" s="209"/>
       <c r="H89" s="261">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>3.2685793165606681E-3</v>
+        <v>3.3022943397688735E-3</v>
       </c>
       <c r="I89" s="209"/>
       <c r="K89" s="24"/>
@@ -12219,7 +12227,7 @@
       </c>
       <c r="C93" s="136">
         <f>IF(C92="CN",Dashboard!C17,IF(C92="US",Dashboard!C12,IF(C92="HK",Dashboard!D12,Dashboard!D17)))</f>
-        <v>9.1999999999999998E-2</v>
+        <v>8.0500000000000002E-2</v>
       </c>
       <c r="D93" s="239">
         <f>Inputs!C86</f>
@@ -12230,14 +12238,14 @@
       </c>
       <c r="F93" s="144">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>9.5638420985821746</v>
+        <v>11.391352362578084</v>
       </c>
       <c r="H93" s="87" t="s">
         <v>209</v>
       </c>
       <c r="I93" s="144">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>9.5638420985821746</v>
+        <v>11.391352362578084</v>
       </c>
       <c r="K93" s="24"/>
     </row>
@@ -12258,14 +12266,14 @@
       </c>
       <c r="F94" s="144">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
-        <v>4.263679568683254</v>
+        <v>5.0773900369787786</v>
       </c>
       <c r="H94" s="87" t="s">
         <v>210</v>
       </c>
       <c r="I94" s="144">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>4.263679568683254</v>
+        <v>5.0773900369787786</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -12308,21 +12316,21 @@
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>6385586.9627694162</v>
+        <v>7605779.182152628</v>
       </c>
       <c r="D97" s="213"/>
       <c r="E97" s="123">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>4.7549197914814307</v>
+        <v>5.6635153782590333</v>
       </c>
       <c r="F97" s="213"/>
       <c r="H97" s="123">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>4.7549197914814307</v>
+        <v>5.6635153782590333</v>
       </c>
       <c r="I97" s="123">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>6.1591276537703106</v>
+        <v>7.7348416971833771</v>
       </c>
       <c r="K97" s="24"/>
     </row>
@@ -12371,27 +12379,27 @@
       </c>
       <c r="C100" s="91">
         <f>C97-C98+$C$99</f>
-        <v>6385586.9627694162</v>
+        <v>7605779.182152628</v>
       </c>
       <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>4.0416818227592159</v>
+        <v>4.8139880715201784</v>
       </c>
       <c r="E100" s="109">
         <f>MAX(E97-H98+E99,0)</f>
-        <v>4.7549197914814307</v>
+        <v>5.6635153782590333</v>
       </c>
       <c r="F100" s="109">
         <f>(E100+H100)/2</f>
-        <v>4.7549197914814307</v>
+        <v>5.6635153782590333</v>
       </c>
       <c r="H100" s="109">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>4.7549197914814307</v>
+        <v>5.6635153782590333</v>
       </c>
       <c r="I100" s="109">
         <f>MAX(I97-H98+H99,0)</f>
-        <v>6.1591276537703106</v>
+        <v>7.7348416971833771</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -12432,27 +12440,27 @@
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>2846773.9624482444</v>
+        <v>3390072.241974127</v>
       </c>
       <c r="D103" s="109">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>1.8018319450685667</v>
+        <v>2.1457061720579964</v>
       </c>
       <c r="E103" s="123">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>2.1198022883159608</v>
+        <v>2.5243602024211724</v>
       </c>
       <c r="F103" s="109">
         <f>(E103+H103)/2</f>
-        <v>2.1198022883159608</v>
+        <v>2.5243602024211724</v>
       </c>
       <c r="H103" s="123">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>2.1198022883159608</v>
+        <v>2.5243602024211724</v>
       </c>
       <c r="I103" s="109">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>2.7458155903876316</v>
+        <v>3.4475983992824806</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -12493,27 +12501,27 @@
       </c>
       <c r="C106" s="91">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>4616180.4626088301</v>
+        <v>5497925.7120633777</v>
       </c>
       <c r="D106" s="109">
         <f>(D100+D103)/2</f>
-        <v>2.9217568839138912</v>
+        <v>3.4798471217890876</v>
       </c>
       <c r="E106" s="123">
         <f>(E100+E103)/2</f>
-        <v>3.437361039898696</v>
+        <v>4.0939377903401031</v>
       </c>
       <c r="F106" s="109">
         <f>(F100+F103)/2</f>
-        <v>3.437361039898696</v>
+        <v>4.0939377903401031</v>
       </c>
       <c r="H106" s="123">
         <f>(H100+H103)/2</f>
-        <v>3.437361039898696</v>
+        <v>4.0939377903401031</v>
       </c>
       <c r="I106" s="123">
         <f>(I100+I103)/2</f>
-        <v>4.4524716220789706</v>
+        <v>5.5912200482329286</v>
       </c>
       <c r="K106" s="24"/>
     </row>

--- a/financial_models/opportunities/9992.HK_Valuation.xlsx
+++ b/financial_models/opportunities/9992.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CA1848C4-4BD9-47B8-B5EF-C34B11C6FA79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{799FC842-7135-403C-A238-D498A0297050}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="269">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="270">
   <si>
     <t>Company Info:</t>
   </si>
@@ -949,6 +949,10 @@
   </si>
   <si>
     <t>Prepayments or Contract Assets</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>ΔWC/Δsales</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
@@ -3581,7 +3585,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48ED7348-D356-493F-B1FA-0B9102624322}">
   <dimension ref="A2:M98"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A75" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C75" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E91" sqref="E91:F98"/>
     </sheetView>
   </sheetViews>
@@ -3603,7 +3607,7 @@
         <v>194</v>
       </c>
       <c r="C4" s="188" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
@@ -3611,7 +3615,7 @@
         <v>195</v>
       </c>
       <c r="C5" s="191" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
@@ -3644,7 +3648,7 @@
         <v>216</v>
       </c>
       <c r="C9" s="192" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
@@ -3660,7 +3664,7 @@
         <v>218</v>
       </c>
       <c r="C11" s="192" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
@@ -4159,11 +4163,11 @@
       </c>
       <c r="C45" s="152">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>3.3022943397688735E-3</v>
+        <v>3.2872536556189914E-3</v>
       </c>
       <c r="D45" s="152">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>1.0184317885852251E-3</v>
+        <v>1.0137932223993342E-3</v>
       </c>
       <c r="E45" s="152" t="str">
         <f>IF(E44="","",E44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -4897,10 +4901,10 @@
         <v>1</v>
       </c>
       <c r="G3" s="132">
-        <v>91.5</v>
+        <v>91.85</v>
       </c>
       <c r="H3" s="134" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -4938,7 +4942,7 @@
       </c>
       <c r="G5" s="275">
         <f>G3*G4/1000000</f>
-        <v>122879.29822500001</v>
+        <v>123349.32832749998</v>
       </c>
       <c r="H5" s="275"/>
       <c r="I5" s="38"/>
@@ -4987,7 +4991,7 @@
         <v>5</v>
       </c>
       <c r="G7" s="133">
-        <v>1.0711092948913574</v>
+        <v>1.0703092813491821</v>
       </c>
       <c r="H7" s="71" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -5008,7 +5012,7 @@
         <v>175</v>
       </c>
       <c r="C10" s="172">
-        <v>4.2099999999999999E-2</v>
+        <v>4.2000000000000003E-2</v>
       </c>
       <c r="F10" s="110" t="s">
         <v>182</v>
@@ -5019,7 +5023,7 @@
         <v>179</v>
       </c>
       <c r="C11" s="173">
-        <v>5.3099999999999994E-2</v>
+        <v>5.2299999999999999E-2</v>
       </c>
       <c r="D11" s="137" t="s">
         <v>189</v>
@@ -5046,7 +5050,7 @@
         <v>176</v>
       </c>
       <c r="C14" s="172">
-        <v>2.1309999999999999E-2</v>
+        <v>1.8100000000000002E-2</v>
       </c>
       <c r="F14" s="110" t="s">
         <v>181</v>
@@ -5170,7 +5174,7 @@
       </c>
       <c r="G24" s="268">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>137.65994540669317</v>
+        <v>138.28980241678821</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5202,7 +5206,7 @@
       </c>
       <c r="G26" s="178">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>3.3022943397688735E-3</v>
+        <v>3.2872536556189914E-3</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5232,20 +5236,20 @@
       </c>
       <c r="C29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>4.8139880715201784</v>
+        <v>4.8096025026517664</v>
       </c>
       <c r="D29" s="129">
         <f>G29*(1+G20)</f>
-        <v>8.8950679517608826</v>
+        <v>8.8869644973043922</v>
       </c>
       <c r="E29" s="87"/>
       <c r="F29" s="131">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>5.6635153782590333</v>
+        <v>5.6583558854726661</v>
       </c>
       <c r="G29" s="274">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>7.7348416971833771</v>
+        <v>7.7277952150472977</v>
       </c>
       <c r="H29" s="274"/>
     </row>
@@ -5280,8 +5284,8 @@
         <v>225</v>
       </c>
       <c r="C34" s="225" t="e">
-        <f>IF(AND(OR(Fin_Analysis!I26&lt;0.8,Fin_Analysis!I46&lt;0.6),Data!C54&lt;0.8),"Strongly disagree",
-IF(AND(OR(Fin_Analysis!I26&lt;1,Fin_Analysis!I46&lt;0.8),Data!C54&lt;1),"unclear", IF(AND(OR(Fin_Analysis!I26&lt;1.4,Fin_Analysis!I46&lt;1.2),Data!C54&lt;1.4),"agree","Strongly agree")))</f>
+        <f>IF(AND(OR(Fin_Analysis!I26&lt;0.8,Fin_Analysis!I46&lt;0.6),Data!C55&lt;0.8),"Strongly disagree",
+IF(AND(OR(Fin_Analysis!I26&lt;1,Fin_Analysis!I46&lt;0.8),Data!C55&lt;1),"unclear", IF(AND(OR(Fin_Analysis!I26&lt;1.4,Fin_Analysis!I46&lt;1.2),Data!C55&lt;1.4),"agree","Strongly agree")))</f>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -6307,12 +6311,12 @@
   <sheetPr codeName="Sheet2">
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:N930"/>
+  <dimension ref="A1:N931"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
       <selection activeCell="A4" sqref="A4"/>
-      <selection pane="topRight" activeCell="B19" sqref="B19"/>
+      <selection pane="topRight" activeCell="D52" sqref="D52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -8738,118 +8742,119 @@
       <c r="N51" s="87"/>
     </row>
     <row r="52" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A52" s="16"/>
-      <c r="B52" s="102" t="s">
+      <c r="A52" s="4"/>
+      <c r="B52" s="94" t="s">
+        <v>264</v>
+      </c>
+      <c r="C52" s="153" t="e">
+        <f>IF(D6="","",C16/(C6-D6))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="D52" s="153" t="str">
+        <f t="shared" ref="D52:M52" si="43">IF(E6="","",D16/(D6-E6))</f>
+        <v/>
+      </c>
+      <c r="E52" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="F52" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="G52" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="H52" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="I52" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="J52" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="K52" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="L52" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="M52" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="N52" s="87"/>
+    </row>
+    <row r="53" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A53" s="16"/>
+      <c r="B53" s="102" t="s">
         <v>124</v>
       </c>
-      <c r="C52" s="36"/>
-      <c r="D52" s="36"/>
-      <c r="E52" s="36"/>
-      <c r="F52" s="36"/>
-      <c r="G52" s="36"/>
-      <c r="H52" s="36"/>
-      <c r="I52" s="36"/>
-      <c r="J52" s="36"/>
-      <c r="K52" s="36"/>
-      <c r="L52" s="36"/>
-      <c r="M52" s="36"/>
-    </row>
-    <row r="53" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A53" s="4"/>
-      <c r="B53" s="95" t="s">
+      <c r="C53" s="36"/>
+      <c r="D53" s="36"/>
+      <c r="E53" s="36"/>
+      <c r="F53" s="36"/>
+      <c r="G53" s="36"/>
+      <c r="H53" s="36"/>
+      <c r="I53" s="36"/>
+      <c r="J53" s="36"/>
+      <c r="K53" s="36"/>
+      <c r="L53" s="36"/>
+      <c r="M53" s="36"/>
+    </row>
+    <row r="54" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A54" s="4"/>
+      <c r="B54" s="95" t="s">
         <v>19</v>
       </c>
-      <c r="C53" s="156" t="e">
+      <c r="C54" s="156" t="e">
         <f>IF(C36="","",(C27-C36)/C27)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D53" s="156" t="str">
-        <f t="shared" ref="D53:M53" si="43">IF(D36="","",(D27-D36)/D27)</f>
-        <v/>
-      </c>
-      <c r="E53" s="156" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="F53" s="156" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="G53" s="156" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="H53" s="156" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="I53" s="156" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="J53" s="156" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="K53" s="156" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="L53" s="156" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="M53" s="156" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-    </row>
-    <row r="54" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A54" s="4"/>
-      <c r="B54" s="94" t="s">
-        <v>120</v>
-      </c>
-      <c r="C54" s="157" t="str">
-        <f t="shared" ref="C54:M54" si="44">IF(OR(C22="",C35=""),"",IF(C35&lt;=0,"-",C22/C35))</f>
-        <v>-</v>
-      </c>
-      <c r="D54" s="157" t="str">
+      <c r="D54" s="156" t="str">
+        <f t="shared" ref="D54:M54" si="44">IF(D36="","",(D27-D36)/D27)</f>
+        <v/>
+      </c>
+      <c r="E54" s="156" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="E54" s="157" t="str">
+      <c r="F54" s="156" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="F54" s="157" t="str">
+      <c r="G54" s="156" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="G54" s="157" t="str">
+      <c r="H54" s="156" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="H54" s="157" t="str">
+      <c r="I54" s="156" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="I54" s="157" t="str">
+      <c r="J54" s="156" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="J54" s="157" t="str">
+      <c r="K54" s="156" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="K54" s="157" t="str">
+      <c r="L54" s="156" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="L54" s="157" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="M54" s="157" t="str">
+      <c r="M54" s="156" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
@@ -8857,107 +8862,154 @@
     <row r="55" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A55" s="4"/>
       <c r="B55" s="94" t="s">
-        <v>122</v>
-      </c>
-      <c r="C55" s="153">
-        <f t="shared" ref="C55:M55" si="45">IF(C22="","",IF(MAX(C17,0)&lt;=0,"-",C17/C22))</f>
-        <v>2.9102054432070305E-2</v>
-      </c>
-      <c r="D55" s="153">
+        <v>120</v>
+      </c>
+      <c r="C55" s="157" t="str">
+        <f t="shared" ref="C55:M55" si="45">IF(OR(C22="",C35=""),"",IF(C35&lt;=0,"-",C22/C35))</f>
+        <v>-</v>
+      </c>
+      <c r="D55" s="157" t="str">
         <f t="shared" si="45"/>
-        <v>8.4097196033508959E-2</v>
-      </c>
-      <c r="E55" s="153" t="str">
+        <v/>
+      </c>
+      <c r="E55" s="157" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="F55" s="153" t="str">
+      <c r="F55" s="157" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="G55" s="153" t="str">
+      <c r="G55" s="157" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="H55" s="153" t="str">
+      <c r="H55" s="157" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="I55" s="153" t="str">
+      <c r="I55" s="157" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="J55" s="153" t="str">
+      <c r="J55" s="157" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="K55" s="153" t="str">
+      <c r="K55" s="157" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="L55" s="153" t="str">
+      <c r="L55" s="157" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="M55" s="153" t="str">
+      <c r="M55" s="157" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
     </row>
     <row r="56" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A56" s="4"/>
-      <c r="B56" s="98" t="s">
+      <c r="B56" s="94" t="s">
+        <v>122</v>
+      </c>
+      <c r="C56" s="153">
+        <f t="shared" ref="C56:M56" si="46">IF(C22="","",IF(MAX(C17,0)&lt;=0,"-",C17/C22))</f>
+        <v>2.9102054432070305E-2</v>
+      </c>
+      <c r="D56" s="153">
+        <f t="shared" si="46"/>
+        <v>8.4097196033508959E-2</v>
+      </c>
+      <c r="E56" s="153" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+      <c r="F56" s="153" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+      <c r="G56" s="153" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+      <c r="H56" s="153" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+      <c r="I56" s="153" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+      <c r="J56" s="153" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+      <c r="K56" s="153" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+      <c r="L56" s="153" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+      <c r="M56" s="153" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+    </row>
+    <row r="57" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A57" s="4"/>
+      <c r="B57" s="98" t="s">
         <v>20</v>
       </c>
-      <c r="C56" s="158" t="e">
-        <f t="shared" ref="C56:M56" si="46">IF(C28="","",C28/C31)</f>
+      <c r="C57" s="158" t="e">
+        <f t="shared" ref="C57:M57" si="47">IF(C28="","",C28/C31)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D56" s="158" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-      <c r="E56" s="158" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-      <c r="F56" s="158" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-      <c r="G56" s="158" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-      <c r="H56" s="158" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-      <c r="I56" s="158" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-      <c r="J56" s="158" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-      <c r="K56" s="158" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-      <c r="L56" s="158" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-      <c r="M56" s="158" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-    </row>
-    <row r="57" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="58" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A58" s="4"/>
-    </row>
+      <c r="D57" s="158" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="E57" s="158" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="F57" s="158" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="G57" s="158" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="H57" s="158" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="I57" s="158" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="J57" s="158" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="K57" s="158" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="L57" s="158" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="M57" s="158" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+    </row>
+    <row r="58" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="59" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A59" s="4"/>
     </row>
@@ -9525,7 +9577,9 @@
     <row r="247" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A247" s="4"/>
     </row>
-    <row r="248" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="248" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A248" s="4"/>
+    </row>
     <row r="249" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="250" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="251" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -10208,6 +10262,7 @@
     <row r="928" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="929" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="930" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="931" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
   </sheetData>
   <phoneticPr fontId="20" type="noConversion"/>
   <conditionalFormatting sqref="C6:M23 C27:M40">
@@ -12117,17 +12172,17 @@
       </c>
       <c r="C87" s="261">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>7.2642771798700646E-3</v>
+        <v>7.2311911834693704E-3</v>
       </c>
       <c r="D87" s="209"/>
       <c r="E87" s="262">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>7.2642771798700646E-3</v>
+        <v>7.2311911834693704E-3</v>
       </c>
       <c r="F87" s="209"/>
       <c r="H87" s="262">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>7.2642771798700646E-3</v>
+        <v>7.2311911834693704E-3</v>
       </c>
       <c r="I87" s="209"/>
       <c r="K87" s="24"/>
@@ -12168,17 +12223,17 @@
       </c>
       <c r="C89" s="261">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>3.3022943397688735E-3</v>
+        <v>3.2872536556189914E-3</v>
       </c>
       <c r="D89" s="209"/>
       <c r="E89" s="261">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>3.3022943397688735E-3</v>
+        <v>3.2872536556189914E-3</v>
       </c>
       <c r="F89" s="209"/>
       <c r="H89" s="261">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>3.3022943397688735E-3</v>
+        <v>3.2872536556189914E-3</v>
       </c>
       <c r="I89" s="209"/>
       <c r="K89" s="24"/>
@@ -12238,14 +12293,14 @@
       </c>
       <c r="F93" s="144">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>11.391352362578084</v>
+        <v>11.38097477967837</v>
       </c>
       <c r="H93" s="87" t="s">
         <v>209</v>
       </c>
       <c r="I93" s="144">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>11.391352362578084</v>
+        <v>11.38097477967837</v>
       </c>
       <c r="K93" s="24"/>
     </row>
@@ -12266,14 +12321,14 @@
       </c>
       <c r="F94" s="144">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
-        <v>5.0773900369787786</v>
+        <v>5.0732174401800814</v>
       </c>
       <c r="H94" s="87" t="s">
         <v>210</v>
       </c>
       <c r="I94" s="144">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>5.0773900369787786</v>
+        <v>5.0732174401800814</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -12316,21 +12371,21 @@
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>7605779.182152628</v>
+        <v>7598850.2766577015</v>
       </c>
       <c r="D97" s="213"/>
       <c r="E97" s="123">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>5.6635153782590333</v>
+        <v>5.6583558854726661</v>
       </c>
       <c r="F97" s="213"/>
       <c r="H97" s="123">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>5.6635153782590333</v>
+        <v>5.6583558854726661</v>
       </c>
       <c r="I97" s="123">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>7.7348416971833771</v>
+        <v>7.7277952150472977</v>
       </c>
       <c r="K97" s="24"/>
     </row>
@@ -12379,27 +12434,27 @@
       </c>
       <c r="C100" s="91">
         <f>C97-C98+$C$99</f>
-        <v>7605779.182152628</v>
+        <v>7598850.2766577015</v>
       </c>
       <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>4.8139880715201784</v>
+        <v>4.8096025026517664</v>
       </c>
       <c r="E100" s="109">
         <f>MAX(E97-H98+E99,0)</f>
-        <v>5.6635153782590333</v>
+        <v>5.6583558854726661</v>
       </c>
       <c r="F100" s="109">
         <f>(E100+H100)/2</f>
-        <v>5.6635153782590333</v>
+        <v>5.6583558854726661</v>
       </c>
       <c r="H100" s="109">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>5.6635153782590333</v>
+        <v>5.6583558854726661</v>
       </c>
       <c r="I100" s="109">
         <f>MAX(I97-H98+H99,0)</f>
-        <v>7.7348416971833771</v>
+        <v>7.7277952150472977</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -12440,27 +12495,27 @@
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>3390072.241974127</v>
+        <v>3387286.2821638323</v>
       </c>
       <c r="D103" s="109">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>2.1457061720579964</v>
+        <v>2.1439428317120179</v>
       </c>
       <c r="E103" s="123">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>2.5243602024211724</v>
+        <v>2.52228568436708</v>
       </c>
       <c r="F103" s="109">
         <f>(E103+H103)/2</f>
-        <v>2.5243602024211724</v>
+        <v>2.52228568436708</v>
       </c>
       <c r="H103" s="123">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>2.5243602024211724</v>
+        <v>2.52228568436708</v>
       </c>
       <c r="I103" s="109">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>3.4475983992824806</v>
+        <v>3.4447651645025501</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -12501,27 +12556,27 @@
       </c>
       <c r="C106" s="91">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>5497925.7120633777</v>
+        <v>5493068.2794107674</v>
       </c>
       <c r="D106" s="109">
         <f>(D100+D103)/2</f>
-        <v>3.4798471217890876</v>
+        <v>3.4767726671818924</v>
       </c>
       <c r="E106" s="123">
         <f>(E100+E103)/2</f>
-        <v>4.0939377903401031</v>
+        <v>4.0903207849198733</v>
       </c>
       <c r="F106" s="109">
         <f>(F100+F103)/2</f>
-        <v>4.0939377903401031</v>
+        <v>4.0903207849198733</v>
       </c>
       <c r="H106" s="123">
         <f>(H100+H103)/2</f>
-        <v>4.0939377903401031</v>
+        <v>4.0903207849198733</v>
       </c>
       <c r="I106" s="123">
         <f>(I100+I103)/2</f>
-        <v>5.5912200482329286</v>
+        <v>5.5862801897749241</v>
       </c>
       <c r="K106" s="24"/>
     </row>

--- a/financial_models/opportunities/9992.HK_Valuation.xlsx
+++ b/financial_models/opportunities/9992.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{799FC842-7135-403C-A238-D498A0297050}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{28AF3275-BF49-4EC4-B767-C97D98B77AA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4163,11 +4163,11 @@
       </c>
       <c r="C45" s="152">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>3.2872536556189914E-3</v>
+        <v>3.2771054501987392E-3</v>
       </c>
       <c r="D45" s="152">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>1.0137932223993342E-3</v>
+        <v>1.0106635028971651E-3</v>
       </c>
       <c r="E45" s="152" t="str">
         <f>IF(E44="","",E44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -4901,7 +4901,7 @@
         <v>1</v>
       </c>
       <c r="G3" s="132">
-        <v>91.85</v>
+        <v>92.1</v>
       </c>
       <c r="H3" s="134" t="s">
         <v>269</v>
@@ -4942,7 +4942,7 @@
       </c>
       <c r="G5" s="275">
         <f>G3*G4/1000000</f>
-        <v>123349.32832749998</v>
+        <v>123685.06411499999</v>
       </c>
       <c r="H5" s="275"/>
       <c r="I5" s="38"/>
@@ -4991,7 +4991,7 @@
         <v>5</v>
       </c>
       <c r="G7" s="133">
-        <v>1.0703092813491821</v>
+        <v>1.0699092944463093</v>
       </c>
       <c r="H7" s="71" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -5174,7 +5174,7 @@
       </c>
       <c r="G24" s="268">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>138.28980241678821</v>
+        <v>138.71804415138556</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5206,7 +5206,7 @@
       </c>
       <c r="G26" s="178">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>3.2872536556189914E-3</v>
+        <v>3.2771054501987392E-3</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5236,20 +5236,20 @@
       </c>
       <c r="C29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>4.8096025026517664</v>
+        <v>4.8072723354937645</v>
       </c>
       <c r="D29" s="129">
         <f>G29*(1+G20)</f>
-        <v>8.8869644973043922</v>
+        <v>8.8826589205348903</v>
       </c>
       <c r="E29" s="87"/>
       <c r="F29" s="131">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>5.6583558854726661</v>
+        <v>5.655614512345605</v>
       </c>
       <c r="G29" s="274">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>7.7277952150472977</v>
+        <v>7.7240512352477317</v>
       </c>
       <c r="H29" s="274"/>
     </row>
@@ -10302,8 +10302,8 @@
   </sheetPr>
   <dimension ref="A2:K108"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="B70" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C82" sqref="C82"/>
+    <sheetView showGridLines="0" topLeftCell="A85" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I100" sqref="I100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -12172,17 +12172,17 @@
       </c>
       <c r="C87" s="261">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>7.2311911834693704E-3</v>
+        <v>7.2088674989439841E-3</v>
       </c>
       <c r="D87" s="209"/>
       <c r="E87" s="262">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>7.2311911834693704E-3</v>
+        <v>7.2088674989439841E-3</v>
       </c>
       <c r="F87" s="209"/>
       <c r="H87" s="262">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>7.2311911834693704E-3</v>
+        <v>7.2088674989439841E-3</v>
       </c>
       <c r="I87" s="209"/>
       <c r="K87" s="24"/>
@@ -12223,17 +12223,17 @@
       </c>
       <c r="C89" s="261">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>3.2872536556189914E-3</v>
+        <v>3.2771054501987392E-3</v>
       </c>
       <c r="D89" s="209"/>
       <c r="E89" s="261">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>3.2872536556189914E-3</v>
+        <v>3.2771054501987392E-3</v>
       </c>
       <c r="F89" s="209"/>
       <c r="H89" s="261">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>3.2872536556189914E-3</v>
+        <v>3.2771054501987392E-3</v>
       </c>
       <c r="I89" s="209"/>
       <c r="K89" s="24"/>
@@ -12293,14 +12293,14 @@
       </c>
       <c r="F93" s="144">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>11.38097477967837</v>
+        <v>11.375460899135636</v>
       </c>
       <c r="H93" s="87" t="s">
         <v>209</v>
       </c>
       <c r="I93" s="144">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>11.38097477967837</v>
+        <v>11.375460899135636</v>
       </c>
       <c r="K93" s="24"/>
     </row>
@@ -12321,14 +12321,14 @@
       </c>
       <c r="F94" s="144">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
-        <v>5.0732174401800814</v>
+        <v>5.0710650446491865</v>
       </c>
       <c r="H94" s="87" t="s">
         <v>210</v>
       </c>
       <c r="I94" s="144">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>5.0732174401800814</v>
+        <v>5.0710650446491865</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -12371,21 +12371,21 @@
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>7598850.2766577015</v>
+        <v>7595168.7683951203</v>
       </c>
       <c r="D97" s="213"/>
       <c r="E97" s="123">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>5.6583558854726661</v>
+        <v>5.655614512345605</v>
       </c>
       <c r="F97" s="213"/>
       <c r="H97" s="123">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>5.6583558854726661</v>
+        <v>5.655614512345605</v>
       </c>
       <c r="I97" s="123">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>7.7277952150472977</v>
+        <v>7.7240512352477317</v>
       </c>
       <c r="K97" s="24"/>
     </row>
@@ -12394,7 +12394,7 @@
         <v>144</v>
       </c>
       <c r="C98" s="91">
-        <f>E53*Exchange_Rate</f>
+        <f>-E53*Exchange_Rate</f>
         <v>0</v>
       </c>
       <c r="D98" s="213"/>
@@ -12433,28 +12433,28 @@
         <v>114</v>
       </c>
       <c r="C100" s="91">
-        <f>C97-C98+$C$99</f>
-        <v>7598850.2766577015</v>
+        <f>C97+C98+$C$99</f>
+        <v>7595168.7683951203</v>
       </c>
       <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>4.8096025026517664</v>
+        <v>4.8072723354937645</v>
       </c>
       <c r="E100" s="109">
-        <f>MAX(E97-H98+E99,0)</f>
-        <v>5.6583558854726661</v>
+        <f>MAX(E97+H98+E99,0)</f>
+        <v>5.655614512345605</v>
       </c>
       <c r="F100" s="109">
         <f>(E100+H100)/2</f>
-        <v>5.6583558854726661</v>
+        <v>5.655614512345605</v>
       </c>
       <c r="H100" s="109">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>5.6583558854726661</v>
+        <v>5.655614512345605</v>
       </c>
       <c r="I100" s="109">
-        <f>MAX(I97-H98+H99,0)</f>
-        <v>7.7277952150472977</v>
+        <f>MAX(I97+H98+H99,0)</f>
+        <v>7.7240512352477317</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -12495,27 +12495,27 @@
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>3387286.2821638323</v>
+        <v>3385849.1705198791</v>
       </c>
       <c r="D103" s="109">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>2.1439428317120179</v>
+        <v>2.1430332288763654</v>
       </c>
       <c r="E103" s="123">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>2.52228568436708</v>
+        <v>2.5212155633839592</v>
       </c>
       <c r="F103" s="109">
         <f>(E103+H103)/2</f>
-        <v>2.52228568436708</v>
+        <v>2.5212155633839592</v>
       </c>
       <c r="H103" s="123">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>2.52228568436708</v>
+        <v>2.5212155633839592</v>
       </c>
       <c r="I103" s="109">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>3.4447651645025501</v>
+        <v>3.443303666502024</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -12556,27 +12556,27 @@
       </c>
       <c r="C106" s="91">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>5493068.2794107674</v>
+        <v>5490508.9694574997</v>
       </c>
       <c r="D106" s="109">
         <f>(D100+D103)/2</f>
-        <v>3.4767726671818924</v>
+        <v>3.4751527821850647</v>
       </c>
       <c r="E106" s="123">
         <f>(E100+E103)/2</f>
-        <v>4.0903207849198733</v>
+        <v>4.0884150378647819</v>
       </c>
       <c r="F106" s="109">
         <f>(F100+F103)/2</f>
-        <v>4.0903207849198733</v>
+        <v>4.0884150378647819</v>
       </c>
       <c r="H106" s="123">
         <f>(H100+H103)/2</f>
-        <v>4.0903207849198733</v>
+        <v>4.0884150378647819</v>
       </c>
       <c r="I106" s="123">
         <f>(I100+I103)/2</f>
-        <v>5.5862801897749241</v>
+        <v>5.5836774508748777</v>
       </c>
       <c r="K106" s="24"/>
     </row>

--- a/financial_models/opportunities/9992.HK_Valuation.xlsx
+++ b/financial_models/opportunities/9992.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{28AF3275-BF49-4EC4-B767-C97D98B77AA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{14DC73CB-BF36-4C56-88B9-2261EF13CFFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4163,11 +4163,11 @@
       </c>
       <c r="C45" s="152">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>3.2771054501987392E-3</v>
+        <v>3.2239246008595153E-3</v>
       </c>
       <c r="D45" s="152">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>1.0106635028971651E-3</v>
+        <v>9.9426246109456866E-4</v>
       </c>
       <c r="E45" s="152" t="str">
         <f>IF(E44="","",E44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -4901,7 +4901,7 @@
         <v>1</v>
       </c>
       <c r="G3" s="132">
-        <v>92.1</v>
+        <v>93.65</v>
       </c>
       <c r="H3" s="134" t="s">
         <v>269</v>
@@ -4942,7 +4942,7 @@
       </c>
       <c r="G5" s="275">
         <f>G3*G4/1000000</f>
-        <v>123685.06411499999</v>
+        <v>125766.62599750001</v>
       </c>
       <c r="H5" s="275"/>
       <c r="I5" s="38"/>
@@ -4991,7 +4991,7 @@
         <v>5</v>
       </c>
       <c r="G7" s="133">
-        <v>1.0699092944463093</v>
+        <v>1.0702606836954753</v>
       </c>
       <c r="H7" s="71" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -5174,7 +5174,7 @@
       </c>
       <c r="G24" s="268">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>138.71804415138556</v>
+        <v>141.00629351201883</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5206,7 +5206,7 @@
       </c>
       <c r="G26" s="178">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>3.2771054501987392E-3</v>
+        <v>3.2239246008595153E-3</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5236,20 +5236,20 @@
       </c>
       <c r="C29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>4.8072723354937645</v>
+        <v>4.8060591356211111</v>
       </c>
       <c r="D29" s="129">
         <f>G29*(1+G20)</f>
-        <v>8.8826589205348903</v>
+        <v>8.8804172250537263</v>
       </c>
       <c r="E29" s="87"/>
       <c r="F29" s="131">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>5.655614512345605</v>
+        <v>5.6541872183777784</v>
       </c>
       <c r="G29" s="274">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>7.7240512352477317</v>
+        <v>7.7221019348293272</v>
       </c>
       <c r="H29" s="274"/>
     </row>
@@ -12172,17 +12172,17 @@
       </c>
       <c r="C87" s="261">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>7.2088674989439841E-3</v>
+        <v>7.0918820365614664E-3</v>
       </c>
       <c r="D87" s="209"/>
       <c r="E87" s="262">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>7.2088674989439841E-3</v>
+        <v>7.0918820365614664E-3</v>
       </c>
       <c r="F87" s="209"/>
       <c r="H87" s="262">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>7.2088674989439841E-3</v>
+        <v>7.0918820365614664E-3</v>
       </c>
       <c r="I87" s="209"/>
       <c r="K87" s="24"/>
@@ -12223,17 +12223,17 @@
       </c>
       <c r="C89" s="261">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>3.2771054501987392E-3</v>
+        <v>3.2239246008595153E-3</v>
       </c>
       <c r="D89" s="209"/>
       <c r="E89" s="261">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>3.2771054501987392E-3</v>
+        <v>3.2239246008595153E-3</v>
       </c>
       <c r="F89" s="209"/>
       <c r="H89" s="261">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>3.2771054501987392E-3</v>
+        <v>3.2239246008595153E-3</v>
       </c>
       <c r="I89" s="209"/>
       <c r="K89" s="24"/>
@@ -12293,14 +12293,14 @@
       </c>
       <c r="F93" s="144">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>11.375460899135636</v>
+        <v>11.372590101154772</v>
       </c>
       <c r="H93" s="87" t="s">
         <v>209</v>
       </c>
       <c r="I93" s="144">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>11.375460899135636</v>
+        <v>11.372590101154772</v>
       </c>
       <c r="K93" s="24"/>
     </row>
@@ -12321,14 +12321,14 @@
       </c>
       <c r="F94" s="144">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
-        <v>5.0710650446491865</v>
+        <v>5.0713862173691835</v>
       </c>
       <c r="H94" s="87" t="s">
         <v>210</v>
       </c>
       <c r="I94" s="144">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>5.0710650446491865</v>
+        <v>5.0713862173691835</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -12371,21 +12371,21 @@
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>7595168.7683951203</v>
+        <v>7593251.993737991</v>
       </c>
       <c r="D97" s="213"/>
       <c r="E97" s="123">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>5.655614512345605</v>
+        <v>5.6541872183777784</v>
       </c>
       <c r="F97" s="213"/>
       <c r="H97" s="123">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>5.655614512345605</v>
+        <v>5.6541872183777784</v>
       </c>
       <c r="I97" s="123">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>7.7240512352477317</v>
+        <v>7.7221019348293272</v>
       </c>
       <c r="K97" s="24"/>
     </row>
@@ -12434,27 +12434,27 @@
       </c>
       <c r="C100" s="91">
         <f>C97+C98+$C$99</f>
-        <v>7595168.7683951203</v>
+        <v>7593251.993737991</v>
       </c>
       <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>4.8072723354937645</v>
+        <v>4.8060591356211111</v>
       </c>
       <c r="E100" s="109">
         <f>MAX(E97+H98+E99,0)</f>
-        <v>5.655614512345605</v>
+        <v>5.6541872183777784</v>
       </c>
       <c r="F100" s="109">
         <f>(E100+H100)/2</f>
-        <v>5.655614512345605</v>
+        <v>5.6541872183777784</v>
       </c>
       <c r="H100" s="109">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>5.655614512345605</v>
+        <v>5.6541872183777784</v>
       </c>
       <c r="I100" s="109">
         <f>MAX(I97+H98+H99,0)</f>
-        <v>7.7240512352477317</v>
+        <v>7.7221019348293272</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -12495,27 +12495,27 @@
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>3385849.1705198791</v>
+        <v>3386063.6111507961</v>
       </c>
       <c r="D103" s="109">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>2.1430332288763654</v>
+        <v>2.1431689565401011</v>
       </c>
       <c r="E103" s="123">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>2.5212155633839592</v>
+        <v>2.5213752429883542</v>
       </c>
       <c r="F103" s="109">
         <f>(E103+H103)/2</f>
-        <v>2.5212155633839592</v>
+        <v>2.5213752429883542</v>
       </c>
       <c r="H103" s="123">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>2.5212155633839592</v>
+        <v>2.5213752429883542</v>
       </c>
       <c r="I103" s="109">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>3.443303666502024</v>
+        <v>3.443521745977363</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -12556,27 +12556,27 @@
       </c>
       <c r="C106" s="91">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>5490508.9694574997</v>
+        <v>5489657.8024443928</v>
       </c>
       <c r="D106" s="109">
         <f>(D100+D103)/2</f>
-        <v>3.4751527821850647</v>
+        <v>3.4746140460806059</v>
       </c>
       <c r="E106" s="123">
         <f>(E100+E103)/2</f>
-        <v>4.0884150378647819</v>
+        <v>4.0877812306830661</v>
       </c>
       <c r="F106" s="109">
         <f>(F100+F103)/2</f>
-        <v>4.0884150378647819</v>
+        <v>4.0877812306830661</v>
       </c>
       <c r="H106" s="123">
         <f>(H100+H103)/2</f>
-        <v>4.0884150378647819</v>
+        <v>4.0877812306830661</v>
       </c>
       <c r="I106" s="123">
         <f>(I100+I103)/2</f>
-        <v>5.5836774508748777</v>
+        <v>5.5828118404033447</v>
       </c>
       <c r="K106" s="24"/>
     </row>

--- a/financial_models/opportunities/9992.HK_Valuation.xlsx
+++ b/financial_models/opportunities/9992.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{14DC73CB-BF36-4C56-88B9-2261EF13CFFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{75D3C09D-6E96-414E-B5F3-EBE1F5733139}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4163,11 +4163,11 @@
       </c>
       <c r="C45" s="152">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>3.2239246008595153E-3</v>
+        <v>3.237451317951656E-3</v>
       </c>
       <c r="D45" s="152">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>9.9426246109456866E-4</v>
+        <v>9.9843411790781294E-4</v>
       </c>
       <c r="E45" s="152" t="str">
         <f>IF(E44="","",E44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -4901,7 +4901,7 @@
         <v>1</v>
       </c>
       <c r="G3" s="132">
-        <v>93.65</v>
+        <v>93.25</v>
       </c>
       <c r="H3" s="134" t="s">
         <v>269</v>
@@ -4942,7 +4942,7 @@
       </c>
       <c r="G5" s="275">
         <f>G3*G4/1000000</f>
-        <v>125766.62599750001</v>
+        <v>125229.4487375</v>
       </c>
       <c r="H5" s="275"/>
       <c r="I5" s="38"/>
@@ -4991,7 +4991,7 @@
         <v>5</v>
       </c>
       <c r="G7" s="133">
-        <v>1.0702606836954753</v>
+        <v>1.0701607068379719</v>
       </c>
       <c r="H7" s="71" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -5037,10 +5037,10 @@
         <v>254</v>
       </c>
       <c r="C12" s="174">
-        <v>7.0000000000000007E-2</v>
+        <v>7.4999999999999997E-2</v>
       </c>
       <c r="D12" s="172">
-        <v>7.5250000000000011E-2</v>
+        <v>8.0625000000000002E-2</v>
       </c>
       <c r="F12" s="110"/>
     </row>
@@ -5087,7 +5087,7 @@
         <v>255</v>
       </c>
       <c r="C17" s="175">
-        <v>8.0500000000000002E-2</v>
+        <v>8.6249999999999993E-2</v>
       </c>
       <c r="D17" s="176"/>
     </row>
@@ -5174,7 +5174,7 @@
       </c>
       <c r="G24" s="268">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>141.00629351201883</v>
+        <v>140.41714110377345</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5206,7 +5206,7 @@
       </c>
       <c r="G26" s="178">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>3.2239246008595153E-3</v>
+        <v>3.237451317951656E-3</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5236,20 +5236,20 @@
       </c>
       <c r="C29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>4.8060591356211111</v>
+        <v>4.3891678454339669</v>
       </c>
       <c r="D29" s="129">
         <f>G29*(1+G20)</f>
-        <v>8.8804172250537263</v>
+        <v>7.8977131906575107</v>
       </c>
       <c r="E29" s="87"/>
       <c r="F29" s="131">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>5.6541872183777784</v>
+        <v>5.163726876981138</v>
       </c>
       <c r="G29" s="274">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>7.7221019348293272</v>
+        <v>6.8675766875282704</v>
       </c>
       <c r="H29" s="274"/>
     </row>
@@ -12172,17 +12172,17 @@
       </c>
       <c r="C87" s="261">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>7.0918820365614664E-3</v>
+        <v>7.121637658617213E-3</v>
       </c>
       <c r="D87" s="209"/>
       <c r="E87" s="262">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>7.0918820365614664E-3</v>
+        <v>7.121637658617213E-3</v>
       </c>
       <c r="F87" s="209"/>
       <c r="H87" s="262">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>7.0918820365614664E-3</v>
+        <v>7.121637658617213E-3</v>
       </c>
       <c r="I87" s="209"/>
       <c r="K87" s="24"/>
@@ -12223,17 +12223,17 @@
       </c>
       <c r="C89" s="261">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>3.2239246008595153E-3</v>
+        <v>3.237451317951656E-3</v>
       </c>
       <c r="D89" s="209"/>
       <c r="E89" s="261">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>3.2239246008595153E-3</v>
+        <v>3.237451317951656E-3</v>
       </c>
       <c r="F89" s="209"/>
       <c r="H89" s="261">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>3.2239246008595153E-3</v>
+        <v>3.237451317951656E-3</v>
       </c>
       <c r="I89" s="209"/>
       <c r="K89" s="24"/>
@@ -12282,7 +12282,7 @@
       </c>
       <c r="C93" s="136">
         <f>IF(C92="CN",Dashboard!C17,IF(C92="US",Dashboard!C12,IF(C92="HK",Dashboard!D12,Dashboard!D17)))</f>
-        <v>8.0500000000000002E-2</v>
+        <v>8.6249999999999993E-2</v>
       </c>
       <c r="D93" s="239">
         <f>Inputs!C86</f>
@@ -12293,14 +12293,14 @@
       </c>
       <c r="F93" s="144">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>11.372590101154772</v>
+        <v>10.386099168302938</v>
       </c>
       <c r="H93" s="87" t="s">
         <v>209</v>
       </c>
       <c r="I93" s="144">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>11.372590101154772</v>
+        <v>10.386099168302938</v>
       </c>
       <c r="K93" s="24"/>
     </row>
@@ -12321,14 +12321,14 @@
       </c>
       <c r="F94" s="144">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
-        <v>5.0713862173691835</v>
+        <v>4.6311077480631129</v>
       </c>
       <c r="H94" s="87" t="s">
         <v>210</v>
       </c>
       <c r="I94" s="144">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>5.0713862173691835</v>
+        <v>4.6311077480631129</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -12371,21 +12371,21 @@
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>7593251.993737991</v>
+        <v>6934591.6379127121</v>
       </c>
       <c r="D97" s="213"/>
       <c r="E97" s="123">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>5.6541872183777784</v>
+        <v>5.163726876981138</v>
       </c>
       <c r="F97" s="213"/>
       <c r="H97" s="123">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>5.6541872183777784</v>
+        <v>5.163726876981138</v>
       </c>
       <c r="I97" s="123">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>7.7221019348293272</v>
+        <v>6.8675766875282704</v>
       </c>
       <c r="K97" s="24"/>
     </row>
@@ -12434,27 +12434,27 @@
       </c>
       <c r="C100" s="91">
         <f>C97+C98+$C$99</f>
-        <v>7593251.993737991</v>
+        <v>6934591.6379127121</v>
       </c>
       <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>4.8060591356211111</v>
+        <v>4.3891678454339669</v>
       </c>
       <c r="E100" s="109">
         <f>MAX(E97+H98+E99,0)</f>
-        <v>5.6541872183777784</v>
+        <v>5.163726876981138</v>
       </c>
       <c r="F100" s="109">
         <f>(E100+H100)/2</f>
-        <v>5.6541872183777784</v>
+        <v>5.163726876981138</v>
       </c>
       <c r="H100" s="109">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>5.6541872183777784</v>
+        <v>5.163726876981138</v>
       </c>
       <c r="I100" s="109">
         <f>MAX(I97+H98+H99,0)</f>
-        <v>7.7221019348293272</v>
+        <v>6.8675766875282704</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -12495,27 +12495,27 @@
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>3386063.6111507961</v>
+        <v>3092098.4426955665</v>
       </c>
       <c r="D103" s="109">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>2.1431689565401011</v>
+        <v>1.9571071763471386</v>
       </c>
       <c r="E103" s="123">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>2.5213752429883542</v>
+        <v>2.3024790309966336</v>
       </c>
       <c r="F103" s="109">
         <f>(E103+H103)/2</f>
-        <v>2.5213752429883542</v>
+        <v>2.3024790309966336</v>
       </c>
       <c r="H103" s="123">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>2.5213752429883542</v>
+        <v>2.3024790309966336</v>
       </c>
       <c r="I103" s="109">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>3.443521745977363</v>
+        <v>3.0622168239152829</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -12556,27 +12556,27 @@
       </c>
       <c r="C106" s="91">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>5489657.8024443928</v>
+        <v>5013345.0403041393</v>
       </c>
       <c r="D106" s="109">
         <f>(D100+D103)/2</f>
-        <v>3.4746140460806059</v>
+        <v>3.1731375108905526</v>
       </c>
       <c r="E106" s="123">
         <f>(E100+E103)/2</f>
-        <v>4.0877812306830661</v>
+        <v>3.7331029539888858</v>
       </c>
       <c r="F106" s="109">
         <f>(F100+F103)/2</f>
-        <v>4.0877812306830661</v>
+        <v>3.7331029539888858</v>
       </c>
       <c r="H106" s="123">
         <f>(H100+H103)/2</f>
-        <v>4.0877812306830661</v>
+        <v>3.7331029539888858</v>
       </c>
       <c r="I106" s="123">
         <f>(I100+I103)/2</f>
-        <v>5.5828118404033447</v>
+        <v>4.9648967557217762</v>
       </c>
       <c r="K106" s="24"/>
     </row>

--- a/financial_models/opportunities/9992.HK_Valuation.xlsx
+++ b/financial_models/opportunities/9992.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{75D3C09D-6E96-414E-B5F3-EBE1F5733139}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7637FF80-92A3-4594-BD1E-8C4FD0790995}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,6 +26,17 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
     <ext uri="GoogleSheetsCustomDataVersion1">
       <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId9" roundtripDataSignature="AMtx7mi73Cg0ax9bLfpeUuF69nNRn7idDQ=="/>
@@ -4163,11 +4174,11 @@
       </c>
       <c r="C45" s="152">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>3.237451317951656E-3</v>
+        <v>3.1716019649736266E-3</v>
       </c>
       <c r="D45" s="152">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>9.9843411790781294E-4</v>
+        <v>9.7812609341618381E-4</v>
       </c>
       <c r="E45" s="152" t="str">
         <f>IF(E44="","",E44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -4901,7 +4912,7 @@
         <v>1</v>
       </c>
       <c r="G3" s="132">
-        <v>93.25</v>
+        <v>95.1</v>
       </c>
       <c r="H3" s="134" t="s">
         <v>269</v>
@@ -4942,7 +4953,7 @@
       </c>
       <c r="G5" s="275">
         <f>G3*G4/1000000</f>
-        <v>125229.4487375</v>
+        <v>127713.89356499999</v>
       </c>
       <c r="H5" s="275"/>
       <c r="I5" s="38"/>
@@ -4991,7 +5002,7 @@
         <v>5</v>
       </c>
       <c r="G7" s="133">
-        <v>1.0701607068379719</v>
+        <v>1.0691930055618286</v>
       </c>
       <c r="H7" s="71" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -5174,7 +5185,7 @@
       </c>
       <c r="G24" s="268">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>140.41714110377345</v>
+        <v>143.33250626964949</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5206,7 +5217,7 @@
       </c>
       <c r="G26" s="178">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>3.237451317951656E-3</v>
+        <v>3.1716019649736266E-3</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5236,20 +5247,20 @@
       </c>
       <c r="C29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>4.3891678454339669</v>
+        <v>4.3820462206885678</v>
       </c>
       <c r="D29" s="129">
         <f>G29*(1+G20)</f>
-        <v>7.8977131906575107</v>
+        <v>7.8848987912835682</v>
       </c>
       <c r="E29" s="87"/>
       <c r="F29" s="131">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>5.163726876981138</v>
+        <v>5.1553484949277264</v>
       </c>
       <c r="G29" s="274">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>6.8675766875282704</v>
+        <v>6.8564337315509292</v>
       </c>
       <c r="H29" s="274"/>
     </row>
@@ -12172,17 +12183,17 @@
       </c>
       <c r="C87" s="261">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>7.121637658617213E-3</v>
+        <v>6.9767844435700693E-3</v>
       </c>
       <c r="D87" s="209"/>
       <c r="E87" s="262">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>7.121637658617213E-3</v>
+        <v>6.9767844435700693E-3</v>
       </c>
       <c r="F87" s="209"/>
       <c r="H87" s="262">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>7.121637658617213E-3</v>
+        <v>6.9767844435700693E-3</v>
       </c>
       <c r="I87" s="209"/>
       <c r="K87" s="24"/>
@@ -12223,17 +12234,17 @@
       </c>
       <c r="C89" s="261">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>3.237451317951656E-3</v>
+        <v>3.1716019649736266E-3</v>
       </c>
       <c r="D89" s="209"/>
       <c r="E89" s="261">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>3.237451317951656E-3</v>
+        <v>3.1716019649736266E-3</v>
       </c>
       <c r="F89" s="209"/>
       <c r="H89" s="261">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>3.237451317951656E-3</v>
+        <v>3.1716019649736266E-3</v>
       </c>
       <c r="I89" s="209"/>
       <c r="K89" s="24"/>
@@ -12293,14 +12304,14 @@
       </c>
       <c r="F93" s="144">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>10.386099168302938</v>
+        <v>10.369247249340187</v>
       </c>
       <c r="H93" s="87" t="s">
         <v>209</v>
       </c>
       <c r="I93" s="144">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>10.386099168302938</v>
+        <v>10.369247249340187</v>
       </c>
       <c r="K93" s="24"/>
     </row>
@@ -12321,14 +12332,14 @@
       </c>
       <c r="F94" s="144">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
-        <v>4.6311077480631129</v>
+        <v>4.62540174916911</v>
       </c>
       <c r="H94" s="87" t="s">
         <v>210</v>
       </c>
       <c r="I94" s="144">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>4.6311077480631129</v>
+        <v>4.62540174916911</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -12371,21 +12382,21 @@
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>6934591.6379127121</v>
+        <v>6923339.9471259993</v>
       </c>
       <c r="D97" s="213"/>
       <c r="E97" s="123">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>5.163726876981138</v>
+        <v>5.1553484949277264</v>
       </c>
       <c r="F97" s="213"/>
       <c r="H97" s="123">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>5.163726876981138</v>
+        <v>5.1553484949277264</v>
       </c>
       <c r="I97" s="123">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>6.8675766875282704</v>
+        <v>6.8564337315509292</v>
       </c>
       <c r="K97" s="24"/>
     </row>
@@ -12434,27 +12445,27 @@
       </c>
       <c r="C100" s="91">
         <f>C97+C98+$C$99</f>
-        <v>6934591.6379127121</v>
+        <v>6923339.9471259993</v>
       </c>
       <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>4.3891678454339669</v>
+        <v>4.3820462206885678</v>
       </c>
       <c r="E100" s="109">
         <f>MAX(E97+H98+E99,0)</f>
-        <v>5.163726876981138</v>
+        <v>5.1553484949277264</v>
       </c>
       <c r="F100" s="109">
         <f>(E100+H100)/2</f>
-        <v>5.163726876981138</v>
+        <v>5.1553484949277264</v>
       </c>
       <c r="H100" s="109">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>5.163726876981138</v>
+        <v>5.1553484949277264</v>
       </c>
       <c r="I100" s="109">
         <f>MAX(I97+H98+H99,0)</f>
-        <v>6.8675766875282704</v>
+        <v>6.8564337315509292</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -12495,27 +12506,27 @@
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>3092098.4426955665</v>
+        <v>3088288.6608347264</v>
       </c>
       <c r="D103" s="109">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>1.9571071763471386</v>
+        <v>1.9546958199306628</v>
       </c>
       <c r="E103" s="123">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>2.3024790309966336</v>
+        <v>2.2996421410948975</v>
       </c>
       <c r="F103" s="109">
         <f>(E103+H103)/2</f>
-        <v>2.3024790309966336</v>
+        <v>2.2996421410948975</v>
       </c>
       <c r="H103" s="123">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>2.3024790309966336</v>
+        <v>2.2996421410948975</v>
       </c>
       <c r="I103" s="109">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>3.0622168239152829</v>
+        <v>3.0584438592681602</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -12556,27 +12567,27 @@
       </c>
       <c r="C106" s="91">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>5013345.0403041393</v>
+        <v>5005814.3039803626</v>
       </c>
       <c r="D106" s="109">
         <f>(D100+D103)/2</f>
-        <v>3.1731375108905526</v>
+        <v>3.1683710203096154</v>
       </c>
       <c r="E106" s="123">
         <f>(E100+E103)/2</f>
-        <v>3.7331029539888858</v>
+        <v>3.7274953180113117</v>
       </c>
       <c r="F106" s="109">
         <f>(F100+F103)/2</f>
-        <v>3.7331029539888858</v>
+        <v>3.7274953180113117</v>
       </c>
       <c r="H106" s="123">
         <f>(H100+H103)/2</f>
-        <v>3.7331029539888858</v>
+        <v>3.7274953180113117</v>
       </c>
       <c r="I106" s="123">
         <f>(I100+I103)/2</f>
-        <v>4.9648967557217762</v>
+        <v>4.9574387954095442</v>
       </c>
       <c r="K106" s="24"/>
     </row>

--- a/financial_models/opportunities/9992.HK_Valuation.xlsx
+++ b/financial_models/opportunities/9992.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7637FF80-92A3-4594-BD1E-8C4FD0790995}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{03BBEE6D-9E43-437C-B94B-5FD3BC200969}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="270">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="393" uniqueCount="273">
   <si>
     <t>Company Info:</t>
   </si>
@@ -105,9 +105,6 @@
     <t>Interest-bearing Debt</t>
   </si>
   <si>
-    <t>Total Liabilities / Total Assets</t>
-  </si>
-  <si>
     <t>Current Ratio</t>
   </si>
   <si>
@@ -126,15 +123,9 @@
     <t>Discount</t>
   </si>
   <si>
-    <t>Orderly Liquidation Values =</t>
-  </si>
-  <si>
     <t>Book Current Ratio</t>
   </si>
   <si>
-    <t>Orderly Liquidation Value per Shares =</t>
-  </si>
-  <si>
     <t>Book Quick Ratio</t>
   </si>
   <si>
@@ -449,10 +440,6 @@
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
-    <t>Solvency Analysis</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
     <t>Pre-tax Profit =</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
@@ -549,10 +536,6 @@
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
-    <t>Profibility Qaulity Analysis</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
     <t>2. Total Debt + PS + Options</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
@@ -917,10 +900,6 @@
     <t>Profit</t>
   </si>
   <si>
-    <t>Cost Analysis</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
     <t>Dividend Yield</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
@@ -964,6 +943,42 @@
   </si>
   <si>
     <t>ΔWC/Δsales</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Minority interests</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Profibility Analysis</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Asset Turnover</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Leverage Analysis</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sales/Op_Assets</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Common_Equity / Total Assets</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>ROE</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>EBIT ROE</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pre-tax ROE</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
@@ -1540,7 +1555,7 @@
     <xf numFmtId="176" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="287">
+  <cellXfs count="291">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -2180,6 +2195,16 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="187" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="14" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3596,7 +3621,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48ED7348-D356-493F-B1FA-0B9102624322}">
   <dimension ref="A2:M98"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C75" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A75" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E91" sqref="E91:F98"/>
     </sheetView>
   </sheetViews>
@@ -3610,28 +3635,28 @@
     <row r="2" spans="1:5" ht="15" x14ac:dyDescent="0.4">
       <c r="A2" s="5"/>
       <c r="B2" s="6" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B4" s="141" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="C4" s="188" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B5" s="141" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="C5" s="191" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B6" s="141" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="C6" s="189">
         <v>45630</v>
@@ -3647,24 +3672,24 @@
     </row>
     <row r="8" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B8" s="140" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="C8" s="191" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="E8" s="267"/>
     </row>
     <row r="9" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B9" s="140" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="C9" s="192" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B10" s="140" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="C10" s="193">
         <v>1342943150</v>
@@ -3672,10 +3697,10 @@
     </row>
     <row r="11" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B11" s="140" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="C11" s="192" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
@@ -3696,7 +3721,7 @@
     </row>
     <row r="14" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B14" s="218" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="C14" s="219">
         <v>45473</v>
@@ -3704,15 +3729,15 @@
     </row>
     <row r="15" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B15" s="218" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="C15" s="176" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B16" s="222" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C16" s="223">
         <v>0.25</v>
@@ -3721,61 +3746,61 @@
     </row>
     <row r="17" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B17" s="240" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="C17" s="242" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="D17" s="24"/>
     </row>
     <row r="18" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B18" s="240" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="C18" s="242" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="D18" s="24"/>
     </row>
     <row r="19" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B19" s="240" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="C19" s="242" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="D19" s="24"/>
     </row>
     <row r="20" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B20" s="241" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="C20" s="242" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="D20" s="24"/>
     </row>
     <row r="21" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B21" s="224" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="C21" s="242" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="D21" s="24"/>
     </row>
     <row r="22" spans="2:13" ht="78.75" x14ac:dyDescent="0.4">
       <c r="B22" s="226" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="C22" s="243" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="D22" s="24"/>
     </row>
     <row r="24" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B24" s="115" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="C24" s="48">
         <f>C12</f>
@@ -3844,7 +3869,7 @@
     </row>
     <row r="26" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B26" s="97" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C26" s="150">
         <v>2436931</v>
@@ -3864,7 +3889,7 @@
     </row>
     <row r="27" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B27" s="97" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C27" s="150">
         <f>2004706+707300</f>
@@ -3886,7 +3911,7 @@
     </row>
     <row r="28" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B28" s="97" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C28" s="150"/>
       <c r="D28" s="150"/>
@@ -3902,7 +3927,7 @@
     </row>
     <row r="29" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B29" s="97" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="C29" s="150">
         <v>32337</v>
@@ -3922,7 +3947,7 @@
     </row>
     <row r="30" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B30" s="99" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="C30" s="150">
         <v>6427</v>
@@ -3942,7 +3967,7 @@
     </row>
     <row r="31" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B31" s="97" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C31" s="150"/>
       <c r="D31" s="150"/>
@@ -3958,7 +3983,7 @@
     </row>
     <row r="32" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B32" s="97" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C32" s="150"/>
       <c r="D32" s="150"/>
@@ -3974,7 +3999,7 @@
     </row>
     <row r="33" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B33" s="97" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C33" s="150"/>
       <c r="D33" s="150"/>
@@ -4006,7 +4031,7 @@
     </row>
     <row r="35" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B35" s="94" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C35" s="217"/>
       <c r="D35" s="150"/>
@@ -4022,7 +4047,7 @@
     </row>
     <row r="36" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B36" s="94" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="C36" s="217"/>
       <c r="D36" s="150"/>
@@ -4054,7 +4079,7 @@
     </row>
     <row r="38" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B38" s="94" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="C38" s="217"/>
       <c r="D38" s="150"/>
@@ -4102,7 +4127,7 @@
     </row>
     <row r="41" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B41" s="94" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="C41" s="217"/>
       <c r="D41" s="150"/>
@@ -4118,7 +4143,7 @@
     </row>
     <row r="42" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B42" s="94" t="s">
-        <v>138</v>
+        <v>259</v>
       </c>
       <c r="C42" s="217"/>
       <c r="D42" s="150"/>
@@ -4134,7 +4159,7 @@
     </row>
     <row r="43" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B43" s="94" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="C43" s="217"/>
       <c r="D43" s="150"/>
@@ -4150,7 +4175,7 @@
     </row>
     <row r="44" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B44" s="74" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="C44" s="250">
         <v>0.28210000000000002</v>
@@ -4170,15 +4195,15 @@
     </row>
     <row r="45" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B45" s="74" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="C45" s="152">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>3.1716019649736266E-3</v>
+        <v>3.2191905726406001E-3</v>
       </c>
       <c r="D45" s="152">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>9.7812609341618381E-4</v>
+        <v>9.928024807505573E-4</v>
       </c>
       <c r="E45" s="152" t="str">
         <f>IF(E44="","",E44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -4219,21 +4244,21 @@
     </row>
     <row r="47" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B47" s="10" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="C47" s="194" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D47" s="194" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="E47" s="111" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="48" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B48" s="3" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C48" s="59"/>
       <c r="D48" s="60">
@@ -4243,7 +4268,7 @@
     </row>
     <row r="49" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B49" s="1" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="C49" s="59"/>
       <c r="D49" s="60">
@@ -4253,7 +4278,7 @@
     </row>
     <row r="50" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B50" s="3" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C50" s="59"/>
       <c r="D50" s="60">
@@ -4264,7 +4289,7 @@
     </row>
     <row r="51" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B51" s="3" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C51" s="59"/>
       <c r="D51" s="60">
@@ -4274,7 +4299,7 @@
     </row>
     <row r="52" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B52" s="3" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C52" s="59"/>
       <c r="D52" s="60">
@@ -4284,7 +4309,7 @@
     </row>
     <row r="53" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B53" s="1" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="C53" s="59"/>
       <c r="D53" s="60">
@@ -4295,7 +4320,7 @@
     </row>
     <row r="54" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B54" s="3" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="C54" s="59"/>
       <c r="D54" s="60">
@@ -4305,7 +4330,7 @@
     </row>
     <row r="55" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B55" s="3" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C55" s="59"/>
       <c r="D55" s="60">
@@ -4316,7 +4341,7 @@
     </row>
     <row r="56" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B56" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C56" s="59"/>
       <c r="D56" s="60">
@@ -4324,24 +4349,24 @@
         <v>0.6</v>
       </c>
       <c r="E56" s="221" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="57" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B57" s="3" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C57" s="59"/>
       <c r="D57" s="60">
         <v>0.6</v>
       </c>
       <c r="E57" s="221" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="58" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B58" s="3" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C58" s="59"/>
       <c r="D58" s="60">
@@ -4352,7 +4377,7 @@
     </row>
     <row r="59" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B59" s="35" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C59" s="120"/>
       <c r="D59" s="195">
@@ -4363,7 +4388,7 @@
     </row>
     <row r="60" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B60" s="3" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C60" s="59"/>
       <c r="D60" s="60">
@@ -4374,7 +4399,7 @@
     </row>
     <row r="61" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B61" s="3" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C61" s="59"/>
       <c r="D61" s="60">
@@ -4385,7 +4410,7 @@
     </row>
     <row r="62" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B62" s="3" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C62" s="59"/>
       <c r="D62" s="60">
@@ -4396,7 +4421,7 @@
     </row>
     <row r="63" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B63" s="1" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="C63" s="59"/>
       <c r="D63" s="60">
@@ -4407,7 +4432,7 @@
     </row>
     <row r="64" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B64" s="3" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="C64" s="59"/>
       <c r="D64" s="60">
@@ -4417,31 +4442,31 @@
     </row>
     <row r="65" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B65" s="3" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C65" s="59"/>
       <c r="D65" s="60">
         <v>0.1</v>
       </c>
       <c r="E65" s="221" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="66" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B66" s="3" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C66" s="59"/>
       <c r="D66" s="60">
         <v>0.2</v>
       </c>
       <c r="E66" s="221" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="67" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B67" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C67" s="59"/>
       <c r="D67" s="60">
@@ -4449,12 +4474,12 @@
         <v>0.1</v>
       </c>
       <c r="E67" s="221" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="68" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B68" s="3" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="C68" s="59"/>
       <c r="D68" s="60">
@@ -4465,7 +4490,7 @@
     </row>
     <row r="69" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B69" s="3" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C69" s="59"/>
       <c r="D69" s="60">
@@ -4476,7 +4501,7 @@
     </row>
     <row r="70" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B70" s="3" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C70" s="59"/>
       <c r="D70" s="60">
@@ -4486,7 +4511,7 @@
     </row>
     <row r="71" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B71" s="3" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C71" s="59"/>
       <c r="D71" s="60">
@@ -4497,7 +4522,7 @@
     </row>
     <row r="72" spans="2:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B72" s="246" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C72" s="247"/>
       <c r="D72" s="248">
@@ -4507,25 +4532,25 @@
     </row>
     <row r="73" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B73" s="3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C73" s="59"/>
     </row>
     <row r="74" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B74" s="3" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C74" s="59"/>
     </row>
     <row r="75" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B75" s="3" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C75" s="59"/>
     </row>
     <row r="76" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B76" s="86" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C76" s="120"/>
     </row>
@@ -4537,55 +4562,55 @@
     </row>
     <row r="78" spans="2:5" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B78" s="3" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C78" s="59"/>
     </row>
     <row r="79" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B79" s="3" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C79" s="59"/>
     </row>
     <row r="80" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B80" s="3" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C80" s="59"/>
     </row>
     <row r="81" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B81" s="86" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C81" s="120"/>
     </row>
     <row r="82" spans="2:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B82" s="80" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C82" s="83"/>
     </row>
     <row r="83" spans="2:8" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B83" s="73" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="C83" s="59"/>
     </row>
     <row r="84" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B84" s="20" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C84" s="59"/>
     </row>
     <row r="85" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B85" s="20" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C85" s="59"/>
     </row>
     <row r="86" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B86" s="10" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="C86" s="197">
         <v>5</v>
@@ -4593,10 +4618,10 @@
     </row>
     <row r="87" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B87" s="10" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="C87" s="236" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="D87" s="269">
         <v>0.02</v>
@@ -4604,18 +4629,18 @@
     </row>
     <row r="89" spans="2:8" ht="13.5" x14ac:dyDescent="0.35">
       <c r="B89" s="106" t="s">
-        <v>127</v>
-      </c>
-      <c r="C89" s="271">
+        <v>123</v>
+      </c>
+      <c r="C89" s="275">
         <f>C24</f>
         <v>45291</v>
       </c>
-      <c r="D89" s="271"/>
+      <c r="D89" s="275"/>
       <c r="E89" s="89" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="F89" s="89" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="H89" s="31"/>
     </row>
@@ -4624,20 +4649,20 @@
         <f>"(Numbers in "&amp;Data!C4&amp;Dashboard!G6&amp;")"</f>
         <v>(Numbers in 1000CNY)</v>
       </c>
-      <c r="C90" s="272" t="s">
-        <v>100</v>
-      </c>
-      <c r="D90" s="272"/>
+      <c r="C90" s="276" t="s">
+        <v>97</v>
+      </c>
+      <c r="D90" s="276"/>
       <c r="E90" s="235" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="F90" s="255" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="91" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B91" s="3" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="C91" s="77">
         <f>C25</f>
@@ -4655,7 +4680,7 @@
     </row>
     <row r="92" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B92" s="104" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C92" s="77">
         <f>C26</f>
@@ -4676,7 +4701,7 @@
     </row>
     <row r="93" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B93" s="104" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="C93" s="77">
         <f>C27+C28</f>
@@ -4697,7 +4722,7 @@
     </row>
     <row r="94" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B94" s="104" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="C94" s="77">
         <f>C29</f>
@@ -4715,7 +4740,7 @@
     </row>
     <row r="95" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B95" s="28" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="C95" s="77">
         <f>ABS(MAX(C33,0)-C32)</f>
@@ -4736,7 +4761,7 @@
     </row>
     <row r="96" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B96" s="28" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C96" s="77">
         <f>MAX(C31,0)</f>
@@ -4754,7 +4779,7 @@
     </row>
     <row r="97" spans="2:7" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B97" s="73" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="C97" s="77">
         <f>MAX(C30,0)/(1-C16)</f>
@@ -4772,7 +4797,7 @@
     </row>
     <row r="98" spans="2:7" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B98" s="86" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="C98" s="237">
         <f>C44</f>
@@ -4900,62 +4925,62 @@
     </row>
     <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B3" s="3" t="s">
-        <v>194</v>
-      </c>
-      <c r="C3" s="277" t="str">
+        <v>189</v>
+      </c>
+      <c r="C3" s="281" t="str">
         <f>Inputs!C4</f>
         <v>9992.HK</v>
       </c>
-      <c r="D3" s="278"/>
+      <c r="D3" s="282"/>
       <c r="E3" s="87"/>
       <c r="F3" s="3" t="s">
         <v>1</v>
       </c>
       <c r="G3" s="132">
-        <v>95.1</v>
+        <v>93.7</v>
       </c>
       <c r="H3" s="134" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B4" s="35" t="s">
-        <v>195</v>
-      </c>
-      <c r="C4" s="279" t="str">
+        <v>190</v>
+      </c>
+      <c r="C4" s="283" t="str">
         <f>Inputs!C5</f>
         <v>POP MART</v>
       </c>
-      <c r="D4" s="280"/>
+      <c r="D4" s="284"/>
       <c r="E4" s="87"/>
       <c r="F4" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="G4" s="283">
+      <c r="G4" s="287">
         <f>Inputs!C10</f>
         <v>1342943150</v>
       </c>
-      <c r="H4" s="283"/>
+      <c r="H4" s="287"/>
       <c r="I4" s="39"/>
     </row>
     <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B5" s="3" t="s">
-        <v>163</v>
-      </c>
-      <c r="C5" s="281">
+        <v>158</v>
+      </c>
+      <c r="C5" s="285">
         <f>Inputs!C6</f>
         <v>45630</v>
       </c>
-      <c r="D5" s="282"/>
+      <c r="D5" s="286"/>
       <c r="E5" s="34"/>
       <c r="F5" s="35" t="s">
-        <v>99</v>
-      </c>
-      <c r="G5" s="275">
+        <v>96</v>
+      </c>
+      <c r="G5" s="279">
         <f>G3*G4/1000000</f>
-        <v>127713.89356499999</v>
-      </c>
-      <c r="H5" s="275"/>
+        <v>125833.773155</v>
+      </c>
+      <c r="H5" s="279"/>
       <c r="I5" s="38"/>
       <c r="J5" s="28"/>
     </row>
@@ -4978,16 +5003,16 @@
       <c r="F6" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G6" s="276" t="str">
+      <c r="G6" s="280" t="str">
         <f>Inputs!C11</f>
         <v>CNY</v>
       </c>
-      <c r="H6" s="276"/>
+      <c r="H6" s="280"/>
       <c r="I6" s="38"/>
     </row>
     <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B7" s="86" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="C7" s="187" t="str">
         <f>Inputs!C8</f>
@@ -5002,7 +5027,7 @@
         <v>5</v>
       </c>
       <c r="G7" s="133">
-        <v>1.0691930055618286</v>
+        <v>1.0692596832911174</v>
       </c>
       <c r="H7" s="71" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -5012,40 +5037,40 @@
     <row r="8" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="9" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B9" s="139" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="F9" s="143" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B10" s="1" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="C10" s="172">
         <v>4.2000000000000003E-2</v>
       </c>
       <c r="F10" s="110" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B11" s="122" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="C11" s="173">
         <v>5.2299999999999999E-2</v>
       </c>
       <c r="D11" s="137" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="F11" s="110" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B12" s="87" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="C12" s="174">
         <v>7.4999999999999997E-2</v>
@@ -5058,29 +5083,29 @@
     <row r="13" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="14" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B14" s="1" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="C14" s="172">
         <v>1.8100000000000002E-2</v>
       </c>
       <c r="F14" s="110" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B15" s="1" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="C15" s="172">
         <v>6.5000000000000002E-2</v>
       </c>
       <c r="F15" s="110" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B16" s="122" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="C16" s="173">
         <v>0.16</v>
@@ -5090,12 +5115,12 @@
         <v>CN</v>
       </c>
       <c r="F16" s="110" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B17" s="87" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="C17" s="175">
         <v>8.6249999999999993E-2</v>
@@ -5105,29 +5130,29 @@
     <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="19" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B19" s="142" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="C19" s="135" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="D19" s="87"/>
       <c r="E19" s="87"/>
       <c r="F19" s="142" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="G19" s="87"/>
       <c r="H19" s="87"/>
     </row>
     <row r="20" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B20" s="137" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="C20" s="171">
         <f>Fin_Analysis!I75</f>
         <v>0.38675293231140062</v>
       </c>
       <c r="F20" s="87" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="G20" s="172">
         <v>0.15</v>
@@ -5135,7 +5160,7 @@
     </row>
     <row r="21" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B21" s="137" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="C21" s="171">
         <f>Fin_Analysis!I77</f>
@@ -5146,26 +5171,26 @@
     </row>
     <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B22" s="137" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="C22" s="171">
         <f>Fin_Analysis!I78</f>
         <v>1.3599953361915031E-3</v>
       </c>
       <c r="F22" s="142" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B23" s="137" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="C23" s="171">
         <f>Fin_Analysis!I80</f>
         <v>0</v>
       </c>
       <c r="F23" s="140" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="G23" s="177" t="e">
         <f>G3/(Data!C36*Data!C4/Common_Shares*Exchange_Rate)</f>
@@ -5174,30 +5199,30 @@
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B24" s="137" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="C24" s="171">
         <f>Fin_Analysis!I81</f>
         <v>5.1320409039705113E-3</v>
       </c>
       <c r="F24" s="140" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="G24" s="268">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>143.33250626964949</v>
+        <v>141.21365239850533</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B25" s="137" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="C25" s="171">
         <f>Fin_Analysis!I82</f>
         <v>0</v>
       </c>
       <c r="F25" s="140" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="G25" s="171">
         <f>Fin_Analysis!I88</f>
@@ -5206,18 +5231,18 @@
     </row>
     <row r="26" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B26" s="138" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="C26" s="171">
         <f>Fin_Analysis!I83</f>
         <v>0.17634634406823974</v>
       </c>
       <c r="F26" s="141" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="G26" s="178">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>3.1716019649736266E-3</v>
+        <v>3.2191905726406001E-3</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5227,62 +5252,62 @@
         <v>6</v>
       </c>
       <c r="C28" s="89" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="D28" s="43" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="E28" s="58"/>
       <c r="F28" s="53" t="s">
-        <v>237</v>
-      </c>
-      <c r="G28" s="273" t="s">
-        <v>258</v>
-      </c>
-      <c r="H28" s="273"/>
+        <v>232</v>
+      </c>
+      <c r="G28" s="277" t="s">
+        <v>252</v>
+      </c>
+      <c r="H28" s="277"/>
     </row>
     <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B29" s="87" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="C29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>4.3820462206885678</v>
+        <v>4.3845978681094389</v>
       </c>
       <c r="D29" s="129">
         <f>G29*(1+G20)</f>
-        <v>7.8848987912835682</v>
+        <v>7.8894901352930455</v>
       </c>
       <c r="E29" s="87"/>
       <c r="F29" s="131">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>5.1553484949277264</v>
-      </c>
-      <c r="G29" s="274">
+        <v>5.1583504330699279</v>
+      </c>
+      <c r="G29" s="278">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>6.8564337315509292</v>
-      </c>
-      <c r="H29" s="274"/>
+        <v>6.860426204602649</v>
+      </c>
+      <c r="H29" s="278"/>
     </row>
     <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="5"/>
       <c r="B31" s="6" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="C31"/>
     </row>
     <row r="32" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32"/>
       <c r="B32" s="196" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="C32" s="224"/>
     </row>
     <row r="33" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33"/>
       <c r="B33" s="20" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="C33" s="245" t="str">
         <f>Inputs!C17</f>
@@ -5292,25 +5317,25 @@
     <row r="34" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34"/>
       <c r="B34" s="19" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="C34" s="225" t="e">
-        <f>IF(AND(OR(Fin_Analysis!I26&lt;0.8,Fin_Analysis!I46&lt;0.6),Data!C55&lt;0.8),"Strongly disagree",
-IF(AND(OR(Fin_Analysis!I26&lt;1,Fin_Analysis!I46&lt;0.8),Data!C55&lt;1),"unclear", IF(AND(OR(Fin_Analysis!I26&lt;1.4,Fin_Analysis!I46&lt;1.2),Data!C55&lt;1.4),"agree","Strongly agree")))</f>
+        <f>IF(AND(OR(Fin_Analysis!I26&lt;0.8,Fin_Analysis!I46&lt;0.6),Data!C56&lt;0.8),"Strongly disagree",
+IF(AND(OR(Fin_Analysis!I26&lt;1,Fin_Analysis!I46&lt;0.8),Data!C56&lt;1),"unclear", IF(AND(OR(Fin_Analysis!I26&lt;1.4,Fin_Analysis!I46&lt;1.2),Data!C56&lt;1.4),"agree","Strongly agree")))</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35"/>
       <c r="B35" s="196" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="C35" s="224"/>
     </row>
     <row r="36" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36"/>
       <c r="B36" s="20" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="C36" s="245" t="str">
         <f>Inputs!C18</f>
@@ -5320,7 +5345,7 @@
     <row r="37" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37"/>
       <c r="B37" s="20" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="C37" s="245" t="str">
         <f>Inputs!C19</f>
@@ -5330,14 +5355,14 @@
     <row r="38" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38"/>
       <c r="B38" s="196" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="C38" s="224"/>
     </row>
     <row r="39" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39"/>
       <c r="B39" s="19" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="C39" s="245" t="str">
         <f>Inputs!C20</f>
@@ -5347,7 +5372,7 @@
     <row r="40" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40"/>
       <c r="B40" s="1" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="C40" s="245" t="str">
         <f>Inputs!C21</f>
@@ -5362,14 +5387,14 @@
     <row r="42" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A42" s="5"/>
       <c r="B42" s="6" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="C42"/>
     </row>
     <row r="43" spans="1:3" ht="65.650000000000006" x14ac:dyDescent="0.4">
       <c r="A43"/>
       <c r="B43" s="226" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="C43" s="244" t="str">
         <f>Inputs!C22</f>
@@ -6322,12 +6347,12 @@
   <sheetPr codeName="Sheet2">
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:N931"/>
+  <dimension ref="A1:N932"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
       <selection activeCell="A4" sqref="A4"/>
-      <selection pane="topRight" activeCell="D52" sqref="D52"/>
+      <selection pane="topRight" activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -6354,16 +6379,16 @@
       <c r="C2" s="18"/>
       <c r="D2" s="17"/>
       <c r="E2" s="148" t="s">
+        <v>194</v>
+      </c>
+      <c r="F2" s="119" t="s">
+        <v>197</v>
+      </c>
+      <c r="G2" s="148" t="s">
+        <v>198</v>
+      </c>
+      <c r="H2" s="147" t="s">
         <v>199</v>
-      </c>
-      <c r="F2" s="119" t="s">
-        <v>202</v>
-      </c>
-      <c r="G2" s="148" t="s">
-        <v>203</v>
-      </c>
-      <c r="H2" s="147" t="s">
-        <v>204</v>
       </c>
       <c r="I2" s="7"/>
       <c r="J2" s="87"/>
@@ -6381,7 +6406,7 @@
         <v>45291</v>
       </c>
       <c r="E3" s="146" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="F3" s="85" t="str">
         <f>H14</f>
@@ -6414,7 +6439,7 @@
         <v>CNY</v>
       </c>
       <c r="E4" s="146" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="F4" s="93" t="e">
         <f>(G3/F3)^(1/H3)-1</f>
@@ -6425,7 +6450,7 @@
     <row r="5" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="16"/>
       <c r="B5" s="115" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="C5" s="48">
         <f>C3</f>
@@ -6577,7 +6602,7 @@
     <row r="8" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="4"/>
       <c r="B8" s="97" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C8" s="199">
         <f>IF(Inputs!C26="","",Inputs!C26)</f>
@@ -6628,7 +6653,7 @@
     <row r="9" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="4"/>
       <c r="B9" s="98" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C9" s="151">
         <f t="shared" ref="C9:M9" si="2">IF(C6="","",(C6-C8))</f>
@@ -6679,7 +6704,7 @@
     <row r="10" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="4"/>
       <c r="B10" s="97" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C10" s="199">
         <f>IF(Inputs!C27="","",Inputs!C27)</f>
@@ -6730,7 +6755,7 @@
     <row r="11" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="4"/>
       <c r="B11" s="97" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C11" s="199" t="str">
         <f>IF(Inputs!C28="","",Inputs!C28)</f>
@@ -6781,7 +6806,7 @@
     <row r="12" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="4"/>
       <c r="B12" s="99" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="C12" s="199">
         <f>IF(Inputs!C30="","",MAX(Inputs!C30,0)/(1-Fin_Analysis!$I$84))</f>
@@ -6832,7 +6857,7 @@
     <row r="13" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="4"/>
       <c r="B13" s="228" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="C13" s="229">
         <f t="shared" ref="C13:M13" si="3">IF(C14="","",C14/C6)</f>
@@ -6883,7 +6908,7 @@
     <row r="14" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="4"/>
       <c r="B14" s="228" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="C14" s="230">
         <f>IF(C6="","",C9-C10-MAX(C11,0)-MAX(C12,0))</f>
@@ -6934,7 +6959,7 @@
     <row r="15" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="4"/>
       <c r="B15" s="231" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="C15" s="232">
         <f>IF(D14="","",IF(ABS(C14+D14)=ABS(C14)+ABS(D14),IF(C14&lt;0,-1,1)*(C14-D14)/D14,"Turn"))</f>
@@ -6985,7 +7010,7 @@
     <row r="16" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="4"/>
       <c r="B16" s="97" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C16" s="199" t="str">
         <f>IF(Inputs!C31="","",Inputs!C31)</f>
@@ -7036,7 +7061,7 @@
     <row r="17" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="4"/>
       <c r="B17" s="97" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="C17" s="199">
         <f>IF(Inputs!C29="","",Inputs!C29)</f>
@@ -7087,7 +7112,7 @@
     <row r="18" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18" s="4"/>
       <c r="B18" s="94" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="C18" s="152" t="str">
         <f t="shared" ref="C18:M18" si="6">IF(OR(C6="",C19=""),"",C19/C6)</f>
@@ -7138,7 +7163,7 @@
     <row r="19" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19" s="4"/>
       <c r="B19" s="97" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C19" s="199" t="str">
         <f>IF(Inputs!C32="","",Inputs!C32)</f>
@@ -7189,7 +7214,7 @@
     <row r="20" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="4"/>
       <c r="B20" s="97" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="C20" s="152">
         <f t="shared" ref="C20:M20" si="7">IF(C6="","",MAX(C21,0)/C6)</f>
@@ -7240,7 +7265,7 @@
     <row r="21" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A21" s="4"/>
       <c r="B21" s="97" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C21" s="199" t="str">
         <f>IF(Inputs!C33="","",Inputs!C33)</f>
@@ -7291,7 +7316,7 @@
     <row r="22" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A22" s="4"/>
       <c r="B22" s="98" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C22" s="161">
         <f>IF(C6="","",C14-MAX(C16,0)-MAX(C17,0)-ABS(MAX(C21,0)-MAX(C19,0)))</f>
@@ -7342,7 +7367,7 @@
     <row r="23" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A23" s="4"/>
       <c r="B23" s="100" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="C23" s="153">
         <f t="shared" ref="C23:M23" si="9">IF(C6="","",C24/C6)</f>
@@ -7393,7 +7418,7 @@
     <row r="24" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A24" s="4"/>
       <c r="B24" s="101" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="C24" s="154">
         <f>IF(C6="","",C22*(1-Fin_Analysis!$I$84))</f>
@@ -7444,7 +7469,7 @@
     <row r="25" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A25" s="4"/>
       <c r="B25" s="234" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="C25" s="233">
         <f>IF(D24="","",IF(ABS(C24+D24)=ABS(C24)+ABS(D24),IF(C24&lt;0,-1,1)*(C24-D24)/D24,"Turn"))</f>
@@ -7495,7 +7520,7 @@
     <row r="26" spans="1:14" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="A26" s="16"/>
       <c r="B26" s="114" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="C26" s="48">
         <f>Fin_Analysis!D9</f>
@@ -7648,7 +7673,7 @@
     <row r="29" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A29" s="4"/>
       <c r="B29" s="94" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C29" s="65">
         <f>Fin_Analysis!C13</f>
@@ -7699,7 +7724,7 @@
     <row r="30" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A30" s="4"/>
       <c r="B30" s="94" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="C30" s="65">
         <f>Fin_Analysis!C18</f>
@@ -7801,7 +7826,7 @@
     <row r="32" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32" s="4"/>
       <c r="B32" s="94" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="C32" s="65">
         <f>Fin_Analysis!I48</f>
@@ -8005,7 +8030,7 @@
     <row r="36" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36" s="4"/>
       <c r="B36" s="94" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="C36" s="65">
         <f>Fin_Analysis!D3</f>
@@ -8056,7 +8081,7 @@
     <row r="37" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37" s="4"/>
       <c r="B37" s="94" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="C37" s="65">
         <f>Fin_Analysis!D4</f>
@@ -8107,7 +8132,7 @@
     <row r="38" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38" s="4"/>
       <c r="B38" s="94" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="C38" s="65">
         <f>Fin_Analysis!C63</f>
@@ -8158,7 +8183,7 @@
     <row r="39" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39" s="4"/>
       <c r="B39" s="94" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="C39" s="65">
         <f>Fin_Analysis!C68</f>
@@ -8209,7 +8234,7 @@
     <row r="40" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40" s="4"/>
       <c r="B40" s="98" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="C40" s="155" t="e">
         <f>IF(C6="","",C14/MAX(C39,0))</f>
@@ -8260,7 +8285,7 @@
     <row r="41" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A41" s="16"/>
       <c r="B41" s="55" t="s">
-        <v>252</v>
+        <v>260</v>
       </c>
       <c r="C41" s="54"/>
       <c r="D41" s="54"/>
@@ -8278,7 +8303,7 @@
     <row r="42" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A42" s="4"/>
       <c r="B42" s="95" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="C42" s="156">
         <f t="shared" ref="C42:M42" si="34">IF(C6="","",C8/C6)</f>
@@ -8329,7 +8354,7 @@
     <row r="43" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A43" s="4"/>
       <c r="B43" s="94" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="C43" s="153">
         <f t="shared" ref="C43:M43" si="35">IF(C6="","",(C10+MAX(C11,0))/C6)</f>
@@ -8380,7 +8405,7 @@
     <row r="44" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A44" s="4"/>
       <c r="B44" s="94" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C44" s="153">
         <f t="shared" ref="C44:M44" si="36">IF(C6="","",MAX(C16,0)/C6)</f>
@@ -8431,7 +8456,7 @@
     <row r="45" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A45" s="4"/>
       <c r="B45" s="94" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="C45" s="153">
         <f t="shared" ref="C45:M45" si="37">IF(C6="","",MAX(C17,0)/C6)</f>
@@ -8482,7 +8507,7 @@
     <row r="46" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A46" s="4"/>
       <c r="B46" s="94" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="C46" s="153">
         <f>IF(C6="","",MAX(C12,0)/C6)</f>
@@ -8533,7 +8558,7 @@
     <row r="47" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A47" s="4"/>
       <c r="B47" s="94" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="C47" s="153">
         <f>IF(C6="","",ABS(MAX(C21,0)-MAX(C19,0))/C6)</f>
@@ -8584,7 +8609,7 @@
     <row r="48" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A48" s="4"/>
       <c r="B48" s="94" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="C48" s="153">
         <f t="shared" ref="C48:M48" si="40">IF(C6="","",C22/C6)</f>
@@ -8635,7 +8660,7 @@
     <row r="49" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A49" s="16"/>
       <c r="B49" s="102" t="s">
-        <v>149</v>
+        <v>261</v>
       </c>
       <c r="C49" s="36"/>
       <c r="D49" s="36"/>
@@ -8652,50 +8677,50 @@
     </row>
     <row r="50" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A50" s="4"/>
-      <c r="B50" s="95" t="s">
-        <v>146</v>
-      </c>
-      <c r="C50" s="156">
-        <f t="shared" ref="C50:M50" si="41">IF(C29="","",C29/C6)</f>
-        <v>0</v>
-      </c>
-      <c r="D50" s="156" t="str">
+      <c r="B50" s="271" t="s">
+        <v>263</v>
+      </c>
+      <c r="C50" s="272" t="e">
+        <f>IF(C6="","",C6/C39)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D50" s="272" t="e">
+        <f t="shared" ref="D50:M50" si="41">IF(D6="","",D6/D39)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E50" s="272" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="E50" s="156" t="str">
+      <c r="F50" s="272" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="F50" s="156" t="str">
+      <c r="G50" s="272" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="G50" s="156" t="str">
+      <c r="H50" s="272" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="H50" s="156" t="str">
+      <c r="I50" s="272" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="I50" s="156" t="str">
+      <c r="J50" s="272" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="J50" s="156" t="str">
+      <c r="K50" s="272" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="K50" s="156" t="str">
+      <c r="L50" s="272" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="L50" s="156" t="str">
-        <f t="shared" si="41"/>
-        <v/>
-      </c>
-      <c r="M50" s="156" t="str">
+      <c r="M50" s="272" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
@@ -8704,10 +8729,10 @@
     <row r="51" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A51" s="4"/>
       <c r="B51" s="94" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="C51" s="153">
-        <f t="shared" ref="C51:M51" si="42">IF(C30="","",C30/C6)</f>
+        <f t="shared" ref="C51:M51" si="42">IF(C29="","",C29/C6)</f>
         <v>0</v>
       </c>
       <c r="D51" s="153" t="str">
@@ -8755,167 +8780,168 @@
     <row r="52" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A52" s="4"/>
       <c r="B52" s="94" t="s">
-        <v>264</v>
-      </c>
-      <c r="C52" s="153" t="e">
+        <v>143</v>
+      </c>
+      <c r="C52" s="153">
+        <f t="shared" ref="C52:M52" si="43">IF(C30="","",C30/C6)</f>
+        <v>0</v>
+      </c>
+      <c r="D52" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="E52" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="F52" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="G52" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="H52" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="I52" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="J52" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="K52" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="L52" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="M52" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="N52" s="87"/>
+    </row>
+    <row r="53" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A53" s="4"/>
+      <c r="B53" s="94" t="s">
+        <v>258</v>
+      </c>
+      <c r="C53" s="153" t="e">
         <f>IF(D6="","",C16/(C6-D6))</f>
         <v>#VALUE!</v>
       </c>
-      <c r="D52" s="153" t="str">
-        <f t="shared" ref="D52:M52" si="43">IF(E6="","",D16/(D6-E6))</f>
-        <v/>
-      </c>
-      <c r="E52" s="153" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="F52" s="153" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="G52" s="153" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="H52" s="153" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="I52" s="153" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="J52" s="153" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="K52" s="153" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="L52" s="153" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="M52" s="153" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="N52" s="87"/>
-    </row>
-    <row r="53" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A53" s="16"/>
-      <c r="B53" s="102" t="s">
-        <v>124</v>
-      </c>
-      <c r="C53" s="36"/>
-      <c r="D53" s="36"/>
-      <c r="E53" s="36"/>
-      <c r="F53" s="36"/>
-      <c r="G53" s="36"/>
-      <c r="H53" s="36"/>
-      <c r="I53" s="36"/>
-      <c r="J53" s="36"/>
-      <c r="K53" s="36"/>
-      <c r="L53" s="36"/>
-      <c r="M53" s="36"/>
+      <c r="D53" s="153" t="str">
+        <f t="shared" ref="D53:M53" si="44">IF(E6="","",D16/(D6-E6))</f>
+        <v/>
+      </c>
+      <c r="E53" s="153" t="str">
+        <f t="shared" si="44"/>
+        <v/>
+      </c>
+      <c r="F53" s="153" t="str">
+        <f t="shared" si="44"/>
+        <v/>
+      </c>
+      <c r="G53" s="153" t="str">
+        <f t="shared" si="44"/>
+        <v/>
+      </c>
+      <c r="H53" s="153" t="str">
+        <f t="shared" si="44"/>
+        <v/>
+      </c>
+      <c r="I53" s="153" t="str">
+        <f t="shared" si="44"/>
+        <v/>
+      </c>
+      <c r="J53" s="153" t="str">
+        <f t="shared" si="44"/>
+        <v/>
+      </c>
+      <c r="K53" s="153" t="str">
+        <f t="shared" si="44"/>
+        <v/>
+      </c>
+      <c r="L53" s="153" t="str">
+        <f t="shared" si="44"/>
+        <v/>
+      </c>
+      <c r="M53" s="153" t="str">
+        <f t="shared" si="44"/>
+        <v/>
+      </c>
+      <c r="N53" s="87"/>
     </row>
     <row r="54" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A54" s="4"/>
-      <c r="B54" s="95" t="s">
-        <v>19</v>
-      </c>
-      <c r="C54" s="156" t="e">
-        <f>IF(C36="","",(C27-C36)/C27)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D54" s="156" t="str">
-        <f t="shared" ref="D54:M54" si="44">IF(D36="","",(D27-D36)/D27)</f>
-        <v/>
-      </c>
-      <c r="E54" s="156" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="F54" s="156" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="G54" s="156" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="H54" s="156" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="I54" s="156" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="J54" s="156" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="K54" s="156" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="L54" s="156" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="M54" s="156" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
+      <c r="A54" s="16"/>
+      <c r="B54" s="102" t="s">
+        <v>262</v>
+      </c>
+      <c r="C54" s="36"/>
+      <c r="D54" s="36"/>
+      <c r="E54" s="36"/>
+      <c r="F54" s="36"/>
+      <c r="G54" s="36"/>
+      <c r="H54" s="36"/>
+      <c r="I54" s="36"/>
+      <c r="J54" s="36"/>
+      <c r="K54" s="36"/>
+      <c r="L54" s="36"/>
+      <c r="M54" s="36"/>
     </row>
     <row r="55" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A55" s="4"/>
-      <c r="B55" s="94" t="s">
-        <v>120</v>
-      </c>
-      <c r="C55" s="157" t="str">
-        <f t="shared" ref="C55:M55" si="45">IF(OR(C22="",C35=""),"",IF(C35&lt;=0,"-",C22/C35))</f>
-        <v>-</v>
-      </c>
-      <c r="D55" s="157" t="str">
+      <c r="B55" s="95" t="s">
+        <v>264</v>
+      </c>
+      <c r="C55" s="156" t="e">
+        <f>IF(C36="","",(C36-C37)/C27)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D55" s="156" t="str">
+        <f t="shared" ref="D55:M55" si="45">IF(D36="","",(D36-D37)/D27)</f>
+        <v/>
+      </c>
+      <c r="E55" s="156" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="E55" s="157" t="str">
+      <c r="F55" s="156" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="F55" s="157" t="str">
+      <c r="G55" s="156" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="G55" s="157" t="str">
+      <c r="H55" s="156" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="H55" s="157" t="str">
+      <c r="I55" s="156" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="I55" s="157" t="str">
+      <c r="J55" s="156" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="J55" s="157" t="str">
+      <c r="K55" s="156" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="K55" s="157" t="str">
+      <c r="L55" s="156" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="L55" s="157" t="str">
-        <f t="shared" si="45"/>
-        <v/>
-      </c>
-      <c r="M55" s="157" t="str">
+      <c r="M55" s="156" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
@@ -8923,112 +8949,302 @@
     <row r="56" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A56" s="4"/>
       <c r="B56" s="94" t="s">
-        <v>122</v>
-      </c>
-      <c r="C56" s="153">
-        <f t="shared" ref="C56:M56" si="46">IF(C22="","",IF(MAX(C17,0)&lt;=0,"-",C17/C22))</f>
-        <v>2.9102054432070305E-2</v>
-      </c>
-      <c r="D56" s="153">
+        <v>117</v>
+      </c>
+      <c r="C56" s="157" t="str">
+        <f t="shared" ref="C56:M56" si="46">IF(OR(C22="",C35=""),"",IF(C35&lt;=0,"-",C22/C35))</f>
+        <v>-</v>
+      </c>
+      <c r="D56" s="157" t="str">
         <f t="shared" si="46"/>
-        <v>8.4097196033508959E-2</v>
-      </c>
-      <c r="E56" s="153" t="str">
+        <v/>
+      </c>
+      <c r="E56" s="157" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="F56" s="153" t="str">
+      <c r="F56" s="157" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="G56" s="153" t="str">
+      <c r="G56" s="157" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="H56" s="153" t="str">
+      <c r="H56" s="157" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="I56" s="153" t="str">
+      <c r="I56" s="157" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="J56" s="153" t="str">
+      <c r="J56" s="157" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="K56" s="153" t="str">
+      <c r="K56" s="157" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="L56" s="153" t="str">
+      <c r="L56" s="157" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="M56" s="153" t="str">
+      <c r="M56" s="157" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
     </row>
     <row r="57" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A57" s="4"/>
-      <c r="B57" s="98" t="s">
-        <v>20</v>
-      </c>
-      <c r="C57" s="158" t="e">
-        <f t="shared" ref="C57:M57" si="47">IF(C28="","",C28/C31)</f>
+      <c r="B57" s="94" t="s">
+        <v>119</v>
+      </c>
+      <c r="C57" s="153">
+        <f t="shared" ref="C57:M57" si="47">IF(C22="","",IF(MAX(C17,0)&lt;=0,"-",C17/C22))</f>
+        <v>2.9102054432070305E-2</v>
+      </c>
+      <c r="D57" s="153">
+        <f t="shared" si="47"/>
+        <v>8.4097196033508959E-2</v>
+      </c>
+      <c r="E57" s="153" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="F57" s="153" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="G57" s="153" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="H57" s="153" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="I57" s="153" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="J57" s="153" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="K57" s="153" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="L57" s="153" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="M57" s="153" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+    </row>
+    <row r="58" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A58" s="4"/>
+      <c r="B58" s="98" t="s">
+        <v>19</v>
+      </c>
+      <c r="C58" s="158" t="e">
+        <f t="shared" ref="C58:M58" si="48">IF(C28="","",C28/C31)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D57" s="158" t="str">
-        <f t="shared" si="47"/>
-        <v/>
-      </c>
-      <c r="E57" s="158" t="str">
-        <f t="shared" si="47"/>
-        <v/>
-      </c>
-      <c r="F57" s="158" t="str">
-        <f t="shared" si="47"/>
-        <v/>
-      </c>
-      <c r="G57" s="158" t="str">
-        <f t="shared" si="47"/>
-        <v/>
-      </c>
-      <c r="H57" s="158" t="str">
-        <f t="shared" si="47"/>
-        <v/>
-      </c>
-      <c r="I57" s="158" t="str">
-        <f t="shared" si="47"/>
-        <v/>
-      </c>
-      <c r="J57" s="158" t="str">
-        <f t="shared" si="47"/>
-        <v/>
-      </c>
-      <c r="K57" s="158" t="str">
-        <f t="shared" si="47"/>
-        <v/>
-      </c>
-      <c r="L57" s="158" t="str">
-        <f t="shared" si="47"/>
-        <v/>
-      </c>
-      <c r="M57" s="158" t="str">
-        <f t="shared" si="47"/>
-        <v/>
-      </c>
-    </row>
-    <row r="58" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+      <c r="D58" s="158" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="E58" s="158" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="F58" s="158" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="G58" s="158" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="H58" s="158" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="I58" s="158" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="J58" s="158" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="K58" s="158" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="L58" s="158" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="M58" s="158" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+    </row>
     <row r="59" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A59" s="4"/>
+      <c r="A59" s="16"/>
+      <c r="B59" s="102" t="s">
+        <v>265</v>
+      </c>
+      <c r="C59" s="273" t="str">
+        <f>IFERROR(IF(C13*C50*(1/C55)=C60,"","Error"),"")</f>
+        <v/>
+      </c>
+      <c r="D59" s="273" t="str">
+        <f t="shared" ref="D59:M59" si="49">IFERROR(IF(D13*D50*(1/D55)=D60,"","Error"),"")</f>
+        <v/>
+      </c>
+      <c r="E59" s="273" t="str">
+        <f t="shared" si="49"/>
+        <v/>
+      </c>
+      <c r="F59" s="273" t="str">
+        <f t="shared" si="49"/>
+        <v/>
+      </c>
+      <c r="G59" s="273" t="str">
+        <f t="shared" si="49"/>
+        <v/>
+      </c>
+      <c r="H59" s="273" t="str">
+        <f t="shared" si="49"/>
+        <v/>
+      </c>
+      <c r="I59" s="273" t="str">
+        <f t="shared" si="49"/>
+        <v/>
+      </c>
+      <c r="J59" s="273" t="str">
+        <f t="shared" si="49"/>
+        <v/>
+      </c>
+      <c r="K59" s="273" t="str">
+        <f t="shared" si="49"/>
+        <v/>
+      </c>
+      <c r="L59" s="273" t="str">
+        <f t="shared" si="49"/>
+        <v/>
+      </c>
+      <c r="M59" s="273" t="str">
+        <f t="shared" si="49"/>
+        <v/>
+      </c>
     </row>
     <row r="60" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A60" s="4"/>
+      <c r="B60" s="271" t="s">
+        <v>266</v>
+      </c>
+      <c r="C60" s="274" t="e">
+        <f>IF(C14="","",C14/(C36-C37))</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D60" s="274" t="e">
+        <f t="shared" ref="D60:M60" si="50">IF(D14="","",D14/(D36-D37))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E60" s="274" t="str">
+        <f t="shared" si="50"/>
+        <v/>
+      </c>
+      <c r="F60" s="274" t="str">
+        <f t="shared" si="50"/>
+        <v/>
+      </c>
+      <c r="G60" s="274" t="str">
+        <f t="shared" si="50"/>
+        <v/>
+      </c>
+      <c r="H60" s="274" t="str">
+        <f t="shared" si="50"/>
+        <v/>
+      </c>
+      <c r="I60" s="274" t="str">
+        <f t="shared" si="50"/>
+        <v/>
+      </c>
+      <c r="J60" s="274" t="str">
+        <f t="shared" si="50"/>
+        <v/>
+      </c>
+      <c r="K60" s="274" t="str">
+        <f t="shared" si="50"/>
+        <v/>
+      </c>
+      <c r="L60" s="274" t="str">
+        <f t="shared" si="50"/>
+        <v/>
+      </c>
+      <c r="M60" s="274" t="str">
+        <f t="shared" si="50"/>
+        <v/>
+      </c>
     </row>
     <row r="61" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A61" s="4"/>
+      <c r="B61" s="271" t="s">
+        <v>267</v>
+      </c>
+      <c r="C61" s="274" t="e">
+        <f>IF(C22="","",C22/(C36-C37))</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D61" s="274" t="e">
+        <f t="shared" ref="D61:M61" si="51">IF(D22="","",D22/(D36-D37))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E61" s="274" t="str">
+        <f t="shared" si="51"/>
+        <v/>
+      </c>
+      <c r="F61" s="274" t="str">
+        <f t="shared" si="51"/>
+        <v/>
+      </c>
+      <c r="G61" s="274" t="str">
+        <f t="shared" si="51"/>
+        <v/>
+      </c>
+      <c r="H61" s="274" t="str">
+        <f t="shared" si="51"/>
+        <v/>
+      </c>
+      <c r="I61" s="274" t="str">
+        <f t="shared" si="51"/>
+        <v/>
+      </c>
+      <c r="J61" s="274" t="str">
+        <f t="shared" si="51"/>
+        <v/>
+      </c>
+      <c r="K61" s="274" t="str">
+        <f t="shared" si="51"/>
+        <v/>
+      </c>
+      <c r="L61" s="274" t="str">
+        <f t="shared" si="51"/>
+        <v/>
+      </c>
+      <c r="M61" s="274" t="str">
+        <f t="shared" si="51"/>
+        <v/>
+      </c>
     </row>
     <row r="62" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A62" s="4"/>
@@ -9591,7 +9807,9 @@
     <row r="248" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A248" s="4"/>
     </row>
-    <row r="249" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="249" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A249" s="4"/>
+    </row>
     <row r="250" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="251" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="252" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -10274,6 +10492,7 @@
     <row r="929" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="930" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="931" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="932" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
   </sheetData>
   <phoneticPr fontId="20" type="noConversion"/>
   <conditionalFormatting sqref="C6:M23 C27:M40">
@@ -10313,8 +10532,8 @@
   </sheetPr>
   <dimension ref="A2:K108"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A85" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I100" sqref="I100"/>
+    <sheetView showGridLines="0" topLeftCell="A78" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E82" sqref="E82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -10332,7 +10551,7 @@
     <row r="2" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="2"/>
       <c r="B2" s="45" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C2" s="45"/>
       <c r="D2" s="64"/>
@@ -10347,7 +10566,7 @@
     </row>
     <row r="3" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B3" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C3" s="87"/>
       <c r="D3" s="116">
@@ -10361,7 +10580,7 @@
       <c r="F3" s="87"/>
       <c r="G3" s="87"/>
       <c r="H3" s="47" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I3" s="204">
         <f>Inputs!C83</f>
@@ -10371,7 +10590,7 @@
     </row>
     <row r="4" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B4" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C4" s="87"/>
       <c r="D4" s="65">
@@ -10389,10 +10608,10 @@
       <c r="C5" s="87"/>
       <c r="D5" s="87"/>
       <c r="E5" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="H5" s="1" t="s">
         <v>25</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>27</v>
       </c>
       <c r="I5" s="63" t="e">
         <f>C28/I28</f>
@@ -10401,12 +10620,13 @@
       <c r="K5" s="24"/>
     </row>
     <row r="6" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B6" s="20" t="s">
-        <v>26</v>
+      <c r="B6" s="20" t="str">
+        <f>"Adj. Net Asset in "&amp;Dashboard!G6</f>
+        <v>Adj. Net Asset in CNY</v>
       </c>
       <c r="C6" s="87"/>
       <c r="D6" s="69">
-        <f>(E49-I49-E53)*Exchange_Rate</f>
+        <f>(E49-I49-E53)</f>
         <v>0</v>
       </c>
       <c r="E6" s="56" t="e">
@@ -10416,7 +10636,7 @@
       <c r="F6" s="87"/>
       <c r="G6" s="87"/>
       <c r="H6" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="I6" s="63" t="e">
         <f>(C24+C25)/I28</f>
@@ -10426,8 +10646,9 @@
       <c r="K6" s="24"/>
     </row>
     <row r="7" spans="1:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="B7" s="19" t="s">
-        <v>28</v>
+      <c r="B7" s="19" t="str">
+        <f>"Adj. Net Asset per Shares in "&amp;Dashboard!H3</f>
+        <v>Adj. Net Asset per Shares in HKD</v>
       </c>
       <c r="C7" s="87"/>
       <c r="D7" s="66">
@@ -10439,7 +10660,7 @@
         <v>HKD</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="I7" s="63" t="e">
         <f>C24/I28</f>
@@ -10457,7 +10678,7 @@
     <row r="9" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="2"/>
       <c r="B9" s="46" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C9" s="86"/>
       <c r="D9" s="203">
@@ -10476,32 +10697,32 @@
     </row>
     <row r="10" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B10" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="C10" s="74" t="s">
+        <v>30</v>
+      </c>
+      <c r="D10" s="74" t="s">
+        <v>191</v>
+      </c>
+      <c r="E10" s="74" t="s">
+        <v>31</v>
+      </c>
+      <c r="F10" s="111" t="s">
         <v>32</v>
-      </c>
-      <c r="C10" s="74" t="s">
-        <v>33</v>
-      </c>
-      <c r="D10" s="74" t="s">
-        <v>196</v>
-      </c>
-      <c r="E10" s="74" t="s">
-        <v>34</v>
-      </c>
-      <c r="F10" s="111" t="s">
-        <v>35</v>
       </c>
       <c r="G10" s="87"/>
       <c r="H10" s="22" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="I10" s="74" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="K10" s="24"/>
     </row>
     <row r="11" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B11" s="3" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C11" s="40">
         <f>Inputs!C48</f>
@@ -10518,7 +10739,7 @@
       <c r="F11" s="112"/>
       <c r="G11" s="87"/>
       <c r="H11" s="3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="I11" s="40">
         <f>Inputs!C73</f>
@@ -10529,7 +10750,7 @@
     </row>
     <row r="12" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B12" s="1" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="C12" s="40">
         <f>Inputs!C49</f>
@@ -10546,7 +10767,7 @@
       <c r="F12" s="112"/>
       <c r="G12" s="87"/>
       <c r="H12" s="3" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="I12" s="40">
         <f>Inputs!C74</f>
@@ -10557,7 +10778,7 @@
     </row>
     <row r="13" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B13" s="3" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C13" s="40">
         <f>Inputs!C50</f>
@@ -10574,7 +10795,7 @@
       <c r="F13" s="112"/>
       <c r="G13" s="87"/>
       <c r="H13" s="3" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="I13" s="40">
         <f>Inputs!C75</f>
@@ -10585,7 +10806,7 @@
     </row>
     <row r="14" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B14" s="3" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C14" s="40">
         <f>Inputs!C51</f>
@@ -10602,7 +10823,7 @@
       <c r="F14" s="112"/>
       <c r="G14" s="87"/>
       <c r="H14" s="86" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="I14" s="205">
         <f>Inputs!C76</f>
@@ -10613,7 +10834,7 @@
     </row>
     <row r="15" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B15" s="3" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C15" s="40">
         <f>Inputs!C52</f>
@@ -10630,7 +10851,7 @@
       <c r="F15" s="112"/>
       <c r="G15" s="87"/>
       <c r="H15" s="1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="I15" s="84">
         <f>SUM(I11:I14)</f>
@@ -10640,7 +10861,7 @@
     </row>
     <row r="16" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B16" s="1" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="C16" s="40">
         <f>Inputs!C53</f>
@@ -10662,7 +10883,7 @@
     </row>
     <row r="17" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B17" s="3" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="C17" s="40">
         <f>Inputs!C54</f>
@@ -10684,7 +10905,7 @@
     </row>
     <row r="18" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B18" s="3" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C18" s="40">
         <f>Inputs!C55</f>
@@ -10705,7 +10926,7 @@
     </row>
     <row r="19" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B19" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C19" s="40">
         <f>Inputs!C56</f>
@@ -10730,7 +10951,7 @@
     </row>
     <row r="20" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B20" s="3" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C20" s="40">
         <f>Inputs!C57</f>
@@ -10757,7 +10978,7 @@
     </row>
     <row r="21" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B21" s="3" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C21" s="40">
         <f>Inputs!C58</f>
@@ -10778,7 +10999,7 @@
     </row>
     <row r="22" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B22" s="3" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C22" s="40">
         <f>Inputs!C59</f>
@@ -10795,7 +11016,7 @@
       <c r="F22" s="112"/>
       <c r="G22" s="87"/>
       <c r="H22" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="I22" s="52">
         <f>I28-SUM(I11:I14)</f>
@@ -10807,13 +11028,13 @@
       <c r="D23" s="87"/>
       <c r="E23" s="87"/>
       <c r="F23" s="111" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="G23" s="87"/>
     </row>
     <row r="24" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B24" s="23" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C24" s="61">
         <f>SUM(C11:C14)</f>
@@ -10835,7 +11056,7 @@
     </row>
     <row r="25" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B25" s="23" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C25" s="61">
         <f>SUM(C15:C17)</f>
@@ -10855,7 +11076,7 @@
       </c>
       <c r="G25" s="87"/>
       <c r="H25" s="23" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="I25" s="63" t="e">
         <f>E28/I28</f>
@@ -10864,7 +11085,7 @@
     </row>
     <row r="26" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B26" s="23" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C26" s="61">
         <f>C18+C19+C20</f>
@@ -10884,7 +11105,7 @@
       </c>
       <c r="G26" s="87"/>
       <c r="H26" s="23" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="I26" s="63" t="e">
         <f>E24/($I$28-I22)</f>
@@ -10897,7 +11118,7 @@
     </row>
     <row r="27" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B27" s="23" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C27" s="77">
         <f>C21+C22</f>
@@ -10917,7 +11138,7 @@
       </c>
       <c r="G27" s="87"/>
       <c r="H27" s="23" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="I27" s="63" t="e">
         <f>(E25+E24)/$I$28</f>
@@ -10963,7 +11184,7 @@
       <c r="D29" s="87"/>
       <c r="E29" s="87"/>
       <c r="F29" s="112" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G29" s="87"/>
       <c r="H29" s="87"/>
@@ -10972,7 +11193,7 @@
     </row>
     <row r="30" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B30" s="3" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C30" s="40">
         <f>Inputs!C60</f>
@@ -10988,7 +11209,7 @@
       <c r="F30" s="112"/>
       <c r="G30" s="87"/>
       <c r="H30" s="3" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="I30" s="40">
         <f>Inputs!C78</f>
@@ -10998,7 +11219,7 @@
     </row>
     <row r="31" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B31" s="3" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C31" s="40">
         <f>Inputs!C61</f>
@@ -11015,7 +11236,7 @@
       <c r="F31" s="112"/>
       <c r="G31" s="87"/>
       <c r="H31" s="3" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="I31" s="40">
         <f>Inputs!C79</f>
@@ -11025,7 +11246,7 @@
     </row>
     <row r="32" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B32" s="3" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C32" s="40">
         <f>Inputs!C62</f>
@@ -11042,7 +11263,7 @@
       <c r="F32" s="112"/>
       <c r="G32" s="87"/>
       <c r="H32" s="3" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="I32" s="40">
         <f>Inputs!C80</f>
@@ -11052,7 +11273,7 @@
     </row>
     <row r="33" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B33" s="1" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="C33" s="40">
         <f>Inputs!C63</f>
@@ -11072,7 +11293,7 @@
         <v>1</v>
       </c>
       <c r="H33" s="86" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="I33" s="205">
         <f>Inputs!C81</f>
@@ -11082,7 +11303,7 @@
     </row>
     <row r="34" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B34" s="3" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C34" s="40">
         <f>Inputs!C64</f>
@@ -11099,7 +11320,7 @@
       <c r="F34" s="112"/>
       <c r="G34" s="87"/>
       <c r="H34" s="1" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="I34" s="84">
         <f>SUM(I30:I33)</f>
@@ -11109,7 +11330,7 @@
     </row>
     <row r="35" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B35" s="3" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C35" s="40">
         <f>Inputs!C65</f>
@@ -11135,7 +11356,7 @@
     </row>
     <row r="36" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B36" s="3" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C36" s="40">
         <f>Inputs!C66</f>
@@ -11162,7 +11383,7 @@
     </row>
     <row r="37" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B37" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C37" s="40">
         <f>Inputs!C67</f>
@@ -11189,7 +11410,7 @@
     </row>
     <row r="38" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B38" s="3" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="C38" s="40">
         <f>Inputs!C68</f>
@@ -11210,7 +11431,7 @@
     </row>
     <row r="39" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B39" s="3" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C39" s="40">
         <f>Inputs!C69</f>
@@ -11231,7 +11452,7 @@
     </row>
     <row r="40" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B40" s="3" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C40" s="40">
         <f>Inputs!C70</f>
@@ -11252,7 +11473,7 @@
     </row>
     <row r="41" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B41" s="3" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C41" s="40">
         <f>Inputs!C71</f>
@@ -11273,7 +11494,7 @@
     </row>
     <row r="42" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B42" s="3" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C42" s="40">
         <f>Inputs!C72</f>
@@ -11290,7 +11511,7 @@
       <c r="F42" s="112"/>
       <c r="G42" s="87"/>
       <c r="H42" s="3" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="I42" s="52">
         <f>I48-SUM(I30:I33)</f>
@@ -11308,7 +11529,7 @@
     </row>
     <row r="44" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B44" s="23" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C44" s="61">
         <f>SUM(C30:C31)</f>
@@ -11327,7 +11548,7 @@
     </row>
     <row r="45" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B45" s="23" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C45" s="61">
         <f>SUM(C32:C35)</f>
@@ -11346,7 +11567,7 @@
     </row>
     <row r="46" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B46" s="23" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C46" s="61">
         <f>C36+C37+C38+C39</f>
@@ -11363,7 +11584,7 @@
       <c r="F46" s="87"/>
       <c r="G46" s="87"/>
       <c r="H46" s="23" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="I46" s="63" t="e">
         <f>(E44+E24)/E64</f>
@@ -11376,7 +11597,7 @@
     </row>
     <row r="47" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B47" s="23" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C47" s="61">
         <f>C40+C41+C42</f>
@@ -11393,7 +11614,7 @@
       <c r="F47" s="87"/>
       <c r="G47" s="87"/>
       <c r="H47" s="23" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="I47" s="63" t="e">
         <f>(E44+E45+E24+E25)/$I$49</f>
@@ -11406,7 +11627,7 @@
     </row>
     <row r="48" spans="2:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B48" s="80" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C48" s="81">
         <f>SUM(C30:C42)</f>
@@ -11423,7 +11644,7 @@
       <c r="F48" s="87"/>
       <c r="G48" s="87"/>
       <c r="H48" s="80" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="I48" s="207">
         <f>Inputs!C82</f>
@@ -11450,7 +11671,7 @@
       <c r="F49" s="87"/>
       <c r="G49" s="87"/>
       <c r="H49" s="3" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="I49" s="52">
         <f>I28+I48</f>
@@ -11466,14 +11687,14 @@
     </row>
     <row r="51" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B51" s="10" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C51" s="31"/>
       <c r="D51" s="18"/>
     </row>
     <row r="52" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B52" s="44" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C52" s="87"/>
       <c r="D52" s="74" t="str">
@@ -11490,7 +11711,7 @@
     </row>
     <row r="53" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B53" s="3" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C53" s="88">
         <f>MAX(D4,0)</f>
@@ -11520,7 +11741,7 @@
     </row>
     <row r="55" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B55" s="25" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="C55" s="3"/>
       <c r="E55" s="125"/>
@@ -11531,14 +11752,14 @@
     </row>
     <row r="56" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B56" s="20" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C56" s="87"/>
-      <c r="D56" s="284">
+      <c r="D56" s="288">
         <f>I15+I34</f>
         <v>0</v>
       </c>
-      <c r="E56" s="282"/>
+      <c r="E56" s="286"/>
       <c r="F56" s="3"/>
       <c r="G56" s="3"/>
       <c r="I56" s="56"/>
@@ -11546,30 +11767,30 @@
     </row>
     <row r="57" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B57" s="20" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C57" s="87"/>
-      <c r="D57" s="283">
+      <c r="D57" s="287">
         <f>Inputs!C84</f>
         <v>0</v>
       </c>
-      <c r="E57" s="282"/>
+      <c r="E57" s="286"/>
       <c r="G57" s="87"/>
       <c r="I57" s="87"/>
       <c r="K57" s="33" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="58" spans="2:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B58" s="20" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C58" s="87"/>
-      <c r="D58" s="283">
+      <c r="D58" s="287">
         <f>Inputs!C85</f>
         <v>0</v>
       </c>
-      <c r="E58" s="282"/>
+      <c r="E58" s="286"/>
       <c r="F58" s="3"/>
       <c r="G58" s="3"/>
       <c r="I58" s="87"/>
@@ -11586,11 +11807,11 @@
     </row>
     <row r="60" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B60" s="25" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="C60" s="3"/>
       <c r="D60" s="75" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="E60" s="87"/>
       <c r="F60" s="9"/>
@@ -11600,7 +11821,7 @@
     </row>
     <row r="61" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B61" s="19" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C61" s="68">
         <f>C14+C15+(C19*G19)+(C20*G20)+C31+C32+(C35*G35)+(C36*G36)+(C37*G37)</f>
@@ -11621,7 +11842,7 @@
     </row>
     <row r="62" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B62" s="35" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="C62" s="117">
         <f>C11+C30</f>
@@ -11642,7 +11863,7 @@
     </row>
     <row r="63" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B63" s="19" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="C63" s="68">
         <f>C61+C62</f>
@@ -11663,7 +11884,7 @@
     </row>
     <row r="64" spans="2:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B64" s="121" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="C64" s="208"/>
       <c r="D64" s="208"/>
@@ -11678,7 +11899,7 @@
     </row>
     <row r="65" spans="1:11" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B65" s="3" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="C65" s="68">
         <f>C63-E64</f>
@@ -11709,11 +11930,11 @@
     </row>
     <row r="67" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B67" s="25" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="C67" s="3"/>
       <c r="D67" s="75" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="E67" s="61"/>
       <c r="F67" s="87"/>
@@ -11723,7 +11944,7 @@
     </row>
     <row r="68" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B68" s="19" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="C68" s="68">
         <f>C49-C63</f>
@@ -11744,7 +11965,7 @@
     </row>
     <row r="69" spans="1:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B69" s="121" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="C69" s="208"/>
       <c r="D69" s="208"/>
@@ -11759,7 +11980,7 @@
     </row>
     <row r="70" spans="1:11" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B70" s="19" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="C70" s="68">
         <f>C68-E69</f>
@@ -11781,21 +12002,21 @@
     <row r="72" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A72" s="5"/>
       <c r="B72" s="106" t="s">
-        <v>127</v>
-      </c>
-      <c r="C72" s="271">
+        <v>123</v>
+      </c>
+      <c r="C72" s="275">
         <f>Data!C5</f>
         <v>45291</v>
       </c>
-      <c r="D72" s="271"/>
-      <c r="E72" s="285" t="s">
-        <v>206</v>
-      </c>
-      <c r="F72" s="285"/>
-      <c r="H72" s="285" t="s">
-        <v>205</v>
-      </c>
-      <c r="I72" s="285"/>
+      <c r="D72" s="275"/>
+      <c r="E72" s="289" t="s">
+        <v>201</v>
+      </c>
+      <c r="F72" s="289"/>
+      <c r="H72" s="289" t="s">
+        <v>200</v>
+      </c>
+      <c r="I72" s="289"/>
       <c r="K72" s="50" t="s">
         <v>7</v>
       </c>
@@ -11805,23 +12026,23 @@
         <f>"(Numbers in "&amp;Data!C4&amp;Dashboard!G6&amp;")"</f>
         <v>(Numbers in 1000CNY)</v>
       </c>
-      <c r="C73" s="272" t="s">
-        <v>100</v>
-      </c>
-      <c r="D73" s="272"/>
-      <c r="E73" s="286" t="s">
-        <v>101</v>
-      </c>
-      <c r="F73" s="272"/>
-      <c r="H73" s="286" t="s">
-        <v>101</v>
-      </c>
-      <c r="I73" s="272"/>
+      <c r="C73" s="276" t="s">
+        <v>97</v>
+      </c>
+      <c r="D73" s="276"/>
+      <c r="E73" s="290" t="s">
+        <v>98</v>
+      </c>
+      <c r="F73" s="276"/>
+      <c r="H73" s="290" t="s">
+        <v>98</v>
+      </c>
+      <c r="I73" s="276"/>
       <c r="K73" s="24"/>
     </row>
     <row r="74" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B74" s="3" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="C74" s="77">
         <f>Data!C6</f>
@@ -11842,7 +12063,7 @@
     </row>
     <row r="75" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B75" s="104" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C75" s="77">
         <f>Data!C8</f>
@@ -11872,7 +12093,7 @@
     </row>
     <row r="76" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B76" s="35" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="C76" s="161">
         <f>C74-C75</f>
@@ -11893,7 +12114,7 @@
     </row>
     <row r="77" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B77" s="104" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="C77" s="77">
         <f>Data!C10+MAX(Data!C11,0)</f>
@@ -11923,7 +12144,7 @@
     </row>
     <row r="78" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B78" s="73" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="C78" s="77">
         <f>MAX(Data!C12,0)</f>
@@ -11953,7 +12174,7 @@
     </row>
     <row r="79" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B79" s="256" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="C79" s="257">
         <f>C76-C77-C78</f>
@@ -11984,7 +12205,7 @@
     </row>
     <row r="80" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B80" s="28" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C80" s="77">
         <f>MAX(Data!C16,0)</f>
@@ -12011,12 +12232,12 @@
         <v>0</v>
       </c>
       <c r="K80" s="181" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
     </row>
     <row r="81" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B81" s="104" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="C81" s="77">
         <f>MAX(Data!C17,0)</f>
@@ -12046,7 +12267,7 @@
     </row>
     <row r="82" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B82" s="28" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="C82" s="77">
         <f>ABS(MAX(Data!C21,0)-MAX(Data!C19,0))</f>
@@ -12076,7 +12297,7 @@
     </row>
     <row r="83" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B83" s="105" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="C83" s="163">
         <f>C79-C81-C82-C80</f>
@@ -12106,7 +12327,7 @@
     </row>
     <row r="84" spans="1:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B84" s="28" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C84" s="211"/>
       <c r="D84" s="159">
@@ -12127,7 +12348,7 @@
     </row>
     <row r="85" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B85" s="263" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="C85" s="257">
         <f>C83*(1-I84)</f>
@@ -12158,7 +12379,7 @@
     </row>
     <row r="86" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B86" s="87" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="C86" s="167">
         <f>C85*Data!C4/Common_Shares</f>
@@ -12179,28 +12400,28 @@
     </row>
     <row r="87" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B87" s="87" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="C87" s="261">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>6.9767844435700693E-3</v>
+        <v>7.0814682788459945E-3</v>
       </c>
       <c r="D87" s="209"/>
       <c r="E87" s="262">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>6.9767844435700693E-3</v>
+        <v>7.0814682788459945E-3</v>
       </c>
       <c r="F87" s="209"/>
       <c r="H87" s="262">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>6.9767844435700693E-3</v>
+        <v>7.0814682788459945E-3</v>
       </c>
       <c r="I87" s="209"/>
       <c r="K87" s="24"/>
     </row>
     <row r="88" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B88" s="86" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="C88" s="169">
         <f>Inputs!C44</f>
@@ -12230,21 +12451,21 @@
     </row>
     <row r="89" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B89" s="87" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="C89" s="261">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>3.1716019649736266E-3</v>
+        <v>3.2191905726406001E-3</v>
       </c>
       <c r="D89" s="209"/>
       <c r="E89" s="261">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>3.1716019649736266E-3</v>
+        <v>3.2191905726406001E-3</v>
       </c>
       <c r="F89" s="209"/>
       <c r="H89" s="261">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>3.1716019649736266E-3</v>
+        <v>3.2191905726406001E-3</v>
       </c>
       <c r="I89" s="209"/>
       <c r="K89" s="24"/>
@@ -12261,29 +12482,29 @@
       </c>
       <c r="C91" s="21"/>
       <c r="K91" s="50" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
     </row>
     <row r="92" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B92" s="10" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="C92" s="198" t="str">
         <f>Inputs!C15</f>
         <v>CN</v>
       </c>
       <c r="D92" s="10" t="s">
-        <v>156</v>
-      </c>
-      <c r="E92" s="285" t="s">
-        <v>206</v>
-      </c>
-      <c r="F92" s="285"/>
+        <v>151</v>
+      </c>
+      <c r="E92" s="289" t="s">
+        <v>201</v>
+      </c>
+      <c r="F92" s="289"/>
       <c r="G92" s="87"/>
-      <c r="H92" s="285" t="s">
-        <v>205</v>
-      </c>
-      <c r="I92" s="285"/>
+      <c r="H92" s="289" t="s">
+        <v>200</v>
+      </c>
+      <c r="I92" s="289"/>
       <c r="K92" s="24"/>
     </row>
     <row r="93" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -12300,24 +12521,24 @@
         <v>5</v>
       </c>
       <c r="E93" s="87" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="F93" s="144">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>10.369247249340187</v>
+        <v>10.375285219198934</v>
       </c>
       <c r="H93" s="87" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="I93" s="144">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>10.369247249340187</v>
+        <v>10.375285219198934</v>
       </c>
       <c r="K93" s="24"/>
     </row>
     <row r="94" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B94" s="1" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="C94" s="182">
         <f>Dashboard!G20</f>
@@ -12328,18 +12549,18 @@
         <v>0.02</v>
       </c>
       <c r="E94" s="87" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="F94" s="144">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
-        <v>4.62540174916911</v>
+        <v>4.6267874766582118</v>
       </c>
       <c r="H94" s="87" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="I94" s="144">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>4.62540174916911</v>
+        <v>4.6267874766582118</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -12358,51 +12579,51 @@
         <v>HKD</v>
       </c>
       <c r="D96" s="124" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="E96" s="183" t="str">
         <f>E72</f>
         <v>Pessimistic Case</v>
       </c>
       <c r="F96" s="227" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="H96" s="183" t="str">
         <f>H72</f>
         <v>Base Case</v>
       </c>
       <c r="I96" s="124" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="K96" s="24"/>
     </row>
     <row r="97" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B97" s="1" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>6923339.9471259993</v>
+        <v>6927371.3793907929</v>
       </c>
       <c r="D97" s="213"/>
       <c r="E97" s="123">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>5.1553484949277264</v>
+        <v>5.1583504330699279</v>
       </c>
       <c r="F97" s="213"/>
       <c r="H97" s="123">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>5.1553484949277264</v>
+        <v>5.1583504330699279</v>
       </c>
       <c r="I97" s="123">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>6.8564337315509292</v>
+        <v>6.860426204602649</v>
       </c>
       <c r="K97" s="24"/>
     </row>
     <row r="98" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B98" s="28" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="C98" s="91">
         <f>-E53*Exchange_Rate</f>
@@ -12420,7 +12641,7 @@
     </row>
     <row r="99" spans="2:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B99" s="105" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="C99" s="108">
         <f>(E65-IF(E70&lt;0,MIN(E65,ABS(E70)),0))*Exchange_Rate</f>
@@ -12441,31 +12662,31 @@
     </row>
     <row r="100" spans="2:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B100" s="1" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="C100" s="91">
         <f>C97+C98+$C$99</f>
-        <v>6923339.9471259993</v>
+        <v>6927371.3793907929</v>
       </c>
       <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>4.3820462206885678</v>
+        <v>4.3845978681094389</v>
       </c>
       <c r="E100" s="109">
         <f>MAX(E97+H98+E99,0)</f>
-        <v>5.1553484949277264</v>
+        <v>5.1583504330699279</v>
       </c>
       <c r="F100" s="109">
         <f>(E100+H100)/2</f>
-        <v>5.1553484949277264</v>
+        <v>5.1583504330699279</v>
       </c>
       <c r="H100" s="109">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>5.1553484949277264</v>
+        <v>5.1583504330699279</v>
       </c>
       <c r="I100" s="109">
         <f>MAX(I97+H98+H99,0)</f>
-        <v>6.8564337315509292</v>
+        <v>6.860426204602649</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -12475,58 +12696,58 @@
     </row>
     <row r="102" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B102" s="10" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="C102" s="127" t="str">
         <f>C96</f>
         <v>HKD</v>
       </c>
       <c r="D102" s="124" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="E102" s="183" t="str">
         <f>E96</f>
         <v>Pessimistic Case</v>
       </c>
       <c r="F102" s="227" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="H102" s="183" t="str">
         <f>H96</f>
         <v>Base Case</v>
       </c>
       <c r="I102" s="124" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="K102" s="24"/>
     </row>
     <row r="103" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B103" s="1" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>3088288.6608347264</v>
+        <v>3089213.8834907622</v>
       </c>
       <c r="D103" s="109">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>1.9546958199306628</v>
+        <v>1.9552814286793507</v>
       </c>
       <c r="E103" s="123">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>2.2996421410948975</v>
+        <v>2.3003310925639422</v>
       </c>
       <c r="F103" s="109">
         <f>(E103+H103)/2</f>
-        <v>2.2996421410948975</v>
+        <v>2.3003310925639422</v>
       </c>
       <c r="H103" s="123">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>2.2996421410948975</v>
+        <v>2.3003310925639422</v>
       </c>
       <c r="I103" s="109">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>3.0584438592681602</v>
+        <v>3.059360140698292</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -12536,58 +12757,58 @@
     </row>
     <row r="105" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B105" s="10" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="C105" s="127" t="str">
         <f>C102</f>
         <v>HKD</v>
       </c>
       <c r="D105" s="124" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="E105" s="184" t="str">
         <f>E96</f>
         <v>Pessimistic Case</v>
       </c>
       <c r="F105" s="227" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="H105" s="184" t="str">
         <f>H96</f>
         <v>Base Case</v>
       </c>
       <c r="I105" s="124" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="K105" s="24"/>
     </row>
     <row r="106" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B106" s="1" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="C106" s="91">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>5005814.3039803626</v>
+        <v>5008292.6314407773</v>
       </c>
       <c r="D106" s="109">
         <f>(D100+D103)/2</f>
-        <v>3.1683710203096154</v>
+        <v>3.1699396483943949</v>
       </c>
       <c r="E106" s="123">
         <f>(E100+E103)/2</f>
-        <v>3.7274953180113117</v>
+        <v>3.7293407628169351</v>
       </c>
       <c r="F106" s="109">
         <f>(F100+F103)/2</f>
-        <v>3.7274953180113117</v>
+        <v>3.7293407628169351</v>
       </c>
       <c r="H106" s="123">
         <f>(H100+H103)/2</f>
-        <v>3.7274953180113117</v>
+        <v>3.7293407628169351</v>
       </c>
       <c r="I106" s="123">
         <f>(I100+I103)/2</f>
-        <v>4.9574387954095442</v>
+        <v>4.9598931726504709</v>
       </c>
       <c r="K106" s="24"/>
     </row>
@@ -12596,7 +12817,7 @@
     </row>
     <row r="108" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B108" s="10" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="C108" s="128" t="str">
         <f>Inputs!C87</f>
@@ -12605,6 +12826,7 @@
       <c r="K108" s="24"/>
     </row>
   </sheetData>
+  <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="11">
     <mergeCell ref="D56:E56"/>
     <mergeCell ref="D57:E57"/>

--- a/financial_models/opportunities/9992.HK_Valuation.xlsx
+++ b/financial_models/opportunities/9992.HK_Valuation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{03BBEE6D-9E43-437C-B94B-5FD3BC200969}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B0A817F7-2F6F-47F5-8C84-ADC2C0D4D6AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Inputs" sheetId="4" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="393" uniqueCount="273">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="393" uniqueCount="271">
   <si>
     <t>Company Info:</t>
   </si>
@@ -524,14 +524,6 @@
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
-    <t>ST AR / Sales</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>ST Inventory / Sales</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
     <t>ST Inventory</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
@@ -598,21 +590,9 @@
     <t>Value Range</t>
   </si>
   <si>
-    <t>COGS</t>
-  </si>
-  <si>
-    <t>Interest</t>
-  </si>
-  <si>
-    <t>ΔWC</t>
-  </si>
-  <si>
     <t>- Non-controling Interests</t>
   </si>
   <si>
-    <t xml:space="preserve">Pre-tax Profit </t>
-  </si>
-  <si>
     <t>Normalized Payout Ratio</t>
   </si>
   <si>
@@ -640,9 +620,6 @@
     <t>https://fred.stlouisfed.org/series/DGS10</t>
   </si>
   <si>
-    <t>Normalized Cost Structure</t>
-  </si>
-  <si>
     <t>Price Indicators</t>
   </si>
   <si>
@@ -664,9 +641,6 @@
     <t>Market Yields</t>
   </si>
   <si>
-    <t>Non-controlling Interests</t>
-  </si>
-  <si>
     <t>Watchlist &amp; Comp_Group:</t>
   </si>
   <si>
@@ -866,14 +840,6 @@
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
-    <t>CAPX-D&amp;A</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>OPEX+R&amp;D</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
     <t>unclear</t>
   </si>
   <si>
@@ -962,10 +928,6 @@
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
-    <t>Sales/Op_Assets</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
     <t>Common_Equity / Total Assets</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
@@ -979,6 +941,42 @@
   </si>
   <si>
     <t>Pre-tax ROE</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sales/Total_Assets</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>ST_AR / Sales</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>ST_Inventory / Sales</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sales Turnover</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>EBIT Margin</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Interest Expense</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Normalized ΔWC</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Normalized CAPX-D&amp;A</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>ROE &amp; Cost Structure</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
@@ -1291,7 +1289,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="23">
+  <borders count="31">
     <border>
       <left/>
       <right/>
@@ -1549,13 +1547,129 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="176" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="291">
+  <cellXfs count="299">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -2205,6 +2319,30 @@
     </xf>
     <xf numFmtId="10" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="4" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="14" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2444,981 +2582,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="zh-CN"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-GB"/>
-              <a:t>Normalized Cost Structure</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="zh-CN"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:pieChart>
-        <c:varyColors val="1"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:dPt>
-            <c:idx val="0"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000001-B454-40E1-9655-EE22B1F916AE}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="1"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000003-B454-40E1-9655-EE22B1F916AE}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="2"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent5"/>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000005-B454-40E1-9655-EE22B1F916AE}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="3"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000007-B454-40E1-9655-EE22B1F916AE}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="4"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent3">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000009-B454-40E1-9655-EE22B1F916AE}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="5"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent5">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000000B-B454-40E1-9655-EE22B1F916AE}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="6"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1">
-                  <a:lumMod val="80000"/>
-                  <a:lumOff val="20000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000000D-B454-40E1-9655-EE22B1F916AE}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:cat>
-            <c:strRef>
-              <c:f>Dashboard!$B$20:$B$26</c:f>
-              <c:strCache>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>COGS</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>OPEX+R&amp;D</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Non-controlling Interests</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>ΔWC</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Interest</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>CAPX-D&amp;A</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Pre-tax Profit </c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Dashboard!$C$20:$C$26</c:f>
-              <c:numCache>
-                <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>0.38675293231140062</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.43040868738019761</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.3599953361915031E-3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5.1320409039705113E-3</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.17634634406823974</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-0A50-CA42-B693-027654020280}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-          <c:showLeaderLines val="1"/>
-        </c:dLbls>
-        <c:firstSliceAng val="0"/>
-      </c:pieChart>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="zh-CN"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="zh-CN"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="11">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent5"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="251">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050">
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="25400">
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>387350</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>158750</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>1003300</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>50800</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{773B95BE-F378-2977-0A32-CF810A38528E}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3621,7 +2784,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48ED7348-D356-493F-B1FA-0B9102624322}">
   <dimension ref="A2:M98"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A75" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A75" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E91" sqref="E91:F98"/>
     </sheetView>
   </sheetViews>
@@ -3635,28 +2798,28 @@
     <row r="2" spans="1:5" ht="15" x14ac:dyDescent="0.4">
       <c r="A2" s="5"/>
       <c r="B2" s="6" t="s">
-        <v>209</v>
+        <v>201</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B4" s="141" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="C4" s="188" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B5" s="141" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="C5" s="191" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B6" s="141" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C6" s="189">
         <v>45630</v>
@@ -3672,7 +2835,7 @@
     </row>
     <row r="8" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B8" s="140" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="C8" s="191" t="s">
         <v>67</v>
@@ -3681,15 +2844,15 @@
     </row>
     <row r="9" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B9" s="140" t="s">
-        <v>211</v>
+        <v>203</v>
       </c>
       <c r="C9" s="192" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B10" s="140" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="C10" s="193">
         <v>1342943150</v>
@@ -3697,10 +2860,10 @@
     </row>
     <row r="11" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B11" s="140" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="C11" s="192" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
@@ -3721,7 +2884,7 @@
     </row>
     <row r="14" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B14" s="218" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="C14" s="219">
         <v>45473</v>
@@ -3729,10 +2892,10 @@
     </row>
     <row r="15" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B15" s="218" t="s">
-        <v>250</v>
+        <v>240</v>
       </c>
       <c r="C15" s="176" t="s">
-        <v>255</v>
+        <v>245</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
@@ -3746,55 +2909,55 @@
     </row>
     <row r="17" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B17" s="240" t="s">
-        <v>219</v>
+        <v>211</v>
       </c>
       <c r="C17" s="242" t="s">
-        <v>240</v>
+        <v>230</v>
       </c>
       <c r="D17" s="24"/>
     </row>
     <row r="18" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B18" s="240" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="C18" s="242" t="s">
-        <v>240</v>
+        <v>230</v>
       </c>
       <c r="D18" s="24"/>
     </row>
     <row r="19" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B19" s="240" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="C19" s="242" t="s">
-        <v>240</v>
+        <v>230</v>
       </c>
       <c r="D19" s="24"/>
     </row>
     <row r="20" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B20" s="241" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="C20" s="242" t="s">
-        <v>240</v>
+        <v>230</v>
       </c>
       <c r="D20" s="24"/>
     </row>
     <row r="21" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B21" s="224" t="s">
-        <v>226</v>
+        <v>218</v>
       </c>
       <c r="C21" s="242" t="s">
-        <v>240</v>
+        <v>230</v>
       </c>
       <c r="D21" s="24"/>
     </row>
     <row r="22" spans="2:13" ht="78.75" x14ac:dyDescent="0.4">
       <c r="B22" s="226" t="s">
-        <v>225</v>
+        <v>217</v>
       </c>
       <c r="C22" s="243" t="s">
-        <v>253</v>
+        <v>243</v>
       </c>
       <c r="D22" s="24"/>
     </row>
@@ -3927,7 +3090,7 @@
     </row>
     <row r="29" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B29" s="97" t="s">
-        <v>251</v>
+        <v>241</v>
       </c>
       <c r="C29" s="150">
         <v>32337</v>
@@ -4047,7 +3210,7 @@
     </row>
     <row r="36" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B36" s="94" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C36" s="217"/>
       <c r="D36" s="150"/>
@@ -4143,7 +3306,7 @@
     </row>
     <row r="42" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B42" s="94" t="s">
-        <v>259</v>
+        <v>249</v>
       </c>
       <c r="C42" s="217"/>
       <c r="D42" s="150"/>
@@ -4175,7 +3338,7 @@
     </row>
     <row r="44" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B44" s="74" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
       <c r="C44" s="250">
         <v>0.28210000000000002</v>
@@ -4195,15 +3358,15 @@
     </row>
     <row r="45" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B45" s="74" t="s">
-        <v>247</v>
+        <v>237</v>
       </c>
       <c r="C45" s="152">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>3.2191905726406001E-3</v>
+        <v>3.2188894554458455E-3</v>
       </c>
       <c r="D45" s="152">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>9.928024807505573E-4</v>
+        <v>9.9270961582342615E-4</v>
       </c>
       <c r="E45" s="152" t="str">
         <f>IF(E44="","",E44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -4244,13 +3407,13 @@
     </row>
     <row r="47" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B47" s="10" t="s">
-        <v>244</v>
+        <v>234</v>
       </c>
       <c r="C47" s="194" t="s">
         <v>30</v>
       </c>
       <c r="D47" s="194" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="E47" s="111" t="s">
         <v>32</v>
@@ -4309,7 +3472,7 @@
     </row>
     <row r="53" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B53" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C53" s="59"/>
       <c r="D53" s="60">
@@ -4320,7 +3483,7 @@
     </row>
     <row r="54" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B54" s="3" t="s">
-        <v>257</v>
+        <v>247</v>
       </c>
       <c r="C54" s="59"/>
       <c r="D54" s="60">
@@ -4421,7 +3584,7 @@
     </row>
     <row r="63" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B63" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C63" s="59"/>
       <c r="D63" s="60">
@@ -4432,7 +3595,7 @@
     </row>
     <row r="64" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B64" s="3" t="s">
-        <v>256</v>
+        <v>246</v>
       </c>
       <c r="C64" s="59"/>
       <c r="D64" s="60">
@@ -4592,7 +3755,7 @@
     </row>
     <row r="83" spans="2:8" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B83" s="73" t="s">
-        <v>215</v>
+        <v>207</v>
       </c>
       <c r="C83" s="59"/>
     </row>
@@ -4610,7 +3773,7 @@
     </row>
     <row r="86" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B86" s="10" t="s">
-        <v>245</v>
+        <v>235</v>
       </c>
       <c r="C86" s="197">
         <v>5</v>
@@ -4618,10 +3781,10 @@
     </row>
     <row r="87" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B87" s="10" t="s">
-        <v>243</v>
+        <v>233</v>
       </c>
       <c r="C87" s="236" t="s">
-        <v>246</v>
+        <v>236</v>
       </c>
       <c r="D87" s="269">
         <v>0.02</v>
@@ -4631,16 +3794,16 @@
       <c r="B89" s="106" t="s">
         <v>123</v>
       </c>
-      <c r="C89" s="275">
+      <c r="C89" s="283">
         <f>C24</f>
         <v>45291</v>
       </c>
-      <c r="D89" s="275"/>
+      <c r="D89" s="283"/>
       <c r="E89" s="89" t="s">
-        <v>201</v>
+        <v>193</v>
       </c>
       <c r="F89" s="89" t="s">
-        <v>200</v>
+        <v>192</v>
       </c>
       <c r="H89" s="31"/>
     </row>
@@ -4649,10 +3812,10 @@
         <f>"(Numbers in "&amp;Data!C4&amp;Dashboard!G6&amp;")"</f>
         <v>(Numbers in 1000CNY)</v>
       </c>
-      <c r="C90" s="276" t="s">
+      <c r="C90" s="284" t="s">
         <v>97</v>
       </c>
-      <c r="D90" s="276"/>
+      <c r="D90" s="284"/>
       <c r="E90" s="235" t="s">
         <v>98</v>
       </c>
@@ -4701,7 +3864,7 @@
     </row>
     <row r="93" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B93" s="104" t="s">
-        <v>242</v>
+        <v>232</v>
       </c>
       <c r="C93" s="77">
         <f>C27+C28</f>
@@ -4722,7 +3885,7 @@
     </row>
     <row r="94" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B94" s="104" t="s">
-        <v>251</v>
+        <v>241</v>
       </c>
       <c r="C94" s="77">
         <f>C29</f>
@@ -4740,7 +3903,7 @@
     </row>
     <row r="95" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B95" s="28" t="s">
-        <v>241</v>
+        <v>231</v>
       </c>
       <c r="C95" s="77">
         <f>ABS(MAX(C33,0)-C32)</f>
@@ -4779,7 +3942,7 @@
     </row>
     <row r="97" spans="2:7" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B97" s="73" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="C97" s="77">
         <f>MAX(C30,0)/(1-C16)</f>
@@ -4797,7 +3960,7 @@
     </row>
     <row r="98" spans="2:7" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B98" s="86" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
       <c r="C98" s="237">
         <f>C44</f>
@@ -4883,8 +4046,8 @@
   </sheetPr>
   <dimension ref="A1:J923"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3:D3"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -4925,13 +4088,13 @@
     </row>
     <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B3" s="3" t="s">
-        <v>189</v>
-      </c>
-      <c r="C3" s="281" t="str">
+        <v>181</v>
+      </c>
+      <c r="C3" s="289" t="str">
         <f>Inputs!C4</f>
         <v>9992.HK</v>
       </c>
-      <c r="D3" s="282"/>
+      <c r="D3" s="290"/>
       <c r="E3" s="87"/>
       <c r="F3" s="3" t="s">
         <v>1</v>
@@ -4940,47 +4103,47 @@
         <v>93.7</v>
       </c>
       <c r="H3" s="134" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B4" s="35" t="s">
-        <v>190</v>
-      </c>
-      <c r="C4" s="283" t="str">
+        <v>182</v>
+      </c>
+      <c r="C4" s="291" t="str">
         <f>Inputs!C5</f>
         <v>POP MART</v>
       </c>
-      <c r="D4" s="284"/>
+      <c r="D4" s="292"/>
       <c r="E4" s="87"/>
       <c r="F4" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="G4" s="287">
+      <c r="G4" s="295">
         <f>Inputs!C10</f>
         <v>1342943150</v>
       </c>
-      <c r="H4" s="287"/>
+      <c r="H4" s="295"/>
       <c r="I4" s="39"/>
     </row>
     <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B5" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="C5" s="285">
+        <v>156</v>
+      </c>
+      <c r="C5" s="293">
         <f>Inputs!C6</f>
         <v>45630</v>
       </c>
-      <c r="D5" s="286"/>
+      <c r="D5" s="294"/>
       <c r="E5" s="34"/>
       <c r="F5" s="35" t="s">
         <v>96</v>
       </c>
-      <c r="G5" s="279">
+      <c r="G5" s="287">
         <f>G3*G4/1000000</f>
         <v>125833.773155</v>
       </c>
-      <c r="H5" s="279"/>
+      <c r="H5" s="287"/>
       <c r="I5" s="38"/>
       <c r="J5" s="28"/>
     </row>
@@ -5003,16 +4166,16 @@
       <c r="F6" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G6" s="280" t="str">
+      <c r="G6" s="288" t="str">
         <f>Inputs!C11</f>
         <v>CNY</v>
       </c>
-      <c r="H6" s="280"/>
+      <c r="H6" s="288"/>
       <c r="I6" s="38"/>
     </row>
     <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B7" s="86" t="s">
-        <v>187</v>
+        <v>179</v>
       </c>
       <c r="C7" s="187" t="str">
         <f>Inputs!C8</f>
@@ -5027,7 +4190,7 @@
         <v>5</v>
       </c>
       <c r="G7" s="133">
-        <v>1.0692596832911174</v>
+        <v>1.0691596666971843</v>
       </c>
       <c r="H7" s="71" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -5037,40 +4200,40 @@
     <row r="8" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="9" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B9" s="139" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="F9" s="143" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B10" s="1" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="C10" s="172">
         <v>4.2000000000000003E-2</v>
       </c>
       <c r="F10" s="110" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B11" s="122" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="C11" s="173">
         <v>5.2299999999999999E-2</v>
       </c>
       <c r="D11" s="137" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
       <c r="F11" s="110" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B12" s="87" t="s">
-        <v>248</v>
+        <v>238</v>
       </c>
       <c r="C12" s="174">
         <v>7.4999999999999997E-2</v>
@@ -5083,29 +4246,29 @@
     <row r="13" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="14" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B14" s="1" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="C14" s="172">
         <v>1.8100000000000002E-2</v>
       </c>
       <c r="F14" s="110" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B15" s="1" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="C15" s="172">
         <v>6.5000000000000002E-2</v>
       </c>
       <c r="F15" s="110" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B16" s="122" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="C16" s="173">
         <v>0.16</v>
@@ -5115,12 +4278,12 @@
         <v>CN</v>
       </c>
       <c r="F16" s="110" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B17" s="87" t="s">
-        <v>249</v>
+        <v>239</v>
       </c>
       <c r="C17" s="175">
         <v>8.6249999999999993E-2</v>
@@ -5128,9 +4291,9 @@
       <c r="D17" s="176"/>
     </row>
     <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="19" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B19" s="142" t="s">
-        <v>178</v>
+        <v>265</v>
       </c>
       <c r="C19" s="135" t="s">
         <v>48</v>
@@ -5138,59 +4301,59 @@
       <c r="D19" s="87"/>
       <c r="E19" s="87"/>
       <c r="F19" s="142" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="G19" s="87"/>
       <c r="H19" s="87"/>
     </row>
-    <row r="20" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B20" s="137" t="s">
-        <v>164</v>
-      </c>
-      <c r="C20" s="171">
-        <f>Fin_Analysis!I75</f>
-        <v>0.38675293231140062</v>
+    <row r="20" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B20" s="275" t="s">
+        <v>255</v>
+      </c>
+      <c r="C20" s="276" t="e">
+        <f>C23*C22*(1/C21)</f>
+        <v>#DIV/0!</v>
       </c>
       <c r="F20" s="87" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="G20" s="172">
         <v>0.15</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B21" s="137" t="s">
-        <v>239</v>
-      </c>
-      <c r="C21" s="171">
-        <f>Fin_Analysis!I77</f>
-        <v>0.43040868738019761</v>
+    <row r="21" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
+      <c r="B21" s="277" t="s">
+        <v>253</v>
+      </c>
+      <c r="C21" s="278" t="e">
+        <f>Data!C55</f>
+        <v>#DIV/0!</v>
       </c>
       <c r="F21" s="87"/>
       <c r="G21" s="29"/>
     </row>
     <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B22" s="137" t="s">
-        <v>186</v>
-      </c>
-      <c r="C22" s="171">
-        <f>Fin_Analysis!I78</f>
-        <v>1.3599953361915031E-3</v>
+      <c r="B22" s="279" t="s">
+        <v>260</v>
+      </c>
+      <c r="C22" s="280" t="e">
+        <f>Data!C50</f>
+        <v>#DIV/0!</v>
       </c>
       <c r="F22" s="142" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B23" s="137" t="s">
-        <v>166</v>
-      </c>
-      <c r="C23" s="171">
-        <f>Fin_Analysis!I80</f>
-        <v>0</v>
+        <v>172</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B23" s="281" t="s">
+        <v>261</v>
+      </c>
+      <c r="C23" s="282">
+        <f>Data!C13</f>
+        <v>0.18147838497221025</v>
       </c>
       <c r="F23" s="140" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="G23" s="177" t="e">
         <f>G3/(Data!C36*Data!C4/Common_Shares*Exchange_Rate)</f>
@@ -5199,30 +4362,30 @@
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B24" s="137" t="s">
-        <v>165</v>
+        <v>262</v>
       </c>
       <c r="C24" s="171">
         <f>Fin_Analysis!I81</f>
         <v>5.1320409039705113E-3</v>
       </c>
       <c r="F24" s="140" t="s">
-        <v>254</v>
+        <v>244</v>
       </c>
       <c r="G24" s="268">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>141.21365239850533</v>
+        <v>141.22686250076569</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B25" s="137" t="s">
-        <v>238</v>
+        <v>263</v>
       </c>
       <c r="C25" s="171">
-        <f>Fin_Analysis!I82</f>
+        <f>Fin_Analysis!I80</f>
         <v>0</v>
       </c>
       <c r="F25" s="140" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="G25" s="171">
         <f>Fin_Analysis!I88</f>
@@ -5231,18 +4394,18 @@
     </row>
     <row r="26" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B26" s="138" t="s">
-        <v>168</v>
+        <v>264</v>
       </c>
       <c r="C26" s="171">
-        <f>Fin_Analysis!I83</f>
-        <v>0.17634634406823974</v>
+        <f>Fin_Analysis!I80+Fin_Analysis!I82</f>
+        <v>0</v>
       </c>
       <c r="F26" s="141" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="G26" s="178">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>3.2191905726406001E-3</v>
+        <v>3.2188894554458455E-3</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5252,62 +4415,62 @@
         <v>6</v>
       </c>
       <c r="C28" s="89" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D28" s="43" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="E28" s="58"/>
       <c r="F28" s="53" t="s">
-        <v>232</v>
-      </c>
-      <c r="G28" s="277" t="s">
-        <v>252</v>
-      </c>
-      <c r="H28" s="277"/>
+        <v>224</v>
+      </c>
+      <c r="G28" s="285" t="s">
+        <v>242</v>
+      </c>
+      <c r="H28" s="285"/>
     </row>
     <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B29" s="87" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>4.3845978681094389</v>
+        <v>4.3841733228114332</v>
       </c>
       <c r="D29" s="129">
         <f>G29*(1+G20)</f>
-        <v>7.8894901352930455</v>
+        <v>7.8887262235179278</v>
       </c>
       <c r="E29" s="87"/>
       <c r="F29" s="131">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>5.1583504330699279</v>
-      </c>
-      <c r="G29" s="278">
+        <v>5.1578509680134506</v>
+      </c>
+      <c r="G29" s="286">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>6.860426204602649</v>
-      </c>
-      <c r="H29" s="278"/>
+        <v>6.8597619334938509</v>
+      </c>
+      <c r="H29" s="286"/>
     </row>
     <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="5"/>
       <c r="B31" s="6" t="s">
-        <v>217</v>
+        <v>209</v>
       </c>
       <c r="C31"/>
     </row>
     <row r="32" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32"/>
       <c r="B32" s="196" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="C32" s="224"/>
     </row>
     <row r="33" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33"/>
       <c r="B33" s="20" t="s">
-        <v>219</v>
+        <v>211</v>
       </c>
       <c r="C33" s="245" t="str">
         <f>Inputs!C17</f>
@@ -5317,7 +4480,7 @@
     <row r="34" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34"/>
       <c r="B34" s="19" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="C34" s="225" t="e">
         <f>IF(AND(OR(Fin_Analysis!I26&lt;0.8,Fin_Analysis!I46&lt;0.6),Data!C56&lt;0.8),"Strongly disagree",
@@ -5328,14 +4491,14 @@
     <row r="35" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35"/>
       <c r="B35" s="196" t="s">
-        <v>221</v>
+        <v>213</v>
       </c>
       <c r="C35" s="224"/>
     </row>
     <row r="36" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36"/>
       <c r="B36" s="20" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="C36" s="245" t="str">
         <f>Inputs!C18</f>
@@ -5345,7 +4508,7 @@
     <row r="37" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37"/>
       <c r="B37" s="20" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="C37" s="245" t="str">
         <f>Inputs!C19</f>
@@ -5355,14 +4518,14 @@
     <row r="38" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38"/>
       <c r="B38" s="196" t="s">
-        <v>222</v>
+        <v>214</v>
       </c>
       <c r="C38" s="224"/>
     </row>
     <row r="39" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39"/>
       <c r="B39" s="19" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="C39" s="245" t="str">
         <f>Inputs!C20</f>
@@ -5372,7 +4535,7 @@
     <row r="40" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40"/>
       <c r="B40" s="1" t="s">
-        <v>226</v>
+        <v>218</v>
       </c>
       <c r="C40" s="245" t="str">
         <f>Inputs!C21</f>
@@ -5387,14 +4550,14 @@
     <row r="42" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A42" s="5"/>
       <c r="B42" s="6" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="C42"/>
     </row>
     <row r="43" spans="1:3" ht="65.650000000000006" x14ac:dyDescent="0.4">
       <c r="A43"/>
       <c r="B43" s="226" t="s">
-        <v>225</v>
+        <v>217</v>
       </c>
       <c r="C43" s="244" t="str">
         <f>Inputs!C22</f>
@@ -6338,7 +5501,6 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup scale="99" orientation="landscape" r:id="rId6"/>
-  <drawing r:id="rId7"/>
 </worksheet>
 </file>
 
@@ -6352,7 +5514,7 @@
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
       <selection activeCell="A4" sqref="A4"/>
-      <selection pane="topRight" activeCell="C4" sqref="C4"/>
+      <selection pane="topRight" activeCell="C60" sqref="C60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -6379,16 +5541,16 @@
       <c r="C2" s="18"/>
       <c r="D2" s="17"/>
       <c r="E2" s="148" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
       <c r="F2" s="119" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="G2" s="148" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="H2" s="147" t="s">
-        <v>199</v>
+        <v>191</v>
       </c>
       <c r="I2" s="7"/>
       <c r="J2" s="87"/>
@@ -6406,7 +5568,7 @@
         <v>45291</v>
       </c>
       <c r="E3" s="146" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="F3" s="85" t="str">
         <f>H14</f>
@@ -6439,7 +5601,7 @@
         <v>CNY</v>
       </c>
       <c r="E4" s="146" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="F4" s="93" t="e">
         <f>(G3/F3)^(1/H3)-1</f>
@@ -6806,7 +5968,7 @@
     <row r="12" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="4"/>
       <c r="B12" s="99" t="s">
-        <v>235</v>
+        <v>227</v>
       </c>
       <c r="C12" s="199">
         <f>IF(Inputs!C30="","",MAX(Inputs!C30,0)/(1-Fin_Analysis!$I$84))</f>
@@ -6857,7 +6019,7 @@
     <row r="13" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="4"/>
       <c r="B13" s="228" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="C13" s="229">
         <f t="shared" ref="C13:M13" si="3">IF(C14="","",C14/C6)</f>
@@ -6908,7 +6070,7 @@
     <row r="14" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="4"/>
       <c r="B14" s="228" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
       <c r="C14" s="230">
         <f>IF(C6="","",C9-C10-MAX(C11,0)-MAX(C12,0))</f>
@@ -6959,7 +6121,7 @@
     <row r="15" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="4"/>
       <c r="B15" s="231" t="s">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="C15" s="232">
         <f>IF(D14="","",IF(ABS(C14+D14)=ABS(C14)+ABS(D14),IF(C14&lt;0,-1,1)*(C14-D14)/D14,"Turn"))</f>
@@ -7061,7 +6223,7 @@
     <row r="17" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="4"/>
       <c r="B17" s="97" t="s">
-        <v>251</v>
+        <v>241</v>
       </c>
       <c r="C17" s="199">
         <f>IF(Inputs!C29="","",Inputs!C29)</f>
@@ -7214,7 +6376,7 @@
     <row r="20" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="4"/>
       <c r="B20" s="97" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
       <c r="C20" s="152">
         <f t="shared" ref="C20:M20" si="7">IF(C6="","",MAX(C21,0)/C6)</f>
@@ -7724,7 +6886,7 @@
     <row r="30" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A30" s="4"/>
       <c r="B30" s="94" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C30" s="65">
         <f>Fin_Analysis!C18</f>
@@ -8234,7 +7396,7 @@
     <row r="40" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40" s="4"/>
       <c r="B40" s="98" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C40" s="155" t="e">
         <f>IF(C6="","",C14/MAX(C39,0))</f>
@@ -8285,7 +7447,7 @@
     <row r="41" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A41" s="16"/>
       <c r="B41" s="55" t="s">
-        <v>260</v>
+        <v>250</v>
       </c>
       <c r="C41" s="54"/>
       <c r="D41" s="54"/>
@@ -8354,7 +7516,7 @@
     <row r="43" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A43" s="4"/>
       <c r="B43" s="94" t="s">
-        <v>229</v>
+        <v>221</v>
       </c>
       <c r="C43" s="153">
         <f t="shared" ref="C43:M43" si="35">IF(C6="","",(C10+MAX(C11,0))/C6)</f>
@@ -8558,7 +7720,7 @@
     <row r="47" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A47" s="4"/>
       <c r="B47" s="94" t="s">
-        <v>231</v>
+        <v>223</v>
       </c>
       <c r="C47" s="153">
         <f>IF(C6="","",ABS(MAX(C21,0)-MAX(C19,0))/C6)</f>
@@ -8660,7 +7822,7 @@
     <row r="49" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A49" s="16"/>
       <c r="B49" s="102" t="s">
-        <v>261</v>
+        <v>251</v>
       </c>
       <c r="C49" s="36"/>
       <c r="D49" s="36"/>
@@ -8678,14 +7840,14 @@
     <row r="50" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A50" s="4"/>
       <c r="B50" s="271" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="C50" s="272" t="e">
-        <f>IF(C6="","",C6/C39)</f>
+        <f>IF(C6="","",C6/C27)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="D50" s="272" t="e">
-        <f t="shared" ref="D50:M50" si="41">IF(D6="","",D6/D39)</f>
+        <f t="shared" ref="D50:M50" si="41">IF(D6="","",D6/D27)</f>
         <v>#VALUE!</v>
       </c>
       <c r="E50" s="272" t="str">
@@ -8729,7 +7891,7 @@
     <row r="51" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A51" s="4"/>
       <c r="B51" s="94" t="s">
-        <v>142</v>
+        <v>258</v>
       </c>
       <c r="C51" s="153">
         <f t="shared" ref="C51:M51" si="42">IF(C29="","",C29/C6)</f>
@@ -8780,7 +7942,7 @@
     <row r="52" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A52" s="4"/>
       <c r="B52" s="94" t="s">
-        <v>143</v>
+        <v>259</v>
       </c>
       <c r="C52" s="153">
         <f t="shared" ref="C52:M52" si="43">IF(C30="","",C30/C6)</f>
@@ -8831,7 +7993,7 @@
     <row r="53" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A53" s="4"/>
       <c r="B53" s="94" t="s">
-        <v>258</v>
+        <v>248</v>
       </c>
       <c r="C53" s="153" t="e">
         <f>IF(D6="","",C16/(C6-D6))</f>
@@ -8882,7 +8044,7 @@
     <row r="54" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A54" s="16"/>
       <c r="B54" s="102" t="s">
-        <v>262</v>
+        <v>252</v>
       </c>
       <c r="C54" s="36"/>
       <c r="D54" s="36"/>
@@ -8899,7 +8061,7 @@
     <row r="55" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A55" s="4"/>
       <c r="B55" s="95" t="s">
-        <v>264</v>
+        <v>253</v>
       </c>
       <c r="C55" s="156" t="e">
         <f>IF(C36="","",(C36-C37)/C27)</f>
@@ -9099,7 +8261,7 @@
     <row r="59" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A59" s="16"/>
       <c r="B59" s="102" t="s">
-        <v>265</v>
+        <v>254</v>
       </c>
       <c r="C59" s="273" t="str">
         <f>IFERROR(IF(C13*C50*(1/C55)=C60,"","Error"),"")</f>
@@ -9149,7 +8311,7 @@
     <row r="60" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A60" s="4"/>
       <c r="B60" s="271" t="s">
-        <v>266</v>
+        <v>255</v>
       </c>
       <c r="C60" s="274" t="e">
         <f>IF(C14="","",C14/(C36-C37))</f>
@@ -9199,7 +8361,7 @@
     <row r="61" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A61" s="4"/>
       <c r="B61" s="271" t="s">
-        <v>267</v>
+        <v>256</v>
       </c>
       <c r="C61" s="274" t="e">
         <f>IF(C22="","",C22/(C36-C37))</f>
@@ -10703,7 +9865,7 @@
         <v>30</v>
       </c>
       <c r="D10" s="74" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="E10" s="74" t="s">
         <v>31</v>
@@ -10861,7 +10023,7 @@
     </row>
     <row r="16" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B16" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C16" s="40">
         <f>Inputs!C53</f>
@@ -11273,7 +10435,7 @@
     </row>
     <row r="33" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B33" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C33" s="40">
         <f>Inputs!C63</f>
@@ -11741,7 +10903,7 @@
     </row>
     <row r="55" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B55" s="25" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C55" s="3"/>
       <c r="E55" s="125"/>
@@ -11755,11 +10917,11 @@
         <v>86</v>
       </c>
       <c r="C56" s="87"/>
-      <c r="D56" s="288">
+      <c r="D56" s="296">
         <f>I15+I34</f>
         <v>0</v>
       </c>
-      <c r="E56" s="286"/>
+      <c r="E56" s="294"/>
       <c r="F56" s="3"/>
       <c r="G56" s="3"/>
       <c r="I56" s="56"/>
@@ -11770,11 +10932,11 @@
         <v>87</v>
       </c>
       <c r="C57" s="87"/>
-      <c r="D57" s="287">
+      <c r="D57" s="295">
         <f>Inputs!C84</f>
         <v>0</v>
       </c>
-      <c r="E57" s="286"/>
+      <c r="E57" s="294"/>
       <c r="G57" s="87"/>
       <c r="I57" s="87"/>
       <c r="K57" s="33" t="s">
@@ -11786,11 +10948,11 @@
         <v>89</v>
       </c>
       <c r="C58" s="87"/>
-      <c r="D58" s="287">
+      <c r="D58" s="295">
         <f>Inputs!C85</f>
         <v>0</v>
       </c>
-      <c r="E58" s="286"/>
+      <c r="E58" s="294"/>
       <c r="F58" s="3"/>
       <c r="G58" s="3"/>
       <c r="I58" s="87"/>
@@ -11807,7 +10969,7 @@
     </row>
     <row r="60" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B60" s="25" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C60" s="3"/>
       <c r="D60" s="75" t="s">
@@ -11884,7 +11046,7 @@
     </row>
     <row r="64" spans="2:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B64" s="121" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C64" s="208"/>
       <c r="D64" s="208"/>
@@ -11930,7 +11092,7 @@
     </row>
     <row r="67" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B67" s="25" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C67" s="3"/>
       <c r="D67" s="75" t="s">
@@ -11965,7 +11127,7 @@
     </row>
     <row r="69" spans="1:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B69" s="121" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C69" s="208"/>
       <c r="D69" s="208"/>
@@ -12004,19 +11166,19 @@
       <c r="B72" s="106" t="s">
         <v>123</v>
       </c>
-      <c r="C72" s="275">
+      <c r="C72" s="283">
         <f>Data!C5</f>
         <v>45291</v>
       </c>
-      <c r="D72" s="275"/>
-      <c r="E72" s="289" t="s">
-        <v>201</v>
-      </c>
-      <c r="F72" s="289"/>
-      <c r="H72" s="289" t="s">
-        <v>200</v>
-      </c>
-      <c r="I72" s="289"/>
+      <c r="D72" s="283"/>
+      <c r="E72" s="297" t="s">
+        <v>193</v>
+      </c>
+      <c r="F72" s="297"/>
+      <c r="H72" s="297" t="s">
+        <v>192</v>
+      </c>
+      <c r="I72" s="297"/>
       <c r="K72" s="50" t="s">
         <v>7</v>
       </c>
@@ -12026,18 +11188,18 @@
         <f>"(Numbers in "&amp;Data!C4&amp;Dashboard!G6&amp;")"</f>
         <v>(Numbers in 1000CNY)</v>
       </c>
-      <c r="C73" s="276" t="s">
+      <c r="C73" s="284" t="s">
         <v>97</v>
       </c>
-      <c r="D73" s="276"/>
-      <c r="E73" s="290" t="s">
+      <c r="D73" s="284"/>
+      <c r="E73" s="298" t="s">
         <v>98</v>
       </c>
-      <c r="F73" s="276"/>
-      <c r="H73" s="290" t="s">
+      <c r="F73" s="284"/>
+      <c r="H73" s="298" t="s">
         <v>98</v>
       </c>
-      <c r="I73" s="276"/>
+      <c r="I73" s="284"/>
       <c r="K73" s="24"/>
     </row>
     <row r="74" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -12114,7 +11276,7 @@
     </row>
     <row r="77" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B77" s="104" t="s">
-        <v>242</v>
+        <v>232</v>
       </c>
       <c r="C77" s="77">
         <f>Data!C10+MAX(Data!C11,0)</f>
@@ -12144,7 +11306,7 @@
     </row>
     <row r="78" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B78" s="73" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="C78" s="77">
         <f>MAX(Data!C12,0)</f>
@@ -12174,7 +11336,7 @@
     </row>
     <row r="79" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B79" s="256" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="C79" s="257">
         <f>C76-C77-C78</f>
@@ -12237,7 +11399,7 @@
     </row>
     <row r="81" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B81" s="104" t="s">
-        <v>251</v>
+        <v>241</v>
       </c>
       <c r="C81" s="77">
         <f>MAX(Data!C17,0)</f>
@@ -12267,7 +11429,7 @@
     </row>
     <row r="82" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B82" s="28" t="s">
-        <v>241</v>
+        <v>231</v>
       </c>
       <c r="C82" s="77">
         <f>ABS(MAX(Data!C21,0)-MAX(Data!C19,0))</f>
@@ -12348,7 +11510,7 @@
     </row>
     <row r="85" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B85" s="263" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C85" s="257">
         <f>C83*(1-I84)</f>
@@ -12379,7 +11541,7 @@
     </row>
     <row r="86" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B86" s="87" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C86" s="167">
         <f>C85*Data!C4/Common_Shares</f>
@@ -12400,28 +11562,28 @@
     </row>
     <row r="87" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B87" s="87" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="C87" s="261">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>7.0814682788459945E-3</v>
+        <v>7.0808058912629193E-3</v>
       </c>
       <c r="D87" s="209"/>
       <c r="E87" s="262">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>7.0814682788459945E-3</v>
+        <v>7.0808058912629193E-3</v>
       </c>
       <c r="F87" s="209"/>
       <c r="H87" s="262">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>7.0814682788459945E-3</v>
+        <v>7.0808058912629193E-3</v>
       </c>
       <c r="I87" s="209"/>
       <c r="K87" s="24"/>
     </row>
     <row r="88" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B88" s="86" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
       <c r="C88" s="169">
         <f>Inputs!C44</f>
@@ -12451,21 +11613,21 @@
     </row>
     <row r="89" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B89" s="87" t="s">
-        <v>216</v>
+        <v>208</v>
       </c>
       <c r="C89" s="261">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>3.2191905726406001E-3</v>
+        <v>3.2188894554458455E-3</v>
       </c>
       <c r="D89" s="209"/>
       <c r="E89" s="261">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>3.2191905726406001E-3</v>
+        <v>3.2188894554458455E-3</v>
       </c>
       <c r="F89" s="209"/>
       <c r="H89" s="261">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>3.2191905726406001E-3</v>
+        <v>3.2188894554458455E-3</v>
       </c>
       <c r="I89" s="209"/>
       <c r="K89" s="24"/>
@@ -12487,24 +11649,24 @@
     </row>
     <row r="92" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B92" s="10" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C92" s="198" t="str">
         <f>Inputs!C15</f>
         <v>CN</v>
       </c>
       <c r="D92" s="10" t="s">
-        <v>151</v>
-      </c>
-      <c r="E92" s="289" t="s">
-        <v>201</v>
-      </c>
-      <c r="F92" s="289"/>
+        <v>149</v>
+      </c>
+      <c r="E92" s="297" t="s">
+        <v>193</v>
+      </c>
+      <c r="F92" s="297"/>
       <c r="G92" s="87"/>
-      <c r="H92" s="289" t="s">
-        <v>200</v>
-      </c>
-      <c r="I92" s="289"/>
+      <c r="H92" s="297" t="s">
+        <v>192</v>
+      </c>
+      <c r="I92" s="297"/>
       <c r="K92" s="24"/>
     </row>
     <row r="93" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -12521,24 +11683,24 @@
         <v>5</v>
       </c>
       <c r="E93" s="87" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="F93" s="144">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>10.375285219198934</v>
+        <v>10.374280616567683</v>
       </c>
       <c r="H93" s="87" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="I93" s="144">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>10.375285219198934</v>
+        <v>10.374280616567683</v>
       </c>
       <c r="K93" s="24"/>
     </row>
     <row r="94" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B94" s="1" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="C94" s="182">
         <f>Dashboard!G20</f>
@@ -12549,18 +11711,18 @@
         <v>0.02</v>
       </c>
       <c r="E94" s="87" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="F94" s="144">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
-        <v>4.6267874766582118</v>
+        <v>4.6263477524054295</v>
       </c>
       <c r="H94" s="87" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="I94" s="144">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>4.6267874766582118</v>
+        <v>4.6263477524054295</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -12579,14 +11741,14 @@
         <v>HKD</v>
       </c>
       <c r="D96" s="124" t="s">
-        <v>208</v>
+        <v>200</v>
       </c>
       <c r="E96" s="183" t="str">
         <f>E72</f>
         <v>Pessimistic Case</v>
       </c>
       <c r="F96" s="227" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="H96" s="183" t="str">
         <f>H72</f>
@@ -12603,21 +11765,21 @@
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>6927371.3793907929</v>
+        <v>6926700.6262145331</v>
       </c>
       <c r="D97" s="213"/>
       <c r="E97" s="123">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>5.1583504330699279</v>
+        <v>5.1578509680134506</v>
       </c>
       <c r="F97" s="213"/>
       <c r="H97" s="123">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>5.1583504330699279</v>
+        <v>5.1578509680134506</v>
       </c>
       <c r="I97" s="123">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>6.860426204602649</v>
+        <v>6.8597619334938509</v>
       </c>
       <c r="K97" s="24"/>
     </row>
@@ -12666,27 +11828,27 @@
       </c>
       <c r="C100" s="91">
         <f>C97+C98+$C$99</f>
-        <v>6927371.3793907929</v>
+        <v>6926700.6262145331</v>
       </c>
       <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>4.3845978681094389</v>
+        <v>4.3841733228114332</v>
       </c>
       <c r="E100" s="109">
         <f>MAX(E97+H98+E99,0)</f>
-        <v>5.1583504330699279</v>
+        <v>5.1578509680134506</v>
       </c>
       <c r="F100" s="109">
         <f>(E100+H100)/2</f>
-        <v>5.1583504330699279</v>
+        <v>5.1578509680134506</v>
       </c>
       <c r="H100" s="109">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>5.1583504330699279</v>
+        <v>5.1578509680134506</v>
       </c>
       <c r="I100" s="109">
         <f>MAX(I97+H98+H99,0)</f>
-        <v>6.860426204602649</v>
+        <v>6.8597619334938509</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -12696,21 +11858,21 @@
     </row>
     <row r="102" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B102" s="10" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C102" s="127" t="str">
         <f>C96</f>
         <v>HKD</v>
       </c>
       <c r="D102" s="124" t="s">
-        <v>208</v>
+        <v>200</v>
       </c>
       <c r="E102" s="183" t="str">
         <f>E96</f>
         <v>Pessimistic Case</v>
       </c>
       <c r="F102" s="227" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="H102" s="183" t="str">
         <f>H96</f>
@@ -12723,31 +11885,31 @@
     </row>
     <row r="103" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B103" s="1" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>3089213.8834907622</v>
+        <v>3088920.2883616458</v>
       </c>
       <c r="D103" s="109">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>1.9552814286793507</v>
+        <v>1.9550956011111855</v>
       </c>
       <c r="E103" s="123">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>2.3003310925639422</v>
+        <v>2.3001124718955124</v>
       </c>
       <c r="F103" s="109">
         <f>(E103+H103)/2</f>
-        <v>2.3003310925639422</v>
+        <v>2.3001124718955124</v>
       </c>
       <c r="H103" s="123">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>2.3003310925639422</v>
+        <v>2.3001124718955124</v>
       </c>
       <c r="I103" s="109">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>3.059360140698292</v>
+        <v>3.0590693828325706</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -12757,21 +11919,21 @@
     </row>
     <row r="105" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B105" s="10" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="C105" s="127" t="str">
         <f>C102</f>
         <v>HKD</v>
       </c>
       <c r="D105" s="124" t="s">
-        <v>208</v>
+        <v>200</v>
       </c>
       <c r="E105" s="184" t="str">
         <f>E96</f>
         <v>Pessimistic Case</v>
       </c>
       <c r="F105" s="227" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="H105" s="184" t="str">
         <f>H96</f>
@@ -12784,31 +11946,31 @@
     </row>
     <row r="106" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B106" s="1" t="s">
-        <v>193</v>
+        <v>185</v>
       </c>
       <c r="C106" s="91">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>5008292.6314407773</v>
+        <v>5007810.4572880892</v>
       </c>
       <c r="D106" s="109">
         <f>(D100+D103)/2</f>
-        <v>3.1699396483943949</v>
+        <v>3.1696344619613095</v>
       </c>
       <c r="E106" s="123">
         <f>(E100+E103)/2</f>
-        <v>3.7293407628169351</v>
+        <v>3.7289817199544815</v>
       </c>
       <c r="F106" s="109">
         <f>(F100+F103)/2</f>
-        <v>3.7293407628169351</v>
+        <v>3.7289817199544815</v>
       </c>
       <c r="H106" s="123">
         <f>(H100+H103)/2</f>
-        <v>3.7293407628169351</v>
+        <v>3.7289817199544815</v>
       </c>
       <c r="I106" s="123">
         <f>(I100+I103)/2</f>
-        <v>4.9598931726504709</v>
+        <v>4.9594156581632109</v>
       </c>
       <c r="K106" s="24"/>
     </row>
@@ -12817,7 +11979,7 @@
     </row>
     <row r="108" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B108" s="10" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C108" s="128" t="str">
         <f>Inputs!C87</f>

--- a/financial_models/opportunities/9992.HK_Valuation.xlsx
+++ b/financial_models/opportunities/9992.HK_Valuation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B0A817F7-2F6F-47F5-8C84-ADC2C0D4D6AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A726DA22-4D12-4FA5-8474-04C8F5BB3967}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Inputs" sheetId="4" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="393" uniqueCount="271">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="272">
   <si>
     <t>Company Info:</t>
   </si>
@@ -404,10 +404,6 @@
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
-    <t>Noncurrent Liabilities</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
     <t>ST AR</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
@@ -912,10 +908,6 @@
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
-    <t>Minority interests</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
     <t>Profibility Analysis</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
@@ -977,6 +969,18 @@
   </si>
   <si>
     <t>ROE &amp; Cost Structure</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Total Liabilities</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>PlaceHolder_2</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>PlaceHolder_1</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
@@ -2393,7 +2397,7 @@
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="超链接" xfId="2" builtinId="8"/>
   </cellStyles>
-  <dxfs count="21">
+  <dxfs count="23">
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -2490,12 +2494,28 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7B7B7"/>
+          <bgColor rgb="FFB7B7B7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <color rgb="FF006100"/>
       </font>
       <fill>
         <patternFill>
           <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7B7B7"/>
+          <bgColor rgb="FFB7B7B7"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2784,7 +2804,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48ED7348-D356-493F-B1FA-0B9102624322}">
   <dimension ref="A2:M98"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A75" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C75" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E91" sqref="E91:F98"/>
     </sheetView>
   </sheetViews>
@@ -2798,28 +2818,28 @@
     <row r="2" spans="1:5" ht="15" x14ac:dyDescent="0.4">
       <c r="A2" s="5"/>
       <c r="B2" s="6" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B4" s="141" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C4" s="188" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B5" s="141" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C5" s="191" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B6" s="141" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C6" s="189">
         <v>45630</v>
@@ -2835,7 +2855,7 @@
     </row>
     <row r="8" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B8" s="140" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C8" s="191" t="s">
         <v>67</v>
@@ -2844,15 +2864,15 @@
     </row>
     <row r="9" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B9" s="140" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C9" s="192" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B10" s="140" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C10" s="193">
         <v>1342943150</v>
@@ -2860,10 +2880,10 @@
     </row>
     <row r="11" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B11" s="140" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C11" s="192" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
@@ -2884,7 +2904,7 @@
     </row>
     <row r="14" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B14" s="218" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C14" s="219">
         <v>45473</v>
@@ -2892,10 +2912,10 @@
     </row>
     <row r="15" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B15" s="218" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C15" s="176" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
@@ -2909,61 +2929,61 @@
     </row>
     <row r="17" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B17" s="240" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C17" s="242" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D17" s="24"/>
     </row>
     <row r="18" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B18" s="240" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C18" s="242" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D18" s="24"/>
     </row>
     <row r="19" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B19" s="240" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C19" s="242" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D19" s="24"/>
     </row>
     <row r="20" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B20" s="241" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C20" s="242" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D20" s="24"/>
     </row>
     <row r="21" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B21" s="224" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C21" s="242" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D21" s="24"/>
     </row>
     <row r="22" spans="2:13" ht="78.75" x14ac:dyDescent="0.4">
       <c r="B22" s="226" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C22" s="243" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D22" s="24"/>
     </row>
     <row r="24" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B24" s="115" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C24" s="48">
         <f>C12</f>
@@ -3090,7 +3110,7 @@
     </row>
     <row r="29" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B29" s="97" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C29" s="150">
         <v>32337</v>
@@ -3176,9 +3196,9 @@
       <c r="L33" s="150"/>
       <c r="M33" s="150"/>
     </row>
-    <row r="34" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B34" s="94" t="s">
-        <v>14</v>
+    <row r="34" spans="2:13" ht="13.9" hidden="1" x14ac:dyDescent="0.4">
+      <c r="B34" s="97" t="s">
+        <v>266</v>
       </c>
       <c r="C34" s="217"/>
       <c r="D34" s="150"/>
@@ -3194,7 +3214,7 @@
     </row>
     <row r="35" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B35" s="94" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C35" s="217"/>
       <c r="D35" s="150"/>
@@ -3210,7 +3230,7 @@
     </row>
     <row r="36" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B36" s="94" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C36" s="217"/>
       <c r="D36" s="150"/>
@@ -3225,10 +3245,11 @@
       <c r="M36" s="150"/>
     </row>
     <row r="37" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B37" s="94" t="s">
-        <v>15</v>
-      </c>
-      <c r="C37" s="217"/>
+      <c r="B37" s="94" t="str">
+        <f>"Total Liabilities"&amp;IF(C77+C82=0,"",IF(C37=C77+C82,""," Error"))</f>
+        <v>Total Liabilities</v>
+      </c>
+      <c r="C37" s="150"/>
       <c r="D37" s="150"/>
       <c r="E37" s="150"/>
       <c r="F37" s="150"/>
@@ -3240,9 +3261,9 @@
       <c r="L37" s="150"/>
       <c r="M37" s="150"/>
     </row>
-    <row r="38" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="38" spans="2:13" ht="13.9" hidden="1" x14ac:dyDescent="0.4">
       <c r="B38" s="94" t="s">
-        <v>112</v>
+        <v>265</v>
       </c>
       <c r="C38" s="217"/>
       <c r="D38" s="150"/>
@@ -3289,10 +3310,11 @@
       <c r="M40" s="150"/>
     </row>
     <row r="41" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B41" s="94" t="s">
-        <v>133</v>
-      </c>
-      <c r="C41" s="217"/>
+      <c r="B41" s="94" t="str">
+        <f>"Total Equity"&amp;IF(C83="","",IF(C41=Fin_Analysis!D3,""," Error"))</f>
+        <v>Total Equity</v>
+      </c>
+      <c r="C41" s="150"/>
       <c r="D41" s="150"/>
       <c r="E41" s="150"/>
       <c r="F41" s="150"/>
@@ -3306,9 +3328,9 @@
     </row>
     <row r="42" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B42" s="94" t="s">
-        <v>249</v>
-      </c>
-      <c r="C42" s="217"/>
+        <v>133</v>
+      </c>
+      <c r="C42" s="150"/>
       <c r="D42" s="150"/>
       <c r="E42" s="150"/>
       <c r="F42" s="150"/>
@@ -3322,7 +3344,7 @@
     </row>
     <row r="43" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B43" s="94" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C43" s="217"/>
       <c r="D43" s="150"/>
@@ -3338,7 +3360,7 @@
     </row>
     <row r="44" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B44" s="74" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C44" s="250">
         <v>0.28210000000000002</v>
@@ -3358,15 +3380,15 @@
     </row>
     <row r="45" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B45" s="74" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C45" s="152">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>3.2188894554458455E-3</v>
+        <v>3.1663110990849696E-3</v>
       </c>
       <c r="D45" s="152">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>9.9270961582342615E-4</v>
+        <v>9.7649438362421937E-4</v>
       </c>
       <c r="E45" s="152" t="str">
         <f>IF(E44="","",E44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -3407,13 +3429,13 @@
     </row>
     <row r="47" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B47" s="10" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C47" s="194" t="s">
         <v>30</v>
       </c>
       <c r="D47" s="194" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E47" s="111" t="s">
         <v>32</v>
@@ -3431,7 +3453,7 @@
     </row>
     <row r="49" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B49" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C49" s="59"/>
       <c r="D49" s="60">
@@ -3441,7 +3463,7 @@
     </row>
     <row r="50" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B50" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C50" s="59"/>
       <c r="D50" s="60">
@@ -3472,7 +3494,7 @@
     </row>
     <row r="53" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B53" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C53" s="59"/>
       <c r="D53" s="60">
@@ -3483,7 +3505,7 @@
     </row>
     <row r="54" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B54" s="3" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C54" s="59"/>
       <c r="D54" s="60">
@@ -3517,7 +3539,7 @@
     </row>
     <row r="57" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B57" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C57" s="59"/>
       <c r="D57" s="60">
@@ -3584,7 +3606,7 @@
     </row>
     <row r="63" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B63" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C63" s="59"/>
       <c r="D63" s="60">
@@ -3595,7 +3617,7 @@
     </row>
     <row r="64" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B64" s="3" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C64" s="59"/>
       <c r="D64" s="60">
@@ -3642,7 +3664,7 @@
     </row>
     <row r="68" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B68" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C68" s="59"/>
       <c r="D68" s="60">
@@ -3755,7 +3777,7 @@
     </row>
     <row r="83" spans="2:8" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B83" s="73" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C83" s="59"/>
     </row>
@@ -3773,7 +3795,7 @@
     </row>
     <row r="86" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B86" s="10" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C86" s="197">
         <v>5</v>
@@ -3781,10 +3803,10 @@
     </row>
     <row r="87" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B87" s="10" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C87" s="236" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D87" s="269">
         <v>0.02</v>
@@ -3792,7 +3814,7 @@
     </row>
     <row r="89" spans="2:8" ht="13.5" x14ac:dyDescent="0.35">
       <c r="B89" s="106" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C89" s="283">
         <f>C24</f>
@@ -3800,10 +3822,10 @@
       </c>
       <c r="D89" s="283"/>
       <c r="E89" s="89" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F89" s="89" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="H89" s="31"/>
     </row>
@@ -3825,7 +3847,7 @@
     </row>
     <row r="91" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B91" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C91" s="77">
         <f>C25</f>
@@ -3864,7 +3886,7 @@
     </row>
     <row r="93" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B93" s="104" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C93" s="77">
         <f>C27+C28</f>
@@ -3885,7 +3907,7 @@
     </row>
     <row r="94" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B94" s="104" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C94" s="77">
         <f>C29</f>
@@ -3903,7 +3925,7 @@
     </row>
     <row r="95" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B95" s="28" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C95" s="77">
         <f>ABS(MAX(C33,0)-C32)</f>
@@ -3942,7 +3964,7 @@
     </row>
     <row r="97" spans="2:7" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B97" s="73" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C97" s="77">
         <f>MAX(C30,0)/(1-C16)</f>
@@ -3960,7 +3982,7 @@
     </row>
     <row r="98" spans="2:7" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B98" s="86" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C98" s="237">
         <f>C44</f>
@@ -3983,28 +4005,33 @@
     <mergeCell ref="C90:D90"/>
   </mergeCells>
   <phoneticPr fontId="20" type="noConversion"/>
-  <conditionalFormatting sqref="C16 C25:M33 C44:M44 E91:F93 F94 E95:F95 F96:F98">
-    <cfRule type="containsBlanks" dxfId="20" priority="11">
+  <conditionalFormatting sqref="C16 C25:M33 D34:M43 C44:M44 E91:F93 F94 E95:F95 F96:F98">
+    <cfRule type="containsBlanks" dxfId="22" priority="14">
       <formula>LEN(TRIM(C16))=0</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="C37">
+    <cfRule type="containsBlanks" dxfId="21" priority="3">
+      <formula>LEN(TRIM(C37))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C41:C42">
+    <cfRule type="containsBlanks" dxfId="20" priority="1">
+      <formula>LEN(TRIM(C41))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="C87">
-    <cfRule type="containsBlanks" dxfId="19" priority="4">
+    <cfRule type="containsBlanks" dxfId="19" priority="7">
       <formula>LEN(TRIM(C87))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C98">
-    <cfRule type="containsBlanks" dxfId="18" priority="3">
+    <cfRule type="containsBlanks" dxfId="18" priority="6">
       <formula>LEN(TRIM(C98))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D34:M43">
-    <cfRule type="containsBlanks" dxfId="17" priority="17">
-      <formula>LEN(TRIM(D34))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="E98">
-    <cfRule type="containsBlanks" dxfId="16" priority="1">
+    <cfRule type="containsBlanks" dxfId="17" priority="4">
       <formula>LEN(TRIM(E98))=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4046,8 +4073,8 @@
   </sheetPr>
   <dimension ref="A1:J923"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -4088,7 +4115,7 @@
     </row>
     <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B3" s="3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C3" s="289" t="str">
         <f>Inputs!C4</f>
@@ -4100,15 +4127,15 @@
         <v>1</v>
       </c>
       <c r="G3" s="132">
-        <v>93.7</v>
+        <v>95.25</v>
       </c>
       <c r="H3" s="134" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B4" s="35" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C4" s="291" t="str">
         <f>Inputs!C5</f>
@@ -4128,7 +4155,7 @@
     </row>
     <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B5" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C5" s="293">
         <f>Inputs!C6</f>
@@ -4141,7 +4168,7 @@
       </c>
       <c r="G5" s="287">
         <f>G3*G4/1000000</f>
-        <v>125833.773155</v>
+        <v>127915.3350375</v>
       </c>
       <c r="H5" s="287"/>
       <c r="I5" s="38"/>
@@ -4175,7 +4202,7 @@
     </row>
     <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B7" s="86" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C7" s="187" t="str">
         <f>Inputs!C8</f>
@@ -4190,7 +4217,7 @@
         <v>5</v>
       </c>
       <c r="G7" s="133">
-        <v>1.0691596666971843</v>
+        <v>1.0690929889678955</v>
       </c>
       <c r="H7" s="71" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -4200,40 +4227,40 @@
     <row r="8" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="9" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B9" s="139" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F9" s="143" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B10" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C10" s="172">
         <v>4.2000000000000003E-2</v>
       </c>
       <c r="F10" s="110" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B11" s="122" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C11" s="173">
         <v>5.2299999999999999E-2</v>
       </c>
       <c r="D11" s="137" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F11" s="110" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B12" s="87" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C12" s="174">
         <v>7.4999999999999997E-2</v>
@@ -4246,29 +4273,29 @@
     <row r="13" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="14" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B14" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C14" s="172">
         <v>1.8100000000000002E-2</v>
       </c>
       <c r="F14" s="110" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B15" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C15" s="172">
         <v>6.5000000000000002E-2</v>
       </c>
       <c r="F15" s="110" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B16" s="122" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C16" s="173">
         <v>0.16</v>
@@ -4278,12 +4305,12 @@
         <v>CN</v>
       </c>
       <c r="F16" s="110" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B17" s="87" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C17" s="175">
         <v>8.6249999999999993E-2</v>
@@ -4293,7 +4320,7 @@
     <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="19" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B19" s="142" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="C19" s="135" t="s">
         <v>48</v>
@@ -4301,21 +4328,21 @@
       <c r="D19" s="87"/>
       <c r="E19" s="87"/>
       <c r="F19" s="142" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="G19" s="87"/>
       <c r="H19" s="87"/>
     </row>
     <row r="20" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B20" s="275" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="C20" s="276" t="e">
         <f>C23*C22*(1/C21)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="F20" s="87" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="G20" s="172">
         <v>0.15</v>
@@ -4323,10 +4350,10 @@
     </row>
     <row r="21" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B21" s="277" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="C21" s="278" t="e">
-        <f>Data!C55</f>
+        <f>Data!C53</f>
         <v>#DIV/0!</v>
       </c>
       <c r="F21" s="87"/>
@@ -4334,58 +4361,58 @@
     </row>
     <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B22" s="279" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="C22" s="280" t="e">
-        <f>Data!C50</f>
+        <f>Data!C48</f>
         <v>#DIV/0!</v>
       </c>
       <c r="F22" s="142" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B23" s="281" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="C23" s="282">
         <f>Data!C13</f>
         <v>0.18147838497221025</v>
       </c>
       <c r="F23" s="140" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="G23" s="177" t="e">
-        <f>G3/(Data!C36*Data!C4/Common_Shares*Exchange_Rate)</f>
+        <f>G3/(Data!C34*Data!C4/Common_Shares*Exchange_Rate)</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B24" s="137" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="C24" s="171">
         <f>Fin_Analysis!I81</f>
         <v>5.1320409039705113E-3</v>
       </c>
       <c r="F24" s="140" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="G24" s="268">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>141.22686250076569</v>
+        <v>143.57201307881206</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B25" s="137" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="C25" s="171">
         <f>Fin_Analysis!I80</f>
         <v>0</v>
       </c>
       <c r="F25" s="140" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G25" s="171">
         <f>Fin_Analysis!I88</f>
@@ -4394,18 +4421,18 @@
     </row>
     <row r="26" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B26" s="138" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="C26" s="171">
         <f>Fin_Analysis!I80+Fin_Analysis!I82</f>
         <v>0</v>
       </c>
       <c r="F26" s="141" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="G26" s="178">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>3.2188894554458455E-3</v>
+        <v>3.1663110990849696E-3</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -4415,40 +4442,40 @@
         <v>6</v>
       </c>
       <c r="C28" s="89" t="s">
+        <v>158</v>
+      </c>
+      <c r="D28" s="43" t="s">
         <v>159</v>
-      </c>
-      <c r="D28" s="43" t="s">
-        <v>160</v>
       </c>
       <c r="E28" s="58"/>
       <c r="F28" s="53" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="G28" s="285" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="H28" s="285"/>
     </row>
     <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B29" s="87" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>4.3841733228114332</v>
+        <v>4.3813830969157435</v>
       </c>
       <c r="D29" s="129">
         <f>G29*(1+G20)</f>
-        <v>7.8887262235179278</v>
+        <v>7.8837055898494706</v>
       </c>
       <c r="E29" s="87"/>
       <c r="F29" s="131">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>5.1578509680134506</v>
+        <v>5.1545683493126395</v>
       </c>
       <c r="G29" s="286">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>6.8597619334938509</v>
+        <v>6.8553961650864963</v>
       </c>
       <c r="H29" s="286"/>
     </row>
@@ -4456,21 +4483,21 @@
     <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="5"/>
       <c r="B31" s="6" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C31"/>
     </row>
     <row r="32" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32"/>
       <c r="B32" s="196" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C32" s="224"/>
     </row>
     <row r="33" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33"/>
       <c r="B33" s="20" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C33" s="245" t="str">
         <f>Inputs!C17</f>
@@ -4480,25 +4507,25 @@
     <row r="34" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34"/>
       <c r="B34" s="19" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C34" s="225" t="e">
-        <f>IF(AND(OR(Fin_Analysis!I26&lt;0.8,Fin_Analysis!I46&lt;0.6),Data!C56&lt;0.8),"Strongly disagree",
-IF(AND(OR(Fin_Analysis!I26&lt;1,Fin_Analysis!I46&lt;0.8),Data!C56&lt;1),"unclear", IF(AND(OR(Fin_Analysis!I26&lt;1.4,Fin_Analysis!I46&lt;1.2),Data!C56&lt;1.4),"agree","Strongly agree")))</f>
+        <f>IF(AND(OR(Fin_Analysis!I26&lt;0.8,Fin_Analysis!I46&lt;0.6),Data!C54&lt;0.8),"Strongly disagree",
+IF(AND(OR(Fin_Analysis!I26&lt;1,Fin_Analysis!I46&lt;0.8),Data!C54&lt;1),"unclear", IF(AND(OR(Fin_Analysis!I26&lt;1.4,Fin_Analysis!I46&lt;1.2),Data!C54&lt;1.4),"agree","Strongly agree")))</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35"/>
       <c r="B35" s="196" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C35" s="224"/>
     </row>
     <row r="36" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36"/>
       <c r="B36" s="20" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C36" s="245" t="str">
         <f>Inputs!C18</f>
@@ -4508,7 +4535,7 @@
     <row r="37" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37"/>
       <c r="B37" s="20" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C37" s="245" t="str">
         <f>Inputs!C19</f>
@@ -4518,14 +4545,14 @@
     <row r="38" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38"/>
       <c r="B38" s="196" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C38" s="224"/>
     </row>
     <row r="39" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39"/>
       <c r="B39" s="19" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C39" s="245" t="str">
         <f>Inputs!C20</f>
@@ -4535,7 +4562,7 @@
     <row r="40" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40"/>
       <c r="B40" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C40" s="245" t="str">
         <f>Inputs!C21</f>
@@ -4550,14 +4577,14 @@
     <row r="42" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A42" s="5"/>
       <c r="B42" s="6" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C42"/>
     </row>
     <row r="43" spans="1:3" ht="65.650000000000006" x14ac:dyDescent="0.4">
       <c r="A43"/>
       <c r="B43" s="226" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C43" s="244" t="str">
         <f>Inputs!C22</f>
@@ -5457,27 +5484,27 @@
   </mergeCells>
   <phoneticPr fontId="20" type="noConversion"/>
   <conditionalFormatting sqref="C11:C12 C16:C17">
-    <cfRule type="containsBlanks" dxfId="15" priority="5">
+    <cfRule type="containsBlanks" dxfId="16" priority="5">
       <formula>LEN(TRIM(C11))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D12">
-    <cfRule type="containsBlanks" dxfId="14" priority="3">
+    <cfRule type="containsBlanks" dxfId="15" priority="3">
       <formula>LEN(TRIM(D12))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D17">
-    <cfRule type="containsBlanks" dxfId="13" priority="2">
+    <cfRule type="containsBlanks" dxfId="14" priority="2">
       <formula>LEN(TRIM(D17))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E28">
-    <cfRule type="cellIs" dxfId="12" priority="41" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="13" priority="41" operator="greaterThan">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G20">
-    <cfRule type="containsBlanks" dxfId="11" priority="1">
+    <cfRule type="containsBlanks" dxfId="12" priority="1">
       <formula>LEN(TRIM(G20))=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5509,12 +5536,12 @@
   <sheetPr codeName="Sheet2">
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:N932"/>
+  <dimension ref="A1:N930"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A24" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
       <selection activeCell="A4" sqref="A4"/>
-      <selection pane="topRight" activeCell="C60" sqref="C60"/>
+      <selection pane="topRight" activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5541,16 +5568,16 @@
       <c r="C2" s="18"/>
       <c r="D2" s="17"/>
       <c r="E2" s="148" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F2" s="119" t="s">
+        <v>188</v>
+      </c>
+      <c r="G2" s="148" t="s">
         <v>189</v>
       </c>
-      <c r="G2" s="148" t="s">
+      <c r="H2" s="147" t="s">
         <v>190</v>
-      </c>
-      <c r="H2" s="147" t="s">
-        <v>191</v>
       </c>
       <c r="I2" s="7"/>
       <c r="J2" s="87"/>
@@ -5568,7 +5595,7 @@
         <v>45291</v>
       </c>
       <c r="E3" s="146" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F3" s="85" t="str">
         <f>H14</f>
@@ -5601,7 +5628,7 @@
         <v>CNY</v>
       </c>
       <c r="E4" s="146" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F4" s="93" t="e">
         <f>(G3/F3)^(1/H3)-1</f>
@@ -5612,7 +5639,7 @@
     <row r="5" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="16"/>
       <c r="B5" s="115" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C5" s="48">
         <f>C3</f>
@@ -5968,7 +5995,7 @@
     <row r="12" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="4"/>
       <c r="B12" s="99" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C12" s="199">
         <f>IF(Inputs!C30="","",MAX(Inputs!C30,0)/(1-Fin_Analysis!$I$84))</f>
@@ -6019,7 +6046,7 @@
     <row r="13" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="4"/>
       <c r="B13" s="228" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C13" s="229">
         <f t="shared" ref="C13:M13" si="3">IF(C14="","",C14/C6)</f>
@@ -6070,7 +6097,7 @@
     <row r="14" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="4"/>
       <c r="B14" s="228" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C14" s="230">
         <f>IF(C6="","",C9-C10-MAX(C11,0)-MAX(C12,0))</f>
@@ -6121,7 +6148,7 @@
     <row r="15" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="4"/>
       <c r="B15" s="231" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C15" s="232">
         <f>IF(D14="","",IF(ABS(C14+D14)=ABS(C14)+ABS(D14),IF(C14&lt;0,-1,1)*(C14-D14)/D14,"Turn"))</f>
@@ -6223,7 +6250,7 @@
     <row r="17" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="4"/>
       <c r="B17" s="97" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C17" s="199">
         <f>IF(Inputs!C29="","",Inputs!C29)</f>
@@ -6376,7 +6403,7 @@
     <row r="20" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="4"/>
       <c r="B20" s="97" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C20" s="152">
         <f t="shared" ref="C20:M20" si="7">IF(C6="","",MAX(C21,0)/C6)</f>
@@ -6631,7 +6658,7 @@
     <row r="25" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A25" s="4"/>
       <c r="B25" s="234" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C25" s="233">
         <f>IF(D24="","",IF(ABS(C24+D24)=ABS(C24)+ABS(D24),IF(C24&lt;0,-1,1)*(C24-D24)/D24,"Turn"))</f>
@@ -6682,7 +6709,7 @@
     <row r="26" spans="1:14" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="A26" s="16"/>
       <c r="B26" s="114" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C26" s="48">
         <f>Fin_Analysis!D9</f>
@@ -6736,15 +6763,15 @@
         <v>13</v>
       </c>
       <c r="C27" s="65">
-        <f>IF(C36="","",C36+C31+C32)</f>
+        <f>IF(C34="","",C34+C30)</f>
         <v>0</v>
       </c>
       <c r="D27" s="65" t="str">
-        <f t="shared" ref="D27:M27" si="20">IF(D36="","",D36+D31+D32)</f>
+        <f>IF(D34="","",D34+D30)</f>
         <v/>
       </c>
       <c r="E27" s="65" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" ref="E27:M27" si="20">IF(E34="","",E34+E30)</f>
         <v/>
       </c>
       <c r="F27" s="65" t="str">
@@ -6784,50 +6811,50 @@
     <row r="28" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A28" s="4"/>
       <c r="B28" s="94" t="s">
-        <v>14</v>
+        <v>112</v>
       </c>
       <c r="C28" s="65">
-        <f>Fin_Analysis!C28</f>
+        <f>Fin_Analysis!C13</f>
         <v>0</v>
       </c>
       <c r="D28" s="199" t="str">
-        <f>IF(Inputs!D34="","",Inputs!D34)</f>
+        <f>IF(Inputs!D35="","",Inputs!D35)</f>
         <v/>
       </c>
       <c r="E28" s="199" t="str">
-        <f>IF(Inputs!E34="","",Inputs!E34)</f>
+        <f>IF(Inputs!E35="","",Inputs!E35)</f>
         <v/>
       </c>
       <c r="F28" s="199" t="str">
-        <f>IF(Inputs!F34="","",Inputs!F34)</f>
+        <f>IF(Inputs!F35="","",Inputs!F35)</f>
         <v/>
       </c>
       <c r="G28" s="199" t="str">
-        <f>IF(Inputs!G34="","",Inputs!G34)</f>
+        <f>IF(Inputs!G35="","",Inputs!G35)</f>
         <v/>
       </c>
       <c r="H28" s="199" t="str">
-        <f>IF(Inputs!H34="","",Inputs!H34)</f>
+        <f>IF(Inputs!H35="","",Inputs!H35)</f>
         <v/>
       </c>
       <c r="I28" s="199" t="str">
-        <f>IF(Inputs!I34="","",Inputs!I34)</f>
+        <f>IF(Inputs!I35="","",Inputs!I35)</f>
         <v/>
       </c>
       <c r="J28" s="199" t="str">
-        <f>IF(Inputs!J34="","",Inputs!J34)</f>
+        <f>IF(Inputs!J35="","",Inputs!J35)</f>
         <v/>
       </c>
       <c r="K28" s="199" t="str">
-        <f>IF(Inputs!K34="","",Inputs!K34)</f>
+        <f>IF(Inputs!K35="","",Inputs!K35)</f>
         <v/>
       </c>
       <c r="L28" s="199" t="str">
-        <f>IF(Inputs!L34="","",Inputs!L34)</f>
+        <f>IF(Inputs!L35="","",Inputs!L35)</f>
         <v/>
       </c>
       <c r="M28" s="199" t="str">
-        <f>IF(Inputs!M34="","",Inputs!M34)</f>
+        <f>IF(Inputs!M35="","",Inputs!M35)</f>
         <v/>
       </c>
       <c r="N28" s="87"/>
@@ -6835,50 +6862,50 @@
     <row r="29" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A29" s="4"/>
       <c r="B29" s="94" t="s">
-        <v>113</v>
+        <v>141</v>
       </c>
       <c r="C29" s="65">
-        <f>Fin_Analysis!C13</f>
+        <f>Fin_Analysis!C18</f>
         <v>0</v>
       </c>
       <c r="D29" s="199" t="str">
-        <f>IF(Inputs!D35="","",Inputs!D35)</f>
+        <f>IF(Inputs!D36="","",Inputs!D36)</f>
         <v/>
       </c>
       <c r="E29" s="199" t="str">
-        <f>IF(Inputs!E35="","",Inputs!E35)</f>
+        <f>IF(Inputs!E36="","",Inputs!E36)</f>
         <v/>
       </c>
       <c r="F29" s="199" t="str">
-        <f>IF(Inputs!F35="","",Inputs!F35)</f>
+        <f>IF(Inputs!F36="","",Inputs!F36)</f>
         <v/>
       </c>
       <c r="G29" s="199" t="str">
-        <f>IF(Inputs!G35="","",Inputs!G35)</f>
+        <f>IF(Inputs!G36="","",Inputs!G36)</f>
         <v/>
       </c>
       <c r="H29" s="199" t="str">
-        <f>IF(Inputs!H35="","",Inputs!H35)</f>
+        <f>IF(Inputs!H36="","",Inputs!H36)</f>
         <v/>
       </c>
       <c r="I29" s="199" t="str">
-        <f>IF(Inputs!I35="","",Inputs!I35)</f>
+        <f>IF(Inputs!I36="","",Inputs!I36)</f>
         <v/>
       </c>
       <c r="J29" s="199" t="str">
-        <f>IF(Inputs!J35="","",Inputs!J35)</f>
+        <f>IF(Inputs!J36="","",Inputs!J36)</f>
         <v/>
       </c>
       <c r="K29" s="199" t="str">
-        <f>IF(Inputs!K35="","",Inputs!K35)</f>
+        <f>IF(Inputs!K36="","",Inputs!K36)</f>
         <v/>
       </c>
       <c r="L29" s="199" t="str">
-        <f>IF(Inputs!L35="","",Inputs!L35)</f>
+        <f>IF(Inputs!L36="","",Inputs!L36)</f>
         <v/>
       </c>
       <c r="M29" s="199" t="str">
-        <f>IF(Inputs!M35="","",Inputs!M35)</f>
+        <f>IF(Inputs!M36="","",Inputs!M36)</f>
         <v/>
       </c>
       <c r="N29" s="87"/>
@@ -6886,101 +6913,101 @@
     <row r="30" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A30" s="4"/>
       <c r="B30" s="94" t="s">
-        <v>142</v>
+        <v>264</v>
       </c>
       <c r="C30" s="65">
-        <f>Fin_Analysis!C18</f>
+        <f>Inputs!C37</f>
         <v>0</v>
       </c>
       <c r="D30" s="199" t="str">
-        <f>IF(Inputs!D36="","",Inputs!D36)</f>
+        <f>IF(Inputs!D37="","",Inputs!D37)</f>
         <v/>
       </c>
       <c r="E30" s="199" t="str">
-        <f>IF(Inputs!E36="","",Inputs!E36)</f>
+        <f>IF(Inputs!E37="","",Inputs!E37)</f>
         <v/>
       </c>
       <c r="F30" s="199" t="str">
-        <f>IF(Inputs!F36="","",Inputs!F36)</f>
+        <f>IF(Inputs!F37="","",Inputs!F37)</f>
         <v/>
       </c>
       <c r="G30" s="199" t="str">
-        <f>IF(Inputs!G36="","",Inputs!G36)</f>
+        <f>IF(Inputs!G37="","",Inputs!G37)</f>
         <v/>
       </c>
       <c r="H30" s="199" t="str">
-        <f>IF(Inputs!H36="","",Inputs!H36)</f>
+        <f>IF(Inputs!H37="","",Inputs!H37)</f>
         <v/>
       </c>
       <c r="I30" s="199" t="str">
-        <f>IF(Inputs!I36="","",Inputs!I36)</f>
+        <f>IF(Inputs!I37="","",Inputs!I37)</f>
         <v/>
       </c>
       <c r="J30" s="199" t="str">
-        <f>IF(Inputs!J36="","",Inputs!J36)</f>
+        <f>IF(Inputs!J37="","",Inputs!J37)</f>
         <v/>
       </c>
       <c r="K30" s="199" t="str">
-        <f>IF(Inputs!K36="","",Inputs!K36)</f>
+        <f>IF(Inputs!K37="","",Inputs!K37)</f>
         <v/>
       </c>
       <c r="L30" s="199" t="str">
-        <f>IF(Inputs!L36="","",Inputs!L36)</f>
+        <f>IF(Inputs!L37="","",Inputs!L37)</f>
         <v/>
       </c>
       <c r="M30" s="199" t="str">
-        <f>IF(Inputs!M36="","",Inputs!M36)</f>
+        <f>IF(Inputs!M37="","",Inputs!M37)</f>
         <v/>
       </c>
       <c r="N30" s="87"/>
     </row>
-    <row r="31" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:14" ht="15.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="4"/>
       <c r="B31" s="94" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C31" s="65">
-        <f>Fin_Analysis!I28</f>
+        <f>Fin_Analysis!I15</f>
         <v>0</v>
       </c>
       <c r="D31" s="199" t="str">
-        <f>IF(Inputs!D37="","",Inputs!D37)</f>
+        <f>IF(Inputs!D39="","",Inputs!D39)</f>
         <v/>
       </c>
       <c r="E31" s="199" t="str">
-        <f>IF(Inputs!E37="","",Inputs!E37)</f>
+        <f>IF(Inputs!E39="","",Inputs!E39)</f>
         <v/>
       </c>
       <c r="F31" s="199" t="str">
-        <f>IF(Inputs!F37="","",Inputs!F37)</f>
+        <f>IF(Inputs!F39="","",Inputs!F39)</f>
         <v/>
       </c>
       <c r="G31" s="199" t="str">
-        <f>IF(Inputs!G37="","",Inputs!G37)</f>
+        <f>IF(Inputs!G39="","",Inputs!G39)</f>
         <v/>
       </c>
       <c r="H31" s="199" t="str">
-        <f>IF(Inputs!H37="","",Inputs!H37)</f>
+        <f>IF(Inputs!H39="","",Inputs!H39)</f>
         <v/>
       </c>
       <c r="I31" s="199" t="str">
-        <f>IF(Inputs!I37="","",Inputs!I37)</f>
+        <f>IF(Inputs!I39="","",Inputs!I39)</f>
         <v/>
       </c>
       <c r="J31" s="199" t="str">
-        <f>IF(Inputs!J37="","",Inputs!J37)</f>
+        <f>IF(Inputs!J39="","",Inputs!J39)</f>
         <v/>
       </c>
       <c r="K31" s="199" t="str">
-        <f>IF(Inputs!K37="","",Inputs!K37)</f>
+        <f>IF(Inputs!K39="","",Inputs!K39)</f>
         <v/>
       </c>
       <c r="L31" s="199" t="str">
-        <f>IF(Inputs!L37="","",Inputs!L37)</f>
+        <f>IF(Inputs!L39="","",Inputs!L39)</f>
         <v/>
       </c>
       <c r="M31" s="199" t="str">
-        <f>IF(Inputs!M37="","",Inputs!M37)</f>
+        <f>IF(Inputs!M39="","",Inputs!M39)</f>
         <v/>
       </c>
       <c r="N31" s="87"/>
@@ -6988,101 +7015,101 @@
     <row r="32" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32" s="4"/>
       <c r="B32" s="94" t="s">
-        <v>112</v>
+        <v>17</v>
       </c>
       <c r="C32" s="65">
-        <f>Fin_Analysis!I48</f>
+        <f>Fin_Analysis!I34</f>
         <v>0</v>
       </c>
       <c r="D32" s="199" t="str">
-        <f>IF(Inputs!D38="","",Inputs!D38)</f>
+        <f>IF(Inputs!D40="","",Inputs!D40)</f>
         <v/>
       </c>
       <c r="E32" s="199" t="str">
-        <f>IF(Inputs!E38="","",Inputs!E38)</f>
+        <f>IF(Inputs!E40="","",Inputs!E40)</f>
         <v/>
       </c>
       <c r="F32" s="199" t="str">
-        <f>IF(Inputs!F38="","",Inputs!F38)</f>
+        <f>IF(Inputs!F40="","",Inputs!F40)</f>
         <v/>
       </c>
       <c r="G32" s="199" t="str">
-        <f>IF(Inputs!G38="","",Inputs!G38)</f>
+        <f>IF(Inputs!G40="","",Inputs!G40)</f>
         <v/>
       </c>
       <c r="H32" s="199" t="str">
-        <f>IF(Inputs!H38="","",Inputs!H38)</f>
+        <f>IF(Inputs!H40="","",Inputs!H40)</f>
         <v/>
       </c>
       <c r="I32" s="199" t="str">
-        <f>IF(Inputs!I38="","",Inputs!I38)</f>
+        <f>IF(Inputs!I40="","",Inputs!I40)</f>
         <v/>
       </c>
       <c r="J32" s="199" t="str">
-        <f>IF(Inputs!J38="","",Inputs!J38)</f>
+        <f>IF(Inputs!J40="","",Inputs!J40)</f>
         <v/>
       </c>
       <c r="K32" s="199" t="str">
-        <f>IF(Inputs!K38="","",Inputs!K38)</f>
+        <f>IF(Inputs!K40="","",Inputs!K40)</f>
         <v/>
       </c>
       <c r="L32" s="199" t="str">
-        <f>IF(Inputs!L38="","",Inputs!L38)</f>
+        <f>IF(Inputs!L40="","",Inputs!L40)</f>
         <v/>
       </c>
       <c r="M32" s="199" t="str">
-        <f>IF(Inputs!M38="","",Inputs!M38)</f>
+        <f>IF(Inputs!M40="","",Inputs!M40)</f>
         <v/>
       </c>
       <c r="N32" s="87"/>
     </row>
-    <row r="33" spans="1:14" ht="15.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33" s="4"/>
       <c r="B33" s="94" t="s">
-        <v>16</v>
-      </c>
-      <c r="C33" s="65">
-        <f>Fin_Analysis!I15</f>
-        <v>0</v>
-      </c>
-      <c r="D33" s="199" t="str">
-        <f>IF(Inputs!D39="","",Inputs!D39)</f>
-        <v/>
-      </c>
-      <c r="E33" s="199" t="str">
-        <f>IF(Inputs!E39="","",Inputs!E39)</f>
-        <v/>
-      </c>
-      <c r="F33" s="199" t="str">
-        <f>IF(Inputs!F39="","",Inputs!F39)</f>
-        <v/>
-      </c>
-      <c r="G33" s="199" t="str">
-        <f>IF(Inputs!G39="","",Inputs!G39)</f>
-        <v/>
-      </c>
-      <c r="H33" s="199" t="str">
-        <f>IF(Inputs!H39="","",Inputs!H39)</f>
-        <v/>
-      </c>
-      <c r="I33" s="199" t="str">
-        <f>IF(Inputs!I39="","",Inputs!I39)</f>
-        <v/>
-      </c>
-      <c r="J33" s="199" t="str">
-        <f>IF(Inputs!J39="","",Inputs!J39)</f>
-        <v/>
-      </c>
-      <c r="K33" s="199" t="str">
-        <f>IF(Inputs!K39="","",Inputs!K39)</f>
-        <v/>
-      </c>
-      <c r="L33" s="199" t="str">
-        <f>IF(Inputs!L39="","",Inputs!L39)</f>
-        <v/>
-      </c>
-      <c r="M33" s="199" t="str">
-        <f>IF(Inputs!M39="","",Inputs!M39)</f>
+        <v>18</v>
+      </c>
+      <c r="C33" s="77">
+        <f t="shared" ref="C33" si="21">IF(OR(C31="",C32=""),"",C31+C32)</f>
+        <v>0</v>
+      </c>
+      <c r="D33" s="77" t="str">
+        <f t="shared" ref="D33" si="22">IF(OR(D31="",D32=""),"",D31+D32)</f>
+        <v/>
+      </c>
+      <c r="E33" s="77" t="str">
+        <f t="shared" ref="E33" si="23">IF(OR(E31="",E32=""),"",E31+E32)</f>
+        <v/>
+      </c>
+      <c r="F33" s="77" t="str">
+        <f t="shared" ref="F33" si="24">IF(OR(F31="",F32=""),"",F31+F32)</f>
+        <v/>
+      </c>
+      <c r="G33" s="77" t="str">
+        <f t="shared" ref="G33" si="25">IF(OR(G31="",G32=""),"",G31+G32)</f>
+        <v/>
+      </c>
+      <c r="H33" s="77" t="str">
+        <f t="shared" ref="H33" si="26">IF(OR(H31="",H32=""),"",H31+H32)</f>
+        <v/>
+      </c>
+      <c r="I33" s="77" t="str">
+        <f t="shared" ref="I33" si="27">IF(OR(I31="",I32=""),"",I31+I32)</f>
+        <v/>
+      </c>
+      <c r="J33" s="77" t="str">
+        <f t="shared" ref="J33" si="28">IF(OR(J31="",J32=""),"",J31+J32)</f>
+        <v/>
+      </c>
+      <c r="K33" s="77" t="str">
+        <f t="shared" ref="K33" si="29">IF(OR(K31="",K32=""),"",K31+K32)</f>
+        <v/>
+      </c>
+      <c r="L33" s="77" t="str">
+        <f t="shared" ref="L33" si="30">IF(OR(L31="",L32=""),"",L31+L32)</f>
+        <v/>
+      </c>
+      <c r="M33" s="77" t="str">
+        <f t="shared" ref="M33" si="31">IF(OR(M31="",M32=""),"",M31+M32)</f>
         <v/>
       </c>
       <c r="N33" s="87"/>
@@ -7090,50 +7117,50 @@
     <row r="34" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34" s="4"/>
       <c r="B34" s="94" t="s">
-        <v>17</v>
+        <v>132</v>
       </c>
       <c r="C34" s="65">
-        <f>Fin_Analysis!I34</f>
+        <f>Inputs!C41</f>
         <v>0</v>
       </c>
       <c r="D34" s="199" t="str">
-        <f>IF(Inputs!D40="","",Inputs!D40)</f>
+        <f>IF(Inputs!D41="","",Inputs!D41)</f>
         <v/>
       </c>
       <c r="E34" s="199" t="str">
-        <f>IF(Inputs!E40="","",Inputs!E40)</f>
+        <f>IF(Inputs!E41="","",Inputs!E41)</f>
         <v/>
       </c>
       <c r="F34" s="199" t="str">
-        <f>IF(Inputs!F40="","",Inputs!F40)</f>
+        <f>IF(Inputs!F41="","",Inputs!F41)</f>
         <v/>
       </c>
       <c r="G34" s="199" t="str">
-        <f>IF(Inputs!G40="","",Inputs!G40)</f>
+        <f>IF(Inputs!G41="","",Inputs!G41)</f>
         <v/>
       </c>
       <c r="H34" s="199" t="str">
-        <f>IF(Inputs!H40="","",Inputs!H40)</f>
+        <f>IF(Inputs!H41="","",Inputs!H41)</f>
         <v/>
       </c>
       <c r="I34" s="199" t="str">
-        <f>IF(Inputs!I40="","",Inputs!I40)</f>
+        <f>IF(Inputs!I41="","",Inputs!I41)</f>
         <v/>
       </c>
       <c r="J34" s="199" t="str">
-        <f>IF(Inputs!J40="","",Inputs!J40)</f>
+        <f>IF(Inputs!J41="","",Inputs!J41)</f>
         <v/>
       </c>
       <c r="K34" s="199" t="str">
-        <f>IF(Inputs!K40="","",Inputs!K40)</f>
+        <f>IF(Inputs!K41="","",Inputs!K41)</f>
         <v/>
       </c>
       <c r="L34" s="199" t="str">
-        <f>IF(Inputs!L40="","",Inputs!L40)</f>
+        <f>IF(Inputs!L41="","",Inputs!L41)</f>
         <v/>
       </c>
       <c r="M34" s="199" t="str">
-        <f>IF(Inputs!M40="","",Inputs!M40)</f>
+        <f>IF(Inputs!M41="","",Inputs!M41)</f>
         <v/>
       </c>
       <c r="N34" s="87"/>
@@ -7141,50 +7168,50 @@
     <row r="35" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35" s="4"/>
       <c r="B35" s="94" t="s">
-        <v>18</v>
-      </c>
-      <c r="C35" s="77">
-        <f t="shared" ref="C35" si="21">IF(OR(C33="",C34=""),"",C33+C34)</f>
-        <v>0</v>
-      </c>
-      <c r="D35" s="77" t="str">
-        <f t="shared" ref="D35" si="22">IF(OR(D33="",D34=""),"",D33+D34)</f>
-        <v/>
-      </c>
-      <c r="E35" s="77" t="str">
-        <f t="shared" ref="E35" si="23">IF(OR(E33="",E34=""),"",E33+E34)</f>
-        <v/>
-      </c>
-      <c r="F35" s="77" t="str">
-        <f t="shared" ref="F35" si="24">IF(OR(F33="",F34=""),"",F33+F34)</f>
-        <v/>
-      </c>
-      <c r="G35" s="77" t="str">
-        <f t="shared" ref="G35" si="25">IF(OR(G33="",G34=""),"",G33+G34)</f>
-        <v/>
-      </c>
-      <c r="H35" s="77" t="str">
-        <f t="shared" ref="H35" si="26">IF(OR(H33="",H34=""),"",H33+H34)</f>
-        <v/>
-      </c>
-      <c r="I35" s="77" t="str">
-        <f t="shared" ref="I35" si="27">IF(OR(I33="",I34=""),"",I33+I34)</f>
-        <v/>
-      </c>
-      <c r="J35" s="77" t="str">
-        <f t="shared" ref="J35" si="28">IF(OR(J33="",J34=""),"",J33+J34)</f>
-        <v/>
-      </c>
-      <c r="K35" s="77" t="str">
-        <f t="shared" ref="K35" si="29">IF(OR(K33="",K34=""),"",K33+K34)</f>
-        <v/>
-      </c>
-      <c r="L35" s="77" t="str">
-        <f t="shared" ref="L35" si="30">IF(OR(L33="",L34=""),"",L33+L34)</f>
-        <v/>
-      </c>
-      <c r="M35" s="77" t="str">
-        <f t="shared" ref="M35" si="31">IF(OR(M33="",M34=""),"",M33+M34)</f>
+        <v>133</v>
+      </c>
+      <c r="C35" s="65">
+        <f>Inputs!C42</f>
+        <v>0</v>
+      </c>
+      <c r="D35" s="199" t="str">
+        <f>IF(Inputs!D42="","",Inputs!D42)</f>
+        <v/>
+      </c>
+      <c r="E35" s="199" t="str">
+        <f>IF(Inputs!E42="","",Inputs!E42)</f>
+        <v/>
+      </c>
+      <c r="F35" s="199" t="str">
+        <f>IF(Inputs!F42="","",Inputs!F42)</f>
+        <v/>
+      </c>
+      <c r="G35" s="199" t="str">
+        <f>IF(Inputs!G42="","",Inputs!G42)</f>
+        <v/>
+      </c>
+      <c r="H35" s="199" t="str">
+        <f>IF(Inputs!H42="","",Inputs!H42)</f>
+        <v/>
+      </c>
+      <c r="I35" s="199" t="str">
+        <f>IF(Inputs!I42="","",Inputs!I42)</f>
+        <v/>
+      </c>
+      <c r="J35" s="199" t="str">
+        <f>IF(Inputs!J42="","",Inputs!J42)</f>
+        <v/>
+      </c>
+      <c r="K35" s="199" t="str">
+        <f>IF(Inputs!K42="","",Inputs!K42)</f>
+        <v/>
+      </c>
+      <c r="L35" s="199" t="str">
+        <f>IF(Inputs!L42="","",Inputs!L42)</f>
+        <v/>
+      </c>
+      <c r="M35" s="199" t="str">
+        <f>IF(Inputs!M42="","",Inputs!M42)</f>
         <v/>
       </c>
       <c r="N35" s="87"/>
@@ -7192,50 +7219,50 @@
     <row r="36" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36" s="4"/>
       <c r="B36" s="94" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C36" s="65">
-        <f>Fin_Analysis!D3</f>
+        <f>Inputs!C40</f>
         <v>0</v>
       </c>
       <c r="D36" s="199" t="str">
-        <f>IF(Inputs!D41="","",Inputs!D41)</f>
+        <f>IF(Inputs!D43="","",Inputs!D43)</f>
         <v/>
       </c>
       <c r="E36" s="199" t="str">
-        <f>IF(Inputs!E41="","",Inputs!E41)</f>
+        <f>IF(Inputs!E43="","",Inputs!E43)</f>
         <v/>
       </c>
       <c r="F36" s="199" t="str">
-        <f>IF(Inputs!F41="","",Inputs!F41)</f>
+        <f>IF(Inputs!F43="","",Inputs!F43)</f>
         <v/>
       </c>
       <c r="G36" s="199" t="str">
-        <f>IF(Inputs!G41="","",Inputs!G41)</f>
+        <f>IF(Inputs!G43="","",Inputs!G43)</f>
         <v/>
       </c>
       <c r="H36" s="199" t="str">
-        <f>IF(Inputs!H41="","",Inputs!H41)</f>
+        <f>IF(Inputs!H43="","",Inputs!H43)</f>
         <v/>
       </c>
       <c r="I36" s="199" t="str">
-        <f>IF(Inputs!I41="","",Inputs!I41)</f>
+        <f>IF(Inputs!I43="","",Inputs!I43)</f>
         <v/>
       </c>
       <c r="J36" s="199" t="str">
-        <f>IF(Inputs!J41="","",Inputs!J41)</f>
+        <f>IF(Inputs!J43="","",Inputs!J43)</f>
         <v/>
       </c>
       <c r="K36" s="199" t="str">
-        <f>IF(Inputs!K41="","",Inputs!K41)</f>
+        <f>IF(Inputs!K43="","",Inputs!K43)</f>
         <v/>
       </c>
       <c r="L36" s="199" t="str">
-        <f>IF(Inputs!L41="","",Inputs!L41)</f>
+        <f>IF(Inputs!L43="","",Inputs!L43)</f>
         <v/>
       </c>
       <c r="M36" s="199" t="str">
-        <f>IF(Inputs!M41="","",Inputs!M41)</f>
+        <f>IF(Inputs!M43="","",Inputs!M43)</f>
         <v/>
       </c>
       <c r="N36" s="87"/>
@@ -7243,272 +7270,272 @@
     <row r="37" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37" s="4"/>
       <c r="B37" s="94" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C37" s="65">
-        <f>Fin_Analysis!D4</f>
-        <v>0</v>
-      </c>
-      <c r="D37" s="199" t="str">
-        <f>IF(Inputs!D42="","",Inputs!D42)</f>
-        <v/>
-      </c>
-      <c r="E37" s="199" t="str">
-        <f>IF(Inputs!E42="","",Inputs!E42)</f>
-        <v/>
-      </c>
-      <c r="F37" s="199" t="str">
-        <f>IF(Inputs!F42="","",Inputs!F42)</f>
-        <v/>
-      </c>
-      <c r="G37" s="199" t="str">
-        <f>IF(Inputs!G42="","",Inputs!G42)</f>
-        <v/>
-      </c>
-      <c r="H37" s="199" t="str">
-        <f>IF(Inputs!H42="","",Inputs!H42)</f>
-        <v/>
-      </c>
-      <c r="I37" s="199" t="str">
-        <f>IF(Inputs!I42="","",Inputs!I42)</f>
-        <v/>
-      </c>
-      <c r="J37" s="199" t="str">
-        <f>IF(Inputs!J42="","",Inputs!J42)</f>
-        <v/>
-      </c>
-      <c r="K37" s="199" t="str">
-        <f>IF(Inputs!K42="","",Inputs!K42)</f>
-        <v/>
-      </c>
-      <c r="L37" s="199" t="str">
-        <f>IF(Inputs!L42="","",Inputs!L42)</f>
-        <v/>
-      </c>
-      <c r="M37" s="199" t="str">
-        <f>IF(Inputs!M42="","",Inputs!M42)</f>
+        <f>Fin_Analysis!C68</f>
+        <v>0</v>
+      </c>
+      <c r="D37" s="65" t="str">
+        <f t="shared" ref="D37:M37" si="32">IF(D36="","",D27-D36)</f>
+        <v/>
+      </c>
+      <c r="E37" s="65" t="str">
+        <f t="shared" si="32"/>
+        <v/>
+      </c>
+      <c r="F37" s="65" t="str">
+        <f t="shared" si="32"/>
+        <v/>
+      </c>
+      <c r="G37" s="65" t="str">
+        <f t="shared" si="32"/>
+        <v/>
+      </c>
+      <c r="H37" s="65" t="str">
+        <f t="shared" si="32"/>
+        <v/>
+      </c>
+      <c r="I37" s="65" t="str">
+        <f t="shared" si="32"/>
+        <v/>
+      </c>
+      <c r="J37" s="65" t="str">
+        <f t="shared" si="32"/>
+        <v/>
+      </c>
+      <c r="K37" s="65" t="str">
+        <f t="shared" si="32"/>
+        <v/>
+      </c>
+      <c r="L37" s="65" t="str">
+        <f t="shared" si="32"/>
+        <v/>
+      </c>
+      <c r="M37" s="65" t="str">
+        <f t="shared" si="32"/>
         <v/>
       </c>
       <c r="N37" s="87"/>
     </row>
     <row r="38" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38" s="4"/>
-      <c r="B38" s="94" t="s">
-        <v>132</v>
-      </c>
-      <c r="C38" s="65">
-        <f>Fin_Analysis!C63</f>
-        <v>0</v>
-      </c>
-      <c r="D38" s="199" t="str">
-        <f>IF(Inputs!D43="","",Inputs!D43)</f>
-        <v/>
-      </c>
-      <c r="E38" s="199" t="str">
-        <f>IF(Inputs!E43="","",Inputs!E43)</f>
-        <v/>
-      </c>
-      <c r="F38" s="199" t="str">
-        <f>IF(Inputs!F43="","",Inputs!F43)</f>
-        <v/>
-      </c>
-      <c r="G38" s="199" t="str">
-        <f>IF(Inputs!G43="","",Inputs!G43)</f>
-        <v/>
-      </c>
-      <c r="H38" s="199" t="str">
-        <f>IF(Inputs!H43="","",Inputs!H43)</f>
-        <v/>
-      </c>
-      <c r="I38" s="199" t="str">
-        <f>IF(Inputs!I43="","",Inputs!I43)</f>
-        <v/>
-      </c>
-      <c r="J38" s="199" t="str">
-        <f>IF(Inputs!J43="","",Inputs!J43)</f>
-        <v/>
-      </c>
-      <c r="K38" s="199" t="str">
-        <f>IF(Inputs!K43="","",Inputs!K43)</f>
-        <v/>
-      </c>
-      <c r="L38" s="199" t="str">
-        <f>IF(Inputs!L43="","",Inputs!L43)</f>
-        <v/>
-      </c>
-      <c r="M38" s="199" t="str">
-        <f>IF(Inputs!M43="","",Inputs!M43)</f>
+      <c r="B38" s="98" t="s">
+        <v>149</v>
+      </c>
+      <c r="C38" s="155" t="e">
+        <f>IF(C6="","",C14/MAX(C37,0))</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D38" s="155" t="e">
+        <f>IF(D6="","",D14/MAX(D37,0))</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E38" s="155" t="str">
+        <f>IF(E6="","",E14/MAX(E37,0))</f>
+        <v/>
+      </c>
+      <c r="F38" s="155" t="str">
+        <f t="shared" ref="F38:M38" si="33">IF(F37="","",F14/F37)</f>
+        <v/>
+      </c>
+      <c r="G38" s="155" t="str">
+        <f t="shared" si="33"/>
+        <v/>
+      </c>
+      <c r="H38" s="155" t="str">
+        <f t="shared" si="33"/>
+        <v/>
+      </c>
+      <c r="I38" s="155" t="str">
+        <f t="shared" si="33"/>
+        <v/>
+      </c>
+      <c r="J38" s="155" t="str">
+        <f t="shared" si="33"/>
+        <v/>
+      </c>
+      <c r="K38" s="155" t="str">
+        <f t="shared" si="33"/>
+        <v/>
+      </c>
+      <c r="L38" s="155" t="str">
+        <f t="shared" si="33"/>
+        <v/>
+      </c>
+      <c r="M38" s="155" t="str">
+        <f t="shared" si="33"/>
         <v/>
       </c>
       <c r="N38" s="87"/>
     </row>
     <row r="39" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A39" s="4"/>
-      <c r="B39" s="94" t="s">
-        <v>136</v>
-      </c>
-      <c r="C39" s="65">
-        <f>Fin_Analysis!C68</f>
-        <v>0</v>
-      </c>
-      <c r="D39" s="65" t="str">
-        <f>IF(D38="","",D27-D38)</f>
-        <v/>
-      </c>
-      <c r="E39" s="65" t="str">
-        <f t="shared" ref="E39:M39" si="32">IF(E38="","",E27-E38)</f>
-        <v/>
-      </c>
-      <c r="F39" s="65" t="str">
-        <f t="shared" si="32"/>
-        <v/>
-      </c>
-      <c r="G39" s="65" t="str">
-        <f t="shared" si="32"/>
-        <v/>
-      </c>
-      <c r="H39" s="65" t="str">
-        <f t="shared" si="32"/>
-        <v/>
-      </c>
-      <c r="I39" s="65" t="str">
-        <f t="shared" si="32"/>
-        <v/>
-      </c>
-      <c r="J39" s="65" t="str">
-        <f t="shared" si="32"/>
-        <v/>
-      </c>
-      <c r="K39" s="65" t="str">
-        <f t="shared" si="32"/>
-        <v/>
-      </c>
-      <c r="L39" s="65" t="str">
-        <f t="shared" si="32"/>
-        <v/>
-      </c>
-      <c r="M39" s="65" t="str">
-        <f t="shared" si="32"/>
-        <v/>
-      </c>
+      <c r="A39" s="16"/>
+      <c r="B39" s="55" t="s">
+        <v>248</v>
+      </c>
+      <c r="C39" s="54"/>
+      <c r="D39" s="54"/>
+      <c r="E39" s="54"/>
+      <c r="F39" s="54"/>
+      <c r="G39" s="54"/>
+      <c r="H39" s="54"/>
+      <c r="I39" s="54"/>
+      <c r="J39" s="54"/>
+      <c r="K39" s="54"/>
+      <c r="L39" s="54"/>
+      <c r="M39" s="54"/>
       <c r="N39" s="87"/>
     </row>
     <row r="40" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40" s="4"/>
-      <c r="B40" s="98" t="s">
-        <v>150</v>
-      </c>
-      <c r="C40" s="155" t="e">
-        <f>IF(C6="","",C14/MAX(C39,0))</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D40" s="155" t="e">
-        <f>IF(D6="","",D14/MAX(D39,0))</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E40" s="155" t="str">
-        <f>IF(E6="","",E14/MAX(E39,0))</f>
-        <v/>
-      </c>
-      <c r="F40" s="155" t="str">
-        <f t="shared" ref="F40:M40" si="33">IF(F39="","",F14/F39)</f>
-        <v/>
-      </c>
-      <c r="G40" s="155" t="str">
-        <f t="shared" si="33"/>
-        <v/>
-      </c>
-      <c r="H40" s="155" t="str">
-        <f t="shared" si="33"/>
-        <v/>
-      </c>
-      <c r="I40" s="155" t="str">
-        <f t="shared" si="33"/>
-        <v/>
-      </c>
-      <c r="J40" s="155" t="str">
-        <f t="shared" si="33"/>
-        <v/>
-      </c>
-      <c r="K40" s="155" t="str">
-        <f t="shared" si="33"/>
-        <v/>
-      </c>
-      <c r="L40" s="155" t="str">
-        <f t="shared" si="33"/>
-        <v/>
-      </c>
-      <c r="M40" s="155" t="str">
-        <f t="shared" si="33"/>
+      <c r="B40" s="95" t="s">
+        <v>94</v>
+      </c>
+      <c r="C40" s="156">
+        <f t="shared" ref="C40:M40" si="34">IF(C6="","",C8/C6)</f>
+        <v>0.38675293231140062</v>
+      </c>
+      <c r="D40" s="156">
+        <f t="shared" si="34"/>
+        <v>0.42509059359923629</v>
+      </c>
+      <c r="E40" s="156" t="str">
+        <f t="shared" si="34"/>
+        <v/>
+      </c>
+      <c r="F40" s="156" t="str">
+        <f t="shared" si="34"/>
+        <v/>
+      </c>
+      <c r="G40" s="156" t="str">
+        <f t="shared" si="34"/>
+        <v/>
+      </c>
+      <c r="H40" s="156" t="str">
+        <f t="shared" si="34"/>
+        <v/>
+      </c>
+      <c r="I40" s="156" t="str">
+        <f t="shared" si="34"/>
+        <v/>
+      </c>
+      <c r="J40" s="156" t="str">
+        <f t="shared" si="34"/>
+        <v/>
+      </c>
+      <c r="K40" s="156" t="str">
+        <f t="shared" si="34"/>
+        <v/>
+      </c>
+      <c r="L40" s="156" t="str">
+        <f t="shared" si="34"/>
+        <v/>
+      </c>
+      <c r="M40" s="156" t="str">
+        <f t="shared" si="34"/>
         <v/>
       </c>
       <c r="N40" s="87"/>
     </row>
     <row r="41" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A41" s="16"/>
-      <c r="B41" s="55" t="s">
-        <v>250</v>
-      </c>
-      <c r="C41" s="54"/>
-      <c r="D41" s="54"/>
-      <c r="E41" s="54"/>
-      <c r="F41" s="54"/>
-      <c r="G41" s="54"/>
-      <c r="H41" s="54"/>
-      <c r="I41" s="54"/>
-      <c r="J41" s="54"/>
-      <c r="K41" s="54"/>
-      <c r="L41" s="54"/>
-      <c r="M41" s="54"/>
+      <c r="A41" s="4"/>
+      <c r="B41" s="94" t="s">
+        <v>220</v>
+      </c>
+      <c r="C41" s="153">
+        <f t="shared" ref="C41:M41" si="35">IF(C6="","",(C10+MAX(C11,0))/C6)</f>
+        <v>0.43040868738019761</v>
+      </c>
+      <c r="D41" s="153">
+        <f t="shared" si="35"/>
+        <v>0.46716084901124549</v>
+      </c>
+      <c r="E41" s="153" t="str">
+        <f t="shared" si="35"/>
+        <v/>
+      </c>
+      <c r="F41" s="153" t="str">
+        <f t="shared" si="35"/>
+        <v/>
+      </c>
+      <c r="G41" s="153" t="str">
+        <f t="shared" si="35"/>
+        <v/>
+      </c>
+      <c r="H41" s="153" t="str">
+        <f t="shared" si="35"/>
+        <v/>
+      </c>
+      <c r="I41" s="153" t="str">
+        <f t="shared" si="35"/>
+        <v/>
+      </c>
+      <c r="J41" s="153" t="str">
+        <f t="shared" si="35"/>
+        <v/>
+      </c>
+      <c r="K41" s="153" t="str">
+        <f t="shared" si="35"/>
+        <v/>
+      </c>
+      <c r="L41" s="153" t="str">
+        <f t="shared" si="35"/>
+        <v/>
+      </c>
+      <c r="M41" s="153" t="str">
+        <f t="shared" si="35"/>
+        <v/>
+      </c>
       <c r="N41" s="87"/>
     </row>
     <row r="42" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A42" s="4"/>
-      <c r="B42" s="95" t="s">
-        <v>94</v>
-      </c>
-      <c r="C42" s="156">
-        <f t="shared" ref="C42:M42" si="34">IF(C6="","",C8/C6)</f>
-        <v>0.38675293231140062</v>
-      </c>
-      <c r="D42" s="156">
-        <f t="shared" si="34"/>
-        <v>0.42509059359923629</v>
-      </c>
-      <c r="E42" s="156" t="str">
-        <f t="shared" si="34"/>
-        <v/>
-      </c>
-      <c r="F42" s="156" t="str">
-        <f t="shared" si="34"/>
-        <v/>
-      </c>
-      <c r="G42" s="156" t="str">
-        <f t="shared" si="34"/>
-        <v/>
-      </c>
-      <c r="H42" s="156" t="str">
-        <f t="shared" si="34"/>
-        <v/>
-      </c>
-      <c r="I42" s="156" t="str">
-        <f t="shared" si="34"/>
-        <v/>
-      </c>
-      <c r="J42" s="156" t="str">
-        <f t="shared" si="34"/>
-        <v/>
-      </c>
-      <c r="K42" s="156" t="str">
-        <f t="shared" si="34"/>
-        <v/>
-      </c>
-      <c r="L42" s="156" t="str">
-        <f t="shared" si="34"/>
-        <v/>
-      </c>
-      <c r="M42" s="156" t="str">
-        <f t="shared" si="34"/>
+      <c r="B42" s="94" t="s">
+        <v>105</v>
+      </c>
+      <c r="C42" s="153">
+        <f t="shared" ref="C42:M42" si="36">IF(C6="","",MAX(C16,0)/C6)</f>
+        <v>0</v>
+      </c>
+      <c r="D42" s="153">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="E42" s="153" t="str">
+        <f t="shared" si="36"/>
+        <v/>
+      </c>
+      <c r="F42" s="153" t="str">
+        <f t="shared" si="36"/>
+        <v/>
+      </c>
+      <c r="G42" s="153" t="str">
+        <f t="shared" si="36"/>
+        <v/>
+      </c>
+      <c r="H42" s="153" t="str">
+        <f t="shared" si="36"/>
+        <v/>
+      </c>
+      <c r="I42" s="153" t="str">
+        <f t="shared" si="36"/>
+        <v/>
+      </c>
+      <c r="J42" s="153" t="str">
+        <f t="shared" si="36"/>
+        <v/>
+      </c>
+      <c r="K42" s="153" t="str">
+        <f t="shared" si="36"/>
+        <v/>
+      </c>
+      <c r="L42" s="153" t="str">
+        <f t="shared" si="36"/>
+        <v/>
+      </c>
+      <c r="M42" s="153" t="str">
+        <f t="shared" si="36"/>
         <v/>
       </c>
       <c r="N42" s="87"/>
@@ -7516,50 +7543,50 @@
     <row r="43" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A43" s="4"/>
       <c r="B43" s="94" t="s">
-        <v>221</v>
+        <v>117</v>
       </c>
       <c r="C43" s="153">
-        <f t="shared" ref="C43:M43" si="35">IF(C6="","",(C10+MAX(C11,0))/C6)</f>
-        <v>0.43040868738019761</v>
+        <f t="shared" ref="C43:M43" si="37">IF(C6="","",MAX(C17,0)/C6)</f>
+        <v>5.1320409039705113E-3</v>
       </c>
       <c r="D43" s="153">
-        <f t="shared" si="35"/>
-        <v>0.46716084901124549</v>
+        <f t="shared" si="37"/>
+        <v>8.3552724478507465E-3</v>
       </c>
       <c r="E43" s="153" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="F43" s="153" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="G43" s="153" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="H43" s="153" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="I43" s="153" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="J43" s="153" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="K43" s="153" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="L43" s="153" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="M43" s="153" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="N43" s="87"/>
@@ -7567,50 +7594,50 @@
     <row r="44" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A44" s="4"/>
       <c r="B44" s="94" t="s">
-        <v>105</v>
+        <v>124</v>
       </c>
       <c r="C44" s="153">
-        <f t="shared" ref="C44:M44" si="36">IF(C6="","",MAX(C16,0)/C6)</f>
-        <v>0</v>
+        <f t="shared" ref="C44:M44" si="38">IF(C6="","",MAX(C12,0)/C6)</f>
+        <v>1.3599953361915031E-3</v>
       </c>
       <c r="D44" s="153">
-        <f t="shared" si="36"/>
-        <v>0</v>
+        <f t="shared" si="38"/>
+        <v>4.0716224375850603E-5</v>
       </c>
       <c r="E44" s="153" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="F44" s="153" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="G44" s="153" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="H44" s="153" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="I44" s="153" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="J44" s="153" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="K44" s="153" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="L44" s="153" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="M44" s="153" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="N44" s="87"/>
@@ -7618,50 +7645,50 @@
     <row r="45" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A45" s="4"/>
       <c r="B45" s="94" t="s">
-        <v>118</v>
+        <v>222</v>
       </c>
       <c r="C45" s="153">
-        <f t="shared" ref="C45:M45" si="37">IF(C6="","",MAX(C17,0)/C6)</f>
-        <v>5.1320409039705113E-3</v>
+        <f t="shared" ref="C45:M45" si="39">IF(C6="","",ABS(MAX(C21,0)-MAX(C19,0))/C6)</f>
+        <v>0</v>
       </c>
       <c r="D45" s="153">
-        <f t="shared" si="37"/>
-        <v>8.3552724478507465E-3</v>
+        <f t="shared" si="39"/>
+        <v>0</v>
       </c>
       <c r="E45" s="153" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="F45" s="153" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="G45" s="153" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="H45" s="153" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="I45" s="153" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="J45" s="153" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="K45" s="153" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="L45" s="153" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="M45" s="153" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="N45" s="87"/>
@@ -7669,221 +7696,221 @@
     <row r="46" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A46" s="4"/>
       <c r="B46" s="94" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="C46" s="153">
-        <f>IF(C6="","",MAX(C12,0)/C6)</f>
-        <v>1.3599953361915031E-3</v>
+        <f t="shared" ref="C46:M46" si="40">IF(C6="","",C22/C6)</f>
+        <v>0.17634634406823974</v>
       </c>
       <c r="D46" s="153">
-        <f t="shared" ref="D46:M46" si="38">IF(D6="","",MAX(D12,0)/D6)</f>
-        <v>4.0716224375850603E-5</v>
+        <f t="shared" si="40"/>
+        <v>9.9352568717291659E-2</v>
       </c>
       <c r="E46" s="153" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="F46" s="153" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="G46" s="153" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="H46" s="153" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="I46" s="153" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="J46" s="153" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="K46" s="153" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="L46" s="153" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="M46" s="153" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="N46" s="87"/>
     </row>
     <row r="47" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A47" s="4"/>
-      <c r="B47" s="94" t="s">
-        <v>223</v>
-      </c>
-      <c r="C47" s="153">
-        <f>IF(C6="","",ABS(MAX(C21,0)-MAX(C19,0))/C6)</f>
-        <v>0</v>
-      </c>
-      <c r="D47" s="153">
-        <f t="shared" ref="D47:M47" si="39">IF(D6="","",ABS(MAX(D21,0)-MAX(D19,0))/D6)</f>
-        <v>0</v>
-      </c>
-      <c r="E47" s="153" t="str">
-        <f t="shared" si="39"/>
-        <v/>
-      </c>
-      <c r="F47" s="153" t="str">
-        <f t="shared" si="39"/>
-        <v/>
-      </c>
-      <c r="G47" s="153" t="str">
-        <f t="shared" si="39"/>
-        <v/>
-      </c>
-      <c r="H47" s="153" t="str">
-        <f t="shared" si="39"/>
-        <v/>
-      </c>
-      <c r="I47" s="153" t="str">
-        <f t="shared" si="39"/>
-        <v/>
-      </c>
-      <c r="J47" s="153" t="str">
-        <f t="shared" si="39"/>
-        <v/>
-      </c>
-      <c r="K47" s="153" t="str">
-        <f t="shared" si="39"/>
-        <v/>
-      </c>
-      <c r="L47" s="153" t="str">
-        <f t="shared" si="39"/>
-        <v/>
-      </c>
-      <c r="M47" s="153" t="str">
-        <f t="shared" si="39"/>
-        <v/>
-      </c>
+      <c r="A47" s="16"/>
+      <c r="B47" s="102" t="s">
+        <v>249</v>
+      </c>
+      <c r="C47" s="36"/>
+      <c r="D47" s="36"/>
+      <c r="E47" s="36"/>
+      <c r="F47" s="36"/>
+      <c r="G47" s="36"/>
+      <c r="H47" s="36"/>
+      <c r="I47" s="36"/>
+      <c r="J47" s="36"/>
+      <c r="K47" s="36"/>
+      <c r="L47" s="36"/>
+      <c r="M47" s="36"/>
       <c r="N47" s="87"/>
     </row>
     <row r="48" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A48" s="4"/>
-      <c r="B48" s="94" t="s">
-        <v>120</v>
-      </c>
-      <c r="C48" s="153">
-        <f t="shared" ref="C48:M48" si="40">IF(C6="","",C22/C6)</f>
-        <v>0.17634634406823974</v>
-      </c>
-      <c r="D48" s="153">
-        <f t="shared" si="40"/>
-        <v>9.9352568717291659E-2</v>
-      </c>
-      <c r="E48" s="153" t="str">
-        <f t="shared" si="40"/>
-        <v/>
-      </c>
-      <c r="F48" s="153" t="str">
-        <f t="shared" si="40"/>
-        <v/>
-      </c>
-      <c r="G48" s="153" t="str">
-        <f t="shared" si="40"/>
-        <v/>
-      </c>
-      <c r="H48" s="153" t="str">
-        <f t="shared" si="40"/>
-        <v/>
-      </c>
-      <c r="I48" s="153" t="str">
-        <f t="shared" si="40"/>
-        <v/>
-      </c>
-      <c r="J48" s="153" t="str">
-        <f t="shared" si="40"/>
-        <v/>
-      </c>
-      <c r="K48" s="153" t="str">
-        <f t="shared" si="40"/>
-        <v/>
-      </c>
-      <c r="L48" s="153" t="str">
-        <f t="shared" si="40"/>
-        <v/>
-      </c>
-      <c r="M48" s="153" t="str">
-        <f t="shared" si="40"/>
+      <c r="B48" s="271" t="s">
+        <v>255</v>
+      </c>
+      <c r="C48" s="272" t="e">
+        <f t="shared" ref="C48:M48" si="41">IF(C6="","",C6/C27)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D48" s="272" t="e">
+        <f t="shared" si="41"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E48" s="272" t="str">
+        <f t="shared" si="41"/>
+        <v/>
+      </c>
+      <c r="F48" s="272" t="str">
+        <f t="shared" si="41"/>
+        <v/>
+      </c>
+      <c r="G48" s="272" t="str">
+        <f t="shared" si="41"/>
+        <v/>
+      </c>
+      <c r="H48" s="272" t="str">
+        <f t="shared" si="41"/>
+        <v/>
+      </c>
+      <c r="I48" s="272" t="str">
+        <f t="shared" si="41"/>
+        <v/>
+      </c>
+      <c r="J48" s="272" t="str">
+        <f t="shared" si="41"/>
+        <v/>
+      </c>
+      <c r="K48" s="272" t="str">
+        <f t="shared" si="41"/>
+        <v/>
+      </c>
+      <c r="L48" s="272" t="str">
+        <f t="shared" si="41"/>
+        <v/>
+      </c>
+      <c r="M48" s="272" t="str">
+        <f t="shared" si="41"/>
         <v/>
       </c>
       <c r="N48" s="87"/>
     </row>
     <row r="49" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A49" s="16"/>
-      <c r="B49" s="102" t="s">
-        <v>251</v>
-      </c>
-      <c r="C49" s="36"/>
-      <c r="D49" s="36"/>
-      <c r="E49" s="36"/>
-      <c r="F49" s="36"/>
-      <c r="G49" s="36"/>
-      <c r="H49" s="36"/>
-      <c r="I49" s="36"/>
-      <c r="J49" s="36"/>
-      <c r="K49" s="36"/>
-      <c r="L49" s="36"/>
-      <c r="M49" s="36"/>
+      <c r="A49" s="4"/>
+      <c r="B49" s="94" t="s">
+        <v>256</v>
+      </c>
+      <c r="C49" s="153">
+        <f t="shared" ref="C49:M49" si="42">IF(C28="","",C28/C6)</f>
+        <v>0</v>
+      </c>
+      <c r="D49" s="153" t="str">
+        <f t="shared" si="42"/>
+        <v/>
+      </c>
+      <c r="E49" s="153" t="str">
+        <f t="shared" si="42"/>
+        <v/>
+      </c>
+      <c r="F49" s="153" t="str">
+        <f t="shared" si="42"/>
+        <v/>
+      </c>
+      <c r="G49" s="153" t="str">
+        <f t="shared" si="42"/>
+        <v/>
+      </c>
+      <c r="H49" s="153" t="str">
+        <f t="shared" si="42"/>
+        <v/>
+      </c>
+      <c r="I49" s="153" t="str">
+        <f t="shared" si="42"/>
+        <v/>
+      </c>
+      <c r="J49" s="153" t="str">
+        <f t="shared" si="42"/>
+        <v/>
+      </c>
+      <c r="K49" s="153" t="str">
+        <f t="shared" si="42"/>
+        <v/>
+      </c>
+      <c r="L49" s="153" t="str">
+        <f t="shared" si="42"/>
+        <v/>
+      </c>
+      <c r="M49" s="153" t="str">
+        <f t="shared" si="42"/>
+        <v/>
+      </c>
       <c r="N49" s="87"/>
     </row>
     <row r="50" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A50" s="4"/>
-      <c r="B50" s="271" t="s">
+      <c r="B50" s="94" t="s">
         <v>257</v>
       </c>
-      <c r="C50" s="272" t="e">
-        <f>IF(C6="","",C6/C27)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D50" s="272" t="e">
-        <f t="shared" ref="D50:M50" si="41">IF(D6="","",D6/D27)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="E50" s="272" t="str">
-        <f t="shared" si="41"/>
-        <v/>
-      </c>
-      <c r="F50" s="272" t="str">
-        <f t="shared" si="41"/>
-        <v/>
-      </c>
-      <c r="G50" s="272" t="str">
-        <f t="shared" si="41"/>
-        <v/>
-      </c>
-      <c r="H50" s="272" t="str">
-        <f t="shared" si="41"/>
-        <v/>
-      </c>
-      <c r="I50" s="272" t="str">
-        <f t="shared" si="41"/>
-        <v/>
-      </c>
-      <c r="J50" s="272" t="str">
-        <f t="shared" si="41"/>
-        <v/>
-      </c>
-      <c r="K50" s="272" t="str">
-        <f t="shared" si="41"/>
-        <v/>
-      </c>
-      <c r="L50" s="272" t="str">
-        <f t="shared" si="41"/>
-        <v/>
-      </c>
-      <c r="M50" s="272" t="str">
-        <f t="shared" si="41"/>
+      <c r="C50" s="153">
+        <f t="shared" ref="C50:M50" si="43">IF(C29="","",C29/C6)</f>
+        <v>0</v>
+      </c>
+      <c r="D50" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="E50" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="F50" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="G50" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="H50" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="I50" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="J50" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="K50" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="L50" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="M50" s="153" t="str">
+        <f t="shared" si="43"/>
         <v/>
       </c>
       <c r="N50" s="87"/>
@@ -7891,522 +7918,426 @@
     <row r="51" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A51" s="4"/>
       <c r="B51" s="94" t="s">
-        <v>258</v>
-      </c>
-      <c r="C51" s="153">
-        <f t="shared" ref="C51:M51" si="42">IF(C29="","",C29/C6)</f>
-        <v>0</v>
+        <v>247</v>
+      </c>
+      <c r="C51" s="153" t="e">
+        <f t="shared" ref="C51:M51" si="44">IF(D6="","",C16/(C6-D6))</f>
+        <v>#VALUE!</v>
       </c>
       <c r="D51" s="153" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v/>
       </c>
       <c r="E51" s="153" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v/>
       </c>
       <c r="F51" s="153" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v/>
       </c>
       <c r="G51" s="153" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v/>
       </c>
       <c r="H51" s="153" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v/>
       </c>
       <c r="I51" s="153" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v/>
       </c>
       <c r="J51" s="153" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v/>
       </c>
       <c r="K51" s="153" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v/>
       </c>
       <c r="L51" s="153" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v/>
       </c>
       <c r="M51" s="153" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v/>
       </c>
       <c r="N51" s="87"/>
     </row>
     <row r="52" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A52" s="4"/>
-      <c r="B52" s="94" t="s">
-        <v>259</v>
-      </c>
-      <c r="C52" s="153">
-        <f t="shared" ref="C52:M52" si="43">IF(C30="","",C30/C6)</f>
-        <v>0</v>
-      </c>
-      <c r="D52" s="153" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="E52" s="153" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="F52" s="153" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="G52" s="153" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="H52" s="153" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="I52" s="153" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="J52" s="153" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="K52" s="153" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="L52" s="153" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="M52" s="153" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="N52" s="87"/>
+      <c r="A52" s="16"/>
+      <c r="B52" s="102" t="s">
+        <v>250</v>
+      </c>
+      <c r="C52" s="36"/>
+      <c r="D52" s="36"/>
+      <c r="E52" s="36"/>
+      <c r="F52" s="36"/>
+      <c r="G52" s="36"/>
+      <c r="H52" s="36"/>
+      <c r="I52" s="36"/>
+      <c r="J52" s="36"/>
+      <c r="K52" s="36"/>
+      <c r="L52" s="36"/>
+      <c r="M52" s="36"/>
     </row>
     <row r="53" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A53" s="4"/>
-      <c r="B53" s="94" t="s">
-        <v>248</v>
-      </c>
-      <c r="C53" s="153" t="e">
-        <f>IF(D6="","",C16/(C6-D6))</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D53" s="153" t="str">
-        <f t="shared" ref="D53:M53" si="44">IF(E6="","",D16/(D6-E6))</f>
-        <v/>
-      </c>
-      <c r="E53" s="153" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="F53" s="153" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="G53" s="153" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="H53" s="153" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="I53" s="153" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="J53" s="153" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="K53" s="153" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="L53" s="153" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="M53" s="153" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="N53" s="87"/>
+      <c r="B53" s="95" t="s">
+        <v>251</v>
+      </c>
+      <c r="C53" s="156" t="e">
+        <f t="shared" ref="C53:M53" si="45">IF(C34="","",(C34-C35)/C27)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D53" s="156" t="str">
+        <f t="shared" si="45"/>
+        <v/>
+      </c>
+      <c r="E53" s="156" t="str">
+        <f t="shared" si="45"/>
+        <v/>
+      </c>
+      <c r="F53" s="156" t="str">
+        <f t="shared" si="45"/>
+        <v/>
+      </c>
+      <c r="G53" s="156" t="str">
+        <f t="shared" si="45"/>
+        <v/>
+      </c>
+      <c r="H53" s="156" t="str">
+        <f t="shared" si="45"/>
+        <v/>
+      </c>
+      <c r="I53" s="156" t="str">
+        <f t="shared" si="45"/>
+        <v/>
+      </c>
+      <c r="J53" s="156" t="str">
+        <f t="shared" si="45"/>
+        <v/>
+      </c>
+      <c r="K53" s="156" t="str">
+        <f t="shared" si="45"/>
+        <v/>
+      </c>
+      <c r="L53" s="156" t="str">
+        <f t="shared" si="45"/>
+        <v/>
+      </c>
+      <c r="M53" s="156" t="str">
+        <f t="shared" si="45"/>
+        <v/>
+      </c>
     </row>
     <row r="54" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A54" s="16"/>
-      <c r="B54" s="102" t="s">
-        <v>252</v>
-      </c>
-      <c r="C54" s="36"/>
-      <c r="D54" s="36"/>
-      <c r="E54" s="36"/>
-      <c r="F54" s="36"/>
-      <c r="G54" s="36"/>
-      <c r="H54" s="36"/>
-      <c r="I54" s="36"/>
-      <c r="J54" s="36"/>
-      <c r="K54" s="36"/>
-      <c r="L54" s="36"/>
-      <c r="M54" s="36"/>
+      <c r="A54" s="4"/>
+      <c r="B54" s="94" t="s">
+        <v>116</v>
+      </c>
+      <c r="C54" s="157" t="str">
+        <f t="shared" ref="C54:M54" si="46">IF(OR(C22="",C33=""),"",IF(C33&lt;=0,"-",C22/C33))</f>
+        <v>-</v>
+      </c>
+      <c r="D54" s="157" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+      <c r="E54" s="157" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+      <c r="F54" s="157" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+      <c r="G54" s="157" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+      <c r="H54" s="157" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+      <c r="I54" s="157" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+      <c r="J54" s="157" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+      <c r="K54" s="157" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+      <c r="L54" s="157" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+      <c r="M54" s="157" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
     </row>
     <row r="55" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A55" s="4"/>
-      <c r="B55" s="95" t="s">
-        <v>253</v>
-      </c>
-      <c r="C55" s="156" t="e">
-        <f>IF(C36="","",(C36-C37)/C27)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D55" s="156" t="str">
-        <f t="shared" ref="D55:M55" si="45">IF(D36="","",(D36-D37)/D27)</f>
-        <v/>
-      </c>
-      <c r="E55" s="156" t="str">
-        <f t="shared" si="45"/>
-        <v/>
-      </c>
-      <c r="F55" s="156" t="str">
-        <f t="shared" si="45"/>
-        <v/>
-      </c>
-      <c r="G55" s="156" t="str">
-        <f t="shared" si="45"/>
-        <v/>
-      </c>
-      <c r="H55" s="156" t="str">
-        <f t="shared" si="45"/>
-        <v/>
-      </c>
-      <c r="I55" s="156" t="str">
-        <f t="shared" si="45"/>
-        <v/>
-      </c>
-      <c r="J55" s="156" t="str">
-        <f t="shared" si="45"/>
-        <v/>
-      </c>
-      <c r="K55" s="156" t="str">
-        <f t="shared" si="45"/>
-        <v/>
-      </c>
-      <c r="L55" s="156" t="str">
-        <f t="shared" si="45"/>
-        <v/>
-      </c>
-      <c r="M55" s="156" t="str">
-        <f t="shared" si="45"/>
+      <c r="B55" s="94" t="s">
+        <v>118</v>
+      </c>
+      <c r="C55" s="153">
+        <f t="shared" ref="C55:M55" si="47">IF(C22="","",IF(MAX(C17,0)&lt;=0,"-",C17/C22))</f>
+        <v>2.9102054432070305E-2</v>
+      </c>
+      <c r="D55" s="153">
+        <f t="shared" si="47"/>
+        <v>8.4097196033508959E-2</v>
+      </c>
+      <c r="E55" s="153" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="F55" s="153" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="G55" s="153" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="H55" s="153" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="I55" s="153" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="J55" s="153" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="K55" s="153" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="L55" s="153" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="M55" s="153" t="str">
+        <f t="shared" si="47"/>
         <v/>
       </c>
     </row>
     <row r="56" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A56" s="4"/>
-      <c r="B56" s="94" t="s">
-        <v>117</v>
-      </c>
-      <c r="C56" s="157" t="str">
-        <f t="shared" ref="C56:M56" si="46">IF(OR(C22="",C35=""),"",IF(C35&lt;=0,"-",C22/C35))</f>
-        <v>-</v>
-      </c>
-      <c r="D56" s="157" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-      <c r="E56" s="157" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-      <c r="F56" s="157" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-      <c r="G56" s="157" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-      <c r="H56" s="157" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-      <c r="I56" s="157" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-      <c r="J56" s="157" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-      <c r="K56" s="157" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-      <c r="L56" s="157" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-      <c r="M56" s="157" t="str">
-        <f t="shared" si="46"/>
-        <v/>
+      <c r="B56" s="98" t="s">
+        <v>19</v>
+      </c>
+      <c r="C56" s="158" t="e">
+        <f>IF(#REF!="","",#REF!/C30)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="D56" s="158" t="e">
+        <f>IF(#REF!="","",#REF!/D30)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="E56" s="158" t="e">
+        <f>IF(#REF!="","",#REF!/E30)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="F56" s="158" t="e">
+        <f>IF(#REF!="","",#REF!/F30)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="G56" s="158" t="e">
+        <f>IF(#REF!="","",#REF!/G30)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H56" s="158" t="e">
+        <f>IF(#REF!="","",#REF!/H30)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="I56" s="158" t="e">
+        <f>IF(#REF!="","",#REF!/I30)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="J56" s="158" t="e">
+        <f>IF(#REF!="","",#REF!/J30)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="K56" s="158" t="e">
+        <f>IF(#REF!="","",#REF!/K30)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="L56" s="158" t="e">
+        <f>IF(#REF!="","",#REF!/L30)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="M56" s="158" t="e">
+        <f>IF(#REF!="","",#REF!/M30)</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="57" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A57" s="4"/>
-      <c r="B57" s="94" t="s">
-        <v>119</v>
-      </c>
-      <c r="C57" s="153">
-        <f t="shared" ref="C57:M57" si="47">IF(C22="","",IF(MAX(C17,0)&lt;=0,"-",C17/C22))</f>
-        <v>2.9102054432070305E-2</v>
-      </c>
-      <c r="D57" s="153">
-        <f t="shared" si="47"/>
-        <v>8.4097196033508959E-2</v>
-      </c>
-      <c r="E57" s="153" t="str">
-        <f t="shared" si="47"/>
-        <v/>
-      </c>
-      <c r="F57" s="153" t="str">
-        <f t="shared" si="47"/>
-        <v/>
-      </c>
-      <c r="G57" s="153" t="str">
-        <f t="shared" si="47"/>
-        <v/>
-      </c>
-      <c r="H57" s="153" t="str">
-        <f t="shared" si="47"/>
-        <v/>
-      </c>
-      <c r="I57" s="153" t="str">
-        <f t="shared" si="47"/>
-        <v/>
-      </c>
-      <c r="J57" s="153" t="str">
-        <f t="shared" si="47"/>
-        <v/>
-      </c>
-      <c r="K57" s="153" t="str">
-        <f t="shared" si="47"/>
-        <v/>
-      </c>
-      <c r="L57" s="153" t="str">
-        <f t="shared" si="47"/>
-        <v/>
-      </c>
-      <c r="M57" s="153" t="str">
-        <f t="shared" si="47"/>
+      <c r="A57" s="16"/>
+      <c r="B57" s="102" t="s">
+        <v>252</v>
+      </c>
+      <c r="C57" s="273" t="str">
+        <f t="shared" ref="C57:M57" si="48">IFERROR(IF(C13*C48*(1/C53)=C58,"","Error"),"")</f>
+        <v/>
+      </c>
+      <c r="D57" s="273" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="E57" s="273" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="F57" s="273" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="G57" s="273" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="H57" s="273" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="I57" s="273" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="J57" s="273" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="K57" s="273" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="L57" s="273" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="M57" s="273" t="str">
+        <f t="shared" si="48"/>
         <v/>
       </c>
     </row>
     <row r="58" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A58" s="4"/>
-      <c r="B58" s="98" t="s">
-        <v>19</v>
-      </c>
-      <c r="C58" s="158" t="e">
-        <f t="shared" ref="C58:M58" si="48">IF(C28="","",C28/C31)</f>
+      <c r="B58" s="271" t="s">
+        <v>253</v>
+      </c>
+      <c r="C58" s="274" t="e">
+        <f t="shared" ref="C58:M58" si="49">IF(C14="","",C14/(C34-C35))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D58" s="158" t="str">
-        <f t="shared" si="48"/>
-        <v/>
-      </c>
-      <c r="E58" s="158" t="str">
-        <f t="shared" si="48"/>
-        <v/>
-      </c>
-      <c r="F58" s="158" t="str">
-        <f t="shared" si="48"/>
-        <v/>
-      </c>
-      <c r="G58" s="158" t="str">
-        <f t="shared" si="48"/>
-        <v/>
-      </c>
-      <c r="H58" s="158" t="str">
-        <f t="shared" si="48"/>
-        <v/>
-      </c>
-      <c r="I58" s="158" t="str">
-        <f t="shared" si="48"/>
-        <v/>
-      </c>
-      <c r="J58" s="158" t="str">
-        <f t="shared" si="48"/>
-        <v/>
-      </c>
-      <c r="K58" s="158" t="str">
-        <f t="shared" si="48"/>
-        <v/>
-      </c>
-      <c r="L58" s="158" t="str">
-        <f t="shared" si="48"/>
-        <v/>
-      </c>
-      <c r="M58" s="158" t="str">
-        <f t="shared" si="48"/>
+      <c r="D58" s="274" t="e">
+        <f t="shared" si="49"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E58" s="274" t="str">
+        <f t="shared" si="49"/>
+        <v/>
+      </c>
+      <c r="F58" s="274" t="str">
+        <f t="shared" si="49"/>
+        <v/>
+      </c>
+      <c r="G58" s="274" t="str">
+        <f t="shared" si="49"/>
+        <v/>
+      </c>
+      <c r="H58" s="274" t="str">
+        <f t="shared" si="49"/>
+        <v/>
+      </c>
+      <c r="I58" s="274" t="str">
+        <f t="shared" si="49"/>
+        <v/>
+      </c>
+      <c r="J58" s="274" t="str">
+        <f t="shared" si="49"/>
+        <v/>
+      </c>
+      <c r="K58" s="274" t="str">
+        <f t="shared" si="49"/>
+        <v/>
+      </c>
+      <c r="L58" s="274" t="str">
+        <f t="shared" si="49"/>
+        <v/>
+      </c>
+      <c r="M58" s="274" t="str">
+        <f t="shared" si="49"/>
         <v/>
       </c>
     </row>
     <row r="59" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A59" s="16"/>
-      <c r="B59" s="102" t="s">
+      <c r="A59" s="4"/>
+      <c r="B59" s="271" t="s">
         <v>254</v>
       </c>
-      <c r="C59" s="273" t="str">
-        <f>IFERROR(IF(C13*C50*(1/C55)=C60,"","Error"),"")</f>
-        <v/>
-      </c>
-      <c r="D59" s="273" t="str">
-        <f t="shared" ref="D59:M59" si="49">IFERROR(IF(D13*D50*(1/D55)=D60,"","Error"),"")</f>
-        <v/>
-      </c>
-      <c r="E59" s="273" t="str">
-        <f t="shared" si="49"/>
-        <v/>
-      </c>
-      <c r="F59" s="273" t="str">
-        <f t="shared" si="49"/>
-        <v/>
-      </c>
-      <c r="G59" s="273" t="str">
-        <f t="shared" si="49"/>
-        <v/>
-      </c>
-      <c r="H59" s="273" t="str">
-        <f t="shared" si="49"/>
-        <v/>
-      </c>
-      <c r="I59" s="273" t="str">
-        <f t="shared" si="49"/>
-        <v/>
-      </c>
-      <c r="J59" s="273" t="str">
-        <f t="shared" si="49"/>
-        <v/>
-      </c>
-      <c r="K59" s="273" t="str">
-        <f t="shared" si="49"/>
-        <v/>
-      </c>
-      <c r="L59" s="273" t="str">
-        <f t="shared" si="49"/>
-        <v/>
-      </c>
-      <c r="M59" s="273" t="str">
-        <f t="shared" si="49"/>
+      <c r="C59" s="274" t="e">
+        <f t="shared" ref="C59:M59" si="50">IF(C22="","",C22/(C34-C35))</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D59" s="274" t="e">
+        <f t="shared" si="50"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E59" s="274" t="str">
+        <f t="shared" si="50"/>
+        <v/>
+      </c>
+      <c r="F59" s="274" t="str">
+        <f t="shared" si="50"/>
+        <v/>
+      </c>
+      <c r="G59" s="274" t="str">
+        <f t="shared" si="50"/>
+        <v/>
+      </c>
+      <c r="H59" s="274" t="str">
+        <f t="shared" si="50"/>
+        <v/>
+      </c>
+      <c r="I59" s="274" t="str">
+        <f t="shared" si="50"/>
+        <v/>
+      </c>
+      <c r="J59" s="274" t="str">
+        <f t="shared" si="50"/>
+        <v/>
+      </c>
+      <c r="K59" s="274" t="str">
+        <f t="shared" si="50"/>
+        <v/>
+      </c>
+      <c r="L59" s="274" t="str">
+        <f t="shared" si="50"/>
+        <v/>
+      </c>
+      <c r="M59" s="274" t="str">
+        <f t="shared" si="50"/>
         <v/>
       </c>
     </row>
     <row r="60" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A60" s="4"/>
-      <c r="B60" s="271" t="s">
-        <v>255</v>
-      </c>
-      <c r="C60" s="274" t="e">
-        <f>IF(C14="","",C14/(C36-C37))</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D60" s="274" t="e">
-        <f t="shared" ref="D60:M60" si="50">IF(D14="","",D14/(D36-D37))</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="E60" s="274" t="str">
-        <f t="shared" si="50"/>
-        <v/>
-      </c>
-      <c r="F60" s="274" t="str">
-        <f t="shared" si="50"/>
-        <v/>
-      </c>
-      <c r="G60" s="274" t="str">
-        <f t="shared" si="50"/>
-        <v/>
-      </c>
-      <c r="H60" s="274" t="str">
-        <f t="shared" si="50"/>
-        <v/>
-      </c>
-      <c r="I60" s="274" t="str">
-        <f t="shared" si="50"/>
-        <v/>
-      </c>
-      <c r="J60" s="274" t="str">
-        <f t="shared" si="50"/>
-        <v/>
-      </c>
-      <c r="K60" s="274" t="str">
-        <f t="shared" si="50"/>
-        <v/>
-      </c>
-      <c r="L60" s="274" t="str">
-        <f t="shared" si="50"/>
-        <v/>
-      </c>
-      <c r="M60" s="274" t="str">
-        <f t="shared" si="50"/>
-        <v/>
-      </c>
     </row>
     <row r="61" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A61" s="4"/>
-      <c r="B61" s="271" t="s">
-        <v>256</v>
-      </c>
-      <c r="C61" s="274" t="e">
-        <f>IF(C22="","",C22/(C36-C37))</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D61" s="274" t="e">
-        <f t="shared" ref="D61:M61" si="51">IF(D22="","",D22/(D36-D37))</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="E61" s="274" t="str">
-        <f t="shared" si="51"/>
-        <v/>
-      </c>
-      <c r="F61" s="274" t="str">
-        <f t="shared" si="51"/>
-        <v/>
-      </c>
-      <c r="G61" s="274" t="str">
-        <f t="shared" si="51"/>
-        <v/>
-      </c>
-      <c r="H61" s="274" t="str">
-        <f t="shared" si="51"/>
-        <v/>
-      </c>
-      <c r="I61" s="274" t="str">
-        <f t="shared" si="51"/>
-        <v/>
-      </c>
-      <c r="J61" s="274" t="str">
-        <f t="shared" si="51"/>
-        <v/>
-      </c>
-      <c r="K61" s="274" t="str">
-        <f t="shared" si="51"/>
-        <v/>
-      </c>
-      <c r="L61" s="274" t="str">
-        <f t="shared" si="51"/>
-        <v/>
-      </c>
-      <c r="M61" s="274" t="str">
-        <f t="shared" si="51"/>
-        <v/>
-      </c>
     </row>
     <row r="62" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A62" s="4"/>
@@ -8966,12 +8897,8 @@
     <row r="247" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A247" s="4"/>
     </row>
-    <row r="248" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A248" s="4"/>
-    </row>
-    <row r="249" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A249" s="4"/>
-    </row>
+    <row r="248" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="249" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="250" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="251" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="252" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -9653,27 +9580,30 @@
     <row r="928" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="929" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="930" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="931" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="932" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
   </sheetData>
   <phoneticPr fontId="20" type="noConversion"/>
-  <conditionalFormatting sqref="C6:M23 C27:M40">
-    <cfRule type="containsBlanks" dxfId="10" priority="4">
+  <conditionalFormatting sqref="C6:M23">
+    <cfRule type="containsBlanks" dxfId="11" priority="5">
       <formula>LEN(TRIM(C6))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C25:M25">
-    <cfRule type="containsBlanks" dxfId="9" priority="3">
+    <cfRule type="containsBlanks" dxfId="10" priority="4">
       <formula>LEN(TRIM(C25))=0</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="C27:M38">
+    <cfRule type="containsBlanks" dxfId="9" priority="1">
+      <formula>LEN(TRIM(C27))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="D24:M24">
-    <cfRule type="containsBlanks" dxfId="8" priority="2">
+    <cfRule type="containsBlanks" dxfId="8" priority="3">
       <formula>LEN(TRIM(D24))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F4">
-    <cfRule type="containsBlanks" dxfId="7" priority="1">
+    <cfRule type="containsBlanks" dxfId="7" priority="2">
       <formula>LEN(TRIM(F4))=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9865,7 +9795,7 @@
         <v>30</v>
       </c>
       <c r="D10" s="74" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E10" s="74" t="s">
         <v>31</v>
@@ -9912,7 +9842,7 @@
     </row>
     <row r="12" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B12" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C12" s="40">
         <f>Inputs!C49</f>
@@ -9940,7 +9870,7 @@
     </row>
     <row r="13" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B13" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C13" s="40">
         <f>Inputs!C50</f>
@@ -10023,7 +9953,7 @@
     </row>
     <row r="16" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B16" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C16" s="40">
         <f>Inputs!C53</f>
@@ -10045,7 +9975,7 @@
     </row>
     <row r="17" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B17" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C17" s="40">
         <f>Inputs!C54</f>
@@ -10113,7 +10043,7 @@
     </row>
     <row r="20" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B20" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C20" s="40">
         <f>Inputs!C57</f>
@@ -10435,7 +10365,7 @@
     </row>
     <row r="33" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B33" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C33" s="40">
         <f>Inputs!C63</f>
@@ -10572,7 +10502,7 @@
     </row>
     <row r="38" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B38" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C38" s="40">
         <f>Inputs!C68</f>
@@ -10903,7 +10833,7 @@
     </row>
     <row r="55" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B55" s="25" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C55" s="3"/>
       <c r="E55" s="125"/>
@@ -10969,7 +10899,7 @@
     </row>
     <row r="60" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B60" s="25" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C60" s="3"/>
       <c r="D60" s="75" t="s">
@@ -11004,7 +10934,7 @@
     </row>
     <row r="62" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B62" s="35" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C62" s="117">
         <f>C11+C30</f>
@@ -11025,7 +10955,7 @@
     </row>
     <row r="63" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B63" s="19" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C63" s="68">
         <f>C61+C62</f>
@@ -11046,7 +10976,7 @@
     </row>
     <row r="64" spans="2:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B64" s="121" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C64" s="208"/>
       <c r="D64" s="208"/>
@@ -11061,7 +10991,7 @@
     </row>
     <row r="65" spans="1:11" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B65" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C65" s="68">
         <f>C63-E64</f>
@@ -11092,7 +11022,7 @@
     </row>
     <row r="67" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B67" s="25" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C67" s="3"/>
       <c r="D67" s="75" t="s">
@@ -11106,7 +11036,7 @@
     </row>
     <row r="68" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B68" s="19" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C68" s="68">
         <f>C49-C63</f>
@@ -11127,7 +11057,7 @@
     </row>
     <row r="69" spans="1:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B69" s="121" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C69" s="208"/>
       <c r="D69" s="208"/>
@@ -11142,7 +11072,7 @@
     </row>
     <row r="70" spans="1:11" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B70" s="19" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C70" s="68">
         <f>C68-E69</f>
@@ -11164,7 +11094,7 @@
     <row r="72" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A72" s="5"/>
       <c r="B72" s="106" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C72" s="283">
         <f>Data!C5</f>
@@ -11172,11 +11102,11 @@
       </c>
       <c r="D72" s="283"/>
       <c r="E72" s="297" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F72" s="297"/>
       <c r="H72" s="297" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="I72" s="297"/>
       <c r="K72" s="50" t="s">
@@ -11204,7 +11134,7 @@
     </row>
     <row r="74" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B74" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C74" s="77">
         <f>Data!C6</f>
@@ -11276,7 +11206,7 @@
     </row>
     <row r="77" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B77" s="104" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C77" s="77">
         <f>Data!C10+MAX(Data!C11,0)</f>
@@ -11306,7 +11236,7 @@
     </row>
     <row r="78" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B78" s="73" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C78" s="77">
         <f>MAX(Data!C12,0)</f>
@@ -11336,7 +11266,7 @@
     </row>
     <row r="79" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B79" s="256" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C79" s="257">
         <f>C76-C77-C78</f>
@@ -11394,12 +11324,12 @@
         <v>0</v>
       </c>
       <c r="K80" s="181" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="81" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B81" s="104" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C81" s="77">
         <f>MAX(Data!C17,0)</f>
@@ -11429,7 +11359,7 @@
     </row>
     <row r="82" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B82" s="28" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C82" s="77">
         <f>ABS(MAX(Data!C21,0)-MAX(Data!C19,0))</f>
@@ -11459,7 +11389,7 @@
     </row>
     <row r="83" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B83" s="105" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C83" s="163">
         <f>C79-C81-C82-C80</f>
@@ -11510,7 +11440,7 @@
     </row>
     <row r="85" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B85" s="263" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C85" s="257">
         <f>C83*(1-I84)</f>
@@ -11541,7 +11471,7 @@
     </row>
     <row r="86" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B86" s="87" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C86" s="167">
         <f>C85*Data!C4/Common_Shares</f>
@@ -11562,28 +11492,28 @@
     </row>
     <row r="87" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B87" s="87" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C87" s="261">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>7.0808058912629193E-3</v>
+        <v>6.9651457728816726E-3</v>
       </c>
       <c r="D87" s="209"/>
       <c r="E87" s="262">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>7.0808058912629193E-3</v>
+        <v>6.9651457728816726E-3</v>
       </c>
       <c r="F87" s="209"/>
       <c r="H87" s="262">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>7.0808058912629193E-3</v>
+        <v>6.9651457728816726E-3</v>
       </c>
       <c r="I87" s="209"/>
       <c r="K87" s="24"/>
     </row>
     <row r="88" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B88" s="86" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C88" s="169">
         <f>Inputs!C44</f>
@@ -11613,21 +11543,21 @@
     </row>
     <row r="89" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B89" s="87" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C89" s="261">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>3.2188894554458455E-3</v>
+        <v>3.1663110990849696E-3</v>
       </c>
       <c r="D89" s="209"/>
       <c r="E89" s="261">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>3.2188894554458455E-3</v>
+        <v>3.1663110990849696E-3</v>
       </c>
       <c r="F89" s="209"/>
       <c r="H89" s="261">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>3.2188894554458455E-3</v>
+        <v>3.1663110990849696E-3</v>
       </c>
       <c r="I89" s="209"/>
       <c r="K89" s="24"/>
@@ -11644,27 +11574,27 @@
       </c>
       <c r="C91" s="21"/>
       <c r="K91" s="50" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="92" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B92" s="10" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C92" s="198" t="str">
         <f>Inputs!C15</f>
         <v>CN</v>
       </c>
       <c r="D92" s="10" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E92" s="297" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F92" s="297"/>
       <c r="G92" s="87"/>
       <c r="H92" s="297" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="I92" s="297"/>
       <c r="K92" s="24"/>
@@ -11683,24 +11613,24 @@
         <v>5</v>
       </c>
       <c r="E93" s="87" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F93" s="144">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>10.374280616567683</v>
+        <v>10.367678097849986</v>
       </c>
       <c r="H93" s="87" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="I93" s="144">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>10.374280616567683</v>
+        <v>10.367678097849986</v>
       </c>
       <c r="K93" s="24"/>
     </row>
     <row r="94" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B94" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C94" s="182">
         <f>Dashboard!G20</f>
@@ -11711,18 +11641,18 @@
         <v>0.02</v>
       </c>
       <c r="E94" s="87" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F94" s="144">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
-        <v>4.6263477524054295</v>
+        <v>4.6248471082242331</v>
       </c>
       <c r="H94" s="87" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="I94" s="144">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>4.6263477524054295</v>
+        <v>4.6248471082242331</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -11741,14 +11671,14 @@
         <v>HKD</v>
       </c>
       <c r="D96" s="124" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E96" s="183" t="str">
         <f>E72</f>
         <v>Pessimistic Case</v>
       </c>
       <c r="F96" s="227" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="H96" s="183" t="str">
         <f>H72</f>
@@ -11761,31 +11691,31 @@
     </row>
     <row r="97" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B97" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>6926700.6262145331</v>
+        <v>6922292.2559162164</v>
       </c>
       <c r="D97" s="213"/>
       <c r="E97" s="123">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>5.1578509680134506</v>
+        <v>5.1545683493126395</v>
       </c>
       <c r="F97" s="213"/>
       <c r="H97" s="123">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>5.1578509680134506</v>
+        <v>5.1545683493126395</v>
       </c>
       <c r="I97" s="123">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>6.8597619334938509</v>
+        <v>6.8553961650864963</v>
       </c>
       <c r="K97" s="24"/>
     </row>
     <row r="98" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B98" s="28" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C98" s="91">
         <f>-E53*Exchange_Rate</f>
@@ -11803,7 +11733,7 @@
     </row>
     <row r="99" spans="2:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B99" s="105" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C99" s="108">
         <f>(E65-IF(E70&lt;0,MIN(E65,ABS(E70)),0))*Exchange_Rate</f>
@@ -11828,27 +11758,27 @@
       </c>
       <c r="C100" s="91">
         <f>C97+C98+$C$99</f>
-        <v>6926700.6262145331</v>
+        <v>6922292.2559162164</v>
       </c>
       <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>4.3841733228114332</v>
+        <v>4.3813830969157435</v>
       </c>
       <c r="E100" s="109">
         <f>MAX(E97+H98+E99,0)</f>
-        <v>5.1578509680134506</v>
+        <v>5.1545683493126395</v>
       </c>
       <c r="F100" s="109">
         <f>(E100+H100)/2</f>
-        <v>5.1578509680134506</v>
+        <v>5.1545683493126395</v>
       </c>
       <c r="H100" s="109">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>5.1578509680134506</v>
+        <v>5.1545683493126395</v>
       </c>
       <c r="I100" s="109">
         <f>MAX(I97+H98+H99,0)</f>
-        <v>6.8597619334938509</v>
+        <v>6.8553961650864963</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -11858,21 +11788,21 @@
     </row>
     <row r="102" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B102" s="10" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C102" s="127" t="str">
         <f>C96</f>
         <v>HKD</v>
       </c>
       <c r="D102" s="124" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E102" s="183" t="str">
         <f>E96</f>
         <v>Pessimistic Case</v>
       </c>
       <c r="F102" s="227" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="H102" s="183" t="str">
         <f>H96</f>
@@ -11885,31 +11815,31 @@
     </row>
     <row r="103" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B103" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>3088920.2883616458</v>
+        <v>3087918.3381181736</v>
       </c>
       <c r="D103" s="109">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>1.9550956011111855</v>
+        <v>1.9544614285425617</v>
       </c>
       <c r="E103" s="123">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>2.3001124718955124</v>
+        <v>2.2993663865206608</v>
       </c>
       <c r="F103" s="109">
         <f>(E103+H103)/2</f>
-        <v>2.3001124718955124</v>
+        <v>2.2993663865206608</v>
       </c>
       <c r="H103" s="123">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>2.3001124718955124</v>
+        <v>2.2993663865206608</v>
       </c>
       <c r="I103" s="109">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>3.0590693828325706</v>
+        <v>3.0580771152999713</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -11919,21 +11849,21 @@
     </row>
     <row r="105" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B105" s="10" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C105" s="127" t="str">
         <f>C102</f>
         <v>HKD</v>
       </c>
       <c r="D105" s="124" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E105" s="184" t="str">
         <f>E96</f>
         <v>Pessimistic Case</v>
       </c>
       <c r="F105" s="227" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="H105" s="184" t="str">
         <f>H96</f>
@@ -11946,31 +11876,31 @@
     </row>
     <row r="106" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B106" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C106" s="91">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>5007810.4572880892</v>
+        <v>5005105.2970171943</v>
       </c>
       <c r="D106" s="109">
         <f>(D100+D103)/2</f>
-        <v>3.1696344619613095</v>
+        <v>3.1679222627291526</v>
       </c>
       <c r="E106" s="123">
         <f>(E100+E103)/2</f>
-        <v>3.7289817199544815</v>
+        <v>3.7269673679166502</v>
       </c>
       <c r="F106" s="109">
         <f>(F100+F103)/2</f>
-        <v>3.7289817199544815</v>
+        <v>3.7269673679166502</v>
       </c>
       <c r="H106" s="123">
         <f>(H100+H103)/2</f>
-        <v>3.7289817199544815</v>
+        <v>3.7269673679166502</v>
       </c>
       <c r="I106" s="123">
         <f>(I100+I103)/2</f>
-        <v>4.9594156581632109</v>
+        <v>4.9567366401932338</v>
       </c>
       <c r="K106" s="24"/>
     </row>
@@ -11979,7 +11909,7 @@
     </row>
     <row r="108" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B108" s="10" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C108" s="128" t="str">
         <f>Inputs!C87</f>

--- a/financial_models/opportunities/9992.HK_Valuation.xlsx
+++ b/financial_models/opportunities/9992.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A726DA22-4D12-4FA5-8474-04C8F5BB3967}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7402F8E6-8072-421E-977A-8586A4CAE84D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="272">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="274">
   <si>
     <t>Company Info:</t>
   </si>
@@ -745,10 +745,6 @@
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
-    <t>Common Equity =</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
     <t>D/P Dividend Yield</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
@@ -948,10 +944,6 @@
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
-    <t>Sales Turnover</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
     <t>EBIT Margin</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
@@ -981,6 +973,22 @@
   </si>
   <si>
     <t>PlaceHolder_1</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Asset Turnover Ratio</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t># In general, the higher the accounts receivable, the higher the inventory, and the lower the fixed assets, the lower the asset turnover ratio.</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>PlaceHolder_3</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>PlaceHolder_4</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
@@ -1908,7 +1916,6 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2144,12 +2151,8 @@
     <xf numFmtId="181" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -2348,6 +2351,11 @@
     </xf>
     <xf numFmtId="10" fontId="4" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2587,8 +2595,8 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FF0000FF"/>
       <color rgb="FFB6D7A8"/>
-      <color rgb="FF0000FF"/>
       <color rgb="FFFFFFCC"/>
       <color rgb="FFCCFF33"/>
     </mruColors>
@@ -2804,7 +2812,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48ED7348-D356-493F-B1FA-0B9102624322}">
   <dimension ref="A2:M98"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C75" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C73" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E91" sqref="E91:F98"/>
     </sheetView>
   </sheetViews>
@@ -2822,162 +2830,162 @@
       </c>
     </row>
     <row r="4" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B4" s="141" t="s">
+      <c r="B4" s="140" t="s">
         <v>180</v>
       </c>
-      <c r="C4" s="188" t="s">
-        <v>267</v>
+      <c r="C4" s="187" t="s">
+        <v>269</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B5" s="141" t="s">
+      <c r="B5" s="140" t="s">
         <v>181</v>
       </c>
-      <c r="C5" s="191" t="s">
-        <v>268</v>
+      <c r="C5" s="190" t="s">
+        <v>270</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B6" s="141" t="s">
+      <c r="B6" s="140" t="s">
         <v>155</v>
       </c>
-      <c r="C6" s="189">
+      <c r="C6" s="188">
         <v>45630</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B7" s="140" t="s">
+      <c r="B7" s="139" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="190">
+      <c r="C7" s="189">
         <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B8" s="140" t="s">
+      <c r="B8" s="139" t="s">
         <v>201</v>
       </c>
-      <c r="C8" s="191" t="s">
+      <c r="C8" s="190" t="s">
         <v>67</v>
       </c>
-      <c r="E8" s="267"/>
+      <c r="E8" s="264"/>
     </row>
     <row r="9" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B9" s="140" t="s">
+      <c r="B9" s="139" t="s">
         <v>202</v>
       </c>
-      <c r="C9" s="192" t="s">
-        <v>269</v>
+      <c r="C9" s="191" t="s">
+        <v>271</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B10" s="140" t="s">
+      <c r="B10" s="139" t="s">
         <v>203</v>
       </c>
-      <c r="C10" s="193">
+      <c r="C10" s="192">
         <v>1342943150</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B11" s="140" t="s">
+      <c r="B11" s="139" t="s">
         <v>204</v>
       </c>
-      <c r="C11" s="192" t="s">
-        <v>270</v>
+      <c r="C11" s="191" t="s">
+        <v>272</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B12" s="218" t="s">
+      <c r="B12" s="215" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="219">
+      <c r="C12" s="216">
         <v>45291</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B13" s="218" t="s">
+      <c r="B13" s="215" t="s">
         <v>10</v>
       </c>
-      <c r="C13" s="220">
+      <c r="C13" s="217">
         <v>1000</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B14" s="218" t="s">
+      <c r="B14" s="215" t="s">
         <v>205</v>
       </c>
-      <c r="C14" s="219">
+      <c r="C14" s="216">
         <v>45473</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B15" s="218" t="s">
-        <v>239</v>
-      </c>
-      <c r="C15" s="176" t="s">
-        <v>244</v>
+      <c r="B15" s="215" t="s">
+        <v>238</v>
+      </c>
+      <c r="C15" s="175" t="s">
+        <v>243</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B16" s="222" t="s">
+      <c r="B16" s="219" t="s">
         <v>93</v>
       </c>
-      <c r="C16" s="223">
+      <c r="C16" s="220">
         <v>0.25</v>
       </c>
       <c r="D16" s="24"/>
     </row>
     <row r="17" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B17" s="240" t="s">
-        <v>210</v>
-      </c>
-      <c r="C17" s="242" t="s">
-        <v>229</v>
+      <c r="B17" s="237" t="s">
+        <v>209</v>
+      </c>
+      <c r="C17" s="239" t="s">
+        <v>228</v>
       </c>
       <c r="D17" s="24"/>
     </row>
     <row r="18" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B18" s="240" t="s">
+      <c r="B18" s="237" t="s">
+        <v>223</v>
+      </c>
+      <c r="C18" s="239" t="s">
+        <v>228</v>
+      </c>
+      <c r="D18" s="24"/>
+    </row>
+    <row r="19" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B19" s="237" t="s">
         <v>224</v>
       </c>
-      <c r="C18" s="242" t="s">
-        <v>229</v>
-      </c>
-      <c r="D18" s="24"/>
-    </row>
-    <row r="19" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B19" s="240" t="s">
-        <v>225</v>
-      </c>
-      <c r="C19" s="242" t="s">
-        <v>229</v>
+      <c r="C19" s="239" t="s">
+        <v>228</v>
       </c>
       <c r="D19" s="24"/>
     </row>
     <row r="20" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B20" s="241" t="s">
-        <v>214</v>
-      </c>
-      <c r="C20" s="242" t="s">
-        <v>229</v>
+      <c r="B20" s="238" t="s">
+        <v>213</v>
+      </c>
+      <c r="C20" s="239" t="s">
+        <v>228</v>
       </c>
       <c r="D20" s="24"/>
     </row>
     <row r="21" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B21" s="224" t="s">
-        <v>217</v>
-      </c>
-      <c r="C21" s="242" t="s">
-        <v>229</v>
+      <c r="B21" s="221" t="s">
+        <v>216</v>
+      </c>
+      <c r="C21" s="239" t="s">
+        <v>228</v>
       </c>
       <c r="D21" s="24"/>
     </row>
     <row r="22" spans="2:13" ht="78.75" x14ac:dyDescent="0.4">
-      <c r="B22" s="226" t="s">
-        <v>216</v>
-      </c>
-      <c r="C22" s="243" t="s">
-        <v>242</v>
+      <c r="B22" s="223" t="s">
+        <v>215</v>
+      </c>
+      <c r="C22" s="240" t="s">
+        <v>241</v>
       </c>
       <c r="D22" s="24"/>
     </row>
@@ -3034,407 +3042,411 @@
       <c r="B25" s="94" t="s">
         <v>11</v>
       </c>
-      <c r="C25" s="149">
+      <c r="C25" s="148">
         <v>6301002</v>
       </c>
-      <c r="D25" s="149">
+      <c r="D25" s="148">
         <v>4617324</v>
       </c>
-      <c r="E25" s="149"/>
-      <c r="F25" s="149"/>
-      <c r="G25" s="149"/>
-      <c r="H25" s="149"/>
-      <c r="I25" s="149"/>
-      <c r="J25" s="149"/>
-      <c r="K25" s="149"/>
-      <c r="L25" s="149"/>
-      <c r="M25" s="149"/>
+      <c r="E25" s="148"/>
+      <c r="F25" s="148"/>
+      <c r="G25" s="148"/>
+      <c r="H25" s="148"/>
+      <c r="I25" s="148"/>
+      <c r="J25" s="148"/>
+      <c r="K25" s="148"/>
+      <c r="L25" s="148"/>
+      <c r="M25" s="148"/>
     </row>
     <row r="26" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B26" s="97" t="s">
         <v>102</v>
       </c>
-      <c r="C26" s="150">
+      <c r="C26" s="149">
         <v>2436931</v>
       </c>
-      <c r="D26" s="150">
+      <c r="D26" s="149">
         <v>1962781</v>
       </c>
-      <c r="E26" s="150"/>
-      <c r="F26" s="150"/>
-      <c r="G26" s="150"/>
-      <c r="H26" s="150"/>
-      <c r="I26" s="150"/>
-      <c r="J26" s="150"/>
-      <c r="K26" s="150"/>
-      <c r="L26" s="150"/>
-      <c r="M26" s="150"/>
+      <c r="E26" s="149"/>
+      <c r="F26" s="149"/>
+      <c r="G26" s="149"/>
+      <c r="H26" s="149"/>
+      <c r="I26" s="149"/>
+      <c r="J26" s="149"/>
+      <c r="K26" s="149"/>
+      <c r="L26" s="149"/>
+      <c r="M26" s="149"/>
     </row>
     <row r="27" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B27" s="97" t="s">
         <v>100</v>
       </c>
-      <c r="C27" s="150">
+      <c r="C27" s="149">
         <f>2004706+707300</f>
         <v>2712006</v>
       </c>
-      <c r="D27" s="150">
+      <c r="D27" s="149">
         <f>1470753+686280</f>
         <v>2157033</v>
       </c>
-      <c r="E27" s="150"/>
-      <c r="F27" s="150"/>
-      <c r="G27" s="150"/>
-      <c r="H27" s="150"/>
-      <c r="I27" s="150"/>
-      <c r="J27" s="150"/>
-      <c r="K27" s="150"/>
-      <c r="L27" s="150"/>
-      <c r="M27" s="150"/>
+      <c r="E27" s="149"/>
+      <c r="F27" s="149"/>
+      <c r="G27" s="149"/>
+      <c r="H27" s="149"/>
+      <c r="I27" s="149"/>
+      <c r="J27" s="149"/>
+      <c r="K27" s="149"/>
+      <c r="L27" s="149"/>
+      <c r="M27" s="149"/>
     </row>
     <row r="28" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B28" s="97" t="s">
         <v>103</v>
       </c>
-      <c r="C28" s="150"/>
-      <c r="D28" s="150"/>
-      <c r="E28" s="150"/>
-      <c r="F28" s="150"/>
-      <c r="G28" s="150"/>
-      <c r="H28" s="150"/>
-      <c r="I28" s="150"/>
-      <c r="J28" s="150"/>
-      <c r="K28" s="150"/>
-      <c r="L28" s="150"/>
-      <c r="M28" s="150"/>
+      <c r="C28" s="149"/>
+      <c r="D28" s="149"/>
+      <c r="E28" s="149"/>
+      <c r="F28" s="149"/>
+      <c r="G28" s="149"/>
+      <c r="H28" s="149"/>
+      <c r="I28" s="149"/>
+      <c r="J28" s="149"/>
+      <c r="K28" s="149"/>
+      <c r="L28" s="149"/>
+      <c r="M28" s="149"/>
     </row>
     <row r="29" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B29" s="97" t="s">
-        <v>240</v>
-      </c>
-      <c r="C29" s="150">
+        <v>239</v>
+      </c>
+      <c r="C29" s="149">
         <v>32337</v>
       </c>
-      <c r="D29" s="150">
+      <c r="D29" s="149">
         <v>38579</v>
       </c>
-      <c r="E29" s="150"/>
-      <c r="F29" s="150"/>
-      <c r="G29" s="150"/>
-      <c r="H29" s="150"/>
-      <c r="I29" s="150"/>
-      <c r="J29" s="150"/>
-      <c r="K29" s="150"/>
-      <c r="L29" s="150"/>
-      <c r="M29" s="150"/>
+      <c r="E29" s="149"/>
+      <c r="F29" s="149"/>
+      <c r="G29" s="149"/>
+      <c r="H29" s="149"/>
+      <c r="I29" s="149"/>
+      <c r="J29" s="149"/>
+      <c r="K29" s="149"/>
+      <c r="L29" s="149"/>
+      <c r="M29" s="149"/>
     </row>
     <row r="30" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B30" s="99" t="s">
         <v>107</v>
       </c>
-      <c r="C30" s="150">
+      <c r="C30" s="149">
         <v>6427</v>
       </c>
-      <c r="D30" s="150">
+      <c r="D30" s="149">
         <v>141</v>
       </c>
-      <c r="E30" s="150"/>
-      <c r="F30" s="150"/>
-      <c r="G30" s="150"/>
-      <c r="H30" s="150"/>
-      <c r="I30" s="150"/>
-      <c r="J30" s="150"/>
-      <c r="K30" s="150"/>
-      <c r="L30" s="150"/>
-      <c r="M30" s="150"/>
+      <c r="E30" s="149"/>
+      <c r="F30" s="149"/>
+      <c r="G30" s="149"/>
+      <c r="H30" s="149"/>
+      <c r="I30" s="149"/>
+      <c r="J30" s="149"/>
+      <c r="K30" s="149"/>
+      <c r="L30" s="149"/>
+      <c r="M30" s="149"/>
     </row>
     <row r="31" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B31" s="97" t="s">
         <v>106</v>
       </c>
-      <c r="C31" s="150"/>
-      <c r="D31" s="150"/>
-      <c r="E31" s="150"/>
-      <c r="F31" s="150"/>
-      <c r="G31" s="150"/>
-      <c r="H31" s="150"/>
-      <c r="I31" s="150"/>
-      <c r="J31" s="150"/>
-      <c r="K31" s="150"/>
-      <c r="L31" s="150"/>
-      <c r="M31" s="150"/>
+      <c r="C31" s="149"/>
+      <c r="D31" s="149"/>
+      <c r="E31" s="149"/>
+      <c r="F31" s="149"/>
+      <c r="G31" s="149"/>
+      <c r="H31" s="149"/>
+      <c r="I31" s="149"/>
+      <c r="J31" s="149"/>
+      <c r="K31" s="149"/>
+      <c r="L31" s="149"/>
+      <c r="M31" s="149"/>
     </row>
     <row r="32" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B32" s="97" t="s">
         <v>101</v>
       </c>
-      <c r="C32" s="150"/>
-      <c r="D32" s="150"/>
-      <c r="E32" s="150"/>
-      <c r="F32" s="150"/>
-      <c r="G32" s="150"/>
-      <c r="H32" s="150"/>
-      <c r="I32" s="150"/>
-      <c r="J32" s="150"/>
-      <c r="K32" s="150"/>
-      <c r="L32" s="150"/>
-      <c r="M32" s="150"/>
+      <c r="C32" s="149"/>
+      <c r="D32" s="149"/>
+      <c r="E32" s="149"/>
+      <c r="F32" s="149"/>
+      <c r="G32" s="149"/>
+      <c r="H32" s="149"/>
+      <c r="I32" s="149"/>
+      <c r="J32" s="149"/>
+      <c r="K32" s="149"/>
+      <c r="L32" s="149"/>
+      <c r="M32" s="149"/>
     </row>
     <row r="33" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B33" s="97" t="s">
         <v>104</v>
       </c>
-      <c r="C33" s="150"/>
-      <c r="D33" s="150"/>
-      <c r="E33" s="150"/>
-      <c r="F33" s="150"/>
-      <c r="G33" s="150"/>
-      <c r="H33" s="150"/>
-      <c r="I33" s="150"/>
-      <c r="J33" s="150"/>
-      <c r="K33" s="150"/>
-      <c r="L33" s="150"/>
-      <c r="M33" s="150"/>
+      <c r="C33" s="149"/>
+      <c r="D33" s="149"/>
+      <c r="E33" s="149"/>
+      <c r="F33" s="149"/>
+      <c r="G33" s="149"/>
+      <c r="H33" s="149"/>
+      <c r="I33" s="149"/>
+      <c r="J33" s="149"/>
+      <c r="K33" s="149"/>
+      <c r="L33" s="149"/>
+      <c r="M33" s="149"/>
     </row>
     <row r="34" spans="2:13" ht="13.9" hidden="1" x14ac:dyDescent="0.4">
       <c r="B34" s="97" t="s">
-        <v>266</v>
-      </c>
-      <c r="C34" s="217"/>
-      <c r="D34" s="150"/>
-      <c r="E34" s="150"/>
-      <c r="F34" s="150"/>
-      <c r="G34" s="150"/>
-      <c r="H34" s="150"/>
-      <c r="I34" s="150"/>
-      <c r="J34" s="150"/>
-      <c r="K34" s="150"/>
-      <c r="L34" s="150"/>
-      <c r="M34" s="150"/>
+        <v>264</v>
+      </c>
+      <c r="C34" s="214"/>
+      <c r="D34" s="149"/>
+      <c r="E34" s="149"/>
+      <c r="F34" s="149"/>
+      <c r="G34" s="149"/>
+      <c r="H34" s="149"/>
+      <c r="I34" s="149"/>
+      <c r="J34" s="149"/>
+      <c r="K34" s="149"/>
+      <c r="L34" s="149"/>
+      <c r="M34" s="149"/>
     </row>
     <row r="35" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B35" s="94" t="s">
         <v>112</v>
       </c>
-      <c r="C35" s="217"/>
-      <c r="D35" s="150"/>
-      <c r="E35" s="150"/>
-      <c r="F35" s="150"/>
-      <c r="G35" s="150"/>
-      <c r="H35" s="150"/>
-      <c r="I35" s="150"/>
-      <c r="J35" s="150"/>
-      <c r="K35" s="150"/>
-      <c r="L35" s="150"/>
-      <c r="M35" s="150"/>
+      <c r="C35" s="214"/>
+      <c r="D35" s="149"/>
+      <c r="E35" s="149"/>
+      <c r="F35" s="149"/>
+      <c r="G35" s="149"/>
+      <c r="H35" s="149"/>
+      <c r="I35" s="149"/>
+      <c r="J35" s="149"/>
+      <c r="K35" s="149"/>
+      <c r="L35" s="149"/>
+      <c r="M35" s="149"/>
     </row>
     <row r="36" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B36" s="94" t="s">
         <v>141</v>
       </c>
-      <c r="C36" s="217"/>
-      <c r="D36" s="150"/>
-      <c r="E36" s="150"/>
-      <c r="F36" s="150"/>
-      <c r="G36" s="150"/>
-      <c r="H36" s="150"/>
-      <c r="I36" s="150"/>
-      <c r="J36" s="150"/>
-      <c r="K36" s="150"/>
-      <c r="L36" s="150"/>
-      <c r="M36" s="150"/>
+      <c r="C36" s="214"/>
+      <c r="D36" s="149"/>
+      <c r="E36" s="149"/>
+      <c r="F36" s="149"/>
+      <c r="G36" s="149"/>
+      <c r="H36" s="149"/>
+      <c r="I36" s="149"/>
+      <c r="J36" s="149"/>
+      <c r="K36" s="149"/>
+      <c r="L36" s="149"/>
+      <c r="M36" s="149"/>
     </row>
     <row r="37" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B37" s="94" t="str">
-        <f>"Total Liabilities"&amp;IF(C77+C82=0,"",IF(C37=C77+C82,""," Error"))</f>
-        <v>Total Liabilities</v>
-      </c>
-      <c r="C37" s="150"/>
-      <c r="D37" s="150"/>
-      <c r="E37" s="150"/>
-      <c r="F37" s="150"/>
-      <c r="G37" s="150"/>
-      <c r="H37" s="150"/>
-      <c r="I37" s="150"/>
-      <c r="J37" s="150"/>
-      <c r="K37" s="150"/>
-      <c r="L37" s="150"/>
-      <c r="M37" s="150"/>
+      <c r="B37" s="94" t="s">
+        <v>262</v>
+      </c>
+      <c r="C37" s="149">
+        <v>0</v>
+      </c>
+      <c r="D37" s="149"/>
+      <c r="E37" s="149"/>
+      <c r="F37" s="149"/>
+      <c r="G37" s="149"/>
+      <c r="H37" s="149"/>
+      <c r="I37" s="149"/>
+      <c r="J37" s="149"/>
+      <c r="K37" s="149"/>
+      <c r="L37" s="149"/>
+      <c r="M37" s="149"/>
     </row>
     <row r="38" spans="2:13" ht="13.9" hidden="1" x14ac:dyDescent="0.4">
       <c r="B38" s="94" t="s">
-        <v>265</v>
-      </c>
-      <c r="C38" s="217"/>
-      <c r="D38" s="150"/>
-      <c r="E38" s="150"/>
-      <c r="F38" s="150"/>
-      <c r="G38" s="150"/>
-      <c r="H38" s="150"/>
-      <c r="I38" s="150"/>
-      <c r="J38" s="150"/>
-      <c r="K38" s="150"/>
-      <c r="L38" s="150"/>
-      <c r="M38" s="150"/>
+        <v>263</v>
+      </c>
+      <c r="C38" s="214"/>
+      <c r="D38" s="149"/>
+      <c r="E38" s="149"/>
+      <c r="F38" s="149"/>
+      <c r="G38" s="149"/>
+      <c r="H38" s="149"/>
+      <c r="I38" s="149"/>
+      <c r="J38" s="149"/>
+      <c r="K38" s="149"/>
+      <c r="L38" s="149"/>
+      <c r="M38" s="149"/>
     </row>
     <row r="39" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B39" s="94" t="s">
         <v>16</v>
       </c>
-      <c r="C39" s="217"/>
-      <c r="D39" s="150"/>
-      <c r="E39" s="150"/>
-      <c r="F39" s="150"/>
-      <c r="G39" s="150"/>
-      <c r="H39" s="150"/>
-      <c r="I39" s="150"/>
-      <c r="J39" s="150"/>
-      <c r="K39" s="150"/>
-      <c r="L39" s="150"/>
-      <c r="M39" s="150"/>
+      <c r="C39" s="214"/>
+      <c r="D39" s="149"/>
+      <c r="E39" s="149"/>
+      <c r="F39" s="149"/>
+      <c r="G39" s="149"/>
+      <c r="H39" s="149"/>
+      <c r="I39" s="149"/>
+      <c r="J39" s="149"/>
+      <c r="K39" s="149"/>
+      <c r="L39" s="149"/>
+      <c r="M39" s="149"/>
     </row>
     <row r="40" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B40" s="94" t="s">
         <v>17</v>
       </c>
-      <c r="C40" s="217"/>
-      <c r="D40" s="150"/>
-      <c r="E40" s="150"/>
-      <c r="F40" s="150"/>
-      <c r="G40" s="150"/>
-      <c r="H40" s="150"/>
-      <c r="I40" s="150"/>
-      <c r="J40" s="150"/>
-      <c r="K40" s="150"/>
-      <c r="L40" s="150"/>
-      <c r="M40" s="150"/>
+      <c r="C40" s="214"/>
+      <c r="D40" s="149"/>
+      <c r="E40" s="149"/>
+      <c r="F40" s="149"/>
+      <c r="G40" s="149"/>
+      <c r="H40" s="149"/>
+      <c r="I40" s="149"/>
+      <c r="J40" s="149"/>
+      <c r="K40" s="149"/>
+      <c r="L40" s="149"/>
+      <c r="M40" s="149"/>
     </row>
     <row r="41" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B41" s="94" t="str">
-        <f>"Total Equity"&amp;IF(C83="","",IF(C41=Fin_Analysis!D3,""," Error"))</f>
-        <v>Total Equity</v>
-      </c>
-      <c r="C41" s="150"/>
-      <c r="D41" s="150"/>
-      <c r="E41" s="150"/>
-      <c r="F41" s="150"/>
-      <c r="G41" s="150"/>
-      <c r="H41" s="150"/>
-      <c r="I41" s="150"/>
-      <c r="J41" s="150"/>
-      <c r="K41" s="150"/>
-      <c r="L41" s="150"/>
-      <c r="M41" s="150"/>
+      <c r="B41" s="94" t="s">
+        <v>132</v>
+      </c>
+      <c r="C41" s="149">
+        <v>0</v>
+      </c>
+      <c r="D41" s="149"/>
+      <c r="E41" s="149"/>
+      <c r="F41" s="149"/>
+      <c r="G41" s="149"/>
+      <c r="H41" s="149"/>
+      <c r="I41" s="149"/>
+      <c r="J41" s="149"/>
+      <c r="K41" s="149"/>
+      <c r="L41" s="149"/>
+      <c r="M41" s="149"/>
     </row>
     <row r="42" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B42" s="94" t="s">
         <v>133</v>
       </c>
-      <c r="C42" s="150"/>
-      <c r="D42" s="150"/>
-      <c r="E42" s="150"/>
-      <c r="F42" s="150"/>
-      <c r="G42" s="150"/>
-      <c r="H42" s="150"/>
-      <c r="I42" s="150"/>
-      <c r="J42" s="150"/>
-      <c r="K42" s="150"/>
-      <c r="L42" s="150"/>
-      <c r="M42" s="150"/>
+      <c r="C42" s="149">
+        <v>0</v>
+      </c>
+      <c r="D42" s="149"/>
+      <c r="E42" s="149"/>
+      <c r="F42" s="149"/>
+      <c r="G42" s="149"/>
+      <c r="H42" s="149"/>
+      <c r="I42" s="149"/>
+      <c r="J42" s="149"/>
+      <c r="K42" s="149"/>
+      <c r="L42" s="149"/>
+      <c r="M42" s="149"/>
     </row>
     <row r="43" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B43" s="94" t="s">
         <v>131</v>
       </c>
-      <c r="C43" s="217"/>
-      <c r="D43" s="150"/>
-      <c r="E43" s="150"/>
-      <c r="F43" s="150"/>
-      <c r="G43" s="150"/>
-      <c r="H43" s="150"/>
-      <c r="I43" s="150"/>
-      <c r="J43" s="150"/>
-      <c r="K43" s="150"/>
-      <c r="L43" s="150"/>
-      <c r="M43" s="150"/>
+      <c r="C43" s="214"/>
+      <c r="D43" s="149"/>
+      <c r="E43" s="149"/>
+      <c r="F43" s="149"/>
+      <c r="G43" s="149"/>
+      <c r="H43" s="149"/>
+      <c r="I43" s="149"/>
+      <c r="J43" s="149"/>
+      <c r="K43" s="149"/>
+      <c r="L43" s="149"/>
+      <c r="M43" s="149"/>
     </row>
     <row r="44" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B44" s="74" t="s">
         <v>193</v>
       </c>
-      <c r="C44" s="250">
+      <c r="C44" s="247">
         <v>0.28210000000000002</v>
       </c>
-      <c r="D44" s="250">
+      <c r="D44" s="247">
         <v>8.6999999999999994E-2</v>
       </c>
-      <c r="E44" s="250"/>
-      <c r="F44" s="250"/>
-      <c r="G44" s="250"/>
-      <c r="H44" s="250"/>
-      <c r="I44" s="250"/>
-      <c r="J44" s="250"/>
-      <c r="K44" s="250"/>
-      <c r="L44" s="250"/>
-      <c r="M44" s="250"/>
+      <c r="E44" s="247"/>
+      <c r="F44" s="247"/>
+      <c r="G44" s="247"/>
+      <c r="H44" s="247"/>
+      <c r="I44" s="247"/>
+      <c r="J44" s="247"/>
+      <c r="K44" s="247"/>
+      <c r="L44" s="247"/>
+      <c r="M44" s="247"/>
     </row>
     <row r="45" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B45" s="74" t="s">
-        <v>236</v>
-      </c>
-      <c r="C45" s="152">
+        <v>235</v>
+      </c>
+      <c r="C45" s="151">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>3.1663110990849696E-3</v>
-      </c>
-      <c r="D45" s="152">
+        <v>3.1325220653602667E-3</v>
+      </c>
+      <c r="D45" s="151">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>9.7649438362421937E-4</v>
-      </c>
-      <c r="E45" s="152" t="str">
+        <v>9.6607380250387511E-4</v>
+      </c>
+      <c r="E45" s="151" t="str">
         <f>IF(E44="","",E44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="F45" s="152" t="str">
+      <c r="F45" s="151" t="str">
         <f>IF(F44="","",F44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="G45" s="152" t="str">
+      <c r="G45" s="151" t="str">
         <f>IF(G44="","",G44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="H45" s="152" t="str">
+      <c r="H45" s="151" t="str">
         <f>IF(H44="","",H44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="I45" s="152" t="str">
+      <c r="I45" s="151" t="str">
         <f>IF(I44="","",I44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="J45" s="152" t="str">
+      <c r="J45" s="151" t="str">
         <f>IF(J44="","",J44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="K45" s="152" t="str">
+      <c r="K45" s="151" t="str">
         <f>IF(K44="","",K44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="L45" s="152" t="str">
+      <c r="L45" s="151" t="str">
         <f>IF(L44="","",L44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="M45" s="152" t="str">
+      <c r="M45" s="151" t="str">
         <f>IF(M44="","",M44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
     </row>
     <row r="47" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B47" s="10" t="s">
-        <v>233</v>
-      </c>
-      <c r="C47" s="194" t="s">
+        <v>232</v>
+      </c>
+      <c r="C47" s="193" t="s">
         <v>30</v>
       </c>
-      <c r="D47" s="194" t="s">
+      <c r="D47" s="193" t="s">
         <v>182</v>
       </c>
       <c r="E47" s="111" t="s">
@@ -3505,7 +3517,7 @@
     </row>
     <row r="54" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B54" s="3" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C54" s="59"/>
       <c r="D54" s="60">
@@ -3533,7 +3545,7 @@
         <f>D50</f>
         <v>0.6</v>
       </c>
-      <c r="E56" s="221" t="s">
+      <c r="E56" s="218" t="s">
         <v>67</v>
       </c>
     </row>
@@ -3545,7 +3557,7 @@
       <c r="D57" s="60">
         <v>0.6</v>
       </c>
-      <c r="E57" s="221" t="s">
+      <c r="E57" s="218" t="s">
         <v>42</v>
       </c>
     </row>
@@ -3564,8 +3576,8 @@
       <c r="B59" s="35" t="s">
         <v>47</v>
       </c>
-      <c r="C59" s="120"/>
-      <c r="D59" s="195">
+      <c r="C59" s="119"/>
+      <c r="D59" s="194">
         <f>D70</f>
         <v>0.05</v>
       </c>
@@ -3617,7 +3629,7 @@
     </row>
     <row r="64" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B64" s="3" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C64" s="59"/>
       <c r="D64" s="60">
@@ -3633,7 +3645,7 @@
       <c r="D65" s="60">
         <v>0.1</v>
       </c>
-      <c r="E65" s="221" t="s">
+      <c r="E65" s="218" t="s">
         <v>67</v>
       </c>
     </row>
@@ -3645,7 +3657,7 @@
       <c r="D66" s="60">
         <v>0.2</v>
       </c>
-      <c r="E66" s="221" t="s">
+      <c r="E66" s="218" t="s">
         <v>67</v>
       </c>
     </row>
@@ -3658,7 +3670,7 @@
         <f>D65</f>
         <v>0.1</v>
       </c>
-      <c r="E67" s="221" t="s">
+      <c r="E67" s="218" t="s">
         <v>42</v>
       </c>
     </row>
@@ -3706,14 +3718,14 @@
       <c r="E71" s="112"/>
     </row>
     <row r="72" spans="2:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B72" s="246" t="s">
+      <c r="B72" s="243" t="s">
         <v>72</v>
       </c>
-      <c r="C72" s="247"/>
-      <c r="D72" s="248">
-        <v>0</v>
-      </c>
-      <c r="E72" s="249"/>
+      <c r="C72" s="244"/>
+      <c r="D72" s="245">
+        <v>0</v>
+      </c>
+      <c r="E72" s="246"/>
     </row>
     <row r="73" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B73" s="3" t="s">
@@ -3737,7 +3749,7 @@
       <c r="B76" s="86" t="s">
         <v>39</v>
       </c>
-      <c r="C76" s="120"/>
+      <c r="C76" s="119"/>
     </row>
     <row r="77" spans="2:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B77" s="80" t="s">
@@ -3767,19 +3779,19 @@
       <c r="B81" s="86" t="s">
         <v>63</v>
       </c>
-      <c r="C81" s="120"/>
-    </row>
-    <row r="82" spans="2:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C81" s="119"/>
+    </row>
+    <row r="82" spans="2:8" ht="14.25" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B82" s="80" t="s">
-        <v>81</v>
-      </c>
-      <c r="C82" s="83"/>
-    </row>
-    <row r="83" spans="2:8" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
+        <v>267</v>
+      </c>
+      <c r="C82" s="214"/>
+    </row>
+    <row r="83" spans="2:8" ht="14.25" hidden="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B83" s="73" t="s">
-        <v>206</v>
-      </c>
-      <c r="C83" s="59"/>
+        <v>268</v>
+      </c>
+      <c r="C83" s="214"/>
     </row>
     <row r="84" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B84" s="20" t="s">
@@ -3795,20 +3807,20 @@
     </row>
     <row r="86" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B86" s="10" t="s">
-        <v>234</v>
-      </c>
-      <c r="C86" s="197">
+        <v>233</v>
+      </c>
+      <c r="C86" s="196">
         <v>5</v>
       </c>
     </row>
     <row r="87" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B87" s="10" t="s">
-        <v>232</v>
-      </c>
-      <c r="C87" s="236" t="s">
-        <v>235</v>
-      </c>
-      <c r="D87" s="269">
+        <v>231</v>
+      </c>
+      <c r="C87" s="233" t="s">
+        <v>234</v>
+      </c>
+      <c r="D87" s="266">
         <v>0.02</v>
       </c>
     </row>
@@ -3838,10 +3850,10 @@
         <v>97</v>
       </c>
       <c r="D90" s="284"/>
-      <c r="E90" s="235" t="s">
+      <c r="E90" s="232" t="s">
         <v>98</v>
       </c>
-      <c r="F90" s="255" t="s">
+      <c r="F90" s="252" t="s">
         <v>98</v>
       </c>
     </row>
@@ -3853,12 +3865,12 @@
         <f>C25</f>
         <v>6301002</v>
       </c>
-      <c r="D91" s="209"/>
-      <c r="E91" s="251">
+      <c r="D91" s="206"/>
+      <c r="E91" s="248">
         <f>C91</f>
         <v>6301002</v>
       </c>
-      <c r="F91" s="251">
+      <c r="F91" s="248">
         <f>C91</f>
         <v>6301002</v>
       </c>
@@ -3871,75 +3883,75 @@
         <f>C26</f>
         <v>2436931</v>
       </c>
-      <c r="D92" s="159">
+      <c r="D92" s="158">
         <f>C92/C91</f>
         <v>0.38675293231140062</v>
       </c>
-      <c r="E92" s="252">
+      <c r="E92" s="249">
         <f>E91*D92</f>
         <v>2436931</v>
       </c>
-      <c r="F92" s="252">
+      <c r="F92" s="249">
         <f>F91*D92</f>
         <v>2436931</v>
       </c>
     </row>
     <row r="93" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B93" s="104" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C93" s="77">
         <f>C27+C28</f>
         <v>2712006</v>
       </c>
-      <c r="D93" s="159">
+      <c r="D93" s="158">
         <f>C93/C91</f>
         <v>0.43040868738019761</v>
       </c>
-      <c r="E93" s="252">
+      <c r="E93" s="249">
         <f>E91*D93</f>
         <v>2712006</v>
       </c>
-      <c r="F93" s="252">
+      <c r="F93" s="249">
         <f>F91*D93</f>
         <v>2712006</v>
       </c>
     </row>
     <row r="94" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B94" s="104" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C94" s="77">
         <f>C29</f>
         <v>32337</v>
       </c>
-      <c r="D94" s="159">
+      <c r="D94" s="158">
         <f>C94/C91</f>
         <v>5.1320409039705113E-3</v>
       </c>
-      <c r="E94" s="253"/>
-      <c r="F94" s="252">
+      <c r="E94" s="250"/>
+      <c r="F94" s="249">
         <f>F91*D94</f>
         <v>32337</v>
       </c>
     </row>
     <row r="95" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B95" s="28" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C95" s="77">
         <f>ABS(MAX(C33,0)-C32)</f>
         <v>0</v>
       </c>
-      <c r="D95" s="159">
+      <c r="D95" s="158">
         <f>C95/C91</f>
         <v>0</v>
       </c>
-      <c r="E95" s="252">
+      <c r="E95" s="249">
         <f>E91*D95</f>
         <v>0</v>
       </c>
-      <c r="F95" s="252">
+      <c r="F95" s="249">
         <f>F91*D95</f>
         <v>0</v>
       </c>
@@ -3952,12 +3964,12 @@
         <f>MAX(C31,0)</f>
         <v>0</v>
       </c>
-      <c r="D96" s="159">
+      <c r="D96" s="158">
         <f>C96/C91</f>
         <v>0</v>
       </c>
-      <c r="E96" s="253"/>
-      <c r="F96" s="252">
+      <c r="E96" s="250"/>
+      <c r="F96" s="249">
         <f>F91*D96</f>
         <v>0</v>
       </c>
@@ -3970,12 +3982,12 @@
         <f>MAX(C30,0)/(1-C16)</f>
         <v>8569.3333333333339</v>
       </c>
-      <c r="D97" s="159">
+      <c r="D97" s="158">
         <f>C97/C91</f>
         <v>1.3599953361915031E-3</v>
       </c>
-      <c r="E97" s="253"/>
-      <c r="F97" s="252">
+      <c r="E97" s="250"/>
+      <c r="F97" s="249">
         <f>F91*D97</f>
         <v>8569.3333333333339</v>
       </c>
@@ -3984,16 +3996,16 @@
       <c r="B98" s="86" t="s">
         <v>193</v>
       </c>
-      <c r="C98" s="237">
+      <c r="C98" s="234">
         <f>C44</f>
         <v>0.28210000000000002</v>
       </c>
-      <c r="D98" s="266"/>
-      <c r="E98" s="254">
+      <c r="D98" s="263"/>
+      <c r="E98" s="251">
         <f>F98</f>
         <v>0.28210000000000002</v>
       </c>
-      <c r="F98" s="254">
+      <c r="F98" s="251">
         <f>C98</f>
         <v>0.28210000000000002</v>
       </c>
@@ -4074,7 +4086,7 @@
   <dimension ref="A1:J923"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -4126,11 +4138,11 @@
       <c r="F3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="G3" s="132">
-        <v>95.25</v>
-      </c>
-      <c r="H3" s="134" t="s">
-        <v>271</v>
+      <c r="G3" s="131">
+        <v>96.2</v>
+      </c>
+      <c r="H3" s="133" t="s">
+        <v>273</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -4168,7 +4180,7 @@
       </c>
       <c r="G5" s="287">
         <f>G3*G4/1000000</f>
-        <v>127915.3350375</v>
+        <v>129191.13103</v>
       </c>
       <c r="H5" s="287"/>
       <c r="I5" s="38"/>
@@ -4178,11 +4190,11 @@
       <c r="B6" s="87" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="185">
+      <c r="C6" s="184">
         <f>Inputs!C7</f>
         <v>8</v>
       </c>
-      <c r="D6" s="186">
+      <c r="D6" s="185">
         <f>EOMONTH(EDATE(Fin_Analysis!D9,C6),0)</f>
         <v>45716</v>
       </c>
@@ -4204,11 +4216,11 @@
       <c r="B7" s="86" t="s">
         <v>178</v>
       </c>
-      <c r="C7" s="187" t="str">
+      <c r="C7" s="186" t="str">
         <f>Inputs!C8</f>
         <v>N</v>
       </c>
-      <c r="D7" s="187" t="str">
+      <c r="D7" s="186" t="str">
         <f>Inputs!C9</f>
         <v>C0007</v>
       </c>
@@ -4216,8 +4228,8 @@
       <c r="F7" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="G7" s="133">
-        <v>1.0690929889678955</v>
+      <c r="G7" s="132">
+        <v>1.0682333310445149</v>
       </c>
       <c r="H7" s="71" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -4226,10 +4238,10 @@
     </row>
     <row r="8" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="9" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B9" s="139" t="s">
+      <c r="B9" s="138" t="s">
         <v>177</v>
       </c>
-      <c r="F9" s="143" t="s">
+      <c r="F9" s="142" t="s">
         <v>172</v>
       </c>
     </row>
@@ -4237,7 +4249,7 @@
       <c r="B10" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="C10" s="172">
+      <c r="C10" s="171">
         <v>4.2000000000000003E-2</v>
       </c>
       <c r="F10" s="110" t="s">
@@ -4245,13 +4257,13 @@
       </c>
     </row>
     <row r="11" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B11" s="122" t="s">
+      <c r="B11" s="121" t="s">
         <v>167</v>
       </c>
-      <c r="C11" s="173">
+      <c r="C11" s="172">
         <v>5.2299999999999999E-2</v>
       </c>
-      <c r="D11" s="137" t="s">
+      <c r="D11" s="136" t="s">
         <v>176</v>
       </c>
       <c r="F11" s="110" t="s">
@@ -4260,12 +4272,12 @@
     </row>
     <row r="12" spans="1:10" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B12" s="87" t="s">
-        <v>237</v>
-      </c>
-      <c r="C12" s="174">
+        <v>236</v>
+      </c>
+      <c r="C12" s="173">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="D12" s="172">
+      <c r="D12" s="171">
         <v>8.0625000000000002E-2</v>
       </c>
       <c r="F12" s="110"/>
@@ -4275,7 +4287,7 @@
       <c r="B14" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="C14" s="172">
+      <c r="C14" s="171">
         <v>1.8100000000000002E-2</v>
       </c>
       <c r="F14" s="110" t="s">
@@ -4286,7 +4298,7 @@
       <c r="B15" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="C15" s="172">
+      <c r="C15" s="171">
         <v>6.5000000000000002E-2</v>
       </c>
       <c r="F15" s="110" t="s">
@@ -4294,13 +4306,13 @@
       </c>
     </row>
     <row r="16" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B16" s="122" t="s">
+      <c r="B16" s="121" t="s">
         <v>174</v>
       </c>
-      <c r="C16" s="173">
+      <c r="C16" s="172">
         <v>0.16</v>
       </c>
-      <c r="D16" s="265" t="str">
+      <c r="D16" s="262" t="str">
         <f>Inputs!C15</f>
         <v>CN</v>
       </c>
@@ -4310,49 +4322,49 @@
     </row>
     <row r="17" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B17" s="87" t="s">
-        <v>238</v>
-      </c>
-      <c r="C17" s="175">
+        <v>237</v>
+      </c>
+      <c r="C17" s="174">
         <v>8.6249999999999993E-2</v>
       </c>
-      <c r="D17" s="176"/>
+      <c r="D17" s="175"/>
     </row>
     <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="19" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B19" s="142" t="s">
-        <v>263</v>
-      </c>
-      <c r="C19" s="135" t="s">
+      <c r="B19" s="141" t="s">
+        <v>261</v>
+      </c>
+      <c r="C19" s="134" t="s">
         <v>48</v>
       </c>
       <c r="D19" s="87"/>
       <c r="E19" s="87"/>
-      <c r="F19" s="142" t="s">
+      <c r="F19" s="141" t="s">
         <v>198</v>
       </c>
       <c r="G19" s="87"/>
       <c r="H19" s="87"/>
     </row>
     <row r="20" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B20" s="275" t="s">
-        <v>253</v>
-      </c>
-      <c r="C20" s="276" t="e">
+      <c r="B20" s="272" t="s">
+        <v>252</v>
+      </c>
+      <c r="C20" s="273" t="e">
         <f>C23*C22*(1/C21)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="F20" s="87" t="s">
         <v>197</v>
       </c>
-      <c r="G20" s="172">
+      <c r="G20" s="171">
         <v>0.15</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="B21" s="277" t="s">
-        <v>251</v>
-      </c>
-      <c r="C21" s="278" t="e">
+      <c r="B21" s="274" t="s">
+        <v>250</v>
+      </c>
+      <c r="C21" s="275" t="e">
         <f>Data!C53</f>
         <v>#DIV/0!</v>
       </c>
@@ -4360,79 +4372,79 @@
       <c r="G21" s="29"/>
     </row>
     <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B22" s="279" t="s">
-        <v>258</v>
-      </c>
-      <c r="C22" s="280" t="e">
+      <c r="B22" s="276" t="s">
+        <v>265</v>
+      </c>
+      <c r="C22" s="277" t="e">
         <f>Data!C48</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="F22" s="142" t="s">
+      <c r="F22" s="141" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B23" s="281" t="s">
-        <v>259</v>
-      </c>
-      <c r="C23" s="282">
+      <c r="B23" s="278" t="s">
+        <v>257</v>
+      </c>
+      <c r="C23" s="279">
         <f>Data!C13</f>
         <v>0.18147838497221025</v>
       </c>
-      <c r="F23" s="140" t="s">
+      <c r="F23" s="139" t="s">
         <v>175</v>
       </c>
-      <c r="G23" s="177" t="e">
+      <c r="G23" s="176" t="e">
         <f>G3/(Data!C34*Data!C4/Common_Shares*Exchange_Rate)</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B24" s="137" t="s">
-        <v>260</v>
-      </c>
-      <c r="C24" s="171">
+      <c r="B24" s="136" t="s">
+        <v>258</v>
+      </c>
+      <c r="C24" s="170">
         <f>Fin_Analysis!I81</f>
         <v>5.1320409039705113E-3</v>
       </c>
-      <c r="F24" s="140" t="s">
-        <v>243</v>
-      </c>
-      <c r="G24" s="268">
+      <c r="F24" s="139" t="s">
+        <v>242</v>
+      </c>
+      <c r="G24" s="265">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>143.57201307881206</v>
+        <v>145.12065646922517</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B25" s="137" t="s">
-        <v>261</v>
-      </c>
-      <c r="C25" s="171">
+      <c r="B25" s="136" t="s">
+        <v>259</v>
+      </c>
+      <c r="C25" s="170">
         <f>Fin_Analysis!I80</f>
         <v>0</v>
       </c>
-      <c r="F25" s="140" t="s">
+      <c r="F25" s="139" t="s">
         <v>162</v>
       </c>
-      <c r="G25" s="171">
+      <c r="G25" s="170">
         <f>Fin_Analysis!I88</f>
         <v>0.45459365852941497</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B26" s="138" t="s">
-        <v>262</v>
-      </c>
-      <c r="C26" s="171">
+      <c r="B26" s="137" t="s">
+        <v>260</v>
+      </c>
+      <c r="C26" s="170">
         <f>Fin_Analysis!I80+Fin_Analysis!I82</f>
         <v>0</v>
       </c>
-      <c r="F26" s="141" t="s">
+      <c r="F26" s="140" t="s">
         <v>179</v>
       </c>
-      <c r="G26" s="178">
+      <c r="G26" s="177">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>3.1663110990849696E-3</v>
+        <v>3.1325220653602667E-3</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -4449,10 +4461,10 @@
       </c>
       <c r="E28" s="58"/>
       <c r="F28" s="53" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="G28" s="285" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="H28" s="285"/>
     </row>
@@ -4460,22 +4472,22 @@
       <c r="B29" s="87" t="s">
         <v>160</v>
       </c>
-      <c r="C29" s="130">
+      <c r="C29" s="129">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>4.3813830969157435</v>
-      </c>
-      <c r="D29" s="129">
+        <v>4.376244530350192</v>
+      </c>
+      <c r="D29" s="128">
         <f>G29*(1+G20)</f>
-        <v>7.8837055898494706</v>
+        <v>7.8744594351397454</v>
       </c>
       <c r="E29" s="87"/>
-      <c r="F29" s="131">
+      <c r="F29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>5.1545683493126395</v>
+        <v>5.1485229768825791</v>
       </c>
       <c r="G29" s="286">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>6.8553961650864963</v>
+        <v>6.847356030556301</v>
       </c>
       <c r="H29" s="286"/>
     </row>
@@ -4483,23 +4495,23 @@
     <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="5"/>
       <c r="B31" s="6" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C31"/>
     </row>
     <row r="32" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32"/>
-      <c r="B32" s="196" t="s">
-        <v>209</v>
-      </c>
-      <c r="C32" s="224"/>
+      <c r="B32" s="195" t="s">
+        <v>208</v>
+      </c>
+      <c r="C32" s="221"/>
     </row>
     <row r="33" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33"/>
       <c r="B33" s="20" t="s">
-        <v>210</v>
-      </c>
-      <c r="C33" s="245" t="str">
+        <v>209</v>
+      </c>
+      <c r="C33" s="242" t="str">
         <f>Inputs!C17</f>
         <v>unclear</v>
       </c>
@@ -4507,9 +4519,9 @@
     <row r="34" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34"/>
       <c r="B34" s="19" t="s">
-        <v>211</v>
-      </c>
-      <c r="C34" s="225" t="e">
+        <v>210</v>
+      </c>
+      <c r="C34" s="222" t="e">
         <f>IF(AND(OR(Fin_Analysis!I26&lt;0.8,Fin_Analysis!I46&lt;0.6),Data!C54&lt;0.8),"Strongly disagree",
 IF(AND(OR(Fin_Analysis!I26&lt;1,Fin_Analysis!I46&lt;0.8),Data!C54&lt;1),"unclear", IF(AND(OR(Fin_Analysis!I26&lt;1.4,Fin_Analysis!I46&lt;1.2),Data!C54&lt;1.4),"agree","Strongly agree")))</f>
         <v>#DIV/0!</v>
@@ -4517,17 +4529,17 @@
     </row>
     <row r="35" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35"/>
-      <c r="B35" s="196" t="s">
-        <v>212</v>
-      </c>
-      <c r="C35" s="224"/>
+      <c r="B35" s="195" t="s">
+        <v>211</v>
+      </c>
+      <c r="C35" s="221"/>
     </row>
     <row r="36" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36"/>
       <c r="B36" s="20" t="s">
-        <v>224</v>
-      </c>
-      <c r="C36" s="245" t="str">
+        <v>223</v>
+      </c>
+      <c r="C36" s="242" t="str">
         <f>Inputs!C18</f>
         <v>unclear</v>
       </c>
@@ -4535,26 +4547,26 @@
     <row r="37" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37"/>
       <c r="B37" s="20" t="s">
-        <v>225</v>
-      </c>
-      <c r="C37" s="245" t="str">
+        <v>224</v>
+      </c>
+      <c r="C37" s="242" t="str">
         <f>Inputs!C19</f>
         <v>unclear</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38"/>
-      <c r="B38" s="196" t="s">
-        <v>213</v>
-      </c>
-      <c r="C38" s="224"/>
+      <c r="B38" s="195" t="s">
+        <v>212</v>
+      </c>
+      <c r="C38" s="221"/>
     </row>
     <row r="39" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39"/>
       <c r="B39" s="19" t="s">
-        <v>214</v>
-      </c>
-      <c r="C39" s="245" t="str">
+        <v>213</v>
+      </c>
+      <c r="C39" s="242" t="str">
         <f>Inputs!C20</f>
         <v>unclear</v>
       </c>
@@ -4562,9 +4574,9 @@
     <row r="40" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40"/>
       <c r="B40" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="C40" s="245" t="str">
+        <v>216</v>
+      </c>
+      <c r="C40" s="242" t="str">
         <f>Inputs!C21</f>
         <v>unclear</v>
       </c>
@@ -4577,16 +4589,16 @@
     <row r="42" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A42" s="5"/>
       <c r="B42" s="6" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C42"/>
     </row>
     <row r="43" spans="1:3" ht="65.650000000000006" x14ac:dyDescent="0.4">
       <c r="A43"/>
-      <c r="B43" s="226" t="s">
-        <v>216</v>
-      </c>
-      <c r="C43" s="244" t="str">
+      <c r="B43" s="223" t="s">
+        <v>215</v>
+      </c>
+      <c r="C43" s="241" t="str">
         <f>Inputs!C22</f>
         <v>Unclear</v>
       </c>
@@ -5538,10 +5550,10 @@
   </sheetPr>
   <dimension ref="A1:N930"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A24" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
       <selection activeCell="A4" sqref="A4"/>
-      <selection pane="topRight" activeCell="D36" sqref="D36"/>
+      <selection pane="topRight" activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5567,16 +5579,16 @@
       </c>
       <c r="C2" s="18"/>
       <c r="D2" s="17"/>
-      <c r="E2" s="148" t="s">
+      <c r="E2" s="147" t="s">
         <v>185</v>
       </c>
-      <c r="F2" s="119" t="s">
+      <c r="F2" s="118" t="s">
         <v>188</v>
       </c>
-      <c r="G2" s="148" t="s">
+      <c r="G2" s="147" t="s">
         <v>189</v>
       </c>
-      <c r="H2" s="147" t="s">
+      <c r="H2" s="146" t="s">
         <v>190</v>
       </c>
       <c r="I2" s="7"/>
@@ -5590,11 +5602,11 @@
       <c r="B3" s="103" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="201">
+      <c r="C3" s="200">
         <f>Inputs!C12</f>
         <v>45291</v>
       </c>
-      <c r="E3" s="146" t="s">
+      <c r="E3" s="145" t="s">
         <v>186</v>
       </c>
       <c r="F3" s="85" t="str">
@@ -5619,7 +5631,7 @@
       <c r="B4" s="103" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="128">
+      <c r="C4" s="127">
         <f>Inputs!C13</f>
         <v>1000</v>
       </c>
@@ -5627,7 +5639,7 @@
         <f>Dashboard!G6</f>
         <v>CNY</v>
       </c>
-      <c r="E4" s="146" t="s">
+      <c r="E4" s="145" t="s">
         <v>187</v>
       </c>
       <c r="F4" s="93" t="e">
@@ -5691,47 +5703,47 @@
       <c r="B6" s="94" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="200">
+      <c r="C6" s="199">
         <f>IF(Inputs!C25=""," ",Inputs!C25)</f>
         <v>6301002</v>
       </c>
-      <c r="D6" s="200">
+      <c r="D6" s="199">
         <f>IF(Inputs!D25="","",Inputs!D25)</f>
         <v>4617324</v>
       </c>
-      <c r="E6" s="200" t="str">
+      <c r="E6" s="199" t="str">
         <f>IF(Inputs!E25="","",Inputs!E25)</f>
         <v/>
       </c>
-      <c r="F6" s="200" t="str">
+      <c r="F6" s="199" t="str">
         <f>IF(Inputs!F25="","",Inputs!F25)</f>
         <v/>
       </c>
-      <c r="G6" s="200" t="str">
+      <c r="G6" s="199" t="str">
         <f>IF(Inputs!G25="","",Inputs!G25)</f>
         <v/>
       </c>
-      <c r="H6" s="200" t="str">
+      <c r="H6" s="199" t="str">
         <f>IF(Inputs!H25="","",Inputs!H25)</f>
         <v/>
       </c>
-      <c r="I6" s="200" t="str">
+      <c r="I6" s="199" t="str">
         <f>IF(Inputs!I25="","",Inputs!I25)</f>
         <v/>
       </c>
-      <c r="J6" s="200" t="str">
+      <c r="J6" s="199" t="str">
         <f>IF(Inputs!J25="","",Inputs!J25)</f>
         <v/>
       </c>
-      <c r="K6" s="200" t="str">
+      <c r="K6" s="199" t="str">
         <f>IF(Inputs!K25="","",Inputs!K25)</f>
         <v/>
       </c>
-      <c r="L6" s="200" t="str">
+      <c r="L6" s="199" t="str">
         <f>IF(Inputs!L25="","",Inputs!L25)</f>
         <v/>
       </c>
-      <c r="M6" s="200" t="str">
+      <c r="M6" s="199" t="str">
         <f>IF(Inputs!M25="","",Inputs!M25)</f>
         <v/>
       </c>
@@ -5793,47 +5805,47 @@
       <c r="B8" s="97" t="s">
         <v>102</v>
       </c>
-      <c r="C8" s="199">
+      <c r="C8" s="198">
         <f>IF(Inputs!C26="","",Inputs!C26)</f>
         <v>2436931</v>
       </c>
-      <c r="D8" s="199">
+      <c r="D8" s="198">
         <f>IF(Inputs!D26="","",Inputs!D26)</f>
         <v>1962781</v>
       </c>
-      <c r="E8" s="199" t="str">
+      <c r="E8" s="198" t="str">
         <f>IF(Inputs!E26="","",Inputs!E26)</f>
         <v/>
       </c>
-      <c r="F8" s="199" t="str">
+      <c r="F8" s="198" t="str">
         <f>IF(Inputs!F26="","",Inputs!F26)</f>
         <v/>
       </c>
-      <c r="G8" s="199" t="str">
+      <c r="G8" s="198" t="str">
         <f>IF(Inputs!G26="","",Inputs!G26)</f>
         <v/>
       </c>
-      <c r="H8" s="199" t="str">
+      <c r="H8" s="198" t="str">
         <f>IF(Inputs!H26="","",Inputs!H26)</f>
         <v/>
       </c>
-      <c r="I8" s="199" t="str">
+      <c r="I8" s="198" t="str">
         <f>IF(Inputs!I26="","",Inputs!I26)</f>
         <v/>
       </c>
-      <c r="J8" s="199" t="str">
+      <c r="J8" s="198" t="str">
         <f>IF(Inputs!J26="","",Inputs!J26)</f>
         <v/>
       </c>
-      <c r="K8" s="199" t="str">
+      <c r="K8" s="198" t="str">
         <f>IF(Inputs!K26="","",Inputs!K26)</f>
         <v/>
       </c>
-      <c r="L8" s="199" t="str">
+      <c r="L8" s="198" t="str">
         <f>IF(Inputs!L26="","",Inputs!L26)</f>
         <v/>
       </c>
-      <c r="M8" s="199" t="str">
+      <c r="M8" s="198" t="str">
         <f>IF(Inputs!M26="","",Inputs!M26)</f>
         <v/>
       </c>
@@ -5844,47 +5856,47 @@
       <c r="B9" s="98" t="s">
         <v>99</v>
       </c>
-      <c r="C9" s="151">
+      <c r="C9" s="150">
         <f t="shared" ref="C9:M9" si="2">IF(C6="","",(C6-C8))</f>
         <v>3864071</v>
       </c>
-      <c r="D9" s="151">
+      <c r="D9" s="150">
         <f t="shared" si="2"/>
         <v>2654543</v>
       </c>
-      <c r="E9" s="151" t="str">
+      <c r="E9" s="150" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="F9" s="151" t="str">
+      <c r="F9" s="150" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G9" s="151" t="str">
+      <c r="G9" s="150" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="H9" s="151" t="str">
+      <c r="H9" s="150" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="I9" s="151" t="str">
+      <c r="I9" s="150" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="J9" s="151" t="str">
+      <c r="J9" s="150" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="K9" s="151" t="str">
+      <c r="K9" s="150" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="L9" s="151" t="str">
+      <c r="L9" s="150" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="M9" s="151" t="str">
+      <c r="M9" s="150" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
@@ -5895,47 +5907,47 @@
       <c r="B10" s="97" t="s">
         <v>100</v>
       </c>
-      <c r="C10" s="199">
+      <c r="C10" s="198">
         <f>IF(Inputs!C27="","",Inputs!C27)</f>
         <v>2712006</v>
       </c>
-      <c r="D10" s="199">
+      <c r="D10" s="198">
         <f>IF(Inputs!D27="","",Inputs!D27)</f>
         <v>2157033</v>
       </c>
-      <c r="E10" s="199" t="str">
+      <c r="E10" s="198" t="str">
         <f>IF(Inputs!E27="","",Inputs!E27)</f>
         <v/>
       </c>
-      <c r="F10" s="199" t="str">
+      <c r="F10" s="198" t="str">
         <f>IF(Inputs!F27="","",Inputs!F27)</f>
         <v/>
       </c>
-      <c r="G10" s="199" t="str">
+      <c r="G10" s="198" t="str">
         <f>IF(Inputs!G27="","",Inputs!G27)</f>
         <v/>
       </c>
-      <c r="H10" s="199" t="str">
+      <c r="H10" s="198" t="str">
         <f>IF(Inputs!H27="","",Inputs!H27)</f>
         <v/>
       </c>
-      <c r="I10" s="199" t="str">
+      <c r="I10" s="198" t="str">
         <f>IF(Inputs!I27="","",Inputs!I27)</f>
         <v/>
       </c>
-      <c r="J10" s="199" t="str">
+      <c r="J10" s="198" t="str">
         <f>IF(Inputs!J27="","",Inputs!J27)</f>
         <v/>
       </c>
-      <c r="K10" s="199" t="str">
+      <c r="K10" s="198" t="str">
         <f>IF(Inputs!K27="","",Inputs!K27)</f>
         <v/>
       </c>
-      <c r="L10" s="199" t="str">
+      <c r="L10" s="198" t="str">
         <f>IF(Inputs!L27="","",Inputs!L27)</f>
         <v/>
       </c>
-      <c r="M10" s="199" t="str">
+      <c r="M10" s="198" t="str">
         <f>IF(Inputs!M27="","",Inputs!M27)</f>
         <v/>
       </c>
@@ -5946,47 +5958,47 @@
       <c r="B11" s="97" t="s">
         <v>103</v>
       </c>
-      <c r="C11" s="199" t="str">
+      <c r="C11" s="198" t="str">
         <f>IF(Inputs!C28="","",Inputs!C28)</f>
         <v/>
       </c>
-      <c r="D11" s="199" t="str">
+      <c r="D11" s="198" t="str">
         <f>IF(Inputs!D28="","",Inputs!D28)</f>
         <v/>
       </c>
-      <c r="E11" s="199" t="str">
+      <c r="E11" s="198" t="str">
         <f>IF(Inputs!E28="","",Inputs!E28)</f>
         <v/>
       </c>
-      <c r="F11" s="199" t="str">
+      <c r="F11" s="198" t="str">
         <f>IF(Inputs!F28="","",Inputs!F28)</f>
         <v/>
       </c>
-      <c r="G11" s="199" t="str">
+      <c r="G11" s="198" t="str">
         <f>IF(Inputs!G28="","",Inputs!G28)</f>
         <v/>
       </c>
-      <c r="H11" s="199" t="str">
+      <c r="H11" s="198" t="str">
         <f>IF(Inputs!H28="","",Inputs!H28)</f>
         <v/>
       </c>
-      <c r="I11" s="199" t="str">
+      <c r="I11" s="198" t="str">
         <f>IF(Inputs!I28="","",Inputs!I28)</f>
         <v/>
       </c>
-      <c r="J11" s="199" t="str">
+      <c r="J11" s="198" t="str">
         <f>IF(Inputs!J28="","",Inputs!J28)</f>
         <v/>
       </c>
-      <c r="K11" s="199" t="str">
+      <c r="K11" s="198" t="str">
         <f>IF(Inputs!K28="","",Inputs!K28)</f>
         <v/>
       </c>
-      <c r="L11" s="199" t="str">
+      <c r="L11" s="198" t="str">
         <f>IF(Inputs!L28="","",Inputs!L28)</f>
         <v/>
       </c>
-      <c r="M11" s="199" t="str">
+      <c r="M11" s="198" t="str">
         <f>IF(Inputs!M28="","",Inputs!M28)</f>
         <v/>
       </c>
@@ -5995,49 +6007,49 @@
     <row r="12" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="4"/>
       <c r="B12" s="99" t="s">
-        <v>226</v>
-      </c>
-      <c r="C12" s="199">
+        <v>225</v>
+      </c>
+      <c r="C12" s="198">
         <f>IF(Inputs!C30="","",MAX(Inputs!C30,0)/(1-Fin_Analysis!$I$84))</f>
         <v>8569.3333333333339</v>
       </c>
-      <c r="D12" s="199">
+      <c r="D12" s="198">
         <f>IF(Inputs!D30="","",MAX(Inputs!D30,0)/(1-Fin_Analysis!$I$84))</f>
         <v>188</v>
       </c>
-      <c r="E12" s="199" t="str">
+      <c r="E12" s="198" t="str">
         <f>IF(Inputs!E30="","",MAX(Inputs!E30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="F12" s="199" t="str">
+      <c r="F12" s="198" t="str">
         <f>IF(Inputs!F30="","",MAX(Inputs!F30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="G12" s="199" t="str">
+      <c r="G12" s="198" t="str">
         <f>IF(Inputs!G30="","",MAX(Inputs!G30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="H12" s="199" t="str">
+      <c r="H12" s="198" t="str">
         <f>IF(Inputs!H30="","",MAX(Inputs!H30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="I12" s="199" t="str">
+      <c r="I12" s="198" t="str">
         <f>IF(Inputs!I30="","",MAX(Inputs!I30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="J12" s="199" t="str">
+      <c r="J12" s="198" t="str">
         <f>IF(Inputs!J30="","",MAX(Inputs!J30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="K12" s="199" t="str">
+      <c r="K12" s="198" t="str">
         <f>IF(Inputs!K30="","",MAX(Inputs!K30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="L12" s="199" t="str">
+      <c r="L12" s="198" t="str">
         <f>IF(Inputs!L30="","",MAX(Inputs!L30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="M12" s="199" t="str">
+      <c r="M12" s="198" t="str">
         <f>IF(Inputs!M30="","",MAX(Inputs!M30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
@@ -6045,50 +6057,50 @@
     </row>
     <row r="13" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="4"/>
-      <c r="B13" s="228" t="s">
-        <v>227</v>
-      </c>
-      <c r="C13" s="229">
+      <c r="B13" s="225" t="s">
+        <v>226</v>
+      </c>
+      <c r="C13" s="226">
         <f t="shared" ref="C13:M13" si="3">IF(C14="","",C14/C6)</f>
         <v>0.18147838497221025</v>
       </c>
-      <c r="D13" s="229">
+      <c r="D13" s="226">
         <f t="shared" si="3"/>
         <v>0.10770784116514241</v>
       </c>
-      <c r="E13" s="229" t="str">
+      <c r="E13" s="226" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="F13" s="229" t="str">
+      <c r="F13" s="226" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="G13" s="229" t="str">
+      <c r="G13" s="226" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="H13" s="229" t="str">
+      <c r="H13" s="226" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="I13" s="229" t="str">
+      <c r="I13" s="226" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="J13" s="229" t="str">
+      <c r="J13" s="226" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="K13" s="229" t="str">
+      <c r="K13" s="226" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="L13" s="229" t="str">
+      <c r="L13" s="226" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="M13" s="229" t="str">
+      <c r="M13" s="226" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -6096,50 +6108,50 @@
     </row>
     <row r="14" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="4"/>
-      <c r="B14" s="228" t="s">
-        <v>219</v>
-      </c>
-      <c r="C14" s="230">
+      <c r="B14" s="225" t="s">
+        <v>218</v>
+      </c>
+      <c r="C14" s="227">
         <f>IF(C6="","",C9-C10-MAX(C11,0)-MAX(C12,0))</f>
         <v>1143495.6666666667</v>
       </c>
-      <c r="D14" s="230">
+      <c r="D14" s="227">
         <f t="shared" ref="D14:M14" si="4">IF(D6="","",D9-D10-MAX(D11,0)-MAX(D12,0))</f>
         <v>497322</v>
       </c>
-      <c r="E14" s="230" t="str">
+      <c r="E14" s="227" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="F14" s="230" t="str">
+      <c r="F14" s="227" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="G14" s="230" t="str">
+      <c r="G14" s="227" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="H14" s="230" t="str">
+      <c r="H14" s="227" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="I14" s="230" t="str">
+      <c r="I14" s="227" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="J14" s="230" t="str">
+      <c r="J14" s="227" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="K14" s="230" t="str">
+      <c r="K14" s="227" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="L14" s="230" t="str">
+      <c r="L14" s="227" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="M14" s="230" t="str">
+      <c r="M14" s="227" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
@@ -6147,50 +6159,50 @@
     </row>
     <row r="15" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="4"/>
-      <c r="B15" s="231" t="s">
-        <v>228</v>
-      </c>
-      <c r="C15" s="232">
+      <c r="B15" s="228" t="s">
+        <v>227</v>
+      </c>
+      <c r="C15" s="229">
         <f>IF(D14="","",IF(ABS(C14+D14)=ABS(C14)+ABS(D14),IF(C14&lt;0,-1,1)*(C14-D14)/D14,"Turn"))</f>
         <v>1.2993064185108778</v>
       </c>
-      <c r="D15" s="232" t="str">
+      <c r="D15" s="229" t="str">
         <f t="shared" ref="D15:M15" si="5">IF(E14="","",IF(ABS(D14+E14)=ABS(D14)+ABS(E14),IF(D14&lt;0,-1,1)*(D14-E14)/E14,"Turn"))</f>
         <v/>
       </c>
-      <c r="E15" s="232" t="str">
+      <c r="E15" s="229" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="F15" s="232" t="str">
+      <c r="F15" s="229" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="G15" s="232" t="str">
+      <c r="G15" s="229" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="H15" s="232" t="str">
+      <c r="H15" s="229" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="I15" s="232" t="str">
+      <c r="I15" s="229" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="J15" s="232" t="str">
+      <c r="J15" s="229" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="K15" s="232" t="str">
+      <c r="K15" s="229" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="L15" s="232" t="str">
+      <c r="L15" s="229" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="M15" s="232" t="str">
+      <c r="M15" s="229" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
@@ -6201,47 +6213,47 @@
       <c r="B16" s="97" t="s">
         <v>106</v>
       </c>
-      <c r="C16" s="199" t="str">
+      <c r="C16" s="198" t="str">
         <f>IF(Inputs!C31="","",Inputs!C31)</f>
         <v/>
       </c>
-      <c r="D16" s="199" t="str">
+      <c r="D16" s="198" t="str">
         <f>IF(Inputs!D31="","",Inputs!D31)</f>
         <v/>
       </c>
-      <c r="E16" s="199" t="str">
+      <c r="E16" s="198" t="str">
         <f>IF(Inputs!E31="","",Inputs!E31)</f>
         <v/>
       </c>
-      <c r="F16" s="199" t="str">
+      <c r="F16" s="198" t="str">
         <f>IF(Inputs!F31="","",Inputs!F31)</f>
         <v/>
       </c>
-      <c r="G16" s="199" t="str">
+      <c r="G16" s="198" t="str">
         <f>IF(Inputs!G31="","",Inputs!G31)</f>
         <v/>
       </c>
-      <c r="H16" s="199" t="str">
+      <c r="H16" s="198" t="str">
         <f>IF(Inputs!H31="","",Inputs!H31)</f>
         <v/>
       </c>
-      <c r="I16" s="199" t="str">
+      <c r="I16" s="198" t="str">
         <f>IF(Inputs!I31="","",Inputs!I31)</f>
         <v/>
       </c>
-      <c r="J16" s="199" t="str">
+      <c r="J16" s="198" t="str">
         <f>IF(Inputs!J31="","",Inputs!J31)</f>
         <v/>
       </c>
-      <c r="K16" s="199" t="str">
+      <c r="K16" s="198" t="str">
         <f>IF(Inputs!K31="","",Inputs!K31)</f>
         <v/>
       </c>
-      <c r="L16" s="199" t="str">
+      <c r="L16" s="198" t="str">
         <f>IF(Inputs!L31="","",Inputs!L31)</f>
         <v/>
       </c>
-      <c r="M16" s="199" t="str">
+      <c r="M16" s="198" t="str">
         <f>IF(Inputs!M31="","",Inputs!M31)</f>
         <v/>
       </c>
@@ -6250,49 +6262,49 @@
     <row r="17" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="4"/>
       <c r="B17" s="97" t="s">
-        <v>240</v>
-      </c>
-      <c r="C17" s="199">
+        <v>239</v>
+      </c>
+      <c r="C17" s="198">
         <f>IF(Inputs!C29="","",Inputs!C29)</f>
         <v>32337</v>
       </c>
-      <c r="D17" s="199">
+      <c r="D17" s="198">
         <f>IF(Inputs!D29="","",Inputs!D29)</f>
         <v>38579</v>
       </c>
-      <c r="E17" s="199" t="str">
+      <c r="E17" s="198" t="str">
         <f>IF(Inputs!E29="","",Inputs!E29)</f>
         <v/>
       </c>
-      <c r="F17" s="199" t="str">
+      <c r="F17" s="198" t="str">
         <f>IF(Inputs!F29="","",Inputs!F29)</f>
         <v/>
       </c>
-      <c r="G17" s="199" t="str">
+      <c r="G17" s="198" t="str">
         <f>IF(Inputs!G29="","",Inputs!G29)</f>
         <v/>
       </c>
-      <c r="H17" s="199" t="str">
+      <c r="H17" s="198" t="str">
         <f>IF(Inputs!H29="","",Inputs!H29)</f>
         <v/>
       </c>
-      <c r="I17" s="199" t="str">
+      <c r="I17" s="198" t="str">
         <f>IF(Inputs!I29="","",Inputs!I29)</f>
         <v/>
       </c>
-      <c r="J17" s="199" t="str">
+      <c r="J17" s="198" t="str">
         <f>IF(Inputs!J29="","",Inputs!J29)</f>
         <v/>
       </c>
-      <c r="K17" s="199" t="str">
+      <c r="K17" s="198" t="str">
         <f>IF(Inputs!K29="","",Inputs!K29)</f>
         <v/>
       </c>
-      <c r="L17" s="199" t="str">
+      <c r="L17" s="198" t="str">
         <f>IF(Inputs!L29="","",Inputs!L29)</f>
         <v/>
       </c>
-      <c r="M17" s="199" t="str">
+      <c r="M17" s="198" t="str">
         <f>IF(Inputs!M29="","",Inputs!M29)</f>
         <v/>
       </c>
@@ -6303,47 +6315,47 @@
       <c r="B18" s="94" t="s">
         <v>95</v>
       </c>
-      <c r="C18" s="152" t="str">
+      <c r="C18" s="151" t="str">
         <f t="shared" ref="C18:M18" si="6">IF(OR(C6="",C19=""),"",C19/C6)</f>
         <v/>
       </c>
-      <c r="D18" s="152" t="str">
+      <c r="D18" s="151" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="E18" s="152" t="str">
+      <c r="E18" s="151" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="F18" s="152" t="str">
+      <c r="F18" s="151" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="G18" s="152" t="str">
+      <c r="G18" s="151" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="H18" s="152" t="str">
+      <c r="H18" s="151" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="I18" s="152" t="str">
+      <c r="I18" s="151" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="J18" s="152" t="str">
+      <c r="J18" s="151" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="K18" s="152" t="str">
+      <c r="K18" s="151" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="L18" s="152" t="str">
+      <c r="L18" s="151" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="M18" s="152" t="str">
+      <c r="M18" s="151" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
@@ -6354,47 +6366,47 @@
       <c r="B19" s="97" t="s">
         <v>101</v>
       </c>
-      <c r="C19" s="199" t="str">
+      <c r="C19" s="198" t="str">
         <f>IF(Inputs!C32="","",Inputs!C32)</f>
         <v/>
       </c>
-      <c r="D19" s="199" t="str">
+      <c r="D19" s="198" t="str">
         <f>IF(Inputs!D32="","",Inputs!D32)</f>
         <v/>
       </c>
-      <c r="E19" s="199" t="str">
+      <c r="E19" s="198" t="str">
         <f>IF(Inputs!E32="","",Inputs!E32)</f>
         <v/>
       </c>
-      <c r="F19" s="199" t="str">
+      <c r="F19" s="198" t="str">
         <f>IF(Inputs!F32="","",Inputs!F32)</f>
         <v/>
       </c>
-      <c r="G19" s="199" t="str">
+      <c r="G19" s="198" t="str">
         <f>IF(Inputs!G32="","",Inputs!G32)</f>
         <v/>
       </c>
-      <c r="H19" s="199" t="str">
+      <c r="H19" s="198" t="str">
         <f>IF(Inputs!H32="","",Inputs!H32)</f>
         <v/>
       </c>
-      <c r="I19" s="199" t="str">
+      <c r="I19" s="198" t="str">
         <f>IF(Inputs!I32="","",Inputs!I32)</f>
         <v/>
       </c>
-      <c r="J19" s="199" t="str">
+      <c r="J19" s="198" t="str">
         <f>IF(Inputs!J32="","",Inputs!J32)</f>
         <v/>
       </c>
-      <c r="K19" s="199" t="str">
+      <c r="K19" s="198" t="str">
         <f>IF(Inputs!K32="","",Inputs!K32)</f>
         <v/>
       </c>
-      <c r="L19" s="199" t="str">
+      <c r="L19" s="198" t="str">
         <f>IF(Inputs!L32="","",Inputs!L32)</f>
         <v/>
       </c>
-      <c r="M19" s="199" t="str">
+      <c r="M19" s="198" t="str">
         <f>IF(Inputs!M32="","",Inputs!M32)</f>
         <v/>
       </c>
@@ -6403,49 +6415,49 @@
     <row r="20" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="4"/>
       <c r="B20" s="97" t="s">
-        <v>221</v>
-      </c>
-      <c r="C20" s="152">
+        <v>220</v>
+      </c>
+      <c r="C20" s="151">
         <f t="shared" ref="C20:M20" si="7">IF(C6="","",MAX(C21,0)/C6)</f>
         <v>0</v>
       </c>
-      <c r="D20" s="152">
+      <c r="D20" s="151">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="E20" s="152" t="str">
+      <c r="E20" s="151" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="F20" s="152" t="str">
+      <c r="F20" s="151" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="G20" s="152" t="str">
+      <c r="G20" s="151" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="H20" s="152" t="str">
+      <c r="H20" s="151" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="I20" s="152" t="str">
+      <c r="I20" s="151" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="J20" s="152" t="str">
+      <c r="J20" s="151" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="K20" s="152" t="str">
+      <c r="K20" s="151" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="L20" s="152" t="str">
+      <c r="L20" s="151" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="M20" s="152" t="str">
+      <c r="M20" s="151" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
@@ -6456,47 +6468,47 @@
       <c r="B21" s="97" t="s">
         <v>104</v>
       </c>
-      <c r="C21" s="199" t="str">
+      <c r="C21" s="198" t="str">
         <f>IF(Inputs!C33="","",Inputs!C33)</f>
         <v/>
       </c>
-      <c r="D21" s="199" t="str">
+      <c r="D21" s="198" t="str">
         <f>IF(Inputs!D33="","",Inputs!D33)</f>
         <v/>
       </c>
-      <c r="E21" s="199" t="str">
+      <c r="E21" s="198" t="str">
         <f>IF(Inputs!E33="","",Inputs!E33)</f>
         <v/>
       </c>
-      <c r="F21" s="199" t="str">
+      <c r="F21" s="198" t="str">
         <f>IF(Inputs!F33="","",Inputs!F33)</f>
         <v/>
       </c>
-      <c r="G21" s="199" t="str">
+      <c r="G21" s="198" t="str">
         <f>IF(Inputs!G33="","",Inputs!G33)</f>
         <v/>
       </c>
-      <c r="H21" s="199" t="str">
+      <c r="H21" s="198" t="str">
         <f>IF(Inputs!H33="","",Inputs!H33)</f>
         <v/>
       </c>
-      <c r="I21" s="199" t="str">
+      <c r="I21" s="198" t="str">
         <f>IF(Inputs!I33="","",Inputs!I33)</f>
         <v/>
       </c>
-      <c r="J21" s="199" t="str">
+      <c r="J21" s="198" t="str">
         <f>IF(Inputs!J33="","",Inputs!J33)</f>
         <v/>
       </c>
-      <c r="K21" s="199" t="str">
+      <c r="K21" s="198" t="str">
         <f>IF(Inputs!K33="","",Inputs!K33)</f>
         <v/>
       </c>
-      <c r="L21" s="199" t="str">
+      <c r="L21" s="198" t="str">
         <f>IF(Inputs!L33="","",Inputs!L33)</f>
         <v/>
       </c>
-      <c r="M21" s="199" t="str">
+      <c r="M21" s="198" t="str">
         <f>IF(Inputs!M33="","",Inputs!M33)</f>
         <v/>
       </c>
@@ -6507,47 +6519,47 @@
       <c r="B22" s="98" t="s">
         <v>108</v>
       </c>
-      <c r="C22" s="161">
+      <c r="C22" s="160">
         <f>IF(C6="","",C14-MAX(C16,0)-MAX(C17,0)-ABS(MAX(C21,0)-MAX(C19,0)))</f>
         <v>1111158.6666666667</v>
       </c>
-      <c r="D22" s="161">
+      <c r="D22" s="160">
         <f t="shared" ref="D22:M22" si="8">IF(D6="","",D14-MAX(D16,0)-MAX(D17,0)-ABS(MAX(D21,0)-MAX(D19,0)))</f>
         <v>458743</v>
       </c>
-      <c r="E22" s="161" t="str">
+      <c r="E22" s="160" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="F22" s="161" t="str">
+      <c r="F22" s="160" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="G22" s="161" t="str">
+      <c r="G22" s="160" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="H22" s="161" t="str">
+      <c r="H22" s="160" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="I22" s="161" t="str">
+      <c r="I22" s="160" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="J22" s="161" t="str">
+      <c r="J22" s="160" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="K22" s="161" t="str">
+      <c r="K22" s="160" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="L22" s="161" t="str">
+      <c r="L22" s="160" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="M22" s="161" t="str">
+      <c r="M22" s="160" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
@@ -6558,47 +6570,47 @@
       <c r="B23" s="100" t="s">
         <v>109</v>
       </c>
-      <c r="C23" s="153">
+      <c r="C23" s="152">
         <f t="shared" ref="C23:M23" si="9">IF(C6="","",C24/C6)</f>
         <v>0.13225975805117979</v>
       </c>
-      <c r="D23" s="153">
+      <c r="D23" s="152">
         <f t="shared" si="9"/>
         <v>7.4514426537968748E-2</v>
       </c>
-      <c r="E23" s="153" t="str">
+      <c r="E23" s="152" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="F23" s="153" t="str">
+      <c r="F23" s="152" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="G23" s="153" t="str">
+      <c r="G23" s="152" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="H23" s="153" t="str">
+      <c r="H23" s="152" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="I23" s="153" t="str">
+      <c r="I23" s="152" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="J23" s="153" t="str">
+      <c r="J23" s="152" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="K23" s="153" t="str">
+      <c r="K23" s="152" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="L23" s="153" t="str">
+      <c r="L23" s="152" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="M23" s="153" t="str">
+      <c r="M23" s="152" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
@@ -6609,7 +6621,7 @@
       <c r="B24" s="101" t="s">
         <v>110</v>
       </c>
-      <c r="C24" s="154">
+      <c r="C24" s="153">
         <f>IF(C6="","",C22*(1-Fin_Analysis!$I$84))</f>
         <v>833369</v>
       </c>
@@ -6657,50 +6669,50 @@
     </row>
     <row r="25" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A25" s="4"/>
-      <c r="B25" s="234" t="s">
+      <c r="B25" s="231" t="s">
         <v>123</v>
       </c>
-      <c r="C25" s="233">
+      <c r="C25" s="230">
         <f>IF(D24="","",IF(ABS(C24+D24)=ABS(C24)+ABS(D24),IF(C24&lt;0,-1,1)*(C24-D24)/D24,"Turn"))</f>
         <v>1.4221811922289096</v>
       </c>
-      <c r="D25" s="233" t="str">
+      <c r="D25" s="230" t="str">
         <f t="shared" ref="D25:M25" si="10">IF(E24="","",IF(ABS(D24+E24)=ABS(D24)+ABS(E24),IF(D24&lt;0,-1,1)*(D24-E24)/E24,"Turn"))</f>
         <v/>
       </c>
-      <c r="E25" s="233" t="str">
+      <c r="E25" s="230" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="F25" s="233" t="str">
+      <c r="F25" s="230" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="G25" s="233" t="str">
+      <c r="G25" s="230" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="H25" s="233" t="str">
+      <c r="H25" s="230" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="I25" s="233" t="str">
+      <c r="I25" s="230" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="J25" s="233" t="str">
+      <c r="J25" s="230" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="K25" s="233" t="str">
+      <c r="K25" s="230" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="L25" s="233" t="str">
+      <c r="L25" s="230" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="M25" s="233" t="str">
+      <c r="M25" s="230" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
@@ -6817,43 +6829,43 @@
         <f>Fin_Analysis!C13</f>
         <v>0</v>
       </c>
-      <c r="D28" s="199" t="str">
+      <c r="D28" s="198" t="str">
         <f>IF(Inputs!D35="","",Inputs!D35)</f>
         <v/>
       </c>
-      <c r="E28" s="199" t="str">
+      <c r="E28" s="198" t="str">
         <f>IF(Inputs!E35="","",Inputs!E35)</f>
         <v/>
       </c>
-      <c r="F28" s="199" t="str">
+      <c r="F28" s="198" t="str">
         <f>IF(Inputs!F35="","",Inputs!F35)</f>
         <v/>
       </c>
-      <c r="G28" s="199" t="str">
+      <c r="G28" s="198" t="str">
         <f>IF(Inputs!G35="","",Inputs!G35)</f>
         <v/>
       </c>
-      <c r="H28" s="199" t="str">
+      <c r="H28" s="198" t="str">
         <f>IF(Inputs!H35="","",Inputs!H35)</f>
         <v/>
       </c>
-      <c r="I28" s="199" t="str">
+      <c r="I28" s="198" t="str">
         <f>IF(Inputs!I35="","",Inputs!I35)</f>
         <v/>
       </c>
-      <c r="J28" s="199" t="str">
+      <c r="J28" s="198" t="str">
         <f>IF(Inputs!J35="","",Inputs!J35)</f>
         <v/>
       </c>
-      <c r="K28" s="199" t="str">
+      <c r="K28" s="198" t="str">
         <f>IF(Inputs!K35="","",Inputs!K35)</f>
         <v/>
       </c>
-      <c r="L28" s="199" t="str">
+      <c r="L28" s="198" t="str">
         <f>IF(Inputs!L35="","",Inputs!L35)</f>
         <v/>
       </c>
-      <c r="M28" s="199" t="str">
+      <c r="M28" s="198" t="str">
         <f>IF(Inputs!M35="","",Inputs!M35)</f>
         <v/>
       </c>
@@ -6868,43 +6880,43 @@
         <f>Fin_Analysis!C18</f>
         <v>0</v>
       </c>
-      <c r="D29" s="199" t="str">
+      <c r="D29" s="198" t="str">
         <f>IF(Inputs!D36="","",Inputs!D36)</f>
         <v/>
       </c>
-      <c r="E29" s="199" t="str">
+      <c r="E29" s="198" t="str">
         <f>IF(Inputs!E36="","",Inputs!E36)</f>
         <v/>
       </c>
-      <c r="F29" s="199" t="str">
+      <c r="F29" s="198" t="str">
         <f>IF(Inputs!F36="","",Inputs!F36)</f>
         <v/>
       </c>
-      <c r="G29" s="199" t="str">
+      <c r="G29" s="198" t="str">
         <f>IF(Inputs!G36="","",Inputs!G36)</f>
         <v/>
       </c>
-      <c r="H29" s="199" t="str">
+      <c r="H29" s="198" t="str">
         <f>IF(Inputs!H36="","",Inputs!H36)</f>
         <v/>
       </c>
-      <c r="I29" s="199" t="str">
+      <c r="I29" s="198" t="str">
         <f>IF(Inputs!I36="","",Inputs!I36)</f>
         <v/>
       </c>
-      <c r="J29" s="199" t="str">
+      <c r="J29" s="198" t="str">
         <f>IF(Inputs!J36="","",Inputs!J36)</f>
         <v/>
       </c>
-      <c r="K29" s="199" t="str">
+      <c r="K29" s="198" t="str">
         <f>IF(Inputs!K36="","",Inputs!K36)</f>
         <v/>
       </c>
-      <c r="L29" s="199" t="str">
+      <c r="L29" s="198" t="str">
         <f>IF(Inputs!L36="","",Inputs!L36)</f>
         <v/>
       </c>
-      <c r="M29" s="199" t="str">
+      <c r="M29" s="198" t="str">
         <f>IF(Inputs!M36="","",Inputs!M36)</f>
         <v/>
       </c>
@@ -6913,49 +6925,49 @@
     <row r="30" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A30" s="4"/>
       <c r="B30" s="94" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="C30" s="65">
         <f>Inputs!C37</f>
         <v>0</v>
       </c>
-      <c r="D30" s="199" t="str">
+      <c r="D30" s="198" t="str">
         <f>IF(Inputs!D37="","",Inputs!D37)</f>
         <v/>
       </c>
-      <c r="E30" s="199" t="str">
+      <c r="E30" s="198" t="str">
         <f>IF(Inputs!E37="","",Inputs!E37)</f>
         <v/>
       </c>
-      <c r="F30" s="199" t="str">
+      <c r="F30" s="198" t="str">
         <f>IF(Inputs!F37="","",Inputs!F37)</f>
         <v/>
       </c>
-      <c r="G30" s="199" t="str">
+      <c r="G30" s="198" t="str">
         <f>IF(Inputs!G37="","",Inputs!G37)</f>
         <v/>
       </c>
-      <c r="H30" s="199" t="str">
+      <c r="H30" s="198" t="str">
         <f>IF(Inputs!H37="","",Inputs!H37)</f>
         <v/>
       </c>
-      <c r="I30" s="199" t="str">
+      <c r="I30" s="198" t="str">
         <f>IF(Inputs!I37="","",Inputs!I37)</f>
         <v/>
       </c>
-      <c r="J30" s="199" t="str">
+      <c r="J30" s="198" t="str">
         <f>IF(Inputs!J37="","",Inputs!J37)</f>
         <v/>
       </c>
-      <c r="K30" s="199" t="str">
+      <c r="K30" s="198" t="str">
         <f>IF(Inputs!K37="","",Inputs!K37)</f>
         <v/>
       </c>
-      <c r="L30" s="199" t="str">
+      <c r="L30" s="198" t="str">
         <f>IF(Inputs!L37="","",Inputs!L37)</f>
         <v/>
       </c>
-      <c r="M30" s="199" t="str">
+      <c r="M30" s="198" t="str">
         <f>IF(Inputs!M37="","",Inputs!M37)</f>
         <v/>
       </c>
@@ -6970,43 +6982,43 @@
         <f>Fin_Analysis!I15</f>
         <v>0</v>
       </c>
-      <c r="D31" s="199" t="str">
+      <c r="D31" s="198" t="str">
         <f>IF(Inputs!D39="","",Inputs!D39)</f>
         <v/>
       </c>
-      <c r="E31" s="199" t="str">
+      <c r="E31" s="198" t="str">
         <f>IF(Inputs!E39="","",Inputs!E39)</f>
         <v/>
       </c>
-      <c r="F31" s="199" t="str">
+      <c r="F31" s="198" t="str">
         <f>IF(Inputs!F39="","",Inputs!F39)</f>
         <v/>
       </c>
-      <c r="G31" s="199" t="str">
+      <c r="G31" s="198" t="str">
         <f>IF(Inputs!G39="","",Inputs!G39)</f>
         <v/>
       </c>
-      <c r="H31" s="199" t="str">
+      <c r="H31" s="198" t="str">
         <f>IF(Inputs!H39="","",Inputs!H39)</f>
         <v/>
       </c>
-      <c r="I31" s="199" t="str">
+      <c r="I31" s="198" t="str">
         <f>IF(Inputs!I39="","",Inputs!I39)</f>
         <v/>
       </c>
-      <c r="J31" s="199" t="str">
+      <c r="J31" s="198" t="str">
         <f>IF(Inputs!J39="","",Inputs!J39)</f>
         <v/>
       </c>
-      <c r="K31" s="199" t="str">
+      <c r="K31" s="198" t="str">
         <f>IF(Inputs!K39="","",Inputs!K39)</f>
         <v/>
       </c>
-      <c r="L31" s="199" t="str">
+      <c r="L31" s="198" t="str">
         <f>IF(Inputs!L39="","",Inputs!L39)</f>
         <v/>
       </c>
-      <c r="M31" s="199" t="str">
+      <c r="M31" s="198" t="str">
         <f>IF(Inputs!M39="","",Inputs!M39)</f>
         <v/>
       </c>
@@ -7021,43 +7033,43 @@
         <f>Fin_Analysis!I34</f>
         <v>0</v>
       </c>
-      <c r="D32" s="199" t="str">
+      <c r="D32" s="198" t="str">
         <f>IF(Inputs!D40="","",Inputs!D40)</f>
         <v/>
       </c>
-      <c r="E32" s="199" t="str">
+      <c r="E32" s="198" t="str">
         <f>IF(Inputs!E40="","",Inputs!E40)</f>
         <v/>
       </c>
-      <c r="F32" s="199" t="str">
+      <c r="F32" s="198" t="str">
         <f>IF(Inputs!F40="","",Inputs!F40)</f>
         <v/>
       </c>
-      <c r="G32" s="199" t="str">
+      <c r="G32" s="198" t="str">
         <f>IF(Inputs!G40="","",Inputs!G40)</f>
         <v/>
       </c>
-      <c r="H32" s="199" t="str">
+      <c r="H32" s="198" t="str">
         <f>IF(Inputs!H40="","",Inputs!H40)</f>
         <v/>
       </c>
-      <c r="I32" s="199" t="str">
+      <c r="I32" s="198" t="str">
         <f>IF(Inputs!I40="","",Inputs!I40)</f>
         <v/>
       </c>
-      <c r="J32" s="199" t="str">
+      <c r="J32" s="198" t="str">
         <f>IF(Inputs!J40="","",Inputs!J40)</f>
         <v/>
       </c>
-      <c r="K32" s="199" t="str">
+      <c r="K32" s="198" t="str">
         <f>IF(Inputs!K40="","",Inputs!K40)</f>
         <v/>
       </c>
-      <c r="L32" s="199" t="str">
+      <c r="L32" s="198" t="str">
         <f>IF(Inputs!L40="","",Inputs!L40)</f>
         <v/>
       </c>
-      <c r="M32" s="199" t="str">
+      <c r="M32" s="198" t="str">
         <f>IF(Inputs!M40="","",Inputs!M40)</f>
         <v/>
       </c>
@@ -7123,43 +7135,43 @@
         <f>Inputs!C41</f>
         <v>0</v>
       </c>
-      <c r="D34" s="199" t="str">
+      <c r="D34" s="198" t="str">
         <f>IF(Inputs!D41="","",Inputs!D41)</f>
         <v/>
       </c>
-      <c r="E34" s="199" t="str">
+      <c r="E34" s="198" t="str">
         <f>IF(Inputs!E41="","",Inputs!E41)</f>
         <v/>
       </c>
-      <c r="F34" s="199" t="str">
+      <c r="F34" s="198" t="str">
         <f>IF(Inputs!F41="","",Inputs!F41)</f>
         <v/>
       </c>
-      <c r="G34" s="199" t="str">
+      <c r="G34" s="198" t="str">
         <f>IF(Inputs!G41="","",Inputs!G41)</f>
         <v/>
       </c>
-      <c r="H34" s="199" t="str">
+      <c r="H34" s="198" t="str">
         <f>IF(Inputs!H41="","",Inputs!H41)</f>
         <v/>
       </c>
-      <c r="I34" s="199" t="str">
+      <c r="I34" s="198" t="str">
         <f>IF(Inputs!I41="","",Inputs!I41)</f>
         <v/>
       </c>
-      <c r="J34" s="199" t="str">
+      <c r="J34" s="198" t="str">
         <f>IF(Inputs!J41="","",Inputs!J41)</f>
         <v/>
       </c>
-      <c r="K34" s="199" t="str">
+      <c r="K34" s="198" t="str">
         <f>IF(Inputs!K41="","",Inputs!K41)</f>
         <v/>
       </c>
-      <c r="L34" s="199" t="str">
+      <c r="L34" s="198" t="str">
         <f>IF(Inputs!L41="","",Inputs!L41)</f>
         <v/>
       </c>
-      <c r="M34" s="199" t="str">
+      <c r="M34" s="198" t="str">
         <f>IF(Inputs!M41="","",Inputs!M41)</f>
         <v/>
       </c>
@@ -7174,43 +7186,43 @@
         <f>Inputs!C42</f>
         <v>0</v>
       </c>
-      <c r="D35" s="199" t="str">
+      <c r="D35" s="198" t="str">
         <f>IF(Inputs!D42="","",Inputs!D42)</f>
         <v/>
       </c>
-      <c r="E35" s="199" t="str">
+      <c r="E35" s="198" t="str">
         <f>IF(Inputs!E42="","",Inputs!E42)</f>
         <v/>
       </c>
-      <c r="F35" s="199" t="str">
+      <c r="F35" s="198" t="str">
         <f>IF(Inputs!F42="","",Inputs!F42)</f>
         <v/>
       </c>
-      <c r="G35" s="199" t="str">
+      <c r="G35" s="198" t="str">
         <f>IF(Inputs!G42="","",Inputs!G42)</f>
         <v/>
       </c>
-      <c r="H35" s="199" t="str">
+      <c r="H35" s="198" t="str">
         <f>IF(Inputs!H42="","",Inputs!H42)</f>
         <v/>
       </c>
-      <c r="I35" s="199" t="str">
+      <c r="I35" s="198" t="str">
         <f>IF(Inputs!I42="","",Inputs!I42)</f>
         <v/>
       </c>
-      <c r="J35" s="199" t="str">
+      <c r="J35" s="198" t="str">
         <f>IF(Inputs!J42="","",Inputs!J42)</f>
         <v/>
       </c>
-      <c r="K35" s="199" t="str">
+      <c r="K35" s="198" t="str">
         <f>IF(Inputs!K42="","",Inputs!K42)</f>
         <v/>
       </c>
-      <c r="L35" s="199" t="str">
+      <c r="L35" s="198" t="str">
         <f>IF(Inputs!L42="","",Inputs!L42)</f>
         <v/>
       </c>
-      <c r="M35" s="199" t="str">
+      <c r="M35" s="198" t="str">
         <f>IF(Inputs!M42="","",Inputs!M42)</f>
         <v/>
       </c>
@@ -7225,43 +7237,43 @@
         <f>Inputs!C40</f>
         <v>0</v>
       </c>
-      <c r="D36" s="199" t="str">
+      <c r="D36" s="198" t="str">
         <f>IF(Inputs!D43="","",Inputs!D43)</f>
         <v/>
       </c>
-      <c r="E36" s="199" t="str">
+      <c r="E36" s="198" t="str">
         <f>IF(Inputs!E43="","",Inputs!E43)</f>
         <v/>
       </c>
-      <c r="F36" s="199" t="str">
+      <c r="F36" s="198" t="str">
         <f>IF(Inputs!F43="","",Inputs!F43)</f>
         <v/>
       </c>
-      <c r="G36" s="199" t="str">
+      <c r="G36" s="198" t="str">
         <f>IF(Inputs!G43="","",Inputs!G43)</f>
         <v/>
       </c>
-      <c r="H36" s="199" t="str">
+      <c r="H36" s="198" t="str">
         <f>IF(Inputs!H43="","",Inputs!H43)</f>
         <v/>
       </c>
-      <c r="I36" s="199" t="str">
+      <c r="I36" s="198" t="str">
         <f>IF(Inputs!I43="","",Inputs!I43)</f>
         <v/>
       </c>
-      <c r="J36" s="199" t="str">
+      <c r="J36" s="198" t="str">
         <f>IF(Inputs!J43="","",Inputs!J43)</f>
         <v/>
       </c>
-      <c r="K36" s="199" t="str">
+      <c r="K36" s="198" t="str">
         <f>IF(Inputs!K43="","",Inputs!K43)</f>
         <v/>
       </c>
-      <c r="L36" s="199" t="str">
+      <c r="L36" s="198" t="str">
         <f>IF(Inputs!L43="","",Inputs!L43)</f>
         <v/>
       </c>
-      <c r="M36" s="199" t="str">
+      <c r="M36" s="198" t="str">
         <f>IF(Inputs!M43="","",Inputs!M43)</f>
         <v/>
       </c>
@@ -7323,47 +7335,47 @@
       <c r="B38" s="98" t="s">
         <v>149</v>
       </c>
-      <c r="C38" s="155" t="e">
+      <c r="C38" s="154" t="e">
         <f>IF(C6="","",C14/MAX(C37,0))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D38" s="155" t="e">
+      <c r="D38" s="154" t="e">
         <f>IF(D6="","",D14/MAX(D37,0))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E38" s="155" t="str">
+      <c r="E38" s="154" t="str">
         <f>IF(E6="","",E14/MAX(E37,0))</f>
         <v/>
       </c>
-      <c r="F38" s="155" t="str">
+      <c r="F38" s="154" t="str">
         <f t="shared" ref="F38:M38" si="33">IF(F37="","",F14/F37)</f>
         <v/>
       </c>
-      <c r="G38" s="155" t="str">
+      <c r="G38" s="154" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="H38" s="155" t="str">
+      <c r="H38" s="154" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="I38" s="155" t="str">
+      <c r="I38" s="154" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="J38" s="155" t="str">
+      <c r="J38" s="154" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="K38" s="155" t="str">
+      <c r="K38" s="154" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="L38" s="155" t="str">
+      <c r="L38" s="154" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="M38" s="155" t="str">
+      <c r="M38" s="154" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
@@ -7372,7 +7384,7 @@
     <row r="39" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39" s="16"/>
       <c r="B39" s="55" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C39" s="54"/>
       <c r="D39" s="54"/>
@@ -7392,47 +7404,47 @@
       <c r="B40" s="95" t="s">
         <v>94</v>
       </c>
-      <c r="C40" s="156">
+      <c r="C40" s="155">
         <f t="shared" ref="C40:M40" si="34">IF(C6="","",C8/C6)</f>
         <v>0.38675293231140062</v>
       </c>
-      <c r="D40" s="156">
+      <c r="D40" s="155">
         <f t="shared" si="34"/>
         <v>0.42509059359923629</v>
       </c>
-      <c r="E40" s="156" t="str">
+      <c r="E40" s="155" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="F40" s="156" t="str">
+      <c r="F40" s="155" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="G40" s="156" t="str">
+      <c r="G40" s="155" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="H40" s="156" t="str">
+      <c r="H40" s="155" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="I40" s="156" t="str">
+      <c r="I40" s="155" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="J40" s="156" t="str">
+      <c r="J40" s="155" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="K40" s="156" t="str">
+      <c r="K40" s="155" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="L40" s="156" t="str">
+      <c r="L40" s="155" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="M40" s="156" t="str">
+      <c r="M40" s="155" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
@@ -7441,49 +7453,49 @@
     <row r="41" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A41" s="4"/>
       <c r="B41" s="94" t="s">
-        <v>220</v>
-      </c>
-      <c r="C41" s="153">
+        <v>219</v>
+      </c>
+      <c r="C41" s="152">
         <f t="shared" ref="C41:M41" si="35">IF(C6="","",(C10+MAX(C11,0))/C6)</f>
         <v>0.43040868738019761</v>
       </c>
-      <c r="D41" s="153">
+      <c r="D41" s="152">
         <f t="shared" si="35"/>
         <v>0.46716084901124549</v>
       </c>
-      <c r="E41" s="153" t="str">
+      <c r="E41" s="152" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="F41" s="153" t="str">
+      <c r="F41" s="152" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="G41" s="153" t="str">
+      <c r="G41" s="152" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="H41" s="153" t="str">
+      <c r="H41" s="152" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="I41" s="153" t="str">
+      <c r="I41" s="152" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="J41" s="153" t="str">
+      <c r="J41" s="152" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="K41" s="153" t="str">
+      <c r="K41" s="152" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="L41" s="153" t="str">
+      <c r="L41" s="152" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="M41" s="153" t="str">
+      <c r="M41" s="152" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
@@ -7494,47 +7506,47 @@
       <c r="B42" s="94" t="s">
         <v>105</v>
       </c>
-      <c r="C42" s="153">
+      <c r="C42" s="152">
         <f t="shared" ref="C42:M42" si="36">IF(C6="","",MAX(C16,0)/C6)</f>
         <v>0</v>
       </c>
-      <c r="D42" s="153">
+      <c r="D42" s="152">
         <f t="shared" si="36"/>
         <v>0</v>
       </c>
-      <c r="E42" s="153" t="str">
+      <c r="E42" s="152" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="F42" s="153" t="str">
+      <c r="F42" s="152" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="G42" s="153" t="str">
+      <c r="G42" s="152" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="H42" s="153" t="str">
+      <c r="H42" s="152" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="I42" s="153" t="str">
+      <c r="I42" s="152" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="J42" s="153" t="str">
+      <c r="J42" s="152" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="K42" s="153" t="str">
+      <c r="K42" s="152" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="L42" s="153" t="str">
+      <c r="L42" s="152" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="M42" s="153" t="str">
+      <c r="M42" s="152" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
@@ -7545,47 +7557,47 @@
       <c r="B43" s="94" t="s">
         <v>117</v>
       </c>
-      <c r="C43" s="153">
+      <c r="C43" s="152">
         <f t="shared" ref="C43:M43" si="37">IF(C6="","",MAX(C17,0)/C6)</f>
         <v>5.1320409039705113E-3</v>
       </c>
-      <c r="D43" s="153">
+      <c r="D43" s="152">
         <f t="shared" si="37"/>
         <v>8.3552724478507465E-3</v>
       </c>
-      <c r="E43" s="153" t="str">
+      <c r="E43" s="152" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="F43" s="153" t="str">
+      <c r="F43" s="152" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="G43" s="153" t="str">
+      <c r="G43" s="152" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="H43" s="153" t="str">
+      <c r="H43" s="152" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="I43" s="153" t="str">
+      <c r="I43" s="152" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="J43" s="153" t="str">
+      <c r="J43" s="152" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="K43" s="153" t="str">
+      <c r="K43" s="152" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="L43" s="153" t="str">
+      <c r="L43" s="152" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="M43" s="153" t="str">
+      <c r="M43" s="152" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
@@ -7596,47 +7608,47 @@
       <c r="B44" s="94" t="s">
         <v>124</v>
       </c>
-      <c r="C44" s="153">
+      <c r="C44" s="152">
         <f t="shared" ref="C44:M44" si="38">IF(C6="","",MAX(C12,0)/C6)</f>
         <v>1.3599953361915031E-3</v>
       </c>
-      <c r="D44" s="153">
+      <c r="D44" s="152">
         <f t="shared" si="38"/>
         <v>4.0716224375850603E-5</v>
       </c>
-      <c r="E44" s="153" t="str">
+      <c r="E44" s="152" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="F44" s="153" t="str">
+      <c r="F44" s="152" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="G44" s="153" t="str">
+      <c r="G44" s="152" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="H44" s="153" t="str">
+      <c r="H44" s="152" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="I44" s="153" t="str">
+      <c r="I44" s="152" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="J44" s="153" t="str">
+      <c r="J44" s="152" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="K44" s="153" t="str">
+      <c r="K44" s="152" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="L44" s="153" t="str">
+      <c r="L44" s="152" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="M44" s="153" t="str">
+      <c r="M44" s="152" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
@@ -7645,49 +7657,49 @@
     <row r="45" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A45" s="4"/>
       <c r="B45" s="94" t="s">
-        <v>222</v>
-      </c>
-      <c r="C45" s="153">
+        <v>221</v>
+      </c>
+      <c r="C45" s="152">
         <f t="shared" ref="C45:M45" si="39">IF(C6="","",ABS(MAX(C21,0)-MAX(C19,0))/C6)</f>
         <v>0</v>
       </c>
-      <c r="D45" s="153">
+      <c r="D45" s="152">
         <f t="shared" si="39"/>
         <v>0</v>
       </c>
-      <c r="E45" s="153" t="str">
+      <c r="E45" s="152" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="F45" s="153" t="str">
+      <c r="F45" s="152" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="G45" s="153" t="str">
+      <c r="G45" s="152" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="H45" s="153" t="str">
+      <c r="H45" s="152" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="I45" s="153" t="str">
+      <c r="I45" s="152" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="J45" s="153" t="str">
+      <c r="J45" s="152" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="K45" s="153" t="str">
+      <c r="K45" s="152" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="L45" s="153" t="str">
+      <c r="L45" s="152" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="M45" s="153" t="str">
+      <c r="M45" s="152" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
@@ -7698,47 +7710,47 @@
       <c r="B46" s="94" t="s">
         <v>119</v>
       </c>
-      <c r="C46" s="153">
+      <c r="C46" s="152">
         <f t="shared" ref="C46:M46" si="40">IF(C6="","",C22/C6)</f>
         <v>0.17634634406823974</v>
       </c>
-      <c r="D46" s="153">
+      <c r="D46" s="152">
         <f t="shared" si="40"/>
         <v>9.9352568717291659E-2</v>
       </c>
-      <c r="E46" s="153" t="str">
+      <c r="E46" s="152" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="F46" s="153" t="str">
+      <c r="F46" s="152" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="G46" s="153" t="str">
+      <c r="G46" s="152" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="H46" s="153" t="str">
+      <c r="H46" s="152" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="I46" s="153" t="str">
+      <c r="I46" s="152" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="J46" s="153" t="str">
+      <c r="J46" s="152" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="K46" s="153" t="str">
+      <c r="K46" s="152" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="L46" s="153" t="str">
+      <c r="L46" s="152" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="M46" s="153" t="str">
+      <c r="M46" s="152" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
@@ -7747,9 +7759,11 @@
     <row r="47" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A47" s="16"/>
       <c r="B47" s="102" t="s">
-        <v>249</v>
-      </c>
-      <c r="C47" s="36"/>
+        <v>248</v>
+      </c>
+      <c r="C47" s="280" t="s">
+        <v>266</v>
+      </c>
       <c r="D47" s="36"/>
       <c r="E47" s="36"/>
       <c r="F47" s="36"/>
@@ -7764,50 +7778,50 @@
     </row>
     <row r="48" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A48" s="4"/>
-      <c r="B48" s="271" t="s">
-        <v>255</v>
-      </c>
-      <c r="C48" s="272" t="e">
+      <c r="B48" s="268" t="s">
+        <v>254</v>
+      </c>
+      <c r="C48" s="269" t="e">
         <f t="shared" ref="C48:M48" si="41">IF(C6="","",C6/C27)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D48" s="272" t="e">
+      <c r="D48" s="269" t="e">
         <f t="shared" si="41"/>
         <v>#VALUE!</v>
       </c>
-      <c r="E48" s="272" t="str">
+      <c r="E48" s="269" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="F48" s="272" t="str">
+      <c r="F48" s="269" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="G48" s="272" t="str">
+      <c r="G48" s="269" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="H48" s="272" t="str">
+      <c r="H48" s="269" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="I48" s="272" t="str">
+      <c r="I48" s="269" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="J48" s="272" t="str">
+      <c r="J48" s="269" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="K48" s="272" t="str">
+      <c r="K48" s="269" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="L48" s="272" t="str">
+      <c r="L48" s="269" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="M48" s="272" t="str">
+      <c r="M48" s="269" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
@@ -7816,49 +7830,49 @@
     <row r="49" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A49" s="4"/>
       <c r="B49" s="94" t="s">
-        <v>256</v>
-      </c>
-      <c r="C49" s="153">
+        <v>255</v>
+      </c>
+      <c r="C49" s="152">
         <f t="shared" ref="C49:M49" si="42">IF(C28="","",C28/C6)</f>
         <v>0</v>
       </c>
-      <c r="D49" s="153" t="str">
+      <c r="D49" s="152" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="E49" s="153" t="str">
+      <c r="E49" s="152" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="F49" s="153" t="str">
+      <c r="F49" s="152" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="G49" s="153" t="str">
+      <c r="G49" s="152" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="H49" s="153" t="str">
+      <c r="H49" s="152" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="I49" s="153" t="str">
+      <c r="I49" s="152" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="J49" s="153" t="str">
+      <c r="J49" s="152" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="K49" s="153" t="str">
+      <c r="K49" s="152" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="L49" s="153" t="str">
+      <c r="L49" s="152" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="M49" s="153" t="str">
+      <c r="M49" s="152" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
@@ -7867,49 +7881,49 @@
     <row r="50" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A50" s="4"/>
       <c r="B50" s="94" t="s">
-        <v>257</v>
-      </c>
-      <c r="C50" s="153">
+        <v>256</v>
+      </c>
+      <c r="C50" s="152">
         <f t="shared" ref="C50:M50" si="43">IF(C29="","",C29/C6)</f>
         <v>0</v>
       </c>
-      <c r="D50" s="153" t="str">
+      <c r="D50" s="152" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="E50" s="153" t="str">
+      <c r="E50" s="152" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="F50" s="153" t="str">
+      <c r="F50" s="152" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="G50" s="153" t="str">
+      <c r="G50" s="152" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="H50" s="153" t="str">
+      <c r="H50" s="152" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="I50" s="153" t="str">
+      <c r="I50" s="152" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="J50" s="153" t="str">
+      <c r="J50" s="152" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="K50" s="153" t="str">
+      <c r="K50" s="152" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="L50" s="153" t="str">
+      <c r="L50" s="152" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="M50" s="153" t="str">
+      <c r="M50" s="152" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
@@ -7918,49 +7932,49 @@
     <row r="51" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A51" s="4"/>
       <c r="B51" s="94" t="s">
-        <v>247</v>
-      </c>
-      <c r="C51" s="153" t="e">
+        <v>246</v>
+      </c>
+      <c r="C51" s="152" t="e">
         <f t="shared" ref="C51:M51" si="44">IF(D6="","",C16/(C6-D6))</f>
         <v>#VALUE!</v>
       </c>
-      <c r="D51" s="153" t="str">
+      <c r="D51" s="152" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="E51" s="153" t="str">
+      <c r="E51" s="152" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="F51" s="153" t="str">
+      <c r="F51" s="152" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="G51" s="153" t="str">
+      <c r="G51" s="152" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="H51" s="153" t="str">
+      <c r="H51" s="152" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="I51" s="153" t="str">
+      <c r="I51" s="152" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="J51" s="153" t="str">
+      <c r="J51" s="152" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="K51" s="153" t="str">
+      <c r="K51" s="152" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="L51" s="153" t="str">
+      <c r="L51" s="152" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="M51" s="153" t="str">
+      <c r="M51" s="152" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
@@ -7969,7 +7983,7 @@
     <row r="52" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A52" s="16"/>
       <c r="B52" s="102" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C52" s="36"/>
       <c r="D52" s="36"/>
@@ -7986,49 +8000,49 @@
     <row r="53" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A53" s="4"/>
       <c r="B53" s="95" t="s">
-        <v>251</v>
-      </c>
-      <c r="C53" s="156" t="e">
+        <v>250</v>
+      </c>
+      <c r="C53" s="155" t="e">
         <f t="shared" ref="C53:M53" si="45">IF(C34="","",(C34-C35)/C27)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D53" s="156" t="str">
+      <c r="D53" s="155" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="E53" s="156" t="str">
+      <c r="E53" s="155" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="F53" s="156" t="str">
+      <c r="F53" s="155" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="G53" s="156" t="str">
+      <c r="G53" s="155" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="H53" s="156" t="str">
+      <c r="H53" s="155" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="I53" s="156" t="str">
+      <c r="I53" s="155" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="J53" s="156" t="str">
+      <c r="J53" s="155" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="K53" s="156" t="str">
+      <c r="K53" s="155" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="L53" s="156" t="str">
+      <c r="L53" s="155" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="M53" s="156" t="str">
+      <c r="M53" s="155" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
@@ -8038,47 +8052,47 @@
       <c r="B54" s="94" t="s">
         <v>116</v>
       </c>
-      <c r="C54" s="157" t="str">
+      <c r="C54" s="156" t="str">
         <f t="shared" ref="C54:M54" si="46">IF(OR(C22="",C33=""),"",IF(C33&lt;=0,"-",C22/C33))</f>
         <v>-</v>
       </c>
-      <c r="D54" s="157" t="str">
+      <c r="D54" s="156" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="E54" s="157" t="str">
+      <c r="E54" s="156" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="F54" s="157" t="str">
+      <c r="F54" s="156" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="G54" s="157" t="str">
+      <c r="G54" s="156" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="H54" s="157" t="str">
+      <c r="H54" s="156" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="I54" s="157" t="str">
+      <c r="I54" s="156" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="J54" s="157" t="str">
+      <c r="J54" s="156" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="K54" s="157" t="str">
+      <c r="K54" s="156" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="L54" s="157" t="str">
+      <c r="L54" s="156" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="M54" s="157" t="str">
+      <c r="M54" s="156" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
@@ -8088,47 +8102,47 @@
       <c r="B55" s="94" t="s">
         <v>118</v>
       </c>
-      <c r="C55" s="153">
+      <c r="C55" s="152">
         <f t="shared" ref="C55:M55" si="47">IF(C22="","",IF(MAX(C17,0)&lt;=0,"-",C17/C22))</f>
         <v>2.9102054432070305E-2</v>
       </c>
-      <c r="D55" s="153">
+      <c r="D55" s="152">
         <f t="shared" si="47"/>
         <v>8.4097196033508959E-2</v>
       </c>
-      <c r="E55" s="153" t="str">
+      <c r="E55" s="152" t="str">
         <f t="shared" si="47"/>
         <v/>
       </c>
-      <c r="F55" s="153" t="str">
+      <c r="F55" s="152" t="str">
         <f t="shared" si="47"/>
         <v/>
       </c>
-      <c r="G55" s="153" t="str">
+      <c r="G55" s="152" t="str">
         <f t="shared" si="47"/>
         <v/>
       </c>
-      <c r="H55" s="153" t="str">
+      <c r="H55" s="152" t="str">
         <f t="shared" si="47"/>
         <v/>
       </c>
-      <c r="I55" s="153" t="str">
+      <c r="I55" s="152" t="str">
         <f t="shared" si="47"/>
         <v/>
       </c>
-      <c r="J55" s="153" t="str">
+      <c r="J55" s="152" t="str">
         <f t="shared" si="47"/>
         <v/>
       </c>
-      <c r="K55" s="153" t="str">
+      <c r="K55" s="152" t="str">
         <f t="shared" si="47"/>
         <v/>
       </c>
-      <c r="L55" s="153" t="str">
+      <c r="L55" s="152" t="str">
         <f t="shared" si="47"/>
         <v/>
       </c>
-      <c r="M55" s="153" t="str">
+      <c r="M55" s="152" t="str">
         <f t="shared" si="47"/>
         <v/>
       </c>
@@ -8138,47 +8152,47 @@
       <c r="B56" s="98" t="s">
         <v>19</v>
       </c>
-      <c r="C56" s="158" t="e">
+      <c r="C56" s="157" t="e">
         <f>IF(#REF!="","",#REF!/C30)</f>
         <v>#REF!</v>
       </c>
-      <c r="D56" s="158" t="e">
+      <c r="D56" s="157" t="e">
         <f>IF(#REF!="","",#REF!/D30)</f>
         <v>#REF!</v>
       </c>
-      <c r="E56" s="158" t="e">
+      <c r="E56" s="157" t="e">
         <f>IF(#REF!="","",#REF!/E30)</f>
         <v>#REF!</v>
       </c>
-      <c r="F56" s="158" t="e">
+      <c r="F56" s="157" t="e">
         <f>IF(#REF!="","",#REF!/F30)</f>
         <v>#REF!</v>
       </c>
-      <c r="G56" s="158" t="e">
+      <c r="G56" s="157" t="e">
         <f>IF(#REF!="","",#REF!/G30)</f>
         <v>#REF!</v>
       </c>
-      <c r="H56" s="158" t="e">
+      <c r="H56" s="157" t="e">
         <f>IF(#REF!="","",#REF!/H30)</f>
         <v>#REF!</v>
       </c>
-      <c r="I56" s="158" t="e">
+      <c r="I56" s="157" t="e">
         <f>IF(#REF!="","",#REF!/I30)</f>
         <v>#REF!</v>
       </c>
-      <c r="J56" s="158" t="e">
+      <c r="J56" s="157" t="e">
         <f>IF(#REF!="","",#REF!/J30)</f>
         <v>#REF!</v>
       </c>
-      <c r="K56" s="158" t="e">
+      <c r="K56" s="157" t="e">
         <f>IF(#REF!="","",#REF!/K30)</f>
         <v>#REF!</v>
       </c>
-      <c r="L56" s="158" t="e">
+      <c r="L56" s="157" t="e">
         <f>IF(#REF!="","",#REF!/L30)</f>
         <v>#REF!</v>
       </c>
-      <c r="M56" s="158" t="e">
+      <c r="M56" s="157" t="e">
         <f>IF(#REF!="","",#REF!/M30)</f>
         <v>#REF!</v>
       </c>
@@ -8186,149 +8200,149 @@
     <row r="57" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A57" s="16"/>
       <c r="B57" s="102" t="s">
-        <v>252</v>
-      </c>
-      <c r="C57" s="273" t="str">
+        <v>251</v>
+      </c>
+      <c r="C57" s="270" t="str">
         <f t="shared" ref="C57:M57" si="48">IFERROR(IF(C13*C48*(1/C53)=C58,"","Error"),"")</f>
         <v/>
       </c>
-      <c r="D57" s="273" t="str">
+      <c r="D57" s="270" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="E57" s="273" t="str">
+      <c r="E57" s="270" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="F57" s="273" t="str">
+      <c r="F57" s="270" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="G57" s="273" t="str">
+      <c r="G57" s="270" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="H57" s="273" t="str">
+      <c r="H57" s="270" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="I57" s="273" t="str">
+      <c r="I57" s="270" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="J57" s="273" t="str">
+      <c r="J57" s="270" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="K57" s="273" t="str">
+      <c r="K57" s="270" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="L57" s="273" t="str">
+      <c r="L57" s="270" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="M57" s="273" t="str">
+      <c r="M57" s="270" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
     </row>
     <row r="58" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A58" s="4"/>
-      <c r="B58" s="271" t="s">
-        <v>253</v>
-      </c>
-      <c r="C58" s="274" t="e">
+      <c r="B58" s="268" t="s">
+        <v>252</v>
+      </c>
+      <c r="C58" s="271" t="e">
         <f t="shared" ref="C58:M58" si="49">IF(C14="","",C14/(C34-C35))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D58" s="274" t="e">
+      <c r="D58" s="271" t="e">
         <f t="shared" si="49"/>
         <v>#VALUE!</v>
       </c>
-      <c r="E58" s="274" t="str">
+      <c r="E58" s="271" t="str">
         <f t="shared" si="49"/>
         <v/>
       </c>
-      <c r="F58" s="274" t="str">
+      <c r="F58" s="271" t="str">
         <f t="shared" si="49"/>
         <v/>
       </c>
-      <c r="G58" s="274" t="str">
+      <c r="G58" s="271" t="str">
         <f t="shared" si="49"/>
         <v/>
       </c>
-      <c r="H58" s="274" t="str">
+      <c r="H58" s="271" t="str">
         <f t="shared" si="49"/>
         <v/>
       </c>
-      <c r="I58" s="274" t="str">
+      <c r="I58" s="271" t="str">
         <f t="shared" si="49"/>
         <v/>
       </c>
-      <c r="J58" s="274" t="str">
+      <c r="J58" s="271" t="str">
         <f t="shared" si="49"/>
         <v/>
       </c>
-      <c r="K58" s="274" t="str">
+      <c r="K58" s="271" t="str">
         <f t="shared" si="49"/>
         <v/>
       </c>
-      <c r="L58" s="274" t="str">
+      <c r="L58" s="271" t="str">
         <f t="shared" si="49"/>
         <v/>
       </c>
-      <c r="M58" s="274" t="str">
+      <c r="M58" s="271" t="str">
         <f t="shared" si="49"/>
         <v/>
       </c>
     </row>
     <row r="59" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A59" s="4"/>
-      <c r="B59" s="271" t="s">
-        <v>254</v>
-      </c>
-      <c r="C59" s="274" t="e">
+      <c r="B59" s="268" t="s">
+        <v>253</v>
+      </c>
+      <c r="C59" s="271" t="e">
         <f t="shared" ref="C59:M59" si="50">IF(C22="","",C22/(C34-C35))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D59" s="274" t="e">
+      <c r="D59" s="271" t="e">
         <f t="shared" si="50"/>
         <v>#VALUE!</v>
       </c>
-      <c r="E59" s="274" t="str">
+      <c r="E59" s="271" t="str">
         <f t="shared" si="50"/>
         <v/>
       </c>
-      <c r="F59" s="274" t="str">
+      <c r="F59" s="271" t="str">
         <f t="shared" si="50"/>
         <v/>
       </c>
-      <c r="G59" s="274" t="str">
+      <c r="G59" s="271" t="str">
         <f t="shared" si="50"/>
         <v/>
       </c>
-      <c r="H59" s="274" t="str">
+      <c r="H59" s="271" t="str">
         <f t="shared" si="50"/>
         <v/>
       </c>
-      <c r="I59" s="274" t="str">
+      <c r="I59" s="271" t="str">
         <f t="shared" si="50"/>
         <v/>
       </c>
-      <c r="J59" s="274" t="str">
+      <c r="J59" s="271" t="str">
         <f t="shared" si="50"/>
         <v/>
       </c>
-      <c r="K59" s="274" t="str">
+      <c r="K59" s="271" t="str">
         <f t="shared" si="50"/>
         <v/>
       </c>
-      <c r="L59" s="274" t="str">
+      <c r="L59" s="271" t="str">
         <f t="shared" si="50"/>
         <v/>
       </c>
-      <c r="M59" s="274" t="str">
+      <c r="M59" s="271" t="str">
         <f t="shared" si="50"/>
         <v/>
       </c>
@@ -9624,8 +9638,8 @@
   </sheetPr>
   <dimension ref="A2:K108"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A78" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E82" sqref="E82"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -9661,8 +9675,8 @@
         <v>21</v>
       </c>
       <c r="C3" s="87"/>
-      <c r="D3" s="116">
-        <f>C49-I49</f>
+      <c r="D3" s="204">
+        <f>Inputs!C41</f>
         <v>0</v>
       </c>
       <c r="E3" s="67" t="str">
@@ -9674,8 +9688,8 @@
       <c r="H3" s="47" t="s">
         <v>22</v>
       </c>
-      <c r="I3" s="204">
-        <f>Inputs!C83</f>
+      <c r="I3" s="282">
+        <f>D3-D4</f>
         <v>0</v>
       </c>
       <c r="K3" s="24"/>
@@ -9685,8 +9699,8 @@
         <v>23</v>
       </c>
       <c r="C4" s="87"/>
-      <c r="D4" s="65">
-        <f>D3-I3</f>
+      <c r="D4" s="198">
+        <f>Inputs!C42</f>
         <v>0</v>
       </c>
       <c r="E4" s="37"/>
@@ -9773,11 +9787,11 @@
         <v>28</v>
       </c>
       <c r="C9" s="86"/>
-      <c r="D9" s="203">
+      <c r="D9" s="202">
         <f>Inputs!C14</f>
         <v>45473</v>
       </c>
-      <c r="E9" s="119" t="str">
+      <c r="E9" s="118" t="str">
         <f>IF(MONTH(D9)=MONTH(Data!C3),"FY","Quarter")</f>
         <v>Quarter</v>
       </c>
@@ -9820,7 +9834,7 @@
         <f>Inputs!C48</f>
         <v>0</v>
       </c>
-      <c r="D11" s="198">
+      <c r="D11" s="197">
         <f>Inputs!D48</f>
         <v>0.9</v>
       </c>
@@ -9848,7 +9862,7 @@
         <f>Inputs!C49</f>
         <v>0</v>
       </c>
-      <c r="D12" s="198">
+      <c r="D12" s="197">
         <f>Inputs!D49</f>
         <v>0.8</v>
       </c>
@@ -9876,7 +9890,7 @@
         <f>Inputs!C50</f>
         <v>0</v>
       </c>
-      <c r="D13" s="198">
+      <c r="D13" s="197">
         <f>Inputs!D50</f>
         <v>0.6</v>
       </c>
@@ -9904,7 +9918,7 @@
         <f>Inputs!C51</f>
         <v>0</v>
       </c>
-      <c r="D14" s="198">
+      <c r="D14" s="197">
         <f>Inputs!D51</f>
         <v>0.6</v>
       </c>
@@ -9917,7 +9931,7 @@
       <c r="H14" s="86" t="s">
         <v>39</v>
       </c>
-      <c r="I14" s="205">
+      <c r="I14" s="203">
         <f>Inputs!C76</f>
         <v>0</v>
       </c>
@@ -9932,7 +9946,7 @@
         <f>Inputs!C52</f>
         <v>0</v>
       </c>
-      <c r="D15" s="198">
+      <c r="D15" s="197">
         <f>Inputs!D52</f>
         <v>0.5</v>
       </c>
@@ -9959,7 +9973,7 @@
         <f>Inputs!C53</f>
         <v>0</v>
       </c>
-      <c r="D16" s="198">
+      <c r="D16" s="197">
         <f>Inputs!D53</f>
         <v>0.6</v>
       </c>
@@ -9981,7 +9995,7 @@
         <f>Inputs!C54</f>
         <v>0</v>
       </c>
-      <c r="D17" s="198">
+      <c r="D17" s="197">
         <f>Inputs!D54</f>
         <v>0.1</v>
       </c>
@@ -10003,7 +10017,7 @@
         <f>Inputs!C55</f>
         <v>0</v>
       </c>
-      <c r="D18" s="198">
+      <c r="D18" s="197">
         <f>Inputs!D55</f>
         <v>0.5</v>
       </c>
@@ -10024,7 +10038,7 @@
         <f>Inputs!C56</f>
         <v>0</v>
       </c>
-      <c r="D19" s="198">
+      <c r="D19" s="197">
         <f>Inputs!D56</f>
         <v>0.6</v>
       </c>
@@ -10032,7 +10046,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F19" s="134" t="str">
+      <c r="F19" s="133" t="str">
         <f>Inputs!E56</f>
         <v>N</v>
       </c>
@@ -10049,7 +10063,7 @@
         <f>Inputs!C57</f>
         <v>0</v>
       </c>
-      <c r="D20" s="198">
+      <c r="D20" s="197">
         <f>Inputs!D57</f>
         <v>0.6</v>
       </c>
@@ -10057,7 +10071,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F20" s="134" t="str">
+      <c r="F20" s="133" t="str">
         <f>Inputs!E57</f>
         <v>Y</v>
       </c>
@@ -10076,7 +10090,7 @@
         <f>Inputs!C58</f>
         <v>0</v>
       </c>
-      <c r="D21" s="198">
+      <c r="D21" s="197">
         <f>Inputs!D58</f>
         <v>0.9</v>
       </c>
@@ -10097,7 +10111,7 @@
         <f>Inputs!C59</f>
         <v>0</v>
       </c>
-      <c r="D22" s="198">
+      <c r="D22" s="197">
         <f>Inputs!D59</f>
         <v>0.05</v>
       </c>
@@ -10262,7 +10276,7 @@
       <c r="H28" s="78" t="s">
         <v>15</v>
       </c>
-      <c r="I28" s="206">
+      <c r="I28" s="204">
         <f>Inputs!C77</f>
         <v>0</v>
       </c>
@@ -10291,7 +10305,7 @@
         <f>Inputs!C60</f>
         <v>0</v>
       </c>
-      <c r="D30" s="198">
+      <c r="D30" s="197">
         <f>Inputs!D60</f>
         <v>0.8</v>
       </c>
@@ -10317,7 +10331,7 @@
         <f>Inputs!C61</f>
         <v>0</v>
       </c>
-      <c r="D31" s="198">
+      <c r="D31" s="197">
         <f>Inputs!D61</f>
         <v>0.6</v>
       </c>
@@ -10344,7 +10358,7 @@
         <f>Inputs!C62</f>
         <v>0</v>
       </c>
-      <c r="D32" s="198">
+      <c r="D32" s="197">
         <f>Inputs!D62</f>
         <v>0.5</v>
       </c>
@@ -10371,7 +10385,7 @@
         <f>Inputs!C63</f>
         <v>0</v>
       </c>
-      <c r="D33" s="198">
+      <c r="D33" s="197">
         <f>Inputs!D63</f>
         <v>0.5</v>
       </c>
@@ -10387,7 +10401,7 @@
       <c r="H33" s="86" t="s">
         <v>63</v>
       </c>
-      <c r="I33" s="205">
+      <c r="I33" s="203">
         <f>Inputs!C81</f>
         <v>0</v>
       </c>
@@ -10401,7 +10415,7 @@
         <f>Inputs!C64</f>
         <v>0</v>
       </c>
-      <c r="D34" s="198">
+      <c r="D34" s="197">
         <f>Inputs!D64</f>
         <v>0.4</v>
       </c>
@@ -10428,7 +10442,7 @@
         <f>Inputs!C65</f>
         <v>0</v>
       </c>
-      <c r="D35" s="198">
+      <c r="D35" s="197">
         <f>Inputs!D65</f>
         <v>0.1</v>
       </c>
@@ -10436,7 +10450,7 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F35" s="134" t="str">
+      <c r="F35" s="133" t="str">
         <f>Inputs!E65</f>
         <v>N</v>
       </c>
@@ -10454,7 +10468,7 @@
         <f>Inputs!C66</f>
         <v>0</v>
       </c>
-      <c r="D36" s="198">
+      <c r="D36" s="197">
         <f>Inputs!D66</f>
         <v>0.2</v>
       </c>
@@ -10462,7 +10476,7 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F36" s="134" t="str">
+      <c r="F36" s="133" t="str">
         <f>Inputs!E66</f>
         <v>N</v>
       </c>
@@ -10481,7 +10495,7 @@
         <f>Inputs!C67</f>
         <v>0</v>
       </c>
-      <c r="D37" s="198">
+      <c r="D37" s="197">
         <f>Inputs!D67</f>
         <v>0.1</v>
       </c>
@@ -10489,7 +10503,7 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F37" s="134" t="str">
+      <c r="F37" s="133" t="str">
         <f>Inputs!E67</f>
         <v>Y</v>
       </c>
@@ -10508,7 +10522,7 @@
         <f>Inputs!C68</f>
         <v>0</v>
       </c>
-      <c r="D38" s="198">
+      <c r="D38" s="197">
         <f>Inputs!D68</f>
         <v>0.1</v>
       </c>
@@ -10529,7 +10543,7 @@
         <f>Inputs!C69</f>
         <v>0</v>
       </c>
-      <c r="D39" s="198">
+      <c r="D39" s="197">
         <f>Inputs!D69</f>
         <v>0.05</v>
       </c>
@@ -10550,7 +10564,7 @@
         <f>Inputs!C70</f>
         <v>0</v>
       </c>
-      <c r="D40" s="198">
+      <c r="D40" s="197">
         <f>Inputs!D70</f>
         <v>0.05</v>
       </c>
@@ -10571,7 +10585,7 @@
         <f>Inputs!C71</f>
         <v>0</v>
       </c>
-      <c r="D41" s="198">
+      <c r="D41" s="197">
         <f>Inputs!D71</f>
         <v>0.9</v>
       </c>
@@ -10592,7 +10606,7 @@
         <f>Inputs!C72</f>
         <v>0</v>
       </c>
-      <c r="D42" s="198">
+      <c r="D42" s="197">
         <f>Inputs!D72</f>
         <v>0</v>
       </c>
@@ -10738,8 +10752,8 @@
       <c r="H48" s="80" t="s">
         <v>81</v>
       </c>
-      <c r="I48" s="207">
-        <f>Inputs!C82</f>
+      <c r="I48" s="281">
+        <f>I49-I28</f>
         <v>0</v>
       </c>
       <c r="J48" s="8"/>
@@ -10765,8 +10779,8 @@
       <c r="H49" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="I49" s="52">
-        <f>I28+I48</f>
+      <c r="I49" s="40">
+        <f>Inputs!C37</f>
         <v>0</v>
       </c>
       <c r="J49" s="87"/>
@@ -10836,7 +10850,7 @@
         <v>142</v>
       </c>
       <c r="C55" s="3"/>
-      <c r="E55" s="125"/>
+      <c r="E55" s="124"/>
       <c r="F55" s="3"/>
       <c r="G55" s="3"/>
       <c r="I55" s="87"/>
@@ -10936,7 +10950,7 @@
       <c r="B62" s="35" t="s">
         <v>134</v>
       </c>
-      <c r="C62" s="117">
+      <c r="C62" s="116">
         <f>C11+C30</f>
         <v>0</v>
       </c>
@@ -10944,7 +10958,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="E62" s="118">
+      <c r="E62" s="117">
         <f>E11+E30</f>
         <v>0</v>
       </c>
@@ -10975,11 +10989,11 @@
       <c r="K63" s="33"/>
     </row>
     <row r="64" spans="2:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B64" s="121" t="s">
+      <c r="B64" s="120" t="s">
         <v>143</v>
       </c>
-      <c r="C64" s="208"/>
-      <c r="D64" s="208"/>
+      <c r="C64" s="205"/>
+      <c r="D64" s="205"/>
       <c r="E64" s="69">
         <f>D56+D57+D58</f>
         <v>0</v>
@@ -11056,12 +11070,12 @@
       <c r="K68" s="33"/>
     </row>
     <row r="69" spans="1:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B69" s="121" t="s">
+      <c r="B69" s="120" t="s">
         <v>144</v>
       </c>
-      <c r="C69" s="208"/>
-      <c r="D69" s="208"/>
-      <c r="E69" s="126">
+      <c r="C69" s="205"/>
+      <c r="D69" s="205"/>
+      <c r="E69" s="125">
         <f>I49-E64</f>
         <v>0</v>
       </c>
@@ -11140,17 +11154,17 @@
         <f>Data!C6</f>
         <v>6301002</v>
       </c>
-      <c r="D74" s="209"/>
-      <c r="E74" s="238">
+      <c r="D74" s="206"/>
+      <c r="E74" s="235">
         <f>Inputs!E91</f>
         <v>6301002</v>
       </c>
-      <c r="F74" s="209"/>
-      <c r="H74" s="238">
+      <c r="F74" s="206"/>
+      <c r="H74" s="235">
         <f>Inputs!F91</f>
         <v>6301002</v>
       </c>
-      <c r="I74" s="209"/>
+      <c r="I74" s="206"/>
       <c r="K74" s="24"/>
     </row>
     <row r="75" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -11161,23 +11175,23 @@
         <f>Data!C8</f>
         <v>2436931</v>
       </c>
-      <c r="D75" s="159">
+      <c r="D75" s="158">
         <f>C75/$C$74</f>
         <v>0.38675293231140062</v>
       </c>
-      <c r="E75" s="238">
+      <c r="E75" s="235">
         <f>Inputs!E92</f>
         <v>2436931</v>
       </c>
-      <c r="F75" s="160">
+      <c r="F75" s="159">
         <f>E75/E74</f>
         <v>0.38675293231140062</v>
       </c>
-      <c r="H75" s="238">
+      <c r="H75" s="235">
         <f>Inputs!F92</f>
         <v>2436931</v>
       </c>
-      <c r="I75" s="160">
+      <c r="I75" s="159">
         <f>H75/$H$74</f>
         <v>0.38675293231140062</v>
       </c>
@@ -11187,48 +11201,48 @@
       <c r="B76" s="35" t="s">
         <v>92</v>
       </c>
-      <c r="C76" s="161">
+      <c r="C76" s="160">
         <f>C74-C75</f>
         <v>3864071</v>
       </c>
-      <c r="D76" s="210"/>
-      <c r="E76" s="162">
+      <c r="D76" s="207"/>
+      <c r="E76" s="161">
         <f>E74-E75</f>
         <v>3864071</v>
       </c>
-      <c r="F76" s="210"/>
-      <c r="H76" s="162">
+      <c r="F76" s="207"/>
+      <c r="H76" s="161">
         <f>H74-H75</f>
         <v>3864071</v>
       </c>
-      <c r="I76" s="210"/>
+      <c r="I76" s="207"/>
       <c r="K76" s="24"/>
     </row>
     <row r="77" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B77" s="104" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C77" s="77">
         <f>Data!C10+MAX(Data!C11,0)</f>
         <v>2712006</v>
       </c>
-      <c r="D77" s="159">
+      <c r="D77" s="158">
         <f>C77/$C$74</f>
         <v>0.43040868738019761</v>
       </c>
-      <c r="E77" s="238">
+      <c r="E77" s="235">
         <f>Inputs!E93</f>
         <v>2712006</v>
       </c>
-      <c r="F77" s="160">
+      <c r="F77" s="159">
         <f>E77/E74</f>
         <v>0.43040868738019761</v>
       </c>
-      <c r="H77" s="238">
+      <c r="H77" s="235">
         <f>Inputs!F93</f>
         <v>2712006</v>
       </c>
-      <c r="I77" s="160">
+      <c r="I77" s="159">
         <f>H77/$H$74</f>
         <v>0.43040868738019761</v>
       </c>
@@ -11242,54 +11256,54 @@
         <f>MAX(Data!C12,0)</f>
         <v>8569.3333333333339</v>
       </c>
-      <c r="D78" s="159">
+      <c r="D78" s="158">
         <f>C78/$C$74</f>
         <v>1.3599953361915031E-3</v>
       </c>
-      <c r="E78" s="180">
+      <c r="E78" s="179">
         <f>E74*F78</f>
         <v>8569.3333333333339</v>
       </c>
-      <c r="F78" s="160">
+      <c r="F78" s="159">
         <f>I78</f>
         <v>1.3599953361915031E-3</v>
       </c>
-      <c r="H78" s="238">
+      <c r="H78" s="235">
         <f>Inputs!F97</f>
         <v>8569.3333333333339</v>
       </c>
-      <c r="I78" s="160">
+      <c r="I78" s="159">
         <f>H78/$H$74</f>
         <v>1.3599953361915031E-3</v>
       </c>
       <c r="K78" s="24"/>
     </row>
     <row r="79" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B79" s="256" t="s">
-        <v>218</v>
-      </c>
-      <c r="C79" s="257">
+      <c r="B79" s="253" t="s">
+        <v>217</v>
+      </c>
+      <c r="C79" s="254">
         <f>C76-C77-C78</f>
         <v>1143495.6666666667</v>
       </c>
-      <c r="D79" s="258">
+      <c r="D79" s="255">
         <f>C79/C74</f>
         <v>0.18147838497221025</v>
       </c>
-      <c r="E79" s="259">
+      <c r="E79" s="256">
         <f>E76-E77-E78</f>
         <v>1143495.6666666667</v>
       </c>
-      <c r="F79" s="258">
+      <c r="F79" s="255">
         <f>E79/E74</f>
         <v>0.18147838497221025</v>
       </c>
-      <c r="G79" s="260"/>
-      <c r="H79" s="259">
+      <c r="G79" s="257"/>
+      <c r="H79" s="256">
         <f>H76-H77-H78</f>
         <v>1143495.6666666667</v>
       </c>
-      <c r="I79" s="258">
+      <c r="I79" s="255">
         <f>H79/H74</f>
         <v>0.18147838497221025</v>
       </c>
@@ -11303,55 +11317,55 @@
         <f>MAX(Data!C16,0)</f>
         <v>0</v>
       </c>
-      <c r="D80" s="159">
+      <c r="D80" s="158">
         <f>C80/$C$74</f>
         <v>0</v>
       </c>
-      <c r="E80" s="180">
+      <c r="E80" s="179">
         <f>E74*F80</f>
         <v>0</v>
       </c>
-      <c r="F80" s="160">
+      <c r="F80" s="159">
         <f>I80</f>
         <v>0</v>
       </c>
-      <c r="H80" s="238">
+      <c r="H80" s="235">
         <f>Inputs!F96</f>
         <v>0</v>
       </c>
-      <c r="I80" s="160">
+      <c r="I80" s="159">
         <f>H80/$H$74</f>
         <v>0</v>
       </c>
-      <c r="K80" s="181" t="s">
+      <c r="K80" s="180" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="81" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B81" s="104" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C81" s="77">
         <f>MAX(Data!C17,0)</f>
         <v>32337</v>
       </c>
-      <c r="D81" s="159">
+      <c r="D81" s="158">
         <f>C81/$C$74</f>
         <v>5.1320409039705113E-3</v>
       </c>
-      <c r="E81" s="180">
+      <c r="E81" s="179">
         <f>E74*F81</f>
         <v>32337</v>
       </c>
-      <c r="F81" s="160">
+      <c r="F81" s="159">
         <f>I81</f>
         <v>5.1320409039705113E-3</v>
       </c>
-      <c r="H81" s="238">
+      <c r="H81" s="235">
         <f>Inputs!F94</f>
         <v>32337</v>
       </c>
-      <c r="I81" s="160">
+      <c r="I81" s="159">
         <f>H81/$H$74</f>
         <v>5.1320409039705113E-3</v>
       </c>
@@ -11359,29 +11373,29 @@
     </row>
     <row r="82" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B82" s="28" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C82" s="77">
         <f>ABS(MAX(Data!C21,0)-MAX(Data!C19,0))</f>
         <v>0</v>
       </c>
-      <c r="D82" s="159">
+      <c r="D82" s="158">
         <f>C82/$C$74</f>
         <v>0</v>
       </c>
-      <c r="E82" s="238">
+      <c r="E82" s="235">
         <f>Inputs!E95</f>
         <v>0</v>
       </c>
-      <c r="F82" s="160">
+      <c r="F82" s="159">
         <f>E82/E74</f>
         <v>0</v>
       </c>
-      <c r="H82" s="238">
+      <c r="H82" s="235">
         <f>Inputs!F95</f>
         <v>0</v>
       </c>
-      <c r="I82" s="160">
+      <c r="I82" s="159">
         <f>H82/$H$74</f>
         <v>0</v>
       </c>
@@ -11391,27 +11405,27 @@
       <c r="B83" s="105" t="s">
         <v>120</v>
       </c>
-      <c r="C83" s="163">
+      <c r="C83" s="162">
         <f>C79-C81-C82-C80</f>
         <v>1111158.6666666667</v>
       </c>
-      <c r="D83" s="164">
+      <c r="D83" s="163">
         <f>C83/$C$74</f>
         <v>0.17634634406823974</v>
       </c>
-      <c r="E83" s="165">
+      <c r="E83" s="164">
         <f>E79-E81-E82-E80</f>
         <v>1111158.6666666667</v>
       </c>
-      <c r="F83" s="164">
+      <c r="F83" s="163">
         <f>E83/E74</f>
         <v>0.17634634406823974</v>
       </c>
-      <c r="H83" s="165">
+      <c r="H83" s="164">
         <f>H79-H81-H82-H80</f>
         <v>1111158.6666666667</v>
       </c>
-      <c r="I83" s="164">
+      <c r="I83" s="163">
         <f>H83/$H$74</f>
         <v>0.17634634406823974</v>
       </c>
@@ -11421,49 +11435,49 @@
       <c r="B84" s="28" t="s">
         <v>93</v>
       </c>
-      <c r="C84" s="211"/>
-      <c r="D84" s="159">
+      <c r="C84" s="208"/>
+      <c r="D84" s="158">
         <f>I84</f>
         <v>0.25</v>
       </c>
-      <c r="E84" s="212"/>
-      <c r="F84" s="179">
+      <c r="E84" s="209"/>
+      <c r="F84" s="178">
         <f t="shared" ref="F84" si="3">I84</f>
         <v>0.25</v>
       </c>
-      <c r="H84" s="212"/>
-      <c r="I84" s="202">
+      <c r="H84" s="209"/>
+      <c r="I84" s="201">
         <f>Inputs!C16</f>
         <v>0.25</v>
       </c>
       <c r="K84" s="24"/>
     </row>
     <row r="85" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B85" s="263" t="s">
+      <c r="B85" s="260" t="s">
         <v>156</v>
       </c>
-      <c r="C85" s="257">
+      <c r="C85" s="254">
         <f>C83*(1-I84)</f>
         <v>833369</v>
       </c>
-      <c r="D85" s="258">
+      <c r="D85" s="255">
         <f>C85/$C$74</f>
         <v>0.13225975805117979</v>
       </c>
-      <c r="E85" s="264">
+      <c r="E85" s="261">
         <f>E83*(1-F84)</f>
         <v>833369</v>
       </c>
-      <c r="F85" s="258">
+      <c r="F85" s="255">
         <f>E85/E74</f>
         <v>0.13225975805117979</v>
       </c>
-      <c r="G85" s="260"/>
-      <c r="H85" s="264">
+      <c r="G85" s="257"/>
+      <c r="H85" s="261">
         <f>H83*(1-I84)</f>
         <v>833369</v>
       </c>
-      <c r="I85" s="258">
+      <c r="I85" s="255">
         <f>H85/$H$74</f>
         <v>0.13225975805117979</v>
       </c>
@@ -11473,69 +11487,69 @@
       <c r="B86" s="87" t="s">
         <v>152</v>
       </c>
-      <c r="C86" s="167">
+      <c r="C86" s="166">
         <f>C85*Data!C4/Common_Shares</f>
         <v>0.62055419099460762</v>
       </c>
-      <c r="D86" s="209"/>
-      <c r="E86" s="168">
+      <c r="D86" s="206"/>
+      <c r="E86" s="167">
         <f>E85*Data!C4/Common_Shares</f>
         <v>0.62055419099460762</v>
       </c>
-      <c r="F86" s="209"/>
-      <c r="H86" s="168">
+      <c r="F86" s="206"/>
+      <c r="H86" s="167">
         <f>H85*Data!C4/Common_Shares</f>
         <v>0.62055419099460762</v>
       </c>
-      <c r="I86" s="209"/>
+      <c r="I86" s="206"/>
       <c r="K86" s="24"/>
     </row>
     <row r="87" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B87" s="87" t="s">
         <v>194</v>
       </c>
-      <c r="C87" s="261">
+      <c r="C87" s="258">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>6.9651457728816726E-3</v>
-      </c>
-      <c r="D87" s="209"/>
-      <c r="E87" s="262">
+        <v>6.8908177810790413E-3</v>
+      </c>
+      <c r="D87" s="206"/>
+      <c r="E87" s="259">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>6.9651457728816726E-3</v>
-      </c>
-      <c r="F87" s="209"/>
-      <c r="H87" s="262">
+        <v>6.8908177810790413E-3</v>
+      </c>
+      <c r="F87" s="206"/>
+      <c r="H87" s="259">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>6.9651457728816726E-3</v>
-      </c>
-      <c r="I87" s="209"/>
+        <v>6.8908177810790413E-3</v>
+      </c>
+      <c r="I87" s="206"/>
       <c r="K87" s="24"/>
     </row>
     <row r="88" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B88" s="86" t="s">
         <v>193</v>
       </c>
-      <c r="C88" s="169">
+      <c r="C88" s="168">
         <f>Inputs!C44</f>
         <v>0.28210000000000002</v>
       </c>
-      <c r="D88" s="166">
+      <c r="D88" s="165">
         <f>C88/C86</f>
         <v>0.45459365852941497</v>
       </c>
-      <c r="E88" s="170">
+      <c r="E88" s="169">
         <f>Inputs!E98</f>
         <v>0.28210000000000002</v>
       </c>
-      <c r="F88" s="166">
+      <c r="F88" s="165">
         <f>E88/E86</f>
         <v>0.45459365852941497</v>
       </c>
-      <c r="H88" s="170">
+      <c r="H88" s="169">
         <f>Inputs!F98</f>
         <v>0.28210000000000002</v>
       </c>
-      <c r="I88" s="166">
+      <c r="I88" s="165">
         <f>H88/H86</f>
         <v>0.45459365852941497</v>
       </c>
@@ -11543,23 +11557,23 @@
     </row>
     <row r="89" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B89" s="87" t="s">
-        <v>207</v>
-      </c>
-      <c r="C89" s="261">
+        <v>206</v>
+      </c>
+      <c r="C89" s="258">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>3.1663110990849696E-3</v>
-      </c>
-      <c r="D89" s="209"/>
-      <c r="E89" s="261">
+        <v>3.1325220653602667E-3</v>
+      </c>
+      <c r="D89" s="206"/>
+      <c r="E89" s="258">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>3.1663110990849696E-3</v>
-      </c>
-      <c r="F89" s="209"/>
-      <c r="H89" s="261">
+        <v>3.1325220653602667E-3</v>
+      </c>
+      <c r="F89" s="206"/>
+      <c r="H89" s="258">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>3.1663110990849696E-3</v>
-      </c>
-      <c r="I89" s="209"/>
+        <v>3.1325220653602667E-3</v>
+      </c>
+      <c r="I89" s="206"/>
       <c r="K89" s="24"/>
     </row>
     <row r="90" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -11581,7 +11595,7 @@
       <c r="B92" s="10" t="s">
         <v>147</v>
       </c>
-      <c r="C92" s="198" t="str">
+      <c r="C92" s="197" t="str">
         <f>Inputs!C15</f>
         <v>CN</v>
       </c>
@@ -11604,27 +11618,27 @@
         <f>C92&amp;" Discount Rate"</f>
         <v>CN Discount Rate</v>
       </c>
-      <c r="C93" s="136">
+      <c r="C93" s="135">
         <f>IF(C92="CN",Dashboard!C17,IF(C92="US",Dashboard!C12,IF(C92="HK",Dashboard!D12,Dashboard!D17)))</f>
         <v>8.6249999999999993E-2</v>
       </c>
-      <c r="D93" s="239">
+      <c r="D93" s="236">
         <f>Inputs!C86</f>
         <v>5</v>
       </c>
       <c r="E93" s="87" t="s">
         <v>195</v>
       </c>
-      <c r="F93" s="144">
+      <c r="F93" s="143">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>10.367678097849986</v>
+        <v>10.355518694561669</v>
       </c>
       <c r="H93" s="87" t="s">
         <v>195</v>
       </c>
-      <c r="I93" s="144">
+      <c r="I93" s="143">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>10.367678097849986</v>
+        <v>10.355518694561669</v>
       </c>
       <c r="K93" s="24"/>
     </row>
@@ -11632,27 +11646,27 @@
       <c r="B94" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="C94" s="182">
+      <c r="C94" s="181">
         <f>Dashboard!G20</f>
         <v>0.15</v>
       </c>
-      <c r="D94" s="270">
+      <c r="D94" s="267">
         <f>Inputs!D87</f>
         <v>0.02</v>
       </c>
       <c r="E94" s="87" t="s">
         <v>196</v>
       </c>
-      <c r="F94" s="144">
+      <c r="F94" s="143">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
-        <v>4.6248471082242331</v>
+        <v>4.62035006690102</v>
       </c>
       <c r="H94" s="87" t="s">
         <v>196</v>
       </c>
-      <c r="I94" s="144">
+      <c r="I94" s="143">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>4.6248471082242331</v>
+        <v>4.62035006690102</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -11666,25 +11680,25 @@
         <f xml:space="preserve"> "Valuation in "&amp;Dashboard!H3</f>
         <v>Valuation in HKD</v>
       </c>
-      <c r="C96" s="127" t="str">
+      <c r="C96" s="126" t="str">
         <f>Dashboard!H3</f>
         <v>HKD</v>
       </c>
-      <c r="D96" s="124" t="s">
+      <c r="D96" s="123" t="s">
         <v>199</v>
       </c>
-      <c r="E96" s="183" t="str">
+      <c r="E96" s="182" t="str">
         <f>E72</f>
         <v>Pessimistic Case</v>
       </c>
-      <c r="F96" s="227" t="s">
-        <v>223</v>
-      </c>
-      <c r="H96" s="183" t="str">
+      <c r="F96" s="224" t="s">
+        <v>222</v>
+      </c>
+      <c r="H96" s="182" t="str">
         <f>H72</f>
         <v>Base Case</v>
       </c>
-      <c r="I96" s="124" t="s">
+      <c r="I96" s="123" t="s">
         <v>111</v>
       </c>
       <c r="K96" s="24"/>
@@ -11695,21 +11709,21 @@
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>6922292.2559162164</v>
-      </c>
-      <c r="D97" s="213"/>
-      <c r="E97" s="123">
+        <v>6914173.6644220678</v>
+      </c>
+      <c r="D97" s="210"/>
+      <c r="E97" s="122">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>5.1545683493126395</v>
-      </c>
-      <c r="F97" s="213"/>
-      <c r="H97" s="123">
+        <v>5.1485229768825791</v>
+      </c>
+      <c r="F97" s="210"/>
+      <c r="H97" s="122">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>5.1545683493126395</v>
-      </c>
-      <c r="I97" s="123">
+        <v>5.1485229768825791</v>
+      </c>
+      <c r="I97" s="122">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>6.8553961650864963</v>
+        <v>6.847356030556301</v>
       </c>
       <c r="K97" s="24"/>
     </row>
@@ -11721,14 +11735,14 @@
         <f>-E53*Exchange_Rate</f>
         <v>0</v>
       </c>
-      <c r="D98" s="213"/>
-      <c r="E98" s="213"/>
-      <c r="F98" s="213"/>
-      <c r="H98" s="123">
+      <c r="D98" s="210"/>
+      <c r="E98" s="210"/>
+      <c r="F98" s="210"/>
+      <c r="H98" s="122">
         <f>C98*Data!$C$4/Common_Shares</f>
         <v>0</v>
       </c>
-      <c r="I98" s="215"/>
+      <c r="I98" s="212"/>
       <c r="K98" s="24"/>
     </row>
     <row r="99" spans="2:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -11739,17 +11753,17 @@
         <f>(E65-IF(E70&lt;0,MIN(E65,ABS(E70)),0))*Exchange_Rate</f>
         <v>0</v>
       </c>
-      <c r="D99" s="214"/>
-      <c r="E99" s="145">
+      <c r="D99" s="211"/>
+      <c r="E99" s="144">
         <f>IF(H99&gt;0,H99*(1-C94),H99*(1+C94))</f>
         <v>0</v>
       </c>
-      <c r="F99" s="214"/>
-      <c r="H99" s="145">
+      <c r="F99" s="211"/>
+      <c r="H99" s="144">
         <f>C99*Data!$C$4/Common_Shares</f>
         <v>0</v>
       </c>
-      <c r="I99" s="216"/>
+      <c r="I99" s="213"/>
       <c r="K99" s="24"/>
     </row>
     <row r="100" spans="2:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
@@ -11758,27 +11772,27 @@
       </c>
       <c r="C100" s="91">
         <f>C97+C98+$C$99</f>
-        <v>6922292.2559162164</v>
+        <v>6914173.6644220678</v>
       </c>
       <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>4.3813830969157435</v>
+        <v>4.376244530350192</v>
       </c>
       <c r="E100" s="109">
         <f>MAX(E97+H98+E99,0)</f>
-        <v>5.1545683493126395</v>
+        <v>5.1485229768825791</v>
       </c>
       <c r="F100" s="109">
         <f>(E100+H100)/2</f>
-        <v>5.1545683493126395</v>
+        <v>5.1485229768825791</v>
       </c>
       <c r="H100" s="109">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>5.1545683493126395</v>
+        <v>5.1485229768825791</v>
       </c>
       <c r="I100" s="109">
         <f>MAX(I97+H98+H99,0)</f>
-        <v>6.8553961650864963</v>
+        <v>6.847356030556301</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -11790,25 +11804,25 @@
       <c r="B102" s="10" t="s">
         <v>154</v>
       </c>
-      <c r="C102" s="127" t="str">
+      <c r="C102" s="126" t="str">
         <f>C96</f>
         <v>HKD</v>
       </c>
-      <c r="D102" s="124" t="s">
+      <c r="D102" s="123" t="s">
         <v>199</v>
       </c>
-      <c r="E102" s="183" t="str">
+      <c r="E102" s="182" t="str">
         <f>E96</f>
         <v>Pessimistic Case</v>
       </c>
-      <c r="F102" s="227" t="s">
-        <v>223</v>
-      </c>
-      <c r="H102" s="183" t="str">
+      <c r="F102" s="224" t="s">
+        <v>222</v>
+      </c>
+      <c r="H102" s="182" t="str">
         <f>H96</f>
         <v>Base Case</v>
       </c>
-      <c r="I102" s="124" t="s">
+      <c r="I102" s="123" t="s">
         <v>111</v>
       </c>
       <c r="K102" s="24"/>
@@ -11819,27 +11833,27 @@
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>3087918.3381181736</v>
+        <v>3084915.7531582238</v>
       </c>
       <c r="D103" s="109">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>1.9544614285425617</v>
-      </c>
-      <c r="E103" s="123">
+        <v>1.9525609778675219</v>
+      </c>
+      <c r="E103" s="122">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>2.2993663865206608</v>
+        <v>2.2971305621970846</v>
       </c>
       <c r="F103" s="109">
         <f>(E103+H103)/2</f>
-        <v>2.2993663865206608</v>
-      </c>
-      <c r="H103" s="123">
+        <v>2.2971305621970846</v>
+      </c>
+      <c r="H103" s="122">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>2.2993663865206608</v>
+        <v>2.2971305621970846</v>
       </c>
       <c r="I103" s="109">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>3.0580771152999713</v>
+        <v>3.055103546912679</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -11851,25 +11865,25 @@
       <c r="B105" s="10" t="s">
         <v>183</v>
       </c>
-      <c r="C105" s="127" t="str">
+      <c r="C105" s="126" t="str">
         <f>C102</f>
         <v>HKD</v>
       </c>
-      <c r="D105" s="124" t="s">
+      <c r="D105" s="123" t="s">
         <v>199</v>
       </c>
-      <c r="E105" s="184" t="str">
+      <c r="E105" s="183" t="str">
         <f>E96</f>
         <v>Pessimistic Case</v>
       </c>
-      <c r="F105" s="227" t="s">
-        <v>223</v>
-      </c>
-      <c r="H105" s="184" t="str">
+      <c r="F105" s="224" t="s">
+        <v>222</v>
+      </c>
+      <c r="H105" s="183" t="str">
         <f>H96</f>
         <v>Base Case</v>
       </c>
-      <c r="I105" s="124" t="s">
+      <c r="I105" s="123" t="s">
         <v>111</v>
       </c>
       <c r="K105" s="24"/>
@@ -11880,27 +11894,27 @@
       </c>
       <c r="C106" s="91">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>5005105.2970171943</v>
+        <v>4999544.7087901458</v>
       </c>
       <c r="D106" s="109">
         <f>(D100+D103)/2</f>
-        <v>3.1679222627291526</v>
-      </c>
-      <c r="E106" s="123">
+        <v>3.1644027541088571</v>
+      </c>
+      <c r="E106" s="122">
         <f>(E100+E103)/2</f>
-        <v>3.7269673679166502</v>
+        <v>3.7228267695398318</v>
       </c>
       <c r="F106" s="109">
         <f>(F100+F103)/2</f>
-        <v>3.7269673679166502</v>
-      </c>
-      <c r="H106" s="123">
+        <v>3.7228267695398318</v>
+      </c>
+      <c r="H106" s="122">
         <f>(H100+H103)/2</f>
-        <v>3.7269673679166502</v>
-      </c>
-      <c r="I106" s="123">
+        <v>3.7228267695398318</v>
+      </c>
+      <c r="I106" s="122">
         <f>(I100+I103)/2</f>
-        <v>4.9567366401932338</v>
+        <v>4.9512297887344898</v>
       </c>
       <c r="K106" s="24"/>
     </row>
@@ -11911,14 +11925,13 @@
       <c r="B108" s="10" t="s">
         <v>157</v>
       </c>
-      <c r="C108" s="128" t="str">
+      <c r="C108" s="127" t="str">
         <f>Inputs!C87</f>
         <v>Profit</v>
       </c>
       <c r="K108" s="24"/>
     </row>
   </sheetData>
-  <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="11">
     <mergeCell ref="D56:E56"/>
     <mergeCell ref="D57:E57"/>

--- a/financial_models/opportunities/9992.HK_Valuation.xlsx
+++ b/financial_models/opportunities/9992.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7402F8E6-8072-421E-977A-8586A4CAE84D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{CB9DA94A-5C62-47EE-8EEF-CCA72B3D8B7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3256,9 +3256,7 @@
       <c r="B37" s="94" t="s">
         <v>262</v>
       </c>
-      <c r="C37" s="149">
-        <v>0</v>
-      </c>
+      <c r="C37" s="149"/>
       <c r="D37" s="149"/>
       <c r="E37" s="149"/>
       <c r="F37" s="149"/>
@@ -3322,9 +3320,7 @@
       <c r="B41" s="94" t="s">
         <v>132</v>
       </c>
-      <c r="C41" s="149">
-        <v>0</v>
-      </c>
+      <c r="C41" s="149"/>
       <c r="D41" s="149"/>
       <c r="E41" s="149"/>
       <c r="F41" s="149"/>
@@ -3340,9 +3336,7 @@
       <c r="B42" s="94" t="s">
         <v>133</v>
       </c>
-      <c r="C42" s="149">
-        <v>0</v>
-      </c>
+      <c r="C42" s="149"/>
       <c r="D42" s="149"/>
       <c r="E42" s="149"/>
       <c r="F42" s="149"/>
@@ -3396,11 +3390,11 @@
       </c>
       <c r="C45" s="151">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>3.1325220653602667E-3</v>
+        <v>3.1471458777435147E-3</v>
       </c>
       <c r="D45" s="151">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>9.6607380250387511E-4</v>
+        <v>9.7058380490494761E-4</v>
       </c>
       <c r="E45" s="151" t="str">
         <f>IF(E44="","",E44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -4139,7 +4133,7 @@
         <v>1</v>
       </c>
       <c r="G3" s="131">
-        <v>96.2</v>
+        <v>95.75</v>
       </c>
       <c r="H3" s="133" t="s">
         <v>273</v>
@@ -4180,7 +4174,7 @@
       </c>
       <c r="G5" s="287">
         <f>G3*G4/1000000</f>
-        <v>129191.13103</v>
+        <v>128586.8066125</v>
       </c>
       <c r="H5" s="287"/>
       <c r="I5" s="38"/>
@@ -4229,7 +4223,7 @@
         <v>5</v>
       </c>
       <c r="G7" s="132">
-        <v>1.0682333310445149</v>
+        <v>1.0681999921798706</v>
       </c>
       <c r="H7" s="71" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -4412,7 +4406,7 @@
       </c>
       <c r="G24" s="265">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>145.12065646922517</v>
+        <v>144.44632571508126</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -4444,7 +4438,7 @@
       </c>
       <c r="G26" s="177">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>3.1325220653602667E-3</v>
+        <v>3.1471458777435147E-3</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -4474,20 +4468,20 @@
       </c>
       <c r="C29" s="129">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>4.376244530350192</v>
+        <v>4.3768070527612082</v>
       </c>
       <c r="D29" s="128">
         <f>G29*(1+G20)</f>
-        <v>7.8744594351397454</v>
+        <v>7.8754716180459301</v>
       </c>
       <c r="E29" s="87"/>
       <c r="F29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>5.1485229768825791</v>
+        <v>5.1491847679543623</v>
       </c>
       <c r="G29" s="286">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>6.847356030556301</v>
+        <v>6.8482361896051573</v>
       </c>
       <c r="H29" s="286"/>
     </row>
@@ -11510,17 +11504,17 @@
       </c>
       <c r="C87" s="258">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>6.8908177810790413E-3</v>
+        <v>6.9229867568420447E-3</v>
       </c>
       <c r="D87" s="206"/>
       <c r="E87" s="259">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>6.8908177810790413E-3</v>
+        <v>6.9229867568420447E-3</v>
       </c>
       <c r="F87" s="206"/>
       <c r="H87" s="259">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>6.8908177810790413E-3</v>
+        <v>6.9229867568420447E-3</v>
       </c>
       <c r="I87" s="206"/>
       <c r="K87" s="24"/>
@@ -11561,17 +11555,17 @@
       </c>
       <c r="C89" s="258">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>3.1325220653602667E-3</v>
+        <v>3.1471458777435147E-3</v>
       </c>
       <c r="D89" s="206"/>
       <c r="E89" s="258">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>3.1325220653602667E-3</v>
+        <v>3.1471458777435147E-3</v>
       </c>
       <c r="F89" s="206"/>
       <c r="H89" s="258">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>3.1325220653602667E-3</v>
+        <v>3.1471458777435147E-3</v>
       </c>
       <c r="I89" s="206"/>
       <c r="K89" s="24"/>
@@ -11631,14 +11625,14 @@
       </c>
       <c r="F93" s="143">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>10.355518694561669</v>
+        <v>10.356849792790523</v>
       </c>
       <c r="H93" s="87" t="s">
         <v>195</v>
       </c>
       <c r="I93" s="143">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>10.355518694561669</v>
+        <v>10.356849792790523</v>
       </c>
       <c r="K93" s="24"/>
     </row>
@@ -11659,14 +11653,14 @@
       </c>
       <c r="F94" s="143">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
-        <v>4.62035006690102</v>
+        <v>4.6205426487908676</v>
       </c>
       <c r="H94" s="87" t="s">
         <v>196</v>
       </c>
       <c r="I94" s="143">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>4.62035006690102</v>
+        <v>4.6205426487908676</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -11709,21 +11703,21 @@
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>6914173.6644220678</v>
+        <v>6915062.4122086503</v>
       </c>
       <c r="D97" s="210"/>
       <c r="E97" s="122">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>5.1485229768825791</v>
+        <v>5.1491847679543623</v>
       </c>
       <c r="F97" s="210"/>
       <c r="H97" s="122">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>5.1485229768825791</v>
+        <v>5.1491847679543623</v>
       </c>
       <c r="I97" s="122">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>6.847356030556301</v>
+        <v>6.8482361896051573</v>
       </c>
       <c r="K97" s="24"/>
     </row>
@@ -11772,27 +11766,27 @@
       </c>
       <c r="C100" s="91">
         <f>C97+C98+$C$99</f>
-        <v>6914173.6644220678</v>
+        <v>6915062.4122086503</v>
       </c>
       <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>4.376244530350192</v>
+        <v>4.3768070527612082</v>
       </c>
       <c r="E100" s="109">
         <f>MAX(E97+H98+E99,0)</f>
-        <v>5.1485229768825791</v>
+        <v>5.1491847679543623</v>
       </c>
       <c r="F100" s="109">
         <f>(E100+H100)/2</f>
-        <v>5.1485229768825791</v>
+        <v>5.1491847679543623</v>
       </c>
       <c r="H100" s="109">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>5.1485229768825791</v>
+        <v>5.1491847679543623</v>
       </c>
       <c r="I100" s="109">
         <f>MAX(I97+H98+H99,0)</f>
-        <v>6.847356030556301</v>
+        <v>6.8482361896051573</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -11833,27 +11827,27 @@
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>3084915.7531582238</v>
+        <v>3085044.3362519634</v>
       </c>
       <c r="D103" s="109">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>1.9525609778675219</v>
+        <v>1.9526423630175029</v>
       </c>
       <c r="E103" s="122">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>2.2971305621970846</v>
+        <v>2.2972263094323564</v>
       </c>
       <c r="F103" s="109">
         <f>(E103+H103)/2</f>
-        <v>2.2971305621970846</v>
+        <v>2.2972263094323564</v>
       </c>
       <c r="H103" s="122">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>2.2971305621970846</v>
+        <v>2.2972263094323564</v>
       </c>
       <c r="I103" s="109">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>3.055103546912679</v>
+        <v>3.0552308873968905</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -11894,27 +11888,27 @@
       </c>
       <c r="C106" s="91">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>4999544.7087901458</v>
+        <v>5000053.3742303066</v>
       </c>
       <c r="D106" s="109">
         <f>(D100+D103)/2</f>
-        <v>3.1644027541088571</v>
+        <v>3.1647247078893557</v>
       </c>
       <c r="E106" s="122">
         <f>(E100+E103)/2</f>
-        <v>3.7228267695398318</v>
+        <v>3.7232055386933594</v>
       </c>
       <c r="F106" s="109">
         <f>(F100+F103)/2</f>
-        <v>3.7228267695398318</v>
+        <v>3.7232055386933594</v>
       </c>
       <c r="H106" s="122">
         <f>(H100+H103)/2</f>
-        <v>3.7228267695398318</v>
+        <v>3.7232055386933594</v>
       </c>
       <c r="I106" s="122">
         <f>(I100+I103)/2</f>
-        <v>4.9512297887344898</v>
+        <v>4.9517335385010242</v>
       </c>
       <c r="K106" s="24"/>
     </row>

--- a/financial_models/opportunities/9992.HK_Valuation.xlsx
+++ b/financial_models/opportunities/9992.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CB9DA94A-5C62-47EE-8EEF-CCA72B3D8B7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8B34ADEA-CDA4-4B43-801A-0AD018BA8FED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="274">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="273">
   <si>
     <t>Company Info:</t>
   </si>
@@ -105,9 +105,6 @@
     <t>Interest-bearing Debt</t>
   </si>
   <si>
-    <t>Current Ratio</t>
-  </si>
-  <si>
     <t>Output</t>
   </si>
   <si>
@@ -847,10 +844,6 @@
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
-    <t>Balance Sheet</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
     <t>Years of Projection</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
@@ -968,10 +961,6 @@
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
-    <t>PlaceHolder_2</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
     <t>PlaceHolder_1</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
@@ -989,6 +978,14 @@
   </si>
   <si>
     <t>PlaceHolder_4</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Contingent Liabilities</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Contin. Liabilities / Total Assets</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
@@ -1681,7 +1678,7 @@
     <xf numFmtId="176" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="299">
+  <cellXfs count="298">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1829,7 +1826,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="7" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2019,9 +2015,6 @@
     <xf numFmtId="179" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="4" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="10" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -2357,6 +2350,7 @@
     <xf numFmtId="3" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2812,7 +2806,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48ED7348-D356-493F-B1FA-0B9102624322}">
   <dimension ref="A2:M98"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C73" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A73" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E91" sqref="E91:F98"/>
     </sheetView>
   </sheetViews>
@@ -2826,172 +2820,172 @@
     <row r="2" spans="1:5" ht="15" x14ac:dyDescent="0.4">
       <c r="A2" s="5"/>
       <c r="B2" s="6" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B4" s="139" t="s">
+        <v>179</v>
+      </c>
+      <c r="C4" s="185" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B5" s="139" t="s">
+        <v>180</v>
+      </c>
+      <c r="C5" s="188" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B6" s="139" t="s">
+        <v>154</v>
+      </c>
+      <c r="C6" s="186">
+        <v>45630</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B7" s="138" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" s="187">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B8" s="138" t="s">
         <v>200</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B4" s="140" t="s">
-        <v>180</v>
-      </c>
-      <c r="C4" s="187" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B5" s="140" t="s">
-        <v>181</v>
-      </c>
-      <c r="C5" s="190" t="s">
+      <c r="C8" s="188" t="s">
+        <v>66</v>
+      </c>
+      <c r="E8" s="262"/>
+    </row>
+    <row r="9" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B9" s="138" t="s">
+        <v>201</v>
+      </c>
+      <c r="C9" s="189" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B6" s="140" t="s">
-        <v>155</v>
-      </c>
-      <c r="C6" s="188">
-        <v>45630</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B7" s="139" t="s">
-        <v>3</v>
-      </c>
-      <c r="C7" s="189">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B8" s="139" t="s">
-        <v>201</v>
-      </c>
-      <c r="C8" s="190" t="s">
-        <v>67</v>
-      </c>
-      <c r="E8" s="264"/>
-    </row>
-    <row r="9" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B9" s="139" t="s">
+    <row r="10" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B10" s="138" t="s">
         <v>202</v>
       </c>
-      <c r="C9" s="191" t="s">
+      <c r="C10" s="190">
+        <v>1342943150</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B11" s="138" t="s">
+        <v>203</v>
+      </c>
+      <c r="C11" s="189" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B10" s="139" t="s">
-        <v>203</v>
-      </c>
-      <c r="C10" s="192">
-        <v>1342943150</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B11" s="139" t="s">
+    <row r="12" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B12" s="213" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" s="214">
+        <v>45291</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B13" s="213" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" s="215">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B14" s="213" t="s">
         <v>204</v>
       </c>
-      <c r="C11" s="191" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B12" s="215" t="s">
-        <v>9</v>
-      </c>
-      <c r="C12" s="216">
-        <v>45291</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B13" s="215" t="s">
-        <v>10</v>
-      </c>
-      <c r="C13" s="217">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B14" s="215" t="s">
-        <v>205</v>
-      </c>
-      <c r="C14" s="216">
+      <c r="C14" s="214">
         <v>45473</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B15" s="215" t="s">
-        <v>238</v>
-      </c>
-      <c r="C15" s="175" t="s">
-        <v>243</v>
+      <c r="B15" s="213" t="s">
+        <v>236</v>
+      </c>
+      <c r="C15" s="173" t="s">
+        <v>241</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B16" s="219" t="s">
-        <v>93</v>
-      </c>
-      <c r="C16" s="220">
+      <c r="B16" s="217" t="s">
+        <v>92</v>
+      </c>
+      <c r="C16" s="218">
         <v>0.25</v>
       </c>
       <c r="D16" s="24"/>
     </row>
     <row r="17" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B17" s="237" t="s">
-        <v>209</v>
-      </c>
-      <c r="C17" s="239" t="s">
-        <v>228</v>
+      <c r="B17" s="235" t="s">
+        <v>208</v>
+      </c>
+      <c r="C17" s="237" t="s">
+        <v>227</v>
       </c>
       <c r="D17" s="24"/>
     </row>
     <row r="18" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B18" s="237" t="s">
+      <c r="B18" s="235" t="s">
+        <v>222</v>
+      </c>
+      <c r="C18" s="237" t="s">
+        <v>227</v>
+      </c>
+      <c r="D18" s="24"/>
+    </row>
+    <row r="19" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B19" s="235" t="s">
         <v>223</v>
       </c>
-      <c r="C18" s="239" t="s">
-        <v>228</v>
-      </c>
-      <c r="D18" s="24"/>
-    </row>
-    <row r="19" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B19" s="237" t="s">
-        <v>224</v>
-      </c>
-      <c r="C19" s="239" t="s">
-        <v>228</v>
+      <c r="C19" s="237" t="s">
+        <v>227</v>
       </c>
       <c r="D19" s="24"/>
     </row>
     <row r="20" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B20" s="238" t="s">
-        <v>213</v>
-      </c>
-      <c r="C20" s="239" t="s">
-        <v>228</v>
+      <c r="B20" s="236" t="s">
+        <v>212</v>
+      </c>
+      <c r="C20" s="237" t="s">
+        <v>227</v>
       </c>
       <c r="D20" s="24"/>
     </row>
     <row r="21" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B21" s="221" t="s">
-        <v>216</v>
-      </c>
-      <c r="C21" s="239" t="s">
-        <v>228</v>
+      <c r="B21" s="219" t="s">
+        <v>215</v>
+      </c>
+      <c r="C21" s="237" t="s">
+        <v>227</v>
       </c>
       <c r="D21" s="24"/>
     </row>
     <row r="22" spans="2:13" ht="78.75" x14ac:dyDescent="0.4">
-      <c r="B22" s="223" t="s">
-        <v>215</v>
-      </c>
-      <c r="C22" s="240" t="s">
-        <v>241</v>
+      <c r="B22" s="221" t="s">
+        <v>214</v>
+      </c>
+      <c r="C22" s="238" t="s">
+        <v>239</v>
       </c>
       <c r="D22" s="24"/>
     </row>
     <row r="24" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B24" s="115" t="s">
-        <v>128</v>
+      <c r="B24" s="114" t="s">
+        <v>127</v>
       </c>
       <c r="C24" s="48">
         <f>C12</f>
@@ -3039,799 +3033,800 @@
       </c>
     </row>
     <row r="25" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B25" s="94" t="s">
+      <c r="B25" s="93" t="s">
         <v>11</v>
       </c>
-      <c r="C25" s="148">
+      <c r="C25" s="147">
         <v>6301002</v>
       </c>
-      <c r="D25" s="148">
+      <c r="D25" s="147">
         <v>4617324</v>
       </c>
-      <c r="E25" s="148"/>
-      <c r="F25" s="148"/>
-      <c r="G25" s="148"/>
-      <c r="H25" s="148"/>
-      <c r="I25" s="148"/>
-      <c r="J25" s="148"/>
-      <c r="K25" s="148"/>
-      <c r="L25" s="148"/>
-      <c r="M25" s="148"/>
+      <c r="E25" s="147"/>
+      <c r="F25" s="147"/>
+      <c r="G25" s="147"/>
+      <c r="H25" s="147"/>
+      <c r="I25" s="147"/>
+      <c r="J25" s="147"/>
+      <c r="K25" s="147"/>
+      <c r="L25" s="147"/>
+      <c r="M25" s="147"/>
     </row>
     <row r="26" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B26" s="97" t="s">
-        <v>102</v>
-      </c>
-      <c r="C26" s="149">
+      <c r="B26" s="96" t="s">
+        <v>101</v>
+      </c>
+      <c r="C26" s="148">
         <v>2436931</v>
       </c>
-      <c r="D26" s="149">
+      <c r="D26" s="148">
         <v>1962781</v>
       </c>
-      <c r="E26" s="149"/>
-      <c r="F26" s="149"/>
-      <c r="G26" s="149"/>
-      <c r="H26" s="149"/>
-      <c r="I26" s="149"/>
-      <c r="J26" s="149"/>
-      <c r="K26" s="149"/>
-      <c r="L26" s="149"/>
-      <c r="M26" s="149"/>
+      <c r="E26" s="148"/>
+      <c r="F26" s="148"/>
+      <c r="G26" s="148"/>
+      <c r="H26" s="148"/>
+      <c r="I26" s="148"/>
+      <c r="J26" s="148"/>
+      <c r="K26" s="148"/>
+      <c r="L26" s="148"/>
+      <c r="M26" s="148"/>
     </row>
     <row r="27" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B27" s="97" t="s">
-        <v>100</v>
-      </c>
-      <c r="C27" s="149">
+      <c r="B27" s="96" t="s">
+        <v>99</v>
+      </c>
+      <c r="C27" s="148">
         <f>2004706+707300</f>
         <v>2712006</v>
       </c>
-      <c r="D27" s="149">
+      <c r="D27" s="148">
         <f>1470753+686280</f>
         <v>2157033</v>
       </c>
-      <c r="E27" s="149"/>
-      <c r="F27" s="149"/>
-      <c r="G27" s="149"/>
-      <c r="H27" s="149"/>
-      <c r="I27" s="149"/>
-      <c r="J27" s="149"/>
-      <c r="K27" s="149"/>
-      <c r="L27" s="149"/>
-      <c r="M27" s="149"/>
+      <c r="E27" s="148"/>
+      <c r="F27" s="148"/>
+      <c r="G27" s="148"/>
+      <c r="H27" s="148"/>
+      <c r="I27" s="148"/>
+      <c r="J27" s="148"/>
+      <c r="K27" s="148"/>
+      <c r="L27" s="148"/>
+      <c r="M27" s="148"/>
     </row>
     <row r="28" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B28" s="97" t="s">
+      <c r="B28" s="96" t="s">
+        <v>102</v>
+      </c>
+      <c r="C28" s="148"/>
+      <c r="D28" s="148"/>
+      <c r="E28" s="148"/>
+      <c r="F28" s="148"/>
+      <c r="G28" s="148"/>
+      <c r="H28" s="148"/>
+      <c r="I28" s="148"/>
+      <c r="J28" s="148"/>
+      <c r="K28" s="148"/>
+      <c r="L28" s="148"/>
+      <c r="M28" s="148"/>
+    </row>
+    <row r="29" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B29" s="96" t="s">
+        <v>237</v>
+      </c>
+      <c r="C29" s="148">
+        <v>32337</v>
+      </c>
+      <c r="D29" s="148">
+        <v>38579</v>
+      </c>
+      <c r="E29" s="148"/>
+      <c r="F29" s="148"/>
+      <c r="G29" s="148"/>
+      <c r="H29" s="148"/>
+      <c r="I29" s="148"/>
+      <c r="J29" s="148"/>
+      <c r="K29" s="148"/>
+      <c r="L29" s="148"/>
+      <c r="M29" s="148"/>
+    </row>
+    <row r="30" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B30" s="98" t="s">
+        <v>106</v>
+      </c>
+      <c r="C30" s="148">
+        <v>6427</v>
+      </c>
+      <c r="D30" s="148">
+        <v>141</v>
+      </c>
+      <c r="E30" s="148"/>
+      <c r="F30" s="148"/>
+      <c r="G30" s="148"/>
+      <c r="H30" s="148"/>
+      <c r="I30" s="148"/>
+      <c r="J30" s="148"/>
+      <c r="K30" s="148"/>
+      <c r="L30" s="148"/>
+      <c r="M30" s="148"/>
+    </row>
+    <row r="31" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B31" s="96" t="s">
+        <v>105</v>
+      </c>
+      <c r="C31" s="148"/>
+      <c r="D31" s="148"/>
+      <c r="E31" s="148"/>
+      <c r="F31" s="148"/>
+      <c r="G31" s="148"/>
+      <c r="H31" s="148"/>
+      <c r="I31" s="148"/>
+      <c r="J31" s="148"/>
+      <c r="K31" s="148"/>
+      <c r="L31" s="148"/>
+      <c r="M31" s="148"/>
+    </row>
+    <row r="32" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B32" s="96" t="s">
+        <v>100</v>
+      </c>
+      <c r="C32" s="148"/>
+      <c r="D32" s="148"/>
+      <c r="E32" s="148"/>
+      <c r="F32" s="148"/>
+      <c r="G32" s="148"/>
+      <c r="H32" s="148"/>
+      <c r="I32" s="148"/>
+      <c r="J32" s="148"/>
+      <c r="K32" s="148"/>
+      <c r="L32" s="148"/>
+      <c r="M32" s="148"/>
+    </row>
+    <row r="33" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B33" s="96" t="s">
         <v>103</v>
       </c>
-      <c r="C28" s="149"/>
-      <c r="D28" s="149"/>
-      <c r="E28" s="149"/>
-      <c r="F28" s="149"/>
-      <c r="G28" s="149"/>
-      <c r="H28" s="149"/>
-      <c r="I28" s="149"/>
-      <c r="J28" s="149"/>
-      <c r="K28" s="149"/>
-      <c r="L28" s="149"/>
-      <c r="M28" s="149"/>
-    </row>
-    <row r="29" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B29" s="97" t="s">
-        <v>239</v>
-      </c>
-      <c r="C29" s="149">
-        <v>32337</v>
-      </c>
-      <c r="D29" s="149">
-        <v>38579</v>
-      </c>
-      <c r="E29" s="149"/>
-      <c r="F29" s="149"/>
-      <c r="G29" s="149"/>
-      <c r="H29" s="149"/>
-      <c r="I29" s="149"/>
-      <c r="J29" s="149"/>
-      <c r="K29" s="149"/>
-      <c r="L29" s="149"/>
-      <c r="M29" s="149"/>
-    </row>
-    <row r="30" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B30" s="99" t="s">
-        <v>107</v>
-      </c>
-      <c r="C30" s="149">
-        <v>6427</v>
-      </c>
-      <c r="D30" s="149">
-        <v>141</v>
-      </c>
-      <c r="E30" s="149"/>
-      <c r="F30" s="149"/>
-      <c r="G30" s="149"/>
-      <c r="H30" s="149"/>
-      <c r="I30" s="149"/>
-      <c r="J30" s="149"/>
-      <c r="K30" s="149"/>
-      <c r="L30" s="149"/>
-      <c r="M30" s="149"/>
-    </row>
-    <row r="31" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B31" s="97" t="s">
-        <v>106</v>
-      </c>
-      <c r="C31" s="149"/>
-      <c r="D31" s="149"/>
-      <c r="E31" s="149"/>
-      <c r="F31" s="149"/>
-      <c r="G31" s="149"/>
-      <c r="H31" s="149"/>
-      <c r="I31" s="149"/>
-      <c r="J31" s="149"/>
-      <c r="K31" s="149"/>
-      <c r="L31" s="149"/>
-      <c r="M31" s="149"/>
-    </row>
-    <row r="32" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B32" s="97" t="s">
-        <v>101</v>
-      </c>
-      <c r="C32" s="149"/>
-      <c r="D32" s="149"/>
-      <c r="E32" s="149"/>
-      <c r="F32" s="149"/>
-      <c r="G32" s="149"/>
-      <c r="H32" s="149"/>
-      <c r="I32" s="149"/>
-      <c r="J32" s="149"/>
-      <c r="K32" s="149"/>
-      <c r="L32" s="149"/>
-      <c r="M32" s="149"/>
-    </row>
-    <row r="33" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B33" s="97" t="s">
-        <v>104</v>
-      </c>
-      <c r="C33" s="149"/>
-      <c r="D33" s="149"/>
-      <c r="E33" s="149"/>
-      <c r="F33" s="149"/>
-      <c r="G33" s="149"/>
-      <c r="H33" s="149"/>
-      <c r="I33" s="149"/>
-      <c r="J33" s="149"/>
-      <c r="K33" s="149"/>
-      <c r="L33" s="149"/>
-      <c r="M33" s="149"/>
+      <c r="C33" s="148"/>
+      <c r="D33" s="148"/>
+      <c r="E33" s="148"/>
+      <c r="F33" s="148"/>
+      <c r="G33" s="148"/>
+      <c r="H33" s="148"/>
+      <c r="I33" s="148"/>
+      <c r="J33" s="148"/>
+      <c r="K33" s="148"/>
+      <c r="L33" s="148"/>
+      <c r="M33" s="148"/>
     </row>
     <row r="34" spans="2:13" ht="13.9" hidden="1" x14ac:dyDescent="0.4">
-      <c r="B34" s="97" t="s">
-        <v>264</v>
-      </c>
-      <c r="C34" s="214"/>
-      <c r="D34" s="149"/>
-      <c r="E34" s="149"/>
-      <c r="F34" s="149"/>
-      <c r="G34" s="149"/>
-      <c r="H34" s="149"/>
-      <c r="I34" s="149"/>
-      <c r="J34" s="149"/>
-      <c r="K34" s="149"/>
-      <c r="L34" s="149"/>
-      <c r="M34" s="149"/>
+      <c r="B34" s="96" t="s">
+        <v>261</v>
+      </c>
+      <c r="C34" s="212"/>
+      <c r="D34" s="148"/>
+      <c r="E34" s="148"/>
+      <c r="F34" s="148"/>
+      <c r="G34" s="148"/>
+      <c r="H34" s="148"/>
+      <c r="I34" s="148"/>
+      <c r="J34" s="148"/>
+      <c r="K34" s="148"/>
+      <c r="L34" s="148"/>
+      <c r="M34" s="148"/>
     </row>
     <row r="35" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B35" s="94" t="s">
-        <v>112</v>
-      </c>
-      <c r="C35" s="214"/>
-      <c r="D35" s="149"/>
-      <c r="E35" s="149"/>
-      <c r="F35" s="149"/>
-      <c r="G35" s="149"/>
-      <c r="H35" s="149"/>
-      <c r="I35" s="149"/>
-      <c r="J35" s="149"/>
-      <c r="K35" s="149"/>
-      <c r="L35" s="149"/>
-      <c r="M35" s="149"/>
+      <c r="B35" s="93" t="s">
+        <v>111</v>
+      </c>
+      <c r="C35" s="212"/>
+      <c r="D35" s="148"/>
+      <c r="E35" s="148"/>
+      <c r="F35" s="148"/>
+      <c r="G35" s="148"/>
+      <c r="H35" s="148"/>
+      <c r="I35" s="148"/>
+      <c r="J35" s="148"/>
+      <c r="K35" s="148"/>
+      <c r="L35" s="148"/>
+      <c r="M35" s="148"/>
     </row>
     <row r="36" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B36" s="94" t="s">
-        <v>141</v>
-      </c>
-      <c r="C36" s="214"/>
-      <c r="D36" s="149"/>
-      <c r="E36" s="149"/>
-      <c r="F36" s="149"/>
-      <c r="G36" s="149"/>
-      <c r="H36" s="149"/>
-      <c r="I36" s="149"/>
-      <c r="J36" s="149"/>
-      <c r="K36" s="149"/>
-      <c r="L36" s="149"/>
-      <c r="M36" s="149"/>
+      <c r="B36" s="93" t="s">
+        <v>140</v>
+      </c>
+      <c r="C36" s="212"/>
+      <c r="D36" s="148"/>
+      <c r="E36" s="148"/>
+      <c r="F36" s="148"/>
+      <c r="G36" s="148"/>
+      <c r="H36" s="148"/>
+      <c r="I36" s="148"/>
+      <c r="J36" s="148"/>
+      <c r="K36" s="148"/>
+      <c r="L36" s="148"/>
+      <c r="M36" s="148"/>
     </row>
     <row r="37" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B37" s="94" t="s">
-        <v>262</v>
-      </c>
-      <c r="C37" s="149"/>
-      <c r="D37" s="149"/>
-      <c r="E37" s="149"/>
-      <c r="F37" s="149"/>
-      <c r="G37" s="149"/>
-      <c r="H37" s="149"/>
-      <c r="I37" s="149"/>
-      <c r="J37" s="149"/>
-      <c r="K37" s="149"/>
-      <c r="L37" s="149"/>
-      <c r="M37" s="149"/>
-    </row>
-    <row r="38" spans="2:13" ht="13.9" hidden="1" x14ac:dyDescent="0.4">
-      <c r="B38" s="94" t="s">
-        <v>263</v>
-      </c>
-      <c r="C38" s="214"/>
-      <c r="D38" s="149"/>
-      <c r="E38" s="149"/>
-      <c r="F38" s="149"/>
-      <c r="G38" s="149"/>
-      <c r="H38" s="149"/>
-      <c r="I38" s="149"/>
-      <c r="J38" s="149"/>
-      <c r="K38" s="149"/>
-      <c r="L38" s="149"/>
-      <c r="M38" s="149"/>
+      <c r="B37" s="93" t="s">
+        <v>260</v>
+      </c>
+      <c r="C37" s="148"/>
+      <c r="D37" s="148"/>
+      <c r="E37" s="148"/>
+      <c r="F37" s="148"/>
+      <c r="G37" s="148"/>
+      <c r="H37" s="148"/>
+      <c r="I37" s="148"/>
+      <c r="J37" s="148"/>
+      <c r="K37" s="148"/>
+      <c r="L37" s="148"/>
+      <c r="M37" s="148"/>
+    </row>
+    <row r="38" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B38" s="93" t="s">
+        <v>266</v>
+      </c>
+      <c r="C38" s="148"/>
+      <c r="D38" s="148"/>
+      <c r="E38" s="148"/>
+      <c r="F38" s="148"/>
+      <c r="G38" s="148"/>
+      <c r="H38" s="148"/>
+      <c r="I38" s="148"/>
+      <c r="J38" s="148"/>
+      <c r="K38" s="148"/>
+      <c r="L38" s="148"/>
+      <c r="M38" s="148"/>
     </row>
     <row r="39" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B39" s="94" t="s">
+      <c r="B39" s="93" t="s">
         <v>16</v>
       </c>
-      <c r="C39" s="214"/>
-      <c r="D39" s="149"/>
-      <c r="E39" s="149"/>
-      <c r="F39" s="149"/>
-      <c r="G39" s="149"/>
-      <c r="H39" s="149"/>
-      <c r="I39" s="149"/>
-      <c r="J39" s="149"/>
-      <c r="K39" s="149"/>
-      <c r="L39" s="149"/>
-      <c r="M39" s="149"/>
+      <c r="C39" s="212"/>
+      <c r="D39" s="148"/>
+      <c r="E39" s="148"/>
+      <c r="F39" s="148"/>
+      <c r="G39" s="148"/>
+      <c r="H39" s="148"/>
+      <c r="I39" s="148"/>
+      <c r="J39" s="148"/>
+      <c r="K39" s="148"/>
+      <c r="L39" s="148"/>
+      <c r="M39" s="148"/>
     </row>
     <row r="40" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B40" s="94" t="s">
+      <c r="B40" s="93" t="s">
         <v>17</v>
       </c>
-      <c r="C40" s="214"/>
-      <c r="D40" s="149"/>
-      <c r="E40" s="149"/>
-      <c r="F40" s="149"/>
-      <c r="G40" s="149"/>
-      <c r="H40" s="149"/>
-      <c r="I40" s="149"/>
-      <c r="J40" s="149"/>
-      <c r="K40" s="149"/>
-      <c r="L40" s="149"/>
-      <c r="M40" s="149"/>
+      <c r="C40" s="212"/>
+      <c r="D40" s="148"/>
+      <c r="E40" s="148"/>
+      <c r="F40" s="148"/>
+      <c r="G40" s="148"/>
+      <c r="H40" s="148"/>
+      <c r="I40" s="148"/>
+      <c r="J40" s="148"/>
+      <c r="K40" s="148"/>
+      <c r="L40" s="148"/>
+      <c r="M40" s="148"/>
     </row>
     <row r="41" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B41" s="94" t="s">
+      <c r="B41" s="93" t="s">
+        <v>131</v>
+      </c>
+      <c r="C41" s="148"/>
+      <c r="D41" s="148"/>
+      <c r="E41" s="148"/>
+      <c r="F41" s="148"/>
+      <c r="G41" s="148"/>
+      <c r="H41" s="148"/>
+      <c r="I41" s="148"/>
+      <c r="J41" s="148"/>
+      <c r="K41" s="148"/>
+      <c r="L41" s="148"/>
+      <c r="M41" s="148"/>
+    </row>
+    <row r="42" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B42" s="93" t="s">
         <v>132</v>
       </c>
-      <c r="C41" s="149"/>
-      <c r="D41" s="149"/>
-      <c r="E41" s="149"/>
-      <c r="F41" s="149"/>
-      <c r="G41" s="149"/>
-      <c r="H41" s="149"/>
-      <c r="I41" s="149"/>
-      <c r="J41" s="149"/>
-      <c r="K41" s="149"/>
-      <c r="L41" s="149"/>
-      <c r="M41" s="149"/>
-    </row>
-    <row r="42" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B42" s="94" t="s">
-        <v>133</v>
-      </c>
-      <c r="C42" s="149"/>
-      <c r="D42" s="149"/>
-      <c r="E42" s="149"/>
-      <c r="F42" s="149"/>
-      <c r="G42" s="149"/>
-      <c r="H42" s="149"/>
-      <c r="I42" s="149"/>
-      <c r="J42" s="149"/>
-      <c r="K42" s="149"/>
-      <c r="L42" s="149"/>
-      <c r="M42" s="149"/>
+      <c r="C42" s="148"/>
+      <c r="D42" s="148"/>
+      <c r="E42" s="148"/>
+      <c r="F42" s="148"/>
+      <c r="G42" s="148"/>
+      <c r="H42" s="148"/>
+      <c r="I42" s="148"/>
+      <c r="J42" s="148"/>
+      <c r="K42" s="148"/>
+      <c r="L42" s="148"/>
+      <c r="M42" s="148"/>
     </row>
     <row r="43" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B43" s="94" t="s">
-        <v>131</v>
-      </c>
-      <c r="C43" s="214"/>
-      <c r="D43" s="149"/>
-      <c r="E43" s="149"/>
-      <c r="F43" s="149"/>
-      <c r="G43" s="149"/>
-      <c r="H43" s="149"/>
-      <c r="I43" s="149"/>
-      <c r="J43" s="149"/>
-      <c r="K43" s="149"/>
-      <c r="L43" s="149"/>
-      <c r="M43" s="149"/>
+      <c r="B43" s="93" t="s">
+        <v>130</v>
+      </c>
+      <c r="C43" s="212"/>
+      <c r="D43" s="148"/>
+      <c r="E43" s="148"/>
+      <c r="F43" s="148"/>
+      <c r="G43" s="148"/>
+      <c r="H43" s="148"/>
+      <c r="I43" s="148"/>
+      <c r="J43" s="148"/>
+      <c r="K43" s="148"/>
+      <c r="L43" s="148"/>
+      <c r="M43" s="148"/>
     </row>
     <row r="44" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B44" s="74" t="s">
-        <v>193</v>
-      </c>
-      <c r="C44" s="247">
+        <v>192</v>
+      </c>
+      <c r="C44" s="245">
         <v>0.28210000000000002</v>
       </c>
-      <c r="D44" s="247">
+      <c r="D44" s="245">
         <v>8.6999999999999994E-2</v>
       </c>
-      <c r="E44" s="247"/>
-      <c r="F44" s="247"/>
-      <c r="G44" s="247"/>
-      <c r="H44" s="247"/>
-      <c r="I44" s="247"/>
-      <c r="J44" s="247"/>
-      <c r="K44" s="247"/>
-      <c r="L44" s="247"/>
-      <c r="M44" s="247"/>
+      <c r="E44" s="245"/>
+      <c r="F44" s="245"/>
+      <c r="G44" s="245"/>
+      <c r="H44" s="245"/>
+      <c r="I44" s="245"/>
+      <c r="J44" s="245"/>
+      <c r="K44" s="245"/>
+      <c r="L44" s="245"/>
+      <c r="M44" s="245"/>
     </row>
     <row r="45" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B45" s="74" t="s">
-        <v>235</v>
-      </c>
-      <c r="C45" s="151">
+        <v>233</v>
+      </c>
+      <c r="C45" s="150">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>3.1471458777435147E-3</v>
-      </c>
-      <c r="D45" s="151">
+        <v>3.1982313667470821E-3</v>
+      </c>
+      <c r="D45" s="150">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>9.7058380490494761E-4</v>
-      </c>
-      <c r="E45" s="151" t="str">
+        <v>9.8633863490604789E-4</v>
+      </c>
+      <c r="E45" s="150" t="str">
         <f>IF(E44="","",E44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="F45" s="151" t="str">
+      <c r="F45" s="150" t="str">
         <f>IF(F44="","",F44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="G45" s="151" t="str">
+      <c r="G45" s="150" t="str">
         <f>IF(G44="","",G44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="H45" s="151" t="str">
+      <c r="H45" s="150" t="str">
         <f>IF(H44="","",H44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="I45" s="151" t="str">
+      <c r="I45" s="150" t="str">
         <f>IF(I44="","",I44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="J45" s="151" t="str">
+      <c r="J45" s="150" t="str">
         <f>IF(J44="","",J44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="K45" s="151" t="str">
+      <c r="K45" s="150" t="str">
         <f>IF(K44="","",K44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="L45" s="151" t="str">
+      <c r="L45" s="150" t="str">
         <f>IF(L44="","",L44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="M45" s="151" t="str">
+      <c r="M45" s="150" t="str">
         <f>IF(M44="","",M44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
     </row>
     <row r="47" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B47" s="10" t="s">
-        <v>232</v>
-      </c>
-      <c r="C47" s="193" t="s">
-        <v>30</v>
-      </c>
-      <c r="D47" s="193" t="s">
-        <v>182</v>
-      </c>
-      <c r="E47" s="111" t="s">
-        <v>32</v>
+      <c r="B47" s="10" t="str">
+        <f>"Balance Sheet"&amp;IF(SUM(C48:C72)=C37+C41,"","- Error")</f>
+        <v>Balance Sheet</v>
+      </c>
+      <c r="C47" s="191" t="s">
+        <v>29</v>
+      </c>
+      <c r="D47" s="191" t="s">
+        <v>181</v>
+      </c>
+      <c r="E47" s="110" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="48" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B48" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C48" s="59"/>
       <c r="D48" s="60">
         <v>0.9</v>
       </c>
-      <c r="E48" s="112"/>
+      <c r="E48" s="111"/>
     </row>
     <row r="49" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B49" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C49" s="59"/>
       <c r="D49" s="60">
         <v>0.8</v>
       </c>
-      <c r="E49" s="112"/>
+      <c r="E49" s="111"/>
     </row>
     <row r="50" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B50" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C50" s="59"/>
       <c r="D50" s="60">
         <f>D51</f>
         <v>0.6</v>
       </c>
-      <c r="E50" s="112"/>
+      <c r="E50" s="111"/>
     </row>
     <row r="51" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B51" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C51" s="59"/>
       <c r="D51" s="60">
         <v>0.6</v>
       </c>
-      <c r="E51" s="112"/>
+      <c r="E51" s="111"/>
     </row>
     <row r="52" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B52" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C52" s="59"/>
       <c r="D52" s="60">
         <v>0.5</v>
       </c>
-      <c r="E52" s="112"/>
+      <c r="E52" s="111"/>
     </row>
     <row r="53" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B53" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C53" s="59"/>
       <c r="D53" s="60">
         <f>D50</f>
         <v>0.6</v>
       </c>
-      <c r="E53" s="112"/>
+      <c r="E53" s="111"/>
     </row>
     <row r="54" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B54" s="3" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="C54" s="59"/>
       <c r="D54" s="60">
         <v>0.1</v>
       </c>
-      <c r="E54" s="112"/>
+      <c r="E54" s="111"/>
     </row>
     <row r="55" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B55" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C55" s="59"/>
       <c r="D55" s="60">
         <f>D52</f>
         <v>0.5</v>
       </c>
-      <c r="E55" s="112"/>
+      <c r="E55" s="111"/>
     </row>
     <row r="56" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B56" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C56" s="59"/>
       <c r="D56" s="60">
         <f>D50</f>
         <v>0.6</v>
       </c>
-      <c r="E56" s="218" t="s">
-        <v>67</v>
+      <c r="E56" s="216" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="57" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B57" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C57" s="59"/>
       <c r="D57" s="60">
         <v>0.6</v>
       </c>
-      <c r="E57" s="218" t="s">
-        <v>42</v>
+      <c r="E57" s="216" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="58" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B58" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C58" s="59"/>
       <c r="D58" s="60">
         <f>D48</f>
         <v>0.9</v>
       </c>
-      <c r="E58" s="112"/>
+      <c r="E58" s="111"/>
     </row>
     <row r="59" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B59" s="35" t="s">
-        <v>47</v>
-      </c>
-      <c r="C59" s="119"/>
-      <c r="D59" s="194">
+        <v>46</v>
+      </c>
+      <c r="C59" s="118"/>
+      <c r="D59" s="192">
         <f>D70</f>
         <v>0.05</v>
       </c>
-      <c r="E59" s="112"/>
+      <c r="E59" s="111"/>
     </row>
     <row r="60" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B60" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C60" s="59"/>
       <c r="D60" s="60">
         <f>D49</f>
         <v>0.8</v>
       </c>
-      <c r="E60" s="112"/>
+      <c r="E60" s="111"/>
     </row>
     <row r="61" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B61" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C61" s="59"/>
       <c r="D61" s="60">
         <f>D51</f>
         <v>0.6</v>
       </c>
-      <c r="E61" s="112"/>
+      <c r="E61" s="111"/>
     </row>
     <row r="62" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B62" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C62" s="59"/>
       <c r="D62" s="60">
         <f>D52</f>
         <v>0.5</v>
       </c>
-      <c r="E62" s="112"/>
+      <c r="E62" s="111"/>
     </row>
     <row r="63" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B63" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C63" s="59"/>
       <c r="D63" s="60">
         <f>D62</f>
         <v>0.5</v>
       </c>
-      <c r="E63" s="112"/>
+      <c r="E63" s="111"/>
     </row>
     <row r="64" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B64" s="3" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="C64" s="59"/>
       <c r="D64" s="60">
         <v>0.4</v>
       </c>
-      <c r="E64" s="112"/>
+      <c r="E64" s="111"/>
     </row>
     <row r="65" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B65" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C65" s="59"/>
       <c r="D65" s="60">
         <v>0.1</v>
       </c>
-      <c r="E65" s="218" t="s">
-        <v>67</v>
+      <c r="E65" s="216" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="66" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B66" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C66" s="59"/>
       <c r="D66" s="60">
         <v>0.2</v>
       </c>
-      <c r="E66" s="218" t="s">
-        <v>67</v>
+      <c r="E66" s="216" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="67" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B67" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C67" s="59"/>
       <c r="D67" s="60">
         <f>D65</f>
         <v>0.1</v>
       </c>
-      <c r="E67" s="218" t="s">
-        <v>42</v>
+      <c r="E67" s="216" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="68" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B68" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C68" s="59"/>
       <c r="D68" s="60">
         <f>D65</f>
         <v>0.1</v>
       </c>
-      <c r="E68" s="112"/>
+      <c r="E68" s="111"/>
     </row>
     <row r="69" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B69" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C69" s="59"/>
       <c r="D69" s="60">
         <f>D70</f>
         <v>0.05</v>
       </c>
-      <c r="E69" s="112"/>
+      <c r="E69" s="111"/>
     </row>
     <row r="70" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B70" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C70" s="59"/>
       <c r="D70" s="60">
         <v>0.05</v>
       </c>
-      <c r="E70" s="112"/>
+      <c r="E70" s="111"/>
     </row>
     <row r="71" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B71" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C71" s="59"/>
       <c r="D71" s="60">
         <f>D58</f>
         <v>0.9</v>
       </c>
-      <c r="E71" s="112"/>
+      <c r="E71" s="111"/>
     </row>
     <row r="72" spans="2:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B72" s="243" t="s">
-        <v>72</v>
-      </c>
-      <c r="C72" s="244"/>
-      <c r="D72" s="245">
-        <v>0</v>
-      </c>
-      <c r="E72" s="246"/>
+      <c r="B72" s="241" t="s">
+        <v>71</v>
+      </c>
+      <c r="C72" s="242"/>
+      <c r="D72" s="243">
+        <v>0</v>
+      </c>
+      <c r="E72" s="244"/>
     </row>
     <row r="73" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B73" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C73" s="59"/>
     </row>
     <row r="74" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B74" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C74" s="59"/>
     </row>
     <row r="75" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B75" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C75" s="59"/>
     </row>
     <row r="76" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B76" s="86" t="s">
-        <v>39</v>
-      </c>
-      <c r="C76" s="119"/>
+      <c r="B76" s="85" t="s">
+        <v>38</v>
+      </c>
+      <c r="C76" s="118"/>
     </row>
     <row r="77" spans="2:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B77" s="80" t="s">
         <v>15</v>
       </c>
-      <c r="C77" s="83"/>
+      <c r="C77" s="82"/>
     </row>
     <row r="78" spans="2:5" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B78" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C78" s="59"/>
     </row>
     <row r="79" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B79" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C79" s="59"/>
     </row>
     <row r="80" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B80" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C80" s="59"/>
+    </row>
+    <row r="81" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B81" s="85" t="s">
         <v>62</v>
       </c>
-      <c r="C80" s="59"/>
-    </row>
-    <row r="81" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B81" s="86" t="s">
-        <v>63</v>
-      </c>
-      <c r="C81" s="119"/>
+      <c r="C81" s="118"/>
     </row>
     <row r="82" spans="2:8" ht="14.25" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B82" s="80" t="s">
-        <v>267</v>
-      </c>
-      <c r="C82" s="214"/>
+        <v>264</v>
+      </c>
+      <c r="C82" s="212"/>
     </row>
     <row r="83" spans="2:8" ht="14.25" hidden="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B83" s="73" t="s">
-        <v>268</v>
-      </c>
-      <c r="C83" s="214"/>
+        <v>265</v>
+      </c>
+      <c r="C83" s="212"/>
     </row>
     <row r="84" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B84" s="20" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C84" s="59"/>
     </row>
     <row r="85" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B85" s="20" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C85" s="59"/>
     </row>
     <row r="86" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B86" s="10" t="s">
-        <v>233</v>
-      </c>
-      <c r="C86" s="196">
+        <v>231</v>
+      </c>
+      <c r="C86" s="194">
         <v>5</v>
       </c>
     </row>
     <row r="87" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B87" s="10" t="s">
-        <v>231</v>
-      </c>
-      <c r="C87" s="233" t="s">
-        <v>234</v>
-      </c>
-      <c r="D87" s="266">
+        <v>230</v>
+      </c>
+      <c r="C87" s="231" t="s">
+        <v>232</v>
+      </c>
+      <c r="D87" s="264">
         <v>0.02</v>
       </c>
     </row>
     <row r="89" spans="2:8" ht="13.5" x14ac:dyDescent="0.35">
-      <c r="B89" s="106" t="s">
-        <v>122</v>
-      </c>
-      <c r="C89" s="283">
+      <c r="B89" s="105" t="s">
+        <v>121</v>
+      </c>
+      <c r="C89" s="282">
         <f>C24</f>
         <v>45291</v>
       </c>
-      <c r="D89" s="283"/>
-      <c r="E89" s="89" t="s">
-        <v>192</v>
-      </c>
-      <c r="F89" s="89" t="s">
+      <c r="D89" s="282"/>
+      <c r="E89" s="88" t="s">
         <v>191</v>
+      </c>
+      <c r="F89" s="88" t="s">
+        <v>190</v>
       </c>
       <c r="H89" s="31"/>
     </row>
@@ -3840,166 +3835,166 @@
         <f>"(Numbers in "&amp;Data!C4&amp;Dashboard!G6&amp;")"</f>
         <v>(Numbers in 1000CNY)</v>
       </c>
-      <c r="C90" s="284" t="s">
+      <c r="C90" s="283" t="s">
+        <v>96</v>
+      </c>
+      <c r="D90" s="283"/>
+      <c r="E90" s="230" t="s">
         <v>97</v>
       </c>
-      <c r="D90" s="284"/>
-      <c r="E90" s="232" t="s">
-        <v>98</v>
-      </c>
-      <c r="F90" s="252" t="s">
-        <v>98</v>
+      <c r="F90" s="250" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="91" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B91" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C91" s="77">
         <f>C25</f>
         <v>6301002</v>
       </c>
-      <c r="D91" s="206"/>
-      <c r="E91" s="248">
+      <c r="D91" s="204"/>
+      <c r="E91" s="246">
         <f>C91</f>
         <v>6301002</v>
       </c>
-      <c r="F91" s="248">
+      <c r="F91" s="246">
         <f>C91</f>
         <v>6301002</v>
       </c>
     </row>
     <row r="92" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B92" s="104" t="s">
-        <v>102</v>
+      <c r="B92" s="103" t="s">
+        <v>101</v>
       </c>
       <c r="C92" s="77">
         <f>C26</f>
         <v>2436931</v>
       </c>
-      <c r="D92" s="158">
+      <c r="D92" s="156">
         <f>C92/C91</f>
         <v>0.38675293231140062</v>
       </c>
-      <c r="E92" s="249">
+      <c r="E92" s="247">
         <f>E91*D92</f>
         <v>2436931</v>
       </c>
-      <c r="F92" s="249">
+      <c r="F92" s="247">
         <f>F91*D92</f>
         <v>2436931</v>
       </c>
     </row>
     <row r="93" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B93" s="104" t="s">
-        <v>230</v>
+      <c r="B93" s="103" t="s">
+        <v>229</v>
       </c>
       <c r="C93" s="77">
         <f>C27+C28</f>
         <v>2712006</v>
       </c>
-      <c r="D93" s="158">
+      <c r="D93" s="156">
         <f>C93/C91</f>
         <v>0.43040868738019761</v>
       </c>
-      <c r="E93" s="249">
+      <c r="E93" s="247">
         <f>E91*D93</f>
         <v>2712006</v>
       </c>
-      <c r="F93" s="249">
+      <c r="F93" s="247">
         <f>F91*D93</f>
         <v>2712006</v>
       </c>
     </row>
     <row r="94" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B94" s="104" t="s">
-        <v>239</v>
+      <c r="B94" s="103" t="s">
+        <v>237</v>
       </c>
       <c r="C94" s="77">
         <f>C29</f>
         <v>32337</v>
       </c>
-      <c r="D94" s="158">
+      <c r="D94" s="156">
         <f>C94/C91</f>
         <v>5.1320409039705113E-3</v>
       </c>
-      <c r="E94" s="250"/>
-      <c r="F94" s="249">
+      <c r="E94" s="248"/>
+      <c r="F94" s="247">
         <f>F91*D94</f>
         <v>32337</v>
       </c>
     </row>
     <row r="95" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B95" s="28" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C95" s="77">
         <f>ABS(MAX(C33,0)-C32)</f>
         <v>0</v>
       </c>
-      <c r="D95" s="158">
+      <c r="D95" s="156">
         <f>C95/C91</f>
         <v>0</v>
       </c>
-      <c r="E95" s="249">
+      <c r="E95" s="247">
         <f>E91*D95</f>
         <v>0</v>
       </c>
-      <c r="F95" s="249">
+      <c r="F95" s="247">
         <f>F91*D95</f>
         <v>0</v>
       </c>
     </row>
     <row r="96" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B96" s="28" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C96" s="77">
         <f>MAX(C31,0)</f>
         <v>0</v>
       </c>
-      <c r="D96" s="158">
+      <c r="D96" s="156">
         <f>C96/C91</f>
         <v>0</v>
       </c>
-      <c r="E96" s="250"/>
-      <c r="F96" s="249">
+      <c r="E96" s="248"/>
+      <c r="F96" s="247">
         <f>F91*D96</f>
         <v>0</v>
       </c>
     </row>
     <row r="97" spans="2:7" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B97" s="73" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C97" s="77">
         <f>MAX(C30,0)/(1-C16)</f>
         <v>8569.3333333333339</v>
       </c>
-      <c r="D97" s="158">
+      <c r="D97" s="156">
         <f>C97/C91</f>
         <v>1.3599953361915031E-3</v>
       </c>
-      <c r="E97" s="250"/>
-      <c r="F97" s="249">
+      <c r="E97" s="248"/>
+      <c r="F97" s="247">
         <f>F91*D97</f>
         <v>8569.3333333333339</v>
       </c>
     </row>
     <row r="98" spans="2:7" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B98" s="86" t="s">
-        <v>193</v>
-      </c>
-      <c r="C98" s="234">
+      <c r="B98" s="85" t="s">
+        <v>192</v>
+      </c>
+      <c r="C98" s="232">
         <f>C44</f>
         <v>0.28210000000000002</v>
       </c>
-      <c r="D98" s="263"/>
-      <c r="E98" s="251">
+      <c r="D98" s="261"/>
+      <c r="E98" s="249">
         <f>F98</f>
         <v>0.28210000000000002</v>
       </c>
-      <c r="F98" s="251">
+      <c r="F98" s="249">
         <f>C98</f>
         <v>0.28210000000000002</v>
       </c>
@@ -4012,32 +4007,32 @@
   </mergeCells>
   <phoneticPr fontId="20" type="noConversion"/>
   <conditionalFormatting sqref="C16 C25:M33 D34:M43 C44:M44 E91:F93 F94 E95:F95 F96:F98">
-    <cfRule type="containsBlanks" dxfId="22" priority="14">
+    <cfRule type="containsBlanks" dxfId="22" priority="15">
       <formula>LEN(TRIM(C16))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C37">
-    <cfRule type="containsBlanks" dxfId="21" priority="3">
+  <conditionalFormatting sqref="C37:C38">
+    <cfRule type="containsBlanks" dxfId="21" priority="1">
       <formula>LEN(TRIM(C37))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C41:C42">
-    <cfRule type="containsBlanks" dxfId="20" priority="1">
+    <cfRule type="containsBlanks" dxfId="20" priority="2">
       <formula>LEN(TRIM(C41))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C87">
-    <cfRule type="containsBlanks" dxfId="19" priority="7">
+    <cfRule type="containsBlanks" dxfId="19" priority="8">
       <formula>LEN(TRIM(C87))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C98">
-    <cfRule type="containsBlanks" dxfId="18" priority="6">
+    <cfRule type="containsBlanks" dxfId="18" priority="7">
       <formula>LEN(TRIM(C98))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E98">
-    <cfRule type="containsBlanks" dxfId="17" priority="4">
+    <cfRule type="containsBlanks" dxfId="17" priority="5">
       <formula>LEN(TRIM(E98))=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4096,13 +4091,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B1" s="87"/>
-      <c r="C1" s="87"/>
-      <c r="D1" s="87"/>
-      <c r="E1" s="87"/>
-      <c r="F1" s="87"/>
-      <c r="G1" s="87"/>
-      <c r="H1" s="87"/>
+      <c r="B1" s="86"/>
+      <c r="C1" s="86"/>
+      <c r="D1" s="86"/>
+      <c r="E1" s="86"/>
+      <c r="F1" s="86"/>
+      <c r="G1" s="86"/>
+      <c r="H1" s="86"/>
     </row>
     <row r="2" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="5"/>
@@ -4113,82 +4108,82 @@
         <f>C3&amp;" : "&amp;C4</f>
         <v>9992.HK : POP MART</v>
       </c>
-      <c r="D2" s="87"/>
+      <c r="D2" s="86"/>
       <c r="E2" s="7"/>
       <c r="F2" s="7"/>
-      <c r="G2" s="86"/>
-      <c r="H2" s="86"/>
+      <c r="G2" s="85"/>
+      <c r="H2" s="85"/>
     </row>
     <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B3" s="3" t="s">
-        <v>180</v>
-      </c>
-      <c r="C3" s="289" t="str">
+        <v>179</v>
+      </c>
+      <c r="C3" s="288" t="str">
         <f>Inputs!C4</f>
         <v>9992.HK</v>
       </c>
-      <c r="D3" s="290"/>
-      <c r="E3" s="87"/>
+      <c r="D3" s="289"/>
+      <c r="E3" s="86"/>
       <c r="F3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="G3" s="131">
-        <v>95.75</v>
-      </c>
-      <c r="H3" s="133" t="s">
-        <v>273</v>
+      <c r="G3" s="130">
+        <v>94.2</v>
+      </c>
+      <c r="H3" s="132" t="s">
+        <v>272</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B4" s="35" t="s">
-        <v>181</v>
-      </c>
-      <c r="C4" s="291" t="str">
+        <v>180</v>
+      </c>
+      <c r="C4" s="290" t="str">
         <f>Inputs!C5</f>
         <v>POP MART</v>
       </c>
-      <c r="D4" s="292"/>
-      <c r="E4" s="87"/>
+      <c r="D4" s="291"/>
+      <c r="E4" s="86"/>
       <c r="F4" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="G4" s="295">
+      <c r="G4" s="294">
         <f>Inputs!C10</f>
         <v>1342943150</v>
       </c>
-      <c r="H4" s="295"/>
+      <c r="H4" s="294"/>
       <c r="I4" s="39"/>
     </row>
     <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B5" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="C5" s="293">
+        <v>154</v>
+      </c>
+      <c r="C5" s="292">
         <f>Inputs!C6</f>
         <v>45630</v>
       </c>
-      <c r="D5" s="294"/>
+      <c r="D5" s="293"/>
       <c r="E5" s="34"/>
       <c r="F5" s="35" t="s">
-        <v>96</v>
-      </c>
-      <c r="G5" s="287">
+        <v>95</v>
+      </c>
+      <c r="G5" s="286">
         <f>G3*G4/1000000</f>
-        <v>128586.8066125</v>
-      </c>
-      <c r="H5" s="287"/>
+        <v>126505.24473000001</v>
+      </c>
+      <c r="H5" s="286"/>
       <c r="I5" s="38"/>
       <c r="J5" s="28"/>
     </row>
     <row r="6" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B6" s="87" t="s">
+      <c r="B6" s="86" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="184">
+      <c r="C6" s="182">
         <f>Inputs!C7</f>
         <v>8</v>
       </c>
-      <c r="D6" s="185">
+      <c r="D6" s="183">
         <f>EOMONTH(EDATE(Fin_Analysis!D9,C6),0)</f>
         <v>45716</v>
       </c>
@@ -4199,31 +4194,31 @@
       <c r="F6" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G6" s="288" t="str">
+      <c r="G6" s="287" t="str">
         <f>Inputs!C11</f>
         <v>CNY</v>
       </c>
-      <c r="H6" s="288"/>
+      <c r="H6" s="287"/>
       <c r="I6" s="38"/>
     </row>
     <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B7" s="86" t="s">
-        <v>178</v>
-      </c>
-      <c r="C7" s="186" t="str">
+      <c r="B7" s="85" t="s">
+        <v>177</v>
+      </c>
+      <c r="C7" s="184" t="str">
         <f>Inputs!C8</f>
         <v>N</v>
       </c>
-      <c r="D7" s="186" t="str">
+      <c r="D7" s="184" t="str">
         <f>Inputs!C9</f>
         <v>C0007</v>
       </c>
-      <c r="E7" s="87"/>
+      <c r="E7" s="86"/>
       <c r="F7" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="G7" s="132">
-        <v>1.0681999921798706</v>
+      <c r="G7" s="131">
+        <v>1.0679666598637898</v>
       </c>
       <c r="H7" s="71" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -4232,280 +4227,280 @@
     </row>
     <row r="8" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="9" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B9" s="138" t="s">
-        <v>177</v>
-      </c>
-      <c r="F9" s="142" t="s">
-        <v>172</v>
+      <c r="B9" s="137" t="s">
+        <v>176</v>
+      </c>
+      <c r="F9" s="141" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B10" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="C10" s="171">
+        <v>162</v>
+      </c>
+      <c r="C10" s="169">
         <v>4.2000000000000003E-2</v>
       </c>
-      <c r="F10" s="110" t="s">
-        <v>170</v>
+      <c r="F10" s="109" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B11" s="121" t="s">
-        <v>167</v>
-      </c>
-      <c r="C11" s="172">
+      <c r="B11" s="120" t="s">
+        <v>166</v>
+      </c>
+      <c r="C11" s="170">
         <v>5.2299999999999999E-2</v>
       </c>
-      <c r="D11" s="136" t="s">
-        <v>176</v>
-      </c>
-      <c r="F11" s="110" t="s">
-        <v>165</v>
+      <c r="D11" s="135" t="s">
+        <v>175</v>
+      </c>
+      <c r="F11" s="109" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="B12" s="87" t="s">
-        <v>236</v>
-      </c>
-      <c r="C12" s="173">
+      <c r="B12" s="86" t="s">
+        <v>234</v>
+      </c>
+      <c r="C12" s="171">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="D12" s="171">
+      <c r="D12" s="169">
         <v>8.0625000000000002E-2</v>
       </c>
-      <c r="F12" s="110"/>
+      <c r="F12" s="109"/>
     </row>
     <row r="13" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="14" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B14" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="C14" s="171">
+        <v>163</v>
+      </c>
+      <c r="C14" s="169">
         <v>1.8100000000000002E-2</v>
       </c>
-      <c r="F14" s="110" t="s">
-        <v>169</v>
+      <c r="F14" s="109" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B15" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="C15" s="169">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="F15" s="109" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B16" s="120" t="s">
         <v>173</v>
       </c>
-      <c r="C15" s="171">
-        <v>6.5000000000000002E-2</v>
-      </c>
-      <c r="F15" s="110" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B16" s="121" t="s">
-        <v>174</v>
-      </c>
-      <c r="C16" s="172">
+      <c r="C16" s="170">
         <v>0.16</v>
       </c>
-      <c r="D16" s="262" t="str">
+      <c r="D16" s="260" t="str">
         <f>Inputs!C15</f>
         <v>CN</v>
       </c>
-      <c r="F16" s="110" t="s">
-        <v>166</v>
+      <c r="F16" s="109" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="B17" s="87" t="s">
-        <v>237</v>
-      </c>
-      <c r="C17" s="174">
+      <c r="B17" s="86" t="s">
+        <v>235</v>
+      </c>
+      <c r="C17" s="172">
         <v>8.6249999999999993E-2</v>
       </c>
-      <c r="D17" s="175"/>
+      <c r="D17" s="173"/>
     </row>
     <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="19" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B19" s="141" t="s">
-        <v>261</v>
-      </c>
-      <c r="C19" s="134" t="s">
-        <v>48</v>
-      </c>
-      <c r="D19" s="87"/>
-      <c r="E19" s="87"/>
-      <c r="F19" s="141" t="s">
-        <v>198</v>
-      </c>
-      <c r="G19" s="87"/>
-      <c r="H19" s="87"/>
+      <c r="B19" s="140" t="s">
+        <v>259</v>
+      </c>
+      <c r="C19" s="133" t="s">
+        <v>47</v>
+      </c>
+      <c r="D19" s="86"/>
+      <c r="E19" s="86"/>
+      <c r="F19" s="140" t="s">
+        <v>197</v>
+      </c>
+      <c r="G19" s="86"/>
+      <c r="H19" s="86"/>
     </row>
     <row r="20" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B20" s="272" t="s">
-        <v>252</v>
-      </c>
-      <c r="C20" s="273" t="e">
+      <c r="B20" s="270" t="s">
+        <v>250</v>
+      </c>
+      <c r="C20" s="271" t="e">
         <f>C23*C22*(1/C21)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="F20" s="87" t="s">
-        <v>197</v>
-      </c>
-      <c r="G20" s="171">
+      <c r="F20" s="86" t="s">
+        <v>196</v>
+      </c>
+      <c r="G20" s="169">
         <v>0.15</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="B21" s="274" t="s">
-        <v>250</v>
-      </c>
-      <c r="C21" s="275" t="e">
+      <c r="B21" s="272" t="s">
+        <v>248</v>
+      </c>
+      <c r="C21" s="273" t="e">
         <f>Data!C53</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="F21" s="87"/>
+      <c r="F21" s="86"/>
       <c r="G21" s="29"/>
     </row>
     <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B22" s="276" t="s">
-        <v>265</v>
-      </c>
-      <c r="C22" s="277" t="e">
+      <c r="B22" s="274" t="s">
+        <v>262</v>
+      </c>
+      <c r="C22" s="275" t="e">
         <f>Data!C48</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="F22" s="141" t="s">
-        <v>171</v>
+      <c r="F22" s="140" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B23" s="278" t="s">
-        <v>257</v>
-      </c>
-      <c r="C23" s="279">
+      <c r="B23" s="276" t="s">
+        <v>255</v>
+      </c>
+      <c r="C23" s="277">
         <f>Data!C13</f>
         <v>0.18147838497221025</v>
       </c>
-      <c r="F23" s="139" t="s">
-        <v>175</v>
-      </c>
-      <c r="G23" s="176" t="e">
+      <c r="F23" s="138" t="s">
+        <v>174</v>
+      </c>
+      <c r="G23" s="174" t="e">
         <f>G3/(Data!C34*Data!C4/Common_Shares*Exchange_Rate)</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B24" s="136" t="s">
-        <v>258</v>
-      </c>
-      <c r="C24" s="170">
+      <c r="B24" s="135" t="s">
+        <v>256</v>
+      </c>
+      <c r="C24" s="168">
         <f>Fin_Analysis!I81</f>
         <v>5.1320409039705113E-3</v>
       </c>
-      <c r="F24" s="139" t="s">
-        <v>242</v>
-      </c>
-      <c r="G24" s="265">
+      <c r="F24" s="138" t="s">
+        <v>240</v>
+      </c>
+      <c r="G24" s="263">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>144.44632571508126</v>
+        <v>142.1390782593011</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B25" s="136" t="s">
-        <v>259</v>
-      </c>
-      <c r="C25" s="170">
+      <c r="B25" s="135" t="s">
+        <v>257</v>
+      </c>
+      <c r="C25" s="168">
         <f>Fin_Analysis!I80</f>
         <v>0</v>
       </c>
-      <c r="F25" s="139" t="s">
-        <v>162</v>
-      </c>
-      <c r="G25" s="170">
+      <c r="F25" s="138" t="s">
+        <v>161</v>
+      </c>
+      <c r="G25" s="168">
         <f>Fin_Analysis!I88</f>
         <v>0.45459365852941497</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B26" s="137" t="s">
-        <v>260</v>
-      </c>
-      <c r="C26" s="170">
+      <c r="B26" s="136" t="s">
+        <v>258</v>
+      </c>
+      <c r="C26" s="168">
         <f>Fin_Analysis!I80+Fin_Analysis!I82</f>
         <v>0</v>
       </c>
-      <c r="F26" s="140" t="s">
-        <v>179</v>
-      </c>
-      <c r="G26" s="177">
+      <c r="F26" s="139" t="s">
+        <v>178</v>
+      </c>
+      <c r="G26" s="175">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>3.1471458777435147E-3</v>
+        <v>3.1982313667470821E-3</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="28" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A28" s="5"/>
-      <c r="B28" s="90" t="s">
+      <c r="B28" s="89" t="s">
         <v>6</v>
       </c>
-      <c r="C28" s="89" t="s">
+      <c r="C28" s="88" t="s">
+        <v>157</v>
+      </c>
+      <c r="D28" s="43" t="s">
         <v>158</v>
-      </c>
-      <c r="D28" s="43" t="s">
-        <v>159</v>
       </c>
       <c r="E28" s="58"/>
       <c r="F28" s="53" t="s">
-        <v>222</v>
-      </c>
-      <c r="G28" s="285" t="s">
-        <v>240</v>
-      </c>
-      <c r="H28" s="285"/>
+        <v>221</v>
+      </c>
+      <c r="G28" s="284" t="s">
+        <v>238</v>
+      </c>
+      <c r="H28" s="284"/>
     </row>
     <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B29" s="87" t="s">
-        <v>160</v>
-      </c>
-      <c r="C29" s="129">
+      <c r="B29" s="86" t="s">
+        <v>159</v>
+      </c>
+      <c r="C29" s="128">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>4.3768070527612082</v>
-      </c>
-      <c r="D29" s="128">
+        <v>4.3782933518588552</v>
+      </c>
+      <c r="D29" s="127">
         <f>G29*(1+G20)</f>
-        <v>7.8754716180459301</v>
-      </c>
-      <c r="E29" s="87"/>
-      <c r="F29" s="130">
+        <v>7.8781460120090046</v>
+      </c>
+      <c r="E29" s="86"/>
+      <c r="F29" s="129">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>5.1491847679543623</v>
-      </c>
-      <c r="G29" s="286">
+        <v>5.1509333551280649</v>
+      </c>
+      <c r="G29" s="285">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>6.8482361896051573</v>
-      </c>
-      <c r="H29" s="286"/>
+        <v>6.850561749573048</v>
+      </c>
+      <c r="H29" s="285"/>
     </row>
     <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="5"/>
       <c r="B31" s="6" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C31"/>
     </row>
     <row r="32" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32"/>
-      <c r="B32" s="195" t="s">
-        <v>208</v>
-      </c>
-      <c r="C32" s="221"/>
+      <c r="B32" s="193" t="s">
+        <v>207</v>
+      </c>
+      <c r="C32" s="219"/>
     </row>
     <row r="33" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33"/>
       <c r="B33" s="20" t="s">
-        <v>209</v>
-      </c>
-      <c r="C33" s="242" t="str">
+        <v>208</v>
+      </c>
+      <c r="C33" s="240" t="str">
         <f>Inputs!C17</f>
         <v>unclear</v>
       </c>
@@ -4513,9 +4508,9 @@
     <row r="34" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34"/>
       <c r="B34" s="19" t="s">
-        <v>210</v>
-      </c>
-      <c r="C34" s="222" t="e">
+        <v>209</v>
+      </c>
+      <c r="C34" s="220" t="e">
         <f>IF(AND(OR(Fin_Analysis!I26&lt;0.8,Fin_Analysis!I46&lt;0.6),Data!C54&lt;0.8),"Strongly disagree",
 IF(AND(OR(Fin_Analysis!I26&lt;1,Fin_Analysis!I46&lt;0.8),Data!C54&lt;1),"unclear", IF(AND(OR(Fin_Analysis!I26&lt;1.4,Fin_Analysis!I46&lt;1.2),Data!C54&lt;1.4),"agree","Strongly agree")))</f>
         <v>#DIV/0!</v>
@@ -4523,17 +4518,17 @@
     </row>
     <row r="35" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35"/>
-      <c r="B35" s="195" t="s">
-        <v>211</v>
-      </c>
-      <c r="C35" s="221"/>
+      <c r="B35" s="193" t="s">
+        <v>210</v>
+      </c>
+      <c r="C35" s="219"/>
     </row>
     <row r="36" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36"/>
       <c r="B36" s="20" t="s">
-        <v>223</v>
-      </c>
-      <c r="C36" s="242" t="str">
+        <v>222</v>
+      </c>
+      <c r="C36" s="240" t="str">
         <f>Inputs!C18</f>
         <v>unclear</v>
       </c>
@@ -4541,26 +4536,26 @@
     <row r="37" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37"/>
       <c r="B37" s="20" t="s">
-        <v>224</v>
-      </c>
-      <c r="C37" s="242" t="str">
+        <v>223</v>
+      </c>
+      <c r="C37" s="240" t="str">
         <f>Inputs!C19</f>
         <v>unclear</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38"/>
-      <c r="B38" s="195" t="s">
-        <v>212</v>
-      </c>
-      <c r="C38" s="221"/>
+      <c r="B38" s="193" t="s">
+        <v>211</v>
+      </c>
+      <c r="C38" s="219"/>
     </row>
     <row r="39" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39"/>
       <c r="B39" s="19" t="s">
-        <v>213</v>
-      </c>
-      <c r="C39" s="242" t="str">
+        <v>212</v>
+      </c>
+      <c r="C39" s="240" t="str">
         <f>Inputs!C20</f>
         <v>unclear</v>
       </c>
@@ -4568,9 +4563,9 @@
     <row r="40" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40"/>
       <c r="B40" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="C40" s="242" t="str">
+        <v>215</v>
+      </c>
+      <c r="C40" s="240" t="str">
         <f>Inputs!C21</f>
         <v>unclear</v>
       </c>
@@ -4583,16 +4578,16 @@
     <row r="42" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A42" s="5"/>
       <c r="B42" s="6" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C42"/>
     </row>
     <row r="43" spans="1:3" ht="65.650000000000006" x14ac:dyDescent="0.4">
       <c r="A43"/>
-      <c r="B43" s="223" t="s">
-        <v>215</v>
-      </c>
-      <c r="C43" s="241" t="str">
+      <c r="B43" s="221" t="s">
+        <v>214</v>
+      </c>
+      <c r="C43" s="239" t="str">
         <f>Inputs!C22</f>
         <v>Unclear</v>
       </c>
@@ -5544,10 +5539,10 @@
   </sheetPr>
   <dimension ref="A1:N930"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A43" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
       <selection activeCell="A4" sqref="A4"/>
-      <selection pane="topRight" activeCell="C2" sqref="C2"/>
+      <selection pane="topRight" activeCell="B55" sqref="B55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5573,59 +5568,59 @@
       </c>
       <c r="C2" s="18"/>
       <c r="D2" s="17"/>
-      <c r="E2" s="147" t="s">
-        <v>185</v>
-      </c>
-      <c r="F2" s="118" t="s">
+      <c r="E2" s="146" t="s">
+        <v>184</v>
+      </c>
+      <c r="F2" s="117" t="s">
+        <v>187</v>
+      </c>
+      <c r="G2" s="146" t="s">
         <v>188</v>
       </c>
-      <c r="G2" s="147" t="s">
+      <c r="H2" s="145" t="s">
         <v>189</v>
       </c>
-      <c r="H2" s="146" t="s">
-        <v>190</v>
-      </c>
       <c r="I2" s="7"/>
-      <c r="J2" s="87"/>
+      <c r="J2" s="86"/>
       <c r="K2" s="7"/>
       <c r="L2" s="7"/>
       <c r="M2" s="7"/>
     </row>
     <row r="3" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="4"/>
-      <c r="B3" s="103" t="s">
+      <c r="B3" s="102" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="200">
+      <c r="C3" s="198">
         <f>Inputs!C12</f>
         <v>45291</v>
       </c>
-      <c r="E3" s="145" t="s">
-        <v>186</v>
-      </c>
-      <c r="F3" s="85" t="str">
+      <c r="E3" s="144" t="s">
+        <v>185</v>
+      </c>
+      <c r="F3" s="84" t="str">
         <f>H14</f>
         <v/>
       </c>
-      <c r="G3" s="85">
+      <c r="G3" s="84">
         <f>C14</f>
         <v>1143495.6666666667</v>
       </c>
-      <c r="H3" s="85">
+      <c r="H3" s="84">
         <v>6</v>
       </c>
-      <c r="I3" s="87"/>
+      <c r="I3" s="86"/>
       <c r="J3" s="42"/>
-      <c r="K3" s="87"/>
-      <c r="L3" s="87"/>
-      <c r="M3" s="87"/>
+      <c r="K3" s="86"/>
+      <c r="L3" s="86"/>
+      <c r="M3" s="86"/>
     </row>
     <row r="4" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="4"/>
-      <c r="B4" s="103" t="s">
+      <c r="B4" s="102" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="127">
+      <c r="C4" s="126">
         <f>Inputs!C13</f>
         <v>1000</v>
       </c>
@@ -5633,19 +5628,19 @@
         <f>Dashboard!G6</f>
         <v>CNY</v>
       </c>
-      <c r="E4" s="145" t="s">
-        <v>187</v>
-      </c>
-      <c r="F4" s="93" t="e">
+      <c r="E4" s="144" t="s">
+        <v>186</v>
+      </c>
+      <c r="F4" s="92" t="e">
         <f>(G3/F3)^(1/H3)-1</f>
         <v>#VALUE!</v>
       </c>
-      <c r="J4" s="87"/>
+      <c r="J4" s="86"/>
     </row>
     <row r="5" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="16"/>
-      <c r="B5" s="115" t="s">
-        <v>128</v>
+      <c r="B5" s="114" t="s">
+        <v>127</v>
       </c>
       <c r="C5" s="48">
         <f>C3</f>
@@ -5694,928 +5689,928 @@
     </row>
     <row r="6" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="4"/>
-      <c r="B6" s="94" t="s">
+      <c r="B6" s="93" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="199">
+      <c r="C6" s="197">
         <f>IF(Inputs!C25=""," ",Inputs!C25)</f>
         <v>6301002</v>
       </c>
-      <c r="D6" s="199">
+      <c r="D6" s="197">
         <f>IF(Inputs!D25="","",Inputs!D25)</f>
         <v>4617324</v>
       </c>
-      <c r="E6" s="199" t="str">
+      <c r="E6" s="197" t="str">
         <f>IF(Inputs!E25="","",Inputs!E25)</f>
         <v/>
       </c>
-      <c r="F6" s="199" t="str">
+      <c r="F6" s="197" t="str">
         <f>IF(Inputs!F25="","",Inputs!F25)</f>
         <v/>
       </c>
-      <c r="G6" s="199" t="str">
+      <c r="G6" s="197" t="str">
         <f>IF(Inputs!G25="","",Inputs!G25)</f>
         <v/>
       </c>
-      <c r="H6" s="199" t="str">
+      <c r="H6" s="197" t="str">
         <f>IF(Inputs!H25="","",Inputs!H25)</f>
         <v/>
       </c>
-      <c r="I6" s="199" t="str">
+      <c r="I6" s="197" t="str">
         <f>IF(Inputs!I25="","",Inputs!I25)</f>
         <v/>
       </c>
-      <c r="J6" s="199" t="str">
+      <c r="J6" s="197" t="str">
         <f>IF(Inputs!J25="","",Inputs!J25)</f>
         <v/>
       </c>
-      <c r="K6" s="199" t="str">
+      <c r="K6" s="197" t="str">
         <f>IF(Inputs!K25="","",Inputs!K25)</f>
         <v/>
       </c>
-      <c r="L6" s="199" t="str">
+      <c r="L6" s="197" t="str">
         <f>IF(Inputs!L25="","",Inputs!L25)</f>
         <v/>
       </c>
-      <c r="M6" s="199" t="str">
+      <c r="M6" s="197" t="str">
         <f>IF(Inputs!M25="","",Inputs!M25)</f>
         <v/>
       </c>
-      <c r="N6" s="87"/>
+      <c r="N6" s="86"/>
     </row>
     <row r="7" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="4"/>
-      <c r="B7" s="96" t="s">
+      <c r="B7" s="95" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="92">
+      <c r="C7" s="91">
         <f t="shared" ref="C7:M7" si="1">IF(D6="","",C6/D6-1)</f>
         <v>0.36464367672703935</v>
       </c>
-      <c r="D7" s="92" t="str">
+      <c r="D7" s="91" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="E7" s="92" t="str">
+      <c r="E7" s="91" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="F7" s="92" t="str">
+      <c r="F7" s="91" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="G7" s="92" t="str">
+      <c r="G7" s="91" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="H7" s="92" t="str">
+      <c r="H7" s="91" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="I7" s="92" t="str">
+      <c r="I7" s="91" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="J7" s="92" t="str">
+      <c r="J7" s="91" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="K7" s="92" t="str">
+      <c r="K7" s="91" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="L7" s="92" t="str">
+      <c r="L7" s="91" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="M7" s="92" t="str">
+      <c r="M7" s="91" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="N7" s="87"/>
+      <c r="N7" s="86"/>
     </row>
     <row r="8" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="4"/>
-      <c r="B8" s="97" t="s">
-        <v>102</v>
-      </c>
-      <c r="C8" s="198">
+      <c r="B8" s="96" t="s">
+        <v>101</v>
+      </c>
+      <c r="C8" s="196">
         <f>IF(Inputs!C26="","",Inputs!C26)</f>
         <v>2436931</v>
       </c>
-      <c r="D8" s="198">
+      <c r="D8" s="196">
         <f>IF(Inputs!D26="","",Inputs!D26)</f>
         <v>1962781</v>
       </c>
-      <c r="E8" s="198" t="str">
+      <c r="E8" s="196" t="str">
         <f>IF(Inputs!E26="","",Inputs!E26)</f>
         <v/>
       </c>
-      <c r="F8" s="198" t="str">
+      <c r="F8" s="196" t="str">
         <f>IF(Inputs!F26="","",Inputs!F26)</f>
         <v/>
       </c>
-      <c r="G8" s="198" t="str">
+      <c r="G8" s="196" t="str">
         <f>IF(Inputs!G26="","",Inputs!G26)</f>
         <v/>
       </c>
-      <c r="H8" s="198" t="str">
+      <c r="H8" s="196" t="str">
         <f>IF(Inputs!H26="","",Inputs!H26)</f>
         <v/>
       </c>
-      <c r="I8" s="198" t="str">
+      <c r="I8" s="196" t="str">
         <f>IF(Inputs!I26="","",Inputs!I26)</f>
         <v/>
       </c>
-      <c r="J8" s="198" t="str">
+      <c r="J8" s="196" t="str">
         <f>IF(Inputs!J26="","",Inputs!J26)</f>
         <v/>
       </c>
-      <c r="K8" s="198" t="str">
+      <c r="K8" s="196" t="str">
         <f>IF(Inputs!K26="","",Inputs!K26)</f>
         <v/>
       </c>
-      <c r="L8" s="198" t="str">
+      <c r="L8" s="196" t="str">
         <f>IF(Inputs!L26="","",Inputs!L26)</f>
         <v/>
       </c>
-      <c r="M8" s="198" t="str">
+      <c r="M8" s="196" t="str">
         <f>IF(Inputs!M26="","",Inputs!M26)</f>
         <v/>
       </c>
-      <c r="N8" s="87"/>
+      <c r="N8" s="86"/>
     </row>
     <row r="9" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="4"/>
-      <c r="B9" s="98" t="s">
-        <v>99</v>
-      </c>
-      <c r="C9" s="150">
+      <c r="B9" s="97" t="s">
+        <v>98</v>
+      </c>
+      <c r="C9" s="149">
         <f t="shared" ref="C9:M9" si="2">IF(C6="","",(C6-C8))</f>
         <v>3864071</v>
       </c>
-      <c r="D9" s="150">
+      <c r="D9" s="149">
         <f t="shared" si="2"/>
         <v>2654543</v>
       </c>
-      <c r="E9" s="150" t="str">
+      <c r="E9" s="149" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="F9" s="150" t="str">
+      <c r="F9" s="149" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G9" s="150" t="str">
+      <c r="G9" s="149" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="H9" s="150" t="str">
+      <c r="H9" s="149" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="I9" s="150" t="str">
+      <c r="I9" s="149" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="J9" s="150" t="str">
+      <c r="J9" s="149" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="K9" s="150" t="str">
+      <c r="K9" s="149" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="L9" s="150" t="str">
+      <c r="L9" s="149" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="M9" s="150" t="str">
+      <c r="M9" s="149" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="N9" s="87"/>
+      <c r="N9" s="86"/>
     </row>
     <row r="10" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="4"/>
-      <c r="B10" s="97" t="s">
-        <v>100</v>
-      </c>
-      <c r="C10" s="198">
+      <c r="B10" s="96" t="s">
+        <v>99</v>
+      </c>
+      <c r="C10" s="196">
         <f>IF(Inputs!C27="","",Inputs!C27)</f>
         <v>2712006</v>
       </c>
-      <c r="D10" s="198">
+      <c r="D10" s="196">
         <f>IF(Inputs!D27="","",Inputs!D27)</f>
         <v>2157033</v>
       </c>
-      <c r="E10" s="198" t="str">
+      <c r="E10" s="196" t="str">
         <f>IF(Inputs!E27="","",Inputs!E27)</f>
         <v/>
       </c>
-      <c r="F10" s="198" t="str">
+      <c r="F10" s="196" t="str">
         <f>IF(Inputs!F27="","",Inputs!F27)</f>
         <v/>
       </c>
-      <c r="G10" s="198" t="str">
+      <c r="G10" s="196" t="str">
         <f>IF(Inputs!G27="","",Inputs!G27)</f>
         <v/>
       </c>
-      <c r="H10" s="198" t="str">
+      <c r="H10" s="196" t="str">
         <f>IF(Inputs!H27="","",Inputs!H27)</f>
         <v/>
       </c>
-      <c r="I10" s="198" t="str">
+      <c r="I10" s="196" t="str">
         <f>IF(Inputs!I27="","",Inputs!I27)</f>
         <v/>
       </c>
-      <c r="J10" s="198" t="str">
+      <c r="J10" s="196" t="str">
         <f>IF(Inputs!J27="","",Inputs!J27)</f>
         <v/>
       </c>
-      <c r="K10" s="198" t="str">
+      <c r="K10" s="196" t="str">
         <f>IF(Inputs!K27="","",Inputs!K27)</f>
         <v/>
       </c>
-      <c r="L10" s="198" t="str">
+      <c r="L10" s="196" t="str">
         <f>IF(Inputs!L27="","",Inputs!L27)</f>
         <v/>
       </c>
-      <c r="M10" s="198" t="str">
+      <c r="M10" s="196" t="str">
         <f>IF(Inputs!M27="","",Inputs!M27)</f>
         <v/>
       </c>
-      <c r="N10" s="87"/>
+      <c r="N10" s="86"/>
     </row>
     <row r="11" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="4"/>
-      <c r="B11" s="97" t="s">
-        <v>103</v>
-      </c>
-      <c r="C11" s="198" t="str">
+      <c r="B11" s="96" t="s">
+        <v>102</v>
+      </c>
+      <c r="C11" s="196" t="str">
         <f>IF(Inputs!C28="","",Inputs!C28)</f>
         <v/>
       </c>
-      <c r="D11" s="198" t="str">
+      <c r="D11" s="196" t="str">
         <f>IF(Inputs!D28="","",Inputs!D28)</f>
         <v/>
       </c>
-      <c r="E11" s="198" t="str">
+      <c r="E11" s="196" t="str">
         <f>IF(Inputs!E28="","",Inputs!E28)</f>
         <v/>
       </c>
-      <c r="F11" s="198" t="str">
+      <c r="F11" s="196" t="str">
         <f>IF(Inputs!F28="","",Inputs!F28)</f>
         <v/>
       </c>
-      <c r="G11" s="198" t="str">
+      <c r="G11" s="196" t="str">
         <f>IF(Inputs!G28="","",Inputs!G28)</f>
         <v/>
       </c>
-      <c r="H11" s="198" t="str">
+      <c r="H11" s="196" t="str">
         <f>IF(Inputs!H28="","",Inputs!H28)</f>
         <v/>
       </c>
-      <c r="I11" s="198" t="str">
+      <c r="I11" s="196" t="str">
         <f>IF(Inputs!I28="","",Inputs!I28)</f>
         <v/>
       </c>
-      <c r="J11" s="198" t="str">
+      <c r="J11" s="196" t="str">
         <f>IF(Inputs!J28="","",Inputs!J28)</f>
         <v/>
       </c>
-      <c r="K11" s="198" t="str">
+      <c r="K11" s="196" t="str">
         <f>IF(Inputs!K28="","",Inputs!K28)</f>
         <v/>
       </c>
-      <c r="L11" s="198" t="str">
+      <c r="L11" s="196" t="str">
         <f>IF(Inputs!L28="","",Inputs!L28)</f>
         <v/>
       </c>
-      <c r="M11" s="198" t="str">
+      <c r="M11" s="196" t="str">
         <f>IF(Inputs!M28="","",Inputs!M28)</f>
         <v/>
       </c>
-      <c r="N11" s="87"/>
+      <c r="N11" s="86"/>
     </row>
     <row r="12" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="4"/>
-      <c r="B12" s="99" t="s">
-        <v>225</v>
-      </c>
-      <c r="C12" s="198">
+      <c r="B12" s="98" t="s">
+        <v>224</v>
+      </c>
+      <c r="C12" s="196">
         <f>IF(Inputs!C30="","",MAX(Inputs!C30,0)/(1-Fin_Analysis!$I$84))</f>
         <v>8569.3333333333339</v>
       </c>
-      <c r="D12" s="198">
+      <c r="D12" s="196">
         <f>IF(Inputs!D30="","",MAX(Inputs!D30,0)/(1-Fin_Analysis!$I$84))</f>
         <v>188</v>
       </c>
-      <c r="E12" s="198" t="str">
+      <c r="E12" s="196" t="str">
         <f>IF(Inputs!E30="","",MAX(Inputs!E30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="F12" s="198" t="str">
+      <c r="F12" s="196" t="str">
         <f>IF(Inputs!F30="","",MAX(Inputs!F30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="G12" s="198" t="str">
+      <c r="G12" s="196" t="str">
         <f>IF(Inputs!G30="","",MAX(Inputs!G30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="H12" s="198" t="str">
+      <c r="H12" s="196" t="str">
         <f>IF(Inputs!H30="","",MAX(Inputs!H30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="I12" s="198" t="str">
+      <c r="I12" s="196" t="str">
         <f>IF(Inputs!I30="","",MAX(Inputs!I30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="J12" s="198" t="str">
+      <c r="J12" s="196" t="str">
         <f>IF(Inputs!J30="","",MAX(Inputs!J30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="K12" s="198" t="str">
+      <c r="K12" s="196" t="str">
         <f>IF(Inputs!K30="","",MAX(Inputs!K30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="L12" s="198" t="str">
+      <c r="L12" s="196" t="str">
         <f>IF(Inputs!L30="","",MAX(Inputs!L30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="M12" s="198" t="str">
+      <c r="M12" s="196" t="str">
         <f>IF(Inputs!M30="","",MAX(Inputs!M30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="N12" s="87"/>
+      <c r="N12" s="86"/>
     </row>
     <row r="13" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="4"/>
-      <c r="B13" s="225" t="s">
-        <v>226</v>
-      </c>
-      <c r="C13" s="226">
+      <c r="B13" s="223" t="s">
+        <v>225</v>
+      </c>
+      <c r="C13" s="224">
         <f t="shared" ref="C13:M13" si="3">IF(C14="","",C14/C6)</f>
         <v>0.18147838497221025</v>
       </c>
-      <c r="D13" s="226">
+      <c r="D13" s="224">
         <f t="shared" si="3"/>
         <v>0.10770784116514241</v>
       </c>
-      <c r="E13" s="226" t="str">
+      <c r="E13" s="224" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="F13" s="226" t="str">
+      <c r="F13" s="224" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="G13" s="226" t="str">
+      <c r="G13" s="224" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="H13" s="226" t="str">
+      <c r="H13" s="224" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="I13" s="226" t="str">
+      <c r="I13" s="224" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="J13" s="226" t="str">
+      <c r="J13" s="224" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="K13" s="226" t="str">
+      <c r="K13" s="224" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="L13" s="226" t="str">
+      <c r="L13" s="224" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="M13" s="226" t="str">
+      <c r="M13" s="224" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="N13" s="87"/>
+      <c r="N13" s="86"/>
     </row>
     <row r="14" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="4"/>
-      <c r="B14" s="225" t="s">
-        <v>218</v>
-      </c>
-      <c r="C14" s="227">
+      <c r="B14" s="223" t="s">
+        <v>217</v>
+      </c>
+      <c r="C14" s="225">
         <f>IF(C6="","",C9-C10-MAX(C11,0)-MAX(C12,0))</f>
         <v>1143495.6666666667</v>
       </c>
-      <c r="D14" s="227">
+      <c r="D14" s="225">
         <f t="shared" ref="D14:M14" si="4">IF(D6="","",D9-D10-MAX(D11,0)-MAX(D12,0))</f>
         <v>497322</v>
       </c>
-      <c r="E14" s="227" t="str">
+      <c r="E14" s="225" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="F14" s="227" t="str">
+      <c r="F14" s="225" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="G14" s="227" t="str">
+      <c r="G14" s="225" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="H14" s="227" t="str">
+      <c r="H14" s="225" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="I14" s="227" t="str">
+      <c r="I14" s="225" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="J14" s="227" t="str">
+      <c r="J14" s="225" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="K14" s="227" t="str">
+      <c r="K14" s="225" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="L14" s="227" t="str">
+      <c r="L14" s="225" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="M14" s="227" t="str">
+      <c r="M14" s="225" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="N14" s="87"/>
+      <c r="N14" s="86"/>
     </row>
     <row r="15" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="4"/>
-      <c r="B15" s="228" t="s">
-        <v>227</v>
-      </c>
-      <c r="C15" s="229">
+      <c r="B15" s="226" t="s">
+        <v>226</v>
+      </c>
+      <c r="C15" s="227">
         <f>IF(D14="","",IF(ABS(C14+D14)=ABS(C14)+ABS(D14),IF(C14&lt;0,-1,1)*(C14-D14)/D14,"Turn"))</f>
         <v>1.2993064185108778</v>
       </c>
-      <c r="D15" s="229" t="str">
+      <c r="D15" s="227" t="str">
         <f t="shared" ref="D15:M15" si="5">IF(E14="","",IF(ABS(D14+E14)=ABS(D14)+ABS(E14),IF(D14&lt;0,-1,1)*(D14-E14)/E14,"Turn"))</f>
         <v/>
       </c>
-      <c r="E15" s="229" t="str">
+      <c r="E15" s="227" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="F15" s="229" t="str">
+      <c r="F15" s="227" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="G15" s="229" t="str">
+      <c r="G15" s="227" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="H15" s="229" t="str">
+      <c r="H15" s="227" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="I15" s="229" t="str">
+      <c r="I15" s="227" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="J15" s="229" t="str">
+      <c r="J15" s="227" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="K15" s="229" t="str">
+      <c r="K15" s="227" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="L15" s="229" t="str">
+      <c r="L15" s="227" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="M15" s="229" t="str">
+      <c r="M15" s="227" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="N15" s="87"/>
+      <c r="N15" s="86"/>
     </row>
     <row r="16" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="4"/>
-      <c r="B16" s="97" t="s">
-        <v>106</v>
-      </c>
-      <c r="C16" s="198" t="str">
+      <c r="B16" s="96" t="s">
+        <v>105</v>
+      </c>
+      <c r="C16" s="196" t="str">
         <f>IF(Inputs!C31="","",Inputs!C31)</f>
         <v/>
       </c>
-      <c r="D16" s="198" t="str">
+      <c r="D16" s="196" t="str">
         <f>IF(Inputs!D31="","",Inputs!D31)</f>
         <v/>
       </c>
-      <c r="E16" s="198" t="str">
+      <c r="E16" s="196" t="str">
         <f>IF(Inputs!E31="","",Inputs!E31)</f>
         <v/>
       </c>
-      <c r="F16" s="198" t="str">
+      <c r="F16" s="196" t="str">
         <f>IF(Inputs!F31="","",Inputs!F31)</f>
         <v/>
       </c>
-      <c r="G16" s="198" t="str">
+      <c r="G16" s="196" t="str">
         <f>IF(Inputs!G31="","",Inputs!G31)</f>
         <v/>
       </c>
-      <c r="H16" s="198" t="str">
+      <c r="H16" s="196" t="str">
         <f>IF(Inputs!H31="","",Inputs!H31)</f>
         <v/>
       </c>
-      <c r="I16" s="198" t="str">
+      <c r="I16" s="196" t="str">
         <f>IF(Inputs!I31="","",Inputs!I31)</f>
         <v/>
       </c>
-      <c r="J16" s="198" t="str">
+      <c r="J16" s="196" t="str">
         <f>IF(Inputs!J31="","",Inputs!J31)</f>
         <v/>
       </c>
-      <c r="K16" s="198" t="str">
+      <c r="K16" s="196" t="str">
         <f>IF(Inputs!K31="","",Inputs!K31)</f>
         <v/>
       </c>
-      <c r="L16" s="198" t="str">
+      <c r="L16" s="196" t="str">
         <f>IF(Inputs!L31="","",Inputs!L31)</f>
         <v/>
       </c>
-      <c r="M16" s="198" t="str">
+      <c r="M16" s="196" t="str">
         <f>IF(Inputs!M31="","",Inputs!M31)</f>
         <v/>
       </c>
-      <c r="N16" s="87"/>
+      <c r="N16" s="86"/>
     </row>
     <row r="17" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="4"/>
-      <c r="B17" s="97" t="s">
-        <v>239</v>
-      </c>
-      <c r="C17" s="198">
+      <c r="B17" s="96" t="s">
+        <v>237</v>
+      </c>
+      <c r="C17" s="196">
         <f>IF(Inputs!C29="","",Inputs!C29)</f>
         <v>32337</v>
       </c>
-      <c r="D17" s="198">
+      <c r="D17" s="196">
         <f>IF(Inputs!D29="","",Inputs!D29)</f>
         <v>38579</v>
       </c>
-      <c r="E17" s="198" t="str">
+      <c r="E17" s="196" t="str">
         <f>IF(Inputs!E29="","",Inputs!E29)</f>
         <v/>
       </c>
-      <c r="F17" s="198" t="str">
+      <c r="F17" s="196" t="str">
         <f>IF(Inputs!F29="","",Inputs!F29)</f>
         <v/>
       </c>
-      <c r="G17" s="198" t="str">
+      <c r="G17" s="196" t="str">
         <f>IF(Inputs!G29="","",Inputs!G29)</f>
         <v/>
       </c>
-      <c r="H17" s="198" t="str">
+      <c r="H17" s="196" t="str">
         <f>IF(Inputs!H29="","",Inputs!H29)</f>
         <v/>
       </c>
-      <c r="I17" s="198" t="str">
+      <c r="I17" s="196" t="str">
         <f>IF(Inputs!I29="","",Inputs!I29)</f>
         <v/>
       </c>
-      <c r="J17" s="198" t="str">
+      <c r="J17" s="196" t="str">
         <f>IF(Inputs!J29="","",Inputs!J29)</f>
         <v/>
       </c>
-      <c r="K17" s="198" t="str">
+      <c r="K17" s="196" t="str">
         <f>IF(Inputs!K29="","",Inputs!K29)</f>
         <v/>
       </c>
-      <c r="L17" s="198" t="str">
+      <c r="L17" s="196" t="str">
         <f>IF(Inputs!L29="","",Inputs!L29)</f>
         <v/>
       </c>
-      <c r="M17" s="198" t="str">
+      <c r="M17" s="196" t="str">
         <f>IF(Inputs!M29="","",Inputs!M29)</f>
         <v/>
       </c>
-      <c r="N17" s="87"/>
+      <c r="N17" s="86"/>
     </row>
     <row r="18" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18" s="4"/>
-      <c r="B18" s="94" t="s">
-        <v>95</v>
-      </c>
-      <c r="C18" s="151" t="str">
+      <c r="B18" s="93" t="s">
+        <v>94</v>
+      </c>
+      <c r="C18" s="150" t="str">
         <f t="shared" ref="C18:M18" si="6">IF(OR(C6="",C19=""),"",C19/C6)</f>
         <v/>
       </c>
-      <c r="D18" s="151" t="str">
+      <c r="D18" s="150" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="E18" s="151" t="str">
+      <c r="E18" s="150" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="F18" s="151" t="str">
+      <c r="F18" s="150" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="G18" s="151" t="str">
+      <c r="G18" s="150" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="H18" s="151" t="str">
+      <c r="H18" s="150" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="I18" s="151" t="str">
+      <c r="I18" s="150" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="J18" s="151" t="str">
+      <c r="J18" s="150" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="K18" s="151" t="str">
+      <c r="K18" s="150" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="L18" s="151" t="str">
+      <c r="L18" s="150" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="M18" s="151" t="str">
+      <c r="M18" s="150" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="N18" s="87"/>
+      <c r="N18" s="86"/>
     </row>
     <row r="19" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19" s="4"/>
-      <c r="B19" s="97" t="s">
-        <v>101</v>
-      </c>
-      <c r="C19" s="198" t="str">
+      <c r="B19" s="96" t="s">
+        <v>100</v>
+      </c>
+      <c r="C19" s="196" t="str">
         <f>IF(Inputs!C32="","",Inputs!C32)</f>
         <v/>
       </c>
-      <c r="D19" s="198" t="str">
+      <c r="D19" s="196" t="str">
         <f>IF(Inputs!D32="","",Inputs!D32)</f>
         <v/>
       </c>
-      <c r="E19" s="198" t="str">
+      <c r="E19" s="196" t="str">
         <f>IF(Inputs!E32="","",Inputs!E32)</f>
         <v/>
       </c>
-      <c r="F19" s="198" t="str">
+      <c r="F19" s="196" t="str">
         <f>IF(Inputs!F32="","",Inputs!F32)</f>
         <v/>
       </c>
-      <c r="G19" s="198" t="str">
+      <c r="G19" s="196" t="str">
         <f>IF(Inputs!G32="","",Inputs!G32)</f>
         <v/>
       </c>
-      <c r="H19" s="198" t="str">
+      <c r="H19" s="196" t="str">
         <f>IF(Inputs!H32="","",Inputs!H32)</f>
         <v/>
       </c>
-      <c r="I19" s="198" t="str">
+      <c r="I19" s="196" t="str">
         <f>IF(Inputs!I32="","",Inputs!I32)</f>
         <v/>
       </c>
-      <c r="J19" s="198" t="str">
+      <c r="J19" s="196" t="str">
         <f>IF(Inputs!J32="","",Inputs!J32)</f>
         <v/>
       </c>
-      <c r="K19" s="198" t="str">
+      <c r="K19" s="196" t="str">
         <f>IF(Inputs!K32="","",Inputs!K32)</f>
         <v/>
       </c>
-      <c r="L19" s="198" t="str">
+      <c r="L19" s="196" t="str">
         <f>IF(Inputs!L32="","",Inputs!L32)</f>
         <v/>
       </c>
-      <c r="M19" s="198" t="str">
+      <c r="M19" s="196" t="str">
         <f>IF(Inputs!M32="","",Inputs!M32)</f>
         <v/>
       </c>
-      <c r="N19" s="87"/>
+      <c r="N19" s="86"/>
     </row>
     <row r="20" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="4"/>
-      <c r="B20" s="97" t="s">
-        <v>220</v>
-      </c>
-      <c r="C20" s="151">
+      <c r="B20" s="96" t="s">
+        <v>219</v>
+      </c>
+      <c r="C20" s="150">
         <f t="shared" ref="C20:M20" si="7">IF(C6="","",MAX(C21,0)/C6)</f>
         <v>0</v>
       </c>
-      <c r="D20" s="151">
+      <c r="D20" s="150">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="E20" s="151" t="str">
+      <c r="E20" s="150" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="F20" s="151" t="str">
+      <c r="F20" s="150" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="G20" s="151" t="str">
+      <c r="G20" s="150" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="H20" s="151" t="str">
+      <c r="H20" s="150" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="I20" s="151" t="str">
+      <c r="I20" s="150" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="J20" s="151" t="str">
+      <c r="J20" s="150" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="K20" s="151" t="str">
+      <c r="K20" s="150" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="L20" s="151" t="str">
+      <c r="L20" s="150" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="M20" s="151" t="str">
+      <c r="M20" s="150" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="N20" s="87"/>
+      <c r="N20" s="86"/>
     </row>
     <row r="21" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A21" s="4"/>
-      <c r="B21" s="97" t="s">
-        <v>104</v>
-      </c>
-      <c r="C21" s="198" t="str">
+      <c r="B21" s="96" t="s">
+        <v>103</v>
+      </c>
+      <c r="C21" s="196" t="str">
         <f>IF(Inputs!C33="","",Inputs!C33)</f>
         <v/>
       </c>
-      <c r="D21" s="198" t="str">
+      <c r="D21" s="196" t="str">
         <f>IF(Inputs!D33="","",Inputs!D33)</f>
         <v/>
       </c>
-      <c r="E21" s="198" t="str">
+      <c r="E21" s="196" t="str">
         <f>IF(Inputs!E33="","",Inputs!E33)</f>
         <v/>
       </c>
-      <c r="F21" s="198" t="str">
+      <c r="F21" s="196" t="str">
         <f>IF(Inputs!F33="","",Inputs!F33)</f>
         <v/>
       </c>
-      <c r="G21" s="198" t="str">
+      <c r="G21" s="196" t="str">
         <f>IF(Inputs!G33="","",Inputs!G33)</f>
         <v/>
       </c>
-      <c r="H21" s="198" t="str">
+      <c r="H21" s="196" t="str">
         <f>IF(Inputs!H33="","",Inputs!H33)</f>
         <v/>
       </c>
-      <c r="I21" s="198" t="str">
+      <c r="I21" s="196" t="str">
         <f>IF(Inputs!I33="","",Inputs!I33)</f>
         <v/>
       </c>
-      <c r="J21" s="198" t="str">
+      <c r="J21" s="196" t="str">
         <f>IF(Inputs!J33="","",Inputs!J33)</f>
         <v/>
       </c>
-      <c r="K21" s="198" t="str">
+      <c r="K21" s="196" t="str">
         <f>IF(Inputs!K33="","",Inputs!K33)</f>
         <v/>
       </c>
-      <c r="L21" s="198" t="str">
+      <c r="L21" s="196" t="str">
         <f>IF(Inputs!L33="","",Inputs!L33)</f>
         <v/>
       </c>
-      <c r="M21" s="198" t="str">
+      <c r="M21" s="196" t="str">
         <f>IF(Inputs!M33="","",Inputs!M33)</f>
         <v/>
       </c>
-      <c r="N21" s="87"/>
+      <c r="N21" s="86"/>
     </row>
     <row r="22" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A22" s="4"/>
-      <c r="B22" s="98" t="s">
-        <v>108</v>
-      </c>
-      <c r="C22" s="160">
+      <c r="B22" s="97" t="s">
+        <v>107</v>
+      </c>
+      <c r="C22" s="158">
         <f>IF(C6="","",C14-MAX(C16,0)-MAX(C17,0)-ABS(MAX(C21,0)-MAX(C19,0)))</f>
         <v>1111158.6666666667</v>
       </c>
-      <c r="D22" s="160">
+      <c r="D22" s="158">
         <f t="shared" ref="D22:M22" si="8">IF(D6="","",D14-MAX(D16,0)-MAX(D17,0)-ABS(MAX(D21,0)-MAX(D19,0)))</f>
         <v>458743</v>
       </c>
-      <c r="E22" s="160" t="str">
+      <c r="E22" s="158" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="F22" s="160" t="str">
+      <c r="F22" s="158" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="G22" s="160" t="str">
+      <c r="G22" s="158" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="H22" s="160" t="str">
+      <c r="H22" s="158" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="I22" s="160" t="str">
+      <c r="I22" s="158" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="J22" s="160" t="str">
+      <c r="J22" s="158" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="K22" s="160" t="str">
+      <c r="K22" s="158" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="L22" s="160" t="str">
+      <c r="L22" s="158" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="M22" s="160" t="str">
+      <c r="M22" s="158" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="N22" s="87"/>
+      <c r="N22" s="86"/>
     </row>
     <row r="23" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A23" s="4"/>
-      <c r="B23" s="100" t="s">
-        <v>109</v>
-      </c>
-      <c r="C23" s="152">
+      <c r="B23" s="99" t="s">
+        <v>108</v>
+      </c>
+      <c r="C23" s="151">
         <f t="shared" ref="C23:M23" si="9">IF(C6="","",C24/C6)</f>
         <v>0.13225975805117979</v>
       </c>
-      <c r="D23" s="152">
+      <c r="D23" s="151">
         <f t="shared" si="9"/>
         <v>7.4514426537968748E-2</v>
       </c>
-      <c r="E23" s="152" t="str">
+      <c r="E23" s="151" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="F23" s="152" t="str">
+      <c r="F23" s="151" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="G23" s="152" t="str">
+      <c r="G23" s="151" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="H23" s="152" t="str">
+      <c r="H23" s="151" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="I23" s="152" t="str">
+      <c r="I23" s="151" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="J23" s="152" t="str">
+      <c r="J23" s="151" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="K23" s="152" t="str">
+      <c r="K23" s="151" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="L23" s="152" t="str">
+      <c r="L23" s="151" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="M23" s="152" t="str">
+      <c r="M23" s="151" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="N23" s="87"/>
+      <c r="N23" s="86"/>
     </row>
     <row r="24" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A24" s="4"/>
-      <c r="B24" s="101" t="s">
-        <v>110</v>
-      </c>
-      <c r="C24" s="153">
+      <c r="B24" s="100" t="s">
+        <v>109</v>
+      </c>
+      <c r="C24" s="152">
         <f>IF(C6="","",C22*(1-Fin_Analysis!$I$84))</f>
         <v>833369</v>
       </c>
@@ -6659,63 +6654,63 @@
         <f>IF(M6="","",M22*(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="N24" s="87"/>
+      <c r="N24" s="86"/>
     </row>
     <row r="25" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A25" s="4"/>
-      <c r="B25" s="231" t="s">
-        <v>123</v>
-      </c>
-      <c r="C25" s="230">
+      <c r="B25" s="229" t="s">
+        <v>122</v>
+      </c>
+      <c r="C25" s="228">
         <f>IF(D24="","",IF(ABS(C24+D24)=ABS(C24)+ABS(D24),IF(C24&lt;0,-1,1)*(C24-D24)/D24,"Turn"))</f>
         <v>1.4221811922289096</v>
       </c>
-      <c r="D25" s="230" t="str">
+      <c r="D25" s="228" t="str">
         <f t="shared" ref="D25:M25" si="10">IF(E24="","",IF(ABS(D24+E24)=ABS(D24)+ABS(E24),IF(D24&lt;0,-1,1)*(D24-E24)/E24,"Turn"))</f>
         <v/>
       </c>
-      <c r="E25" s="230" t="str">
+      <c r="E25" s="228" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="F25" s="230" t="str">
+      <c r="F25" s="228" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="G25" s="230" t="str">
+      <c r="G25" s="228" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="H25" s="230" t="str">
+      <c r="H25" s="228" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="I25" s="230" t="str">
+      <c r="I25" s="228" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="J25" s="230" t="str">
+      <c r="J25" s="228" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="K25" s="230" t="str">
+      <c r="K25" s="228" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="L25" s="230" t="str">
+      <c r="L25" s="228" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="M25" s="230" t="str">
+      <c r="M25" s="228" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="N25" s="87"/>
+      <c r="N25" s="86"/>
     </row>
     <row r="26" spans="1:14" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="A26" s="16"/>
-      <c r="B26" s="114" t="s">
-        <v>129</v>
+      <c r="B26" s="113" t="s">
+        <v>128</v>
       </c>
       <c r="C26" s="48">
         <f>Fin_Analysis!D9</f>
@@ -6761,11 +6756,11 @@
         <f t="shared" ref="M26" si="19">EOMONTH(EDATE(L26,-12),0)</f>
         <v>41639</v>
       </c>
-      <c r="N26" s="87"/>
+      <c r="N26" s="86"/>
     </row>
     <row r="27" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A27" s="4"/>
-      <c r="B27" s="94" t="s">
+      <c r="B27" s="93" t="s">
         <v>13</v>
       </c>
       <c r="C27" s="65">
@@ -6812,266 +6807,266 @@
         <f t="shared" si="20"/>
         <v/>
       </c>
-      <c r="N27" s="87"/>
+      <c r="N27" s="86"/>
     </row>
     <row r="28" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A28" s="4"/>
-      <c r="B28" s="94" t="s">
-        <v>112</v>
+      <c r="B28" s="93" t="s">
+        <v>111</v>
       </c>
       <c r="C28" s="65">
         <f>Fin_Analysis!C13</f>
         <v>0</v>
       </c>
-      <c r="D28" s="198" t="str">
+      <c r="D28" s="196" t="str">
         <f>IF(Inputs!D35="","",Inputs!D35)</f>
         <v/>
       </c>
-      <c r="E28" s="198" t="str">
+      <c r="E28" s="196" t="str">
         <f>IF(Inputs!E35="","",Inputs!E35)</f>
         <v/>
       </c>
-      <c r="F28" s="198" t="str">
+      <c r="F28" s="196" t="str">
         <f>IF(Inputs!F35="","",Inputs!F35)</f>
         <v/>
       </c>
-      <c r="G28" s="198" t="str">
+      <c r="G28" s="196" t="str">
         <f>IF(Inputs!G35="","",Inputs!G35)</f>
         <v/>
       </c>
-      <c r="H28" s="198" t="str">
+      <c r="H28" s="196" t="str">
         <f>IF(Inputs!H35="","",Inputs!H35)</f>
         <v/>
       </c>
-      <c r="I28" s="198" t="str">
+      <c r="I28" s="196" t="str">
         <f>IF(Inputs!I35="","",Inputs!I35)</f>
         <v/>
       </c>
-      <c r="J28" s="198" t="str">
+      <c r="J28" s="196" t="str">
         <f>IF(Inputs!J35="","",Inputs!J35)</f>
         <v/>
       </c>
-      <c r="K28" s="198" t="str">
+      <c r="K28" s="196" t="str">
         <f>IF(Inputs!K35="","",Inputs!K35)</f>
         <v/>
       </c>
-      <c r="L28" s="198" t="str">
+      <c r="L28" s="196" t="str">
         <f>IF(Inputs!L35="","",Inputs!L35)</f>
         <v/>
       </c>
-      <c r="M28" s="198" t="str">
+      <c r="M28" s="196" t="str">
         <f>IF(Inputs!M35="","",Inputs!M35)</f>
         <v/>
       </c>
-      <c r="N28" s="87"/>
+      <c r="N28" s="86"/>
     </row>
     <row r="29" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A29" s="4"/>
-      <c r="B29" s="94" t="s">
-        <v>141</v>
+      <c r="B29" s="93" t="s">
+        <v>140</v>
       </c>
       <c r="C29" s="65">
         <f>Fin_Analysis!C18</f>
         <v>0</v>
       </c>
-      <c r="D29" s="198" t="str">
+      <c r="D29" s="196" t="str">
         <f>IF(Inputs!D36="","",Inputs!D36)</f>
         <v/>
       </c>
-      <c r="E29" s="198" t="str">
+      <c r="E29" s="196" t="str">
         <f>IF(Inputs!E36="","",Inputs!E36)</f>
         <v/>
       </c>
-      <c r="F29" s="198" t="str">
+      <c r="F29" s="196" t="str">
         <f>IF(Inputs!F36="","",Inputs!F36)</f>
         <v/>
       </c>
-      <c r="G29" s="198" t="str">
+      <c r="G29" s="196" t="str">
         <f>IF(Inputs!G36="","",Inputs!G36)</f>
         <v/>
       </c>
-      <c r="H29" s="198" t="str">
+      <c r="H29" s="196" t="str">
         <f>IF(Inputs!H36="","",Inputs!H36)</f>
         <v/>
       </c>
-      <c r="I29" s="198" t="str">
+      <c r="I29" s="196" t="str">
         <f>IF(Inputs!I36="","",Inputs!I36)</f>
         <v/>
       </c>
-      <c r="J29" s="198" t="str">
+      <c r="J29" s="196" t="str">
         <f>IF(Inputs!J36="","",Inputs!J36)</f>
         <v/>
       </c>
-      <c r="K29" s="198" t="str">
+      <c r="K29" s="196" t="str">
         <f>IF(Inputs!K36="","",Inputs!K36)</f>
         <v/>
       </c>
-      <c r="L29" s="198" t="str">
+      <c r="L29" s="196" t="str">
         <f>IF(Inputs!L36="","",Inputs!L36)</f>
         <v/>
       </c>
-      <c r="M29" s="198" t="str">
+      <c r="M29" s="196" t="str">
         <f>IF(Inputs!M36="","",Inputs!M36)</f>
         <v/>
       </c>
-      <c r="N29" s="87"/>
+      <c r="N29" s="86"/>
     </row>
     <row r="30" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A30" s="4"/>
-      <c r="B30" s="94" t="s">
-        <v>262</v>
+      <c r="B30" s="93" t="s">
+        <v>260</v>
       </c>
       <c r="C30" s="65">
         <f>Inputs!C37</f>
         <v>0</v>
       </c>
-      <c r="D30" s="198" t="str">
+      <c r="D30" s="196" t="str">
         <f>IF(Inputs!D37="","",Inputs!D37)</f>
         <v/>
       </c>
-      <c r="E30" s="198" t="str">
+      <c r="E30" s="196" t="str">
         <f>IF(Inputs!E37="","",Inputs!E37)</f>
         <v/>
       </c>
-      <c r="F30" s="198" t="str">
+      <c r="F30" s="196" t="str">
         <f>IF(Inputs!F37="","",Inputs!F37)</f>
         <v/>
       </c>
-      <c r="G30" s="198" t="str">
+      <c r="G30" s="196" t="str">
         <f>IF(Inputs!G37="","",Inputs!G37)</f>
         <v/>
       </c>
-      <c r="H30" s="198" t="str">
+      <c r="H30" s="196" t="str">
         <f>IF(Inputs!H37="","",Inputs!H37)</f>
         <v/>
       </c>
-      <c r="I30" s="198" t="str">
+      <c r="I30" s="196" t="str">
         <f>IF(Inputs!I37="","",Inputs!I37)</f>
         <v/>
       </c>
-      <c r="J30" s="198" t="str">
+      <c r="J30" s="196" t="str">
         <f>IF(Inputs!J37="","",Inputs!J37)</f>
         <v/>
       </c>
-      <c r="K30" s="198" t="str">
+      <c r="K30" s="196" t="str">
         <f>IF(Inputs!K37="","",Inputs!K37)</f>
         <v/>
       </c>
-      <c r="L30" s="198" t="str">
+      <c r="L30" s="196" t="str">
         <f>IF(Inputs!L37="","",Inputs!L37)</f>
         <v/>
       </c>
-      <c r="M30" s="198" t="str">
+      <c r="M30" s="196" t="str">
         <f>IF(Inputs!M37="","",Inputs!M37)</f>
         <v/>
       </c>
-      <c r="N30" s="87"/>
+      <c r="N30" s="86"/>
     </row>
     <row r="31" spans="1:14" ht="15.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="4"/>
-      <c r="B31" s="94" t="s">
+      <c r="B31" s="93" t="s">
         <v>16</v>
       </c>
       <c r="C31" s="65">
         <f>Fin_Analysis!I15</f>
         <v>0</v>
       </c>
-      <c r="D31" s="198" t="str">
+      <c r="D31" s="196" t="str">
         <f>IF(Inputs!D39="","",Inputs!D39)</f>
         <v/>
       </c>
-      <c r="E31" s="198" t="str">
+      <c r="E31" s="196" t="str">
         <f>IF(Inputs!E39="","",Inputs!E39)</f>
         <v/>
       </c>
-      <c r="F31" s="198" t="str">
+      <c r="F31" s="196" t="str">
         <f>IF(Inputs!F39="","",Inputs!F39)</f>
         <v/>
       </c>
-      <c r="G31" s="198" t="str">
+      <c r="G31" s="196" t="str">
         <f>IF(Inputs!G39="","",Inputs!G39)</f>
         <v/>
       </c>
-      <c r="H31" s="198" t="str">
+      <c r="H31" s="196" t="str">
         <f>IF(Inputs!H39="","",Inputs!H39)</f>
         <v/>
       </c>
-      <c r="I31" s="198" t="str">
+      <c r="I31" s="196" t="str">
         <f>IF(Inputs!I39="","",Inputs!I39)</f>
         <v/>
       </c>
-      <c r="J31" s="198" t="str">
+      <c r="J31" s="196" t="str">
         <f>IF(Inputs!J39="","",Inputs!J39)</f>
         <v/>
       </c>
-      <c r="K31" s="198" t="str">
+      <c r="K31" s="196" t="str">
         <f>IF(Inputs!K39="","",Inputs!K39)</f>
         <v/>
       </c>
-      <c r="L31" s="198" t="str">
+      <c r="L31" s="196" t="str">
         <f>IF(Inputs!L39="","",Inputs!L39)</f>
         <v/>
       </c>
-      <c r="M31" s="198" t="str">
+      <c r="M31" s="196" t="str">
         <f>IF(Inputs!M39="","",Inputs!M39)</f>
         <v/>
       </c>
-      <c r="N31" s="87"/>
+      <c r="N31" s="86"/>
     </row>
     <row r="32" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32" s="4"/>
-      <c r="B32" s="94" t="s">
+      <c r="B32" s="93" t="s">
         <v>17</v>
       </c>
       <c r="C32" s="65">
         <f>Fin_Analysis!I34</f>
         <v>0</v>
       </c>
-      <c r="D32" s="198" t="str">
+      <c r="D32" s="196" t="str">
         <f>IF(Inputs!D40="","",Inputs!D40)</f>
         <v/>
       </c>
-      <c r="E32" s="198" t="str">
+      <c r="E32" s="196" t="str">
         <f>IF(Inputs!E40="","",Inputs!E40)</f>
         <v/>
       </c>
-      <c r="F32" s="198" t="str">
+      <c r="F32" s="196" t="str">
         <f>IF(Inputs!F40="","",Inputs!F40)</f>
         <v/>
       </c>
-      <c r="G32" s="198" t="str">
+      <c r="G32" s="196" t="str">
         <f>IF(Inputs!G40="","",Inputs!G40)</f>
         <v/>
       </c>
-      <c r="H32" s="198" t="str">
+      <c r="H32" s="196" t="str">
         <f>IF(Inputs!H40="","",Inputs!H40)</f>
         <v/>
       </c>
-      <c r="I32" s="198" t="str">
+      <c r="I32" s="196" t="str">
         <f>IF(Inputs!I40="","",Inputs!I40)</f>
         <v/>
       </c>
-      <c r="J32" s="198" t="str">
+      <c r="J32" s="196" t="str">
         <f>IF(Inputs!J40="","",Inputs!J40)</f>
         <v/>
       </c>
-      <c r="K32" s="198" t="str">
+      <c r="K32" s="196" t="str">
         <f>IF(Inputs!K40="","",Inputs!K40)</f>
         <v/>
       </c>
-      <c r="L32" s="198" t="str">
+      <c r="L32" s="196" t="str">
         <f>IF(Inputs!L40="","",Inputs!L40)</f>
         <v/>
       </c>
-      <c r="M32" s="198" t="str">
+      <c r="M32" s="196" t="str">
         <f>IF(Inputs!M40="","",Inputs!M40)</f>
         <v/>
       </c>
-      <c r="N32" s="87"/>
+      <c r="N32" s="86"/>
     </row>
     <row r="33" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33" s="4"/>
-      <c r="B33" s="94" t="s">
+      <c r="B33" s="93" t="s">
         <v>18</v>
       </c>
       <c r="C33" s="77">
@@ -7118,165 +7113,165 @@
         <f t="shared" ref="M33" si="31">IF(OR(M31="",M32=""),"",M31+M32)</f>
         <v/>
       </c>
-      <c r="N33" s="87"/>
+      <c r="N33" s="86"/>
     </row>
     <row r="34" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34" s="4"/>
-      <c r="B34" s="94" t="s">
-        <v>132</v>
+      <c r="B34" s="93" t="s">
+        <v>131</v>
       </c>
       <c r="C34" s="65">
         <f>Inputs!C41</f>
         <v>0</v>
       </c>
-      <c r="D34" s="198" t="str">
+      <c r="D34" s="196" t="str">
         <f>IF(Inputs!D41="","",Inputs!D41)</f>
         <v/>
       </c>
-      <c r="E34" s="198" t="str">
+      <c r="E34" s="196" t="str">
         <f>IF(Inputs!E41="","",Inputs!E41)</f>
         <v/>
       </c>
-      <c r="F34" s="198" t="str">
+      <c r="F34" s="196" t="str">
         <f>IF(Inputs!F41="","",Inputs!F41)</f>
         <v/>
       </c>
-      <c r="G34" s="198" t="str">
+      <c r="G34" s="196" t="str">
         <f>IF(Inputs!G41="","",Inputs!G41)</f>
         <v/>
       </c>
-      <c r="H34" s="198" t="str">
+      <c r="H34" s="196" t="str">
         <f>IF(Inputs!H41="","",Inputs!H41)</f>
         <v/>
       </c>
-      <c r="I34" s="198" t="str">
+      <c r="I34" s="196" t="str">
         <f>IF(Inputs!I41="","",Inputs!I41)</f>
         <v/>
       </c>
-      <c r="J34" s="198" t="str">
+      <c r="J34" s="196" t="str">
         <f>IF(Inputs!J41="","",Inputs!J41)</f>
         <v/>
       </c>
-      <c r="K34" s="198" t="str">
+      <c r="K34" s="196" t="str">
         <f>IF(Inputs!K41="","",Inputs!K41)</f>
         <v/>
       </c>
-      <c r="L34" s="198" t="str">
+      <c r="L34" s="196" t="str">
         <f>IF(Inputs!L41="","",Inputs!L41)</f>
         <v/>
       </c>
-      <c r="M34" s="198" t="str">
+      <c r="M34" s="196" t="str">
         <f>IF(Inputs!M41="","",Inputs!M41)</f>
         <v/>
       </c>
-      <c r="N34" s="87"/>
+      <c r="N34" s="86"/>
     </row>
     <row r="35" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35" s="4"/>
-      <c r="B35" s="94" t="s">
-        <v>133</v>
+      <c r="B35" s="93" t="s">
+        <v>132</v>
       </c>
       <c r="C35" s="65">
         <f>Inputs!C42</f>
         <v>0</v>
       </c>
-      <c r="D35" s="198" t="str">
+      <c r="D35" s="196" t="str">
         <f>IF(Inputs!D42="","",Inputs!D42)</f>
         <v/>
       </c>
-      <c r="E35" s="198" t="str">
+      <c r="E35" s="196" t="str">
         <f>IF(Inputs!E42="","",Inputs!E42)</f>
         <v/>
       </c>
-      <c r="F35" s="198" t="str">
+      <c r="F35" s="196" t="str">
         <f>IF(Inputs!F42="","",Inputs!F42)</f>
         <v/>
       </c>
-      <c r="G35" s="198" t="str">
+      <c r="G35" s="196" t="str">
         <f>IF(Inputs!G42="","",Inputs!G42)</f>
         <v/>
       </c>
-      <c r="H35" s="198" t="str">
+      <c r="H35" s="196" t="str">
         <f>IF(Inputs!H42="","",Inputs!H42)</f>
         <v/>
       </c>
-      <c r="I35" s="198" t="str">
+      <c r="I35" s="196" t="str">
         <f>IF(Inputs!I42="","",Inputs!I42)</f>
         <v/>
       </c>
-      <c r="J35" s="198" t="str">
+      <c r="J35" s="196" t="str">
         <f>IF(Inputs!J42="","",Inputs!J42)</f>
         <v/>
       </c>
-      <c r="K35" s="198" t="str">
+      <c r="K35" s="196" t="str">
         <f>IF(Inputs!K42="","",Inputs!K42)</f>
         <v/>
       </c>
-      <c r="L35" s="198" t="str">
+      <c r="L35" s="196" t="str">
         <f>IF(Inputs!L42="","",Inputs!L42)</f>
         <v/>
       </c>
-      <c r="M35" s="198" t="str">
+      <c r="M35" s="196" t="str">
         <f>IF(Inputs!M42="","",Inputs!M42)</f>
         <v/>
       </c>
-      <c r="N35" s="87"/>
+      <c r="N35" s="86"/>
     </row>
     <row r="36" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36" s="4"/>
-      <c r="B36" s="94" t="s">
-        <v>131</v>
+      <c r="B36" s="93" t="s">
+        <v>130</v>
       </c>
       <c r="C36" s="65">
         <f>Inputs!C40</f>
         <v>0</v>
       </c>
-      <c r="D36" s="198" t="str">
+      <c r="D36" s="196" t="str">
         <f>IF(Inputs!D43="","",Inputs!D43)</f>
         <v/>
       </c>
-      <c r="E36" s="198" t="str">
+      <c r="E36" s="196" t="str">
         <f>IF(Inputs!E43="","",Inputs!E43)</f>
         <v/>
       </c>
-      <c r="F36" s="198" t="str">
+      <c r="F36" s="196" t="str">
         <f>IF(Inputs!F43="","",Inputs!F43)</f>
         <v/>
       </c>
-      <c r="G36" s="198" t="str">
+      <c r="G36" s="196" t="str">
         <f>IF(Inputs!G43="","",Inputs!G43)</f>
         <v/>
       </c>
-      <c r="H36" s="198" t="str">
+      <c r="H36" s="196" t="str">
         <f>IF(Inputs!H43="","",Inputs!H43)</f>
         <v/>
       </c>
-      <c r="I36" s="198" t="str">
+      <c r="I36" s="196" t="str">
         <f>IF(Inputs!I43="","",Inputs!I43)</f>
         <v/>
       </c>
-      <c r="J36" s="198" t="str">
+      <c r="J36" s="196" t="str">
         <f>IF(Inputs!J43="","",Inputs!J43)</f>
         <v/>
       </c>
-      <c r="K36" s="198" t="str">
+      <c r="K36" s="196" t="str">
         <f>IF(Inputs!K43="","",Inputs!K43)</f>
         <v/>
       </c>
-      <c r="L36" s="198" t="str">
+      <c r="L36" s="196" t="str">
         <f>IF(Inputs!L43="","",Inputs!L43)</f>
         <v/>
       </c>
-      <c r="M36" s="198" t="str">
+      <c r="M36" s="196" t="str">
         <f>IF(Inputs!M43="","",Inputs!M43)</f>
         <v/>
       </c>
-      <c r="N36" s="87"/>
+      <c r="N36" s="86"/>
     </row>
     <row r="37" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37" s="4"/>
-      <c r="B37" s="94" t="s">
-        <v>135</v>
+      <c r="B37" s="93" t="s">
+        <v>134</v>
       </c>
       <c r="C37" s="65">
         <f>Fin_Analysis!C68</f>
@@ -7322,63 +7317,63 @@
         <f t="shared" si="32"/>
         <v/>
       </c>
-      <c r="N37" s="87"/>
+      <c r="N37" s="86"/>
     </row>
     <row r="38" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38" s="4"/>
-      <c r="B38" s="98" t="s">
-        <v>149</v>
-      </c>
-      <c r="C38" s="154" t="e">
+      <c r="B38" s="97" t="s">
+        <v>148</v>
+      </c>
+      <c r="C38" s="153" t="e">
         <f>IF(C6="","",C14/MAX(C37,0))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D38" s="154" t="e">
+      <c r="D38" s="153" t="e">
         <f>IF(D6="","",D14/MAX(D37,0))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E38" s="154" t="str">
+      <c r="E38" s="153" t="str">
         <f>IF(E6="","",E14/MAX(E37,0))</f>
         <v/>
       </c>
-      <c r="F38" s="154" t="str">
+      <c r="F38" s="153" t="str">
         <f t="shared" ref="F38:M38" si="33">IF(F37="","",F14/F37)</f>
         <v/>
       </c>
-      <c r="G38" s="154" t="str">
+      <c r="G38" s="153" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="H38" s="154" t="str">
+      <c r="H38" s="153" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="I38" s="154" t="str">
+      <c r="I38" s="153" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="J38" s="154" t="str">
+      <c r="J38" s="153" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="K38" s="154" t="str">
+      <c r="K38" s="153" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="L38" s="154" t="str">
+      <c r="L38" s="153" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="M38" s="154" t="str">
+      <c r="M38" s="153" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="N38" s="87"/>
+      <c r="N38" s="86"/>
     </row>
     <row r="39" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39" s="16"/>
       <c r="B39" s="55" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="C39" s="54"/>
       <c r="D39" s="54"/>
@@ -7391,372 +7386,372 @@
       <c r="K39" s="54"/>
       <c r="L39" s="54"/>
       <c r="M39" s="54"/>
-      <c r="N39" s="87"/>
+      <c r="N39" s="86"/>
     </row>
     <row r="40" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40" s="4"/>
-      <c r="B40" s="95" t="s">
-        <v>94</v>
-      </c>
-      <c r="C40" s="155">
+      <c r="B40" s="94" t="s">
+        <v>93</v>
+      </c>
+      <c r="C40" s="154">
         <f t="shared" ref="C40:M40" si="34">IF(C6="","",C8/C6)</f>
         <v>0.38675293231140062</v>
       </c>
-      <c r="D40" s="155">
+      <c r="D40" s="154">
         <f t="shared" si="34"/>
         <v>0.42509059359923629</v>
       </c>
-      <c r="E40" s="155" t="str">
+      <c r="E40" s="154" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="F40" s="155" t="str">
+      <c r="F40" s="154" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="G40" s="155" t="str">
+      <c r="G40" s="154" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="H40" s="155" t="str">
+      <c r="H40" s="154" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="I40" s="155" t="str">
+      <c r="I40" s="154" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="J40" s="155" t="str">
+      <c r="J40" s="154" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="K40" s="155" t="str">
+      <c r="K40" s="154" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="L40" s="155" t="str">
+      <c r="L40" s="154" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="M40" s="155" t="str">
+      <c r="M40" s="154" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="N40" s="87"/>
+      <c r="N40" s="86"/>
     </row>
     <row r="41" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A41" s="4"/>
-      <c r="B41" s="94" t="s">
-        <v>219</v>
-      </c>
-      <c r="C41" s="152">
+      <c r="B41" s="93" t="s">
+        <v>218</v>
+      </c>
+      <c r="C41" s="151">
         <f t="shared" ref="C41:M41" si="35">IF(C6="","",(C10+MAX(C11,0))/C6)</f>
         <v>0.43040868738019761</v>
       </c>
-      <c r="D41" s="152">
+      <c r="D41" s="151">
         <f t="shared" si="35"/>
         <v>0.46716084901124549</v>
       </c>
-      <c r="E41" s="152" t="str">
+      <c r="E41" s="151" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="F41" s="152" t="str">
+      <c r="F41" s="151" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="G41" s="152" t="str">
+      <c r="G41" s="151" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="H41" s="152" t="str">
+      <c r="H41" s="151" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="I41" s="152" t="str">
+      <c r="I41" s="151" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="J41" s="152" t="str">
+      <c r="J41" s="151" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="K41" s="152" t="str">
+      <c r="K41" s="151" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="L41" s="152" t="str">
+      <c r="L41" s="151" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="M41" s="152" t="str">
+      <c r="M41" s="151" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="N41" s="87"/>
+      <c r="N41" s="86"/>
     </row>
     <row r="42" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A42" s="4"/>
-      <c r="B42" s="94" t="s">
-        <v>105</v>
-      </c>
-      <c r="C42" s="152">
+      <c r="B42" s="93" t="s">
+        <v>104</v>
+      </c>
+      <c r="C42" s="151">
         <f t="shared" ref="C42:M42" si="36">IF(C6="","",MAX(C16,0)/C6)</f>
         <v>0</v>
       </c>
-      <c r="D42" s="152">
+      <c r="D42" s="151">
         <f t="shared" si="36"/>
         <v>0</v>
       </c>
-      <c r="E42" s="152" t="str">
+      <c r="E42" s="151" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="F42" s="152" t="str">
+      <c r="F42" s="151" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="G42" s="152" t="str">
+      <c r="G42" s="151" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="H42" s="152" t="str">
+      <c r="H42" s="151" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="I42" s="152" t="str">
+      <c r="I42" s="151" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="J42" s="152" t="str">
+      <c r="J42" s="151" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="K42" s="152" t="str">
+      <c r="K42" s="151" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="L42" s="152" t="str">
+      <c r="L42" s="151" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="M42" s="152" t="str">
+      <c r="M42" s="151" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="N42" s="87"/>
+      <c r="N42" s="86"/>
     </row>
     <row r="43" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A43" s="4"/>
-      <c r="B43" s="94" t="s">
-        <v>117</v>
-      </c>
-      <c r="C43" s="152">
+      <c r="B43" s="93" t="s">
+        <v>116</v>
+      </c>
+      <c r="C43" s="151">
         <f t="shared" ref="C43:M43" si="37">IF(C6="","",MAX(C17,0)/C6)</f>
         <v>5.1320409039705113E-3</v>
       </c>
-      <c r="D43" s="152">
+      <c r="D43" s="151">
         <f t="shared" si="37"/>
         <v>8.3552724478507465E-3</v>
       </c>
-      <c r="E43" s="152" t="str">
+      <c r="E43" s="151" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="F43" s="152" t="str">
+      <c r="F43" s="151" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="G43" s="152" t="str">
+      <c r="G43" s="151" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="H43" s="152" t="str">
+      <c r="H43" s="151" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="I43" s="152" t="str">
+      <c r="I43" s="151" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="J43" s="152" t="str">
+      <c r="J43" s="151" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="K43" s="152" t="str">
+      <c r="K43" s="151" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="L43" s="152" t="str">
+      <c r="L43" s="151" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="M43" s="152" t="str">
+      <c r="M43" s="151" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="N43" s="87"/>
+      <c r="N43" s="86"/>
     </row>
     <row r="44" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A44" s="4"/>
-      <c r="B44" s="94" t="s">
-        <v>124</v>
-      </c>
-      <c r="C44" s="152">
+      <c r="B44" s="93" t="s">
+        <v>123</v>
+      </c>
+      <c r="C44" s="151">
         <f t="shared" ref="C44:M44" si="38">IF(C6="","",MAX(C12,0)/C6)</f>
         <v>1.3599953361915031E-3</v>
       </c>
-      <c r="D44" s="152">
+      <c r="D44" s="151">
         <f t="shared" si="38"/>
         <v>4.0716224375850603E-5</v>
       </c>
-      <c r="E44" s="152" t="str">
+      <c r="E44" s="151" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="F44" s="152" t="str">
+      <c r="F44" s="151" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="G44" s="152" t="str">
+      <c r="G44" s="151" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="H44" s="152" t="str">
+      <c r="H44" s="151" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="I44" s="152" t="str">
+      <c r="I44" s="151" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="J44" s="152" t="str">
+      <c r="J44" s="151" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="K44" s="152" t="str">
+      <c r="K44" s="151" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="L44" s="152" t="str">
+      <c r="L44" s="151" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="M44" s="152" t="str">
+      <c r="M44" s="151" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="N44" s="87"/>
+      <c r="N44" s="86"/>
     </row>
     <row r="45" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A45" s="4"/>
-      <c r="B45" s="94" t="s">
-        <v>221</v>
-      </c>
-      <c r="C45" s="152">
+      <c r="B45" s="93" t="s">
+        <v>220</v>
+      </c>
+      <c r="C45" s="151">
         <f t="shared" ref="C45:M45" si="39">IF(C6="","",ABS(MAX(C21,0)-MAX(C19,0))/C6)</f>
         <v>0</v>
       </c>
-      <c r="D45" s="152">
+      <c r="D45" s="151">
         <f t="shared" si="39"/>
         <v>0</v>
       </c>
-      <c r="E45" s="152" t="str">
+      <c r="E45" s="151" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="F45" s="152" t="str">
+      <c r="F45" s="151" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="G45" s="152" t="str">
+      <c r="G45" s="151" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="H45" s="152" t="str">
+      <c r="H45" s="151" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="I45" s="152" t="str">
+      <c r="I45" s="151" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="J45" s="152" t="str">
+      <c r="J45" s="151" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="K45" s="152" t="str">
+      <c r="K45" s="151" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="L45" s="152" t="str">
+      <c r="L45" s="151" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="M45" s="152" t="str">
+      <c r="M45" s="151" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="N45" s="87"/>
+      <c r="N45" s="86"/>
     </row>
     <row r="46" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A46" s="4"/>
-      <c r="B46" s="94" t="s">
-        <v>119</v>
-      </c>
-      <c r="C46" s="152">
+      <c r="B46" s="93" t="s">
+        <v>118</v>
+      </c>
+      <c r="C46" s="151">
         <f t="shared" ref="C46:M46" si="40">IF(C6="","",C22/C6)</f>
         <v>0.17634634406823974</v>
       </c>
-      <c r="D46" s="152">
+      <c r="D46" s="151">
         <f t="shared" si="40"/>
         <v>9.9352568717291659E-2</v>
       </c>
-      <c r="E46" s="152" t="str">
+      <c r="E46" s="151" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="F46" s="152" t="str">
+      <c r="F46" s="151" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="G46" s="152" t="str">
+      <c r="G46" s="151" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="H46" s="152" t="str">
+      <c r="H46" s="151" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="I46" s="152" t="str">
+      <c r="I46" s="151" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="J46" s="152" t="str">
+      <c r="J46" s="151" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="K46" s="152" t="str">
+      <c r="K46" s="151" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="L46" s="152" t="str">
+      <c r="L46" s="151" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="M46" s="152" t="str">
+      <c r="M46" s="151" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="N46" s="87"/>
+      <c r="N46" s="86"/>
     </row>
     <row r="47" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A47" s="16"/>
-      <c r="B47" s="102" t="s">
-        <v>248</v>
-      </c>
-      <c r="C47" s="280" t="s">
-        <v>266</v>
+      <c r="B47" s="101" t="s">
+        <v>246</v>
+      </c>
+      <c r="C47" s="278" t="s">
+        <v>263</v>
       </c>
       <c r="D47" s="36"/>
       <c r="E47" s="36"/>
@@ -7768,216 +7763,216 @@
       <c r="K47" s="36"/>
       <c r="L47" s="36"/>
       <c r="M47" s="36"/>
-      <c r="N47" s="87"/>
+      <c r="N47" s="86"/>
     </row>
     <row r="48" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A48" s="4"/>
-      <c r="B48" s="268" t="s">
-        <v>254</v>
-      </c>
-      <c r="C48" s="269" t="e">
+      <c r="B48" s="266" t="s">
+        <v>252</v>
+      </c>
+      <c r="C48" s="267" t="e">
         <f t="shared" ref="C48:M48" si="41">IF(C6="","",C6/C27)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D48" s="269" t="e">
+      <c r="D48" s="267" t="e">
         <f t="shared" si="41"/>
         <v>#VALUE!</v>
       </c>
-      <c r="E48" s="269" t="str">
+      <c r="E48" s="267" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="F48" s="269" t="str">
+      <c r="F48" s="267" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="G48" s="269" t="str">
+      <c r="G48" s="267" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="H48" s="269" t="str">
+      <c r="H48" s="267" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="I48" s="269" t="str">
+      <c r="I48" s="267" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="J48" s="269" t="str">
+      <c r="J48" s="267" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="K48" s="269" t="str">
+      <c r="K48" s="267" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="L48" s="269" t="str">
+      <c r="L48" s="267" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="M48" s="269" t="str">
+      <c r="M48" s="267" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="N48" s="87"/>
+      <c r="N48" s="86"/>
     </row>
     <row r="49" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A49" s="4"/>
-      <c r="B49" s="94" t="s">
-        <v>255</v>
-      </c>
-      <c r="C49" s="152">
+      <c r="B49" s="93" t="s">
+        <v>253</v>
+      </c>
+      <c r="C49" s="151">
         <f t="shared" ref="C49:M49" si="42">IF(C28="","",C28/C6)</f>
         <v>0</v>
       </c>
-      <c r="D49" s="152" t="str">
+      <c r="D49" s="151" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="E49" s="152" t="str">
+      <c r="E49" s="151" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="F49" s="152" t="str">
+      <c r="F49" s="151" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="G49" s="152" t="str">
+      <c r="G49" s="151" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="H49" s="152" t="str">
+      <c r="H49" s="151" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="I49" s="152" t="str">
+      <c r="I49" s="151" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="J49" s="152" t="str">
+      <c r="J49" s="151" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="K49" s="152" t="str">
+      <c r="K49" s="151" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="L49" s="152" t="str">
+      <c r="L49" s="151" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="M49" s="152" t="str">
+      <c r="M49" s="151" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="N49" s="87"/>
+      <c r="N49" s="86"/>
     </row>
     <row r="50" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A50" s="4"/>
-      <c r="B50" s="94" t="s">
-        <v>256</v>
-      </c>
-      <c r="C50" s="152">
+      <c r="B50" s="93" t="s">
+        <v>254</v>
+      </c>
+      <c r="C50" s="151">
         <f t="shared" ref="C50:M50" si="43">IF(C29="","",C29/C6)</f>
         <v>0</v>
       </c>
-      <c r="D50" s="152" t="str">
+      <c r="D50" s="151" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="E50" s="152" t="str">
+      <c r="E50" s="151" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="F50" s="152" t="str">
+      <c r="F50" s="151" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="G50" s="152" t="str">
+      <c r="G50" s="151" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="H50" s="152" t="str">
+      <c r="H50" s="151" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="I50" s="152" t="str">
+      <c r="I50" s="151" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="J50" s="152" t="str">
+      <c r="J50" s="151" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="K50" s="152" t="str">
+      <c r="K50" s="151" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="L50" s="152" t="str">
+      <c r="L50" s="151" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="M50" s="152" t="str">
+      <c r="M50" s="151" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="N50" s="87"/>
+      <c r="N50" s="86"/>
     </row>
     <row r="51" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A51" s="4"/>
-      <c r="B51" s="94" t="s">
-        <v>246</v>
-      </c>
-      <c r="C51" s="152" t="e">
+      <c r="B51" s="93" t="s">
+        <v>244</v>
+      </c>
+      <c r="C51" s="151" t="e">
         <f t="shared" ref="C51:M51" si="44">IF(D6="","",C16/(C6-D6))</f>
         <v>#VALUE!</v>
       </c>
-      <c r="D51" s="152" t="str">
+      <c r="D51" s="151" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="E51" s="152" t="str">
+      <c r="E51" s="151" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="F51" s="152" t="str">
+      <c r="F51" s="151" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="G51" s="152" t="str">
+      <c r="G51" s="151" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="H51" s="152" t="str">
+      <c r="H51" s="151" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="I51" s="152" t="str">
+      <c r="I51" s="151" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="J51" s="152" t="str">
+      <c r="J51" s="151" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="K51" s="152" t="str">
+      <c r="K51" s="151" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="L51" s="152" t="str">
+      <c r="L51" s="151" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="M51" s="152" t="str">
+      <c r="M51" s="151" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="N51" s="87"/>
+      <c r="N51" s="86"/>
     </row>
     <row r="52" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A52" s="16"/>
-      <c r="B52" s="102" t="s">
-        <v>249</v>
+      <c r="B52" s="101" t="s">
+        <v>247</v>
       </c>
       <c r="C52" s="36"/>
       <c r="D52" s="36"/>
@@ -7993,350 +7988,350 @@
     </row>
     <row r="53" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A53" s="4"/>
-      <c r="B53" s="95" t="s">
-        <v>250</v>
-      </c>
-      <c r="C53" s="155" t="e">
+      <c r="B53" s="94" t="s">
+        <v>248</v>
+      </c>
+      <c r="C53" s="154" t="e">
         <f t="shared" ref="C53:M53" si="45">IF(C34="","",(C34-C35)/C27)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D53" s="155" t="str">
+      <c r="D53" s="154" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="E53" s="155" t="str">
+      <c r="E53" s="154" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="F53" s="155" t="str">
+      <c r="F53" s="154" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="G53" s="155" t="str">
+      <c r="G53" s="154" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="H53" s="155" t="str">
+      <c r="H53" s="154" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="I53" s="155" t="str">
+      <c r="I53" s="154" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="J53" s="155" t="str">
+      <c r="J53" s="154" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="K53" s="155" t="str">
+      <c r="K53" s="154" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="L53" s="155" t="str">
+      <c r="L53" s="154" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="M53" s="155" t="str">
+      <c r="M53" s="154" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
     </row>
     <row r="54" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A54" s="4"/>
-      <c r="B54" s="94" t="s">
-        <v>116</v>
-      </c>
-      <c r="C54" s="156" t="str">
+      <c r="B54" s="93" t="s">
+        <v>115</v>
+      </c>
+      <c r="C54" s="155" t="str">
         <f t="shared" ref="C54:M54" si="46">IF(OR(C22="",C33=""),"",IF(C33&lt;=0,"-",C22/C33))</f>
         <v>-</v>
       </c>
-      <c r="D54" s="156" t="str">
+      <c r="D54" s="155" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="E54" s="156" t="str">
+      <c r="E54" s="155" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="F54" s="156" t="str">
+      <c r="F54" s="155" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="G54" s="156" t="str">
+      <c r="G54" s="155" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="H54" s="156" t="str">
+      <c r="H54" s="155" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="I54" s="156" t="str">
+      <c r="I54" s="155" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="J54" s="156" t="str">
+      <c r="J54" s="155" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="K54" s="156" t="str">
+      <c r="K54" s="155" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="L54" s="156" t="str">
+      <c r="L54" s="155" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="M54" s="156" t="str">
+      <c r="M54" s="155" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
     </row>
     <row r="55" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A55" s="4"/>
-      <c r="B55" s="94" t="s">
-        <v>118</v>
-      </c>
-      <c r="C55" s="152">
+      <c r="B55" s="93" t="s">
+        <v>117</v>
+      </c>
+      <c r="C55" s="151">
         <f t="shared" ref="C55:M55" si="47">IF(C22="","",IF(MAX(C17,0)&lt;=0,"-",C17/C22))</f>
         <v>2.9102054432070305E-2</v>
       </c>
-      <c r="D55" s="152">
+      <c r="D55" s="151">
         <f t="shared" si="47"/>
         <v>8.4097196033508959E-2</v>
       </c>
-      <c r="E55" s="152" t="str">
+      <c r="E55" s="151" t="str">
         <f t="shared" si="47"/>
         <v/>
       </c>
-      <c r="F55" s="152" t="str">
+      <c r="F55" s="151" t="str">
         <f t="shared" si="47"/>
         <v/>
       </c>
-      <c r="G55" s="152" t="str">
+      <c r="G55" s="151" t="str">
         <f t="shared" si="47"/>
         <v/>
       </c>
-      <c r="H55" s="152" t="str">
+      <c r="H55" s="151" t="str">
         <f t="shared" si="47"/>
         <v/>
       </c>
-      <c r="I55" s="152" t="str">
+      <c r="I55" s="151" t="str">
         <f t="shared" si="47"/>
         <v/>
       </c>
-      <c r="J55" s="152" t="str">
+      <c r="J55" s="151" t="str">
         <f t="shared" si="47"/>
         <v/>
       </c>
-      <c r="K55" s="152" t="str">
+      <c r="K55" s="151" t="str">
         <f t="shared" si="47"/>
         <v/>
       </c>
-      <c r="L55" s="152" t="str">
+      <c r="L55" s="151" t="str">
         <f t="shared" si="47"/>
         <v/>
       </c>
-      <c r="M55" s="152" t="str">
+      <c r="M55" s="151" t="str">
         <f t="shared" si="47"/>
         <v/>
       </c>
     </row>
     <row r="56" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A56" s="4"/>
-      <c r="B56" s="98" t="s">
-        <v>19</v>
-      </c>
-      <c r="C56" s="157" t="e">
-        <f>IF(#REF!="","",#REF!/C30)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="D56" s="157" t="e">
-        <f>IF(#REF!="","",#REF!/D30)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="E56" s="157" t="e">
-        <f>IF(#REF!="","",#REF!/E30)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="F56" s="157" t="e">
-        <f>IF(#REF!="","",#REF!/F30)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="G56" s="157" t="e">
-        <f>IF(#REF!="","",#REF!/G30)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="H56" s="157" t="e">
-        <f>IF(#REF!="","",#REF!/H30)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="I56" s="157" t="e">
-        <f>IF(#REF!="","",#REF!/I30)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="J56" s="157" t="e">
-        <f>IF(#REF!="","",#REF!/J30)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="K56" s="157" t="e">
-        <f>IF(#REF!="","",#REF!/K30)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="L56" s="157" t="e">
-        <f>IF(#REF!="","",#REF!/L30)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="M56" s="157" t="e">
-        <f>IF(#REF!="","",#REF!/M30)</f>
-        <v>#REF!</v>
+      <c r="B56" s="93" t="s">
+        <v>267</v>
+      </c>
+      <c r="C56" s="151">
+        <f>IF(C34="","",IF(Inputs!C38=0,0,Inputs!C38/C27))</f>
+        <v>0</v>
+      </c>
+      <c r="D56" s="151" t="str">
+        <f>IF(D34="","",IF(Inputs!D38=0,0,Inputs!D38/D27))</f>
+        <v/>
+      </c>
+      <c r="E56" s="151" t="str">
+        <f>IF(E34="","",IF(Inputs!E38=0,0,Inputs!E38/E27))</f>
+        <v/>
+      </c>
+      <c r="F56" s="151" t="str">
+        <f>IF(F34="","",IF(Inputs!F38=0,0,Inputs!F38/F27))</f>
+        <v/>
+      </c>
+      <c r="G56" s="151" t="str">
+        <f>IF(G34="","",IF(Inputs!G38=0,0,Inputs!G38/G27))</f>
+        <v/>
+      </c>
+      <c r="H56" s="151" t="str">
+        <f>IF(H34="","",IF(Inputs!H38=0,0,Inputs!H38/H27))</f>
+        <v/>
+      </c>
+      <c r="I56" s="151" t="str">
+        <f>IF(I34="","",IF(Inputs!I38=0,0,Inputs!I38/I27))</f>
+        <v/>
+      </c>
+      <c r="J56" s="151" t="str">
+        <f>IF(J34="","",IF(Inputs!J38=0,0,Inputs!J38/J27))</f>
+        <v/>
+      </c>
+      <c r="K56" s="151" t="str">
+        <f>IF(K34="","",IF(Inputs!K38=0,0,Inputs!K38/K27))</f>
+        <v/>
+      </c>
+      <c r="L56" s="151" t="str">
+        <f>IF(L34="","",IF(Inputs!L38=0,0,Inputs!L38/L27))</f>
+        <v/>
+      </c>
+      <c r="M56" s="151" t="str">
+        <f>IF(M34="","",IF(Inputs!M38=0,0,Inputs!M38/M27))</f>
+        <v/>
       </c>
     </row>
     <row r="57" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A57" s="16"/>
-      <c r="B57" s="102" t="s">
-        <v>251</v>
-      </c>
-      <c r="C57" s="270" t="str">
+      <c r="B57" s="101" t="s">
+        <v>249</v>
+      </c>
+      <c r="C57" s="268" t="str">
         <f t="shared" ref="C57:M57" si="48">IFERROR(IF(C13*C48*(1/C53)=C58,"","Error"),"")</f>
         <v/>
       </c>
-      <c r="D57" s="270" t="str">
+      <c r="D57" s="268" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="E57" s="270" t="str">
+      <c r="E57" s="268" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="F57" s="270" t="str">
+      <c r="F57" s="268" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="G57" s="270" t="str">
+      <c r="G57" s="268" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="H57" s="270" t="str">
+      <c r="H57" s="268" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="I57" s="270" t="str">
+      <c r="I57" s="268" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="J57" s="270" t="str">
+      <c r="J57" s="268" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="K57" s="270" t="str">
+      <c r="K57" s="268" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="L57" s="270" t="str">
+      <c r="L57" s="268" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="M57" s="270" t="str">
+      <c r="M57" s="268" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
     </row>
     <row r="58" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A58" s="4"/>
-      <c r="B58" s="268" t="s">
-        <v>252</v>
-      </c>
-      <c r="C58" s="271" t="e">
+      <c r="B58" s="266" t="s">
+        <v>250</v>
+      </c>
+      <c r="C58" s="269" t="e">
         <f t="shared" ref="C58:M58" si="49">IF(C14="","",C14/(C34-C35))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D58" s="271" t="e">
+      <c r="D58" s="269" t="e">
         <f t="shared" si="49"/>
         <v>#VALUE!</v>
       </c>
-      <c r="E58" s="271" t="str">
+      <c r="E58" s="269" t="str">
         <f t="shared" si="49"/>
         <v/>
       </c>
-      <c r="F58" s="271" t="str">
+      <c r="F58" s="269" t="str">
         <f t="shared" si="49"/>
         <v/>
       </c>
-      <c r="G58" s="271" t="str">
+      <c r="G58" s="269" t="str">
         <f t="shared" si="49"/>
         <v/>
       </c>
-      <c r="H58" s="271" t="str">
+      <c r="H58" s="269" t="str">
         <f t="shared" si="49"/>
         <v/>
       </c>
-      <c r="I58" s="271" t="str">
+      <c r="I58" s="269" t="str">
         <f t="shared" si="49"/>
         <v/>
       </c>
-      <c r="J58" s="271" t="str">
+      <c r="J58" s="269" t="str">
         <f t="shared" si="49"/>
         <v/>
       </c>
-      <c r="K58" s="271" t="str">
+      <c r="K58" s="269" t="str">
         <f t="shared" si="49"/>
         <v/>
       </c>
-      <c r="L58" s="271" t="str">
+      <c r="L58" s="269" t="str">
         <f t="shared" si="49"/>
         <v/>
       </c>
-      <c r="M58" s="271" t="str">
+      <c r="M58" s="269" t="str">
         <f t="shared" si="49"/>
         <v/>
       </c>
     </row>
     <row r="59" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A59" s="4"/>
-      <c r="B59" s="268" t="s">
-        <v>253</v>
-      </c>
-      <c r="C59" s="271" t="e">
+      <c r="B59" s="266" t="s">
+        <v>251</v>
+      </c>
+      <c r="C59" s="269" t="e">
         <f t="shared" ref="C59:M59" si="50">IF(C22="","",C22/(C34-C35))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D59" s="271" t="e">
+      <c r="D59" s="269" t="e">
         <f t="shared" si="50"/>
         <v>#VALUE!</v>
       </c>
-      <c r="E59" s="271" t="str">
+      <c r="E59" s="269" t="str">
         <f t="shared" si="50"/>
         <v/>
       </c>
-      <c r="F59" s="271" t="str">
+      <c r="F59" s="269" t="str">
         <f t="shared" si="50"/>
         <v/>
       </c>
-      <c r="G59" s="271" t="str">
+      <c r="G59" s="269" t="str">
         <f t="shared" si="50"/>
         <v/>
       </c>
-      <c r="H59" s="271" t="str">
+      <c r="H59" s="269" t="str">
         <f t="shared" si="50"/>
         <v/>
       </c>
-      <c r="I59" s="271" t="str">
+      <c r="I59" s="269" t="str">
         <f t="shared" si="50"/>
         <v/>
       </c>
-      <c r="J59" s="271" t="str">
+      <c r="J59" s="269" t="str">
         <f t="shared" si="50"/>
         <v/>
       </c>
-      <c r="K59" s="271" t="str">
+      <c r="K59" s="269" t="str">
         <f t="shared" si="50"/>
         <v/>
       </c>
-      <c r="L59" s="271" t="str">
+      <c r="L59" s="269" t="str">
         <f t="shared" si="50"/>
         <v/>
       </c>
-      <c r="M59" s="271" t="str">
+      <c r="M59" s="269" t="str">
         <f t="shared" si="50"/>
         <v/>
       </c>
@@ -9615,7 +9610,7 @@
       <formula>LEN(TRIM(F4))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="1">
+  <dataValidations disablePrompts="1" count="1">
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3" xr:uid="{00000000-0002-0000-0100-000001000000}"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
@@ -9633,7 +9628,7 @@
   <dimension ref="A2:K108"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -9651,25 +9646,25 @@
     <row r="2" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="2"/>
       <c r="B2" s="45" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C2" s="45"/>
       <c r="D2" s="64"/>
-      <c r="E2" s="87"/>
+      <c r="E2" s="86"/>
       <c r="F2" s="7"/>
       <c r="G2" s="7"/>
       <c r="H2" s="7"/>
-      <c r="I2" s="87"/>
+      <c r="I2" s="86"/>
       <c r="K2" s="50" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B3" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C3" s="87"/>
-      <c r="D3" s="204">
+        <v>20</v>
+      </c>
+      <c r="C3" s="86"/>
+      <c r="D3" s="202">
         <f>Inputs!C41</f>
         <v>0</v>
       </c>
@@ -9677,12 +9672,12 @@
         <f>IF((C49-I49)=D3,"", "Error!")</f>
         <v/>
       </c>
-      <c r="F3" s="87"/>
-      <c r="G3" s="87"/>
+      <c r="F3" s="86"/>
+      <c r="G3" s="86"/>
       <c r="H3" s="47" t="s">
-        <v>22</v>
-      </c>
-      <c r="I3" s="282">
+        <v>21</v>
+      </c>
+      <c r="I3" s="280">
         <f>D3-D4</f>
         <v>0</v>
       </c>
@@ -9690,28 +9685,28 @@
     </row>
     <row r="4" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B4" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C4" s="87"/>
-      <c r="D4" s="198">
+        <v>22</v>
+      </c>
+      <c r="C4" s="86"/>
+      <c r="D4" s="196">
         <f>Inputs!C42</f>
         <v>0</v>
       </c>
       <c r="E4" s="37"/>
-      <c r="F4" s="87"/>
-      <c r="G4" s="87"/>
+      <c r="F4" s="86"/>
+      <c r="G4" s="86"/>
       <c r="H4" s="21"/>
       <c r="I4" s="54"/>
       <c r="K4" s="24"/>
     </row>
     <row r="5" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C5" s="87"/>
-      <c r="D5" s="87"/>
+      <c r="C5" s="86"/>
+      <c r="D5" s="86"/>
       <c r="E5" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="H5" s="1" t="s">
         <v>24</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>25</v>
       </c>
       <c r="I5" s="63" t="e">
         <f>C28/I28</f>
@@ -9724,7 +9719,7 @@
         <f>"Adj. Net Asset in "&amp;Dashboard!G6</f>
         <v>Adj. Net Asset in CNY</v>
       </c>
-      <c r="C6" s="87"/>
+      <c r="C6" s="86"/>
       <c r="D6" s="69">
         <f>(E49-I49-E53)</f>
         <v>0</v>
@@ -9733,16 +9728,16 @@
         <f>1-D6/D3</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="F6" s="87"/>
-      <c r="G6" s="87"/>
+      <c r="F6" s="86"/>
+      <c r="G6" s="86"/>
       <c r="H6" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I6" s="63" t="e">
         <f>(C24+C25)/I28</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="J6" s="87"/>
+      <c r="J6" s="86"/>
       <c r="K6" s="24"/>
     </row>
     <row r="7" spans="1:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
@@ -9750,7 +9745,7 @@
         <f>"Adj. Net Asset per Shares in "&amp;Dashboard!H3</f>
         <v>Adj. Net Asset per Shares in HKD</v>
       </c>
-      <c r="C7" s="87"/>
+      <c r="C7" s="86"/>
       <c r="D7" s="66">
         <f>MAX((D6*Exchange_Rate*Data!C4)/Common_Shares, 0)</f>
         <v>0</v>
@@ -9760,287 +9755,287 @@
         <v>HKD</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I7" s="63" t="e">
         <f>C24/I28</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="J7" s="87"/>
+      <c r="J7" s="86"/>
       <c r="K7" s="33"/>
     </row>
     <row r="8" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C8" s="87"/>
-      <c r="D8" s="87"/>
-      <c r="E8" s="87"/>
+      <c r="C8" s="86"/>
+      <c r="D8" s="86"/>
+      <c r="E8" s="86"/>
       <c r="K8" s="24"/>
     </row>
     <row r="9" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="2"/>
       <c r="B9" s="46" t="s">
-        <v>28</v>
-      </c>
-      <c r="C9" s="86"/>
-      <c r="D9" s="202">
+        <v>27</v>
+      </c>
+      <c r="C9" s="85"/>
+      <c r="D9" s="200">
         <f>Inputs!C14</f>
         <v>45473</v>
       </c>
-      <c r="E9" s="118" t="str">
+      <c r="E9" s="117" t="str">
         <f>IF(MONTH(D9)=MONTH(Data!C3),"FY","Quarter")</f>
         <v>Quarter</v>
       </c>
-      <c r="F9" s="86"/>
-      <c r="G9" s="86"/>
-      <c r="H9" s="86"/>
-      <c r="I9" s="86"/>
+      <c r="F9" s="85"/>
+      <c r="G9" s="85"/>
+      <c r="H9" s="85"/>
+      <c r="I9" s="85"/>
       <c r="K9" s="24"/>
     </row>
     <row r="10" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B10" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10" s="74" t="s">
         <v>29</v>
       </c>
-      <c r="C10" s="74" t="s">
+      <c r="D10" s="74" t="s">
+        <v>181</v>
+      </c>
+      <c r="E10" s="74" t="s">
         <v>30</v>
       </c>
-      <c r="D10" s="74" t="s">
-        <v>182</v>
-      </c>
-      <c r="E10" s="74" t="s">
+      <c r="F10" s="110" t="s">
         <v>31</v>
       </c>
-      <c r="F10" s="111" t="s">
+      <c r="G10" s="86"/>
+      <c r="H10" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="G10" s="87"/>
-      <c r="H10" s="22" t="s">
-        <v>33</v>
-      </c>
       <c r="I10" s="74" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K10" s="24"/>
     </row>
     <row r="11" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B11" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C11" s="40">
         <f>Inputs!C48</f>
         <v>0</v>
       </c>
-      <c r="D11" s="197">
+      <c r="D11" s="195">
         <f>Inputs!D48</f>
         <v>0.9</v>
       </c>
-      <c r="E11" s="88">
+      <c r="E11" s="87">
         <f t="shared" ref="E11:E22" si="0">C11*D11</f>
         <v>0</v>
       </c>
-      <c r="F11" s="112"/>
-      <c r="G11" s="87"/>
+      <c r="F11" s="111"/>
+      <c r="G11" s="86"/>
       <c r="H11" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I11" s="40">
         <f>Inputs!C73</f>
         <v>0</v>
       </c>
-      <c r="J11" s="87"/>
+      <c r="J11" s="86"/>
       <c r="K11" s="24"/>
     </row>
     <row r="12" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B12" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C12" s="40">
         <f>Inputs!C49</f>
         <v>0</v>
       </c>
-      <c r="D12" s="197">
+      <c r="D12" s="195">
         <f>Inputs!D49</f>
         <v>0.8</v>
       </c>
-      <c r="E12" s="88">
+      <c r="E12" s="87">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F12" s="112"/>
-      <c r="G12" s="87"/>
+      <c r="F12" s="111"/>
+      <c r="G12" s="86"/>
       <c r="H12" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I12" s="40">
         <f>Inputs!C74</f>
         <v>0</v>
       </c>
-      <c r="J12" s="87"/>
+      <c r="J12" s="86"/>
       <c r="K12" s="24"/>
     </row>
     <row r="13" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B13" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C13" s="40">
         <f>Inputs!C50</f>
         <v>0</v>
       </c>
-      <c r="D13" s="197">
+      <c r="D13" s="195">
         <f>Inputs!D50</f>
         <v>0.6</v>
       </c>
-      <c r="E13" s="88">
+      <c r="E13" s="87">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F13" s="112"/>
-      <c r="G13" s="87"/>
+      <c r="F13" s="111"/>
+      <c r="G13" s="86"/>
       <c r="H13" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I13" s="40">
         <f>Inputs!C75</f>
         <v>0</v>
       </c>
-      <c r="J13" s="87"/>
+      <c r="J13" s="86"/>
       <c r="K13" s="26"/>
     </row>
     <row r="14" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B14" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C14" s="40">
         <f>Inputs!C51</f>
         <v>0</v>
       </c>
-      <c r="D14" s="197">
+      <c r="D14" s="195">
         <f>Inputs!D51</f>
         <v>0.6</v>
       </c>
-      <c r="E14" s="88">
+      <c r="E14" s="87">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F14" s="112"/>
-      <c r="G14" s="87"/>
-      <c r="H14" s="86" t="s">
-        <v>39</v>
-      </c>
-      <c r="I14" s="203">
+      <c r="F14" s="111"/>
+      <c r="G14" s="86"/>
+      <c r="H14" s="85" t="s">
+        <v>38</v>
+      </c>
+      <c r="I14" s="201">
         <f>Inputs!C76</f>
         <v>0</v>
       </c>
-      <c r="J14" s="87"/>
+      <c r="J14" s="86"/>
       <c r="K14" s="27"/>
     </row>
     <row r="15" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B15" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C15" s="40">
         <f>Inputs!C52</f>
         <v>0</v>
       </c>
-      <c r="D15" s="197">
+      <c r="D15" s="195">
         <f>Inputs!D52</f>
         <v>0.5</v>
       </c>
-      <c r="E15" s="88">
+      <c r="E15" s="87">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F15" s="112"/>
-      <c r="G15" s="87"/>
+      <c r="F15" s="111"/>
+      <c r="G15" s="86"/>
       <c r="H15" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="I15" s="84">
+        <v>49</v>
+      </c>
+      <c r="I15" s="83">
         <f>SUM(I11:I14)</f>
         <v>0</v>
       </c>
-      <c r="J15" s="87"/>
+      <c r="J15" s="86"/>
     </row>
     <row r="16" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B16" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C16" s="40">
         <f>Inputs!C53</f>
         <v>0</v>
       </c>
-      <c r="D16" s="197">
+      <c r="D16" s="195">
         <f>Inputs!D53</f>
         <v>0.6</v>
       </c>
-      <c r="E16" s="88">
+      <c r="E16" s="87">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F16" s="112"/>
+      <c r="F16" s="111"/>
       <c r="G16" s="30"/>
       <c r="H16" s="3"/>
       <c r="I16" s="40"/>
-      <c r="J16" s="87"/>
+      <c r="J16" s="86"/>
     </row>
     <row r="17" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B17" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C17" s="40">
         <f>Inputs!C54</f>
         <v>0</v>
       </c>
-      <c r="D17" s="197">
+      <c r="D17" s="195">
         <f>Inputs!D54</f>
         <v>0.1</v>
       </c>
-      <c r="E17" s="88">
+      <c r="E17" s="87">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F17" s="112"/>
-      <c r="G17" s="87"/>
+      <c r="F17" s="111"/>
+      <c r="G17" s="86"/>
       <c r="H17" s="3"/>
       <c r="I17" s="40"/>
-      <c r="J17" s="87"/>
+      <c r="J17" s="86"/>
     </row>
     <row r="18" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B18" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C18" s="40">
         <f>Inputs!C55</f>
         <v>0</v>
       </c>
-      <c r="D18" s="197">
+      <c r="D18" s="195">
         <f>Inputs!D55</f>
         <v>0.5</v>
       </c>
-      <c r="E18" s="88">
+      <c r="E18" s="87">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F18" s="112"/>
-      <c r="G18" s="87"/>
-      <c r="H18" s="87"/>
-      <c r="I18" s="87"/>
+      <c r="F18" s="111"/>
+      <c r="G18" s="86"/>
+      <c r="H18" s="86"/>
+      <c r="I18" s="86"/>
     </row>
     <row r="19" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B19" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C19" s="40">
         <f>Inputs!C56</f>
         <v>0</v>
       </c>
-      <c r="D19" s="197">
+      <c r="D19" s="195">
         <f>Inputs!D56</f>
         <v>0.6</v>
       </c>
-      <c r="E19" s="88">
+      <c r="E19" s="87">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F19" s="133" t="str">
+      <c r="F19" s="132" t="str">
         <f>Inputs!E56</f>
         <v>N</v>
       </c>
@@ -10051,21 +10046,21 @@
     </row>
     <row r="20" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B20" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C20" s="40">
         <f>Inputs!C57</f>
         <v>0</v>
       </c>
-      <c r="D20" s="197">
+      <c r="D20" s="195">
         <f>Inputs!D57</f>
         <v>0.6</v>
       </c>
-      <c r="E20" s="88">
+      <c r="E20" s="87">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F20" s="133" t="str">
+      <c r="F20" s="132" t="str">
         <f>Inputs!E57</f>
         <v>Y</v>
       </c>
@@ -10078,45 +10073,45 @@
     </row>
     <row r="21" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B21" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C21" s="40">
         <f>Inputs!C58</f>
         <v>0</v>
       </c>
-      <c r="D21" s="197">
+      <c r="D21" s="195">
         <f>Inputs!D58</f>
         <v>0.9</v>
       </c>
-      <c r="E21" s="88">
+      <c r="E21" s="87">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F21" s="112"/>
-      <c r="G21" s="87"/>
+      <c r="F21" s="111"/>
+      <c r="G21" s="86"/>
       <c r="H21" s="3"/>
       <c r="I21" s="40"/>
     </row>
     <row r="22" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B22" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C22" s="40">
         <f>Inputs!C59</f>
         <v>0</v>
       </c>
-      <c r="D22" s="197">
+      <c r="D22" s="195">
         <f>Inputs!D59</f>
         <v>0.05</v>
       </c>
-      <c r="E22" s="88">
+      <c r="E22" s="87">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F22" s="112"/>
-      <c r="G22" s="87"/>
+      <c r="F22" s="111"/>
+      <c r="G22" s="86"/>
       <c r="H22" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I22" s="52">
         <f>I28-SUM(I11:I14)</f>
@@ -10124,17 +10119,17 @@
       </c>
     </row>
     <row r="23" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C23" s="87"/>
-      <c r="D23" s="87"/>
-      <c r="E23" s="87"/>
-      <c r="F23" s="111" t="s">
-        <v>48</v>
-      </c>
-      <c r="G23" s="87"/>
+      <c r="C23" s="86"/>
+      <c r="D23" s="86"/>
+      <c r="E23" s="86"/>
+      <c r="F23" s="110" t="s">
+        <v>47</v>
+      </c>
+      <c r="G23" s="86"/>
     </row>
     <row r="24" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B24" s="23" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C24" s="61">
         <f>SUM(C11:C14)</f>
@@ -10144,19 +10139,19 @@
         <f>IF(E24=0,0,E24/C24)</f>
         <v>0</v>
       </c>
-      <c r="E24" s="88">
+      <c r="E24" s="87">
         <f>SUM(E11:E14)</f>
         <v>0</v>
       </c>
-      <c r="F24" s="113" t="e">
+      <c r="F24" s="112" t="e">
         <f>E24/$E$28</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G24" s="87"/>
+      <c r="G24" s="86"/>
     </row>
     <row r="25" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B25" s="23" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C25" s="61">
         <f>SUM(C15:C17)</f>
@@ -10166,17 +10161,17 @@
         <f>IF(E25=0,0,E25/C25)</f>
         <v>0</v>
       </c>
-      <c r="E25" s="88">
+      <c r="E25" s="87">
         <f>SUM(E15:E17)</f>
         <v>0</v>
       </c>
-      <c r="F25" s="113" t="e">
+      <c r="F25" s="112" t="e">
         <f>E25/$E$28</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G25" s="87"/>
+      <c r="G25" s="86"/>
       <c r="H25" s="23" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I25" s="63" t="e">
         <f>E28/I28</f>
@@ -10185,7 +10180,7 @@
     </row>
     <row r="26" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B26" s="23" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C26" s="61">
         <f>C18+C19+C20</f>
@@ -10195,17 +10190,17 @@
         <f>IF(E26=0,0,E26/C26)</f>
         <v>0</v>
       </c>
-      <c r="E26" s="88">
+      <c r="E26" s="87">
         <f>E18+E19+E20</f>
         <v>0</v>
       </c>
-      <c r="F26" s="113" t="e">
+      <c r="F26" s="112" t="e">
         <f>E26/$E$28</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G26" s="87"/>
+      <c r="G26" s="86"/>
       <c r="H26" s="23" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I26" s="63" t="e">
         <f>E24/($I$28-I22)</f>
@@ -10218,7 +10213,7 @@
     </row>
     <row r="27" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B27" s="23" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C27" s="77">
         <f>C21+C22</f>
@@ -10228,17 +10223,17 @@
         <f>IF(E27=0,0,E27/C27)</f>
         <v>0</v>
       </c>
-      <c r="E27" s="88">
+      <c r="E27" s="87">
         <f>E21+E22</f>
         <v>0</v>
       </c>
-      <c r="F27" s="113" t="e">
+      <c r="F27" s="112" t="e">
         <f>E27/$E$28</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G27" s="87"/>
+      <c r="G27" s="86"/>
       <c r="H27" s="23" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I27" s="63" t="e">
         <f>(E25+E24)/$I$28</f>
@@ -10265,12 +10260,12 @@
         <f>SUM(E24:E27)</f>
         <v>0</v>
       </c>
-      <c r="F28" s="112"/>
-      <c r="G28" s="87"/>
+      <c r="F28" s="111"/>
+      <c r="G28" s="86"/>
       <c r="H28" s="78" t="s">
         <v>15</v>
       </c>
-      <c r="I28" s="204">
+      <c r="I28" s="202">
         <f>Inputs!C77</f>
         <v>0</v>
       </c>
@@ -10280,171 +10275,171 @@
       </c>
     </row>
     <row r="29" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C29" s="87"/>
-      <c r="D29" s="87"/>
-      <c r="E29" s="87"/>
-      <c r="F29" s="112" t="s">
-        <v>32</v>
-      </c>
-      <c r="G29" s="87"/>
-      <c r="H29" s="87"/>
-      <c r="I29" s="87"/>
-      <c r="J29" s="87"/>
+      <c r="C29" s="86"/>
+      <c r="D29" s="86"/>
+      <c r="E29" s="86"/>
+      <c r="F29" s="111" t="s">
+        <v>31</v>
+      </c>
+      <c r="G29" s="86"/>
+      <c r="H29" s="86"/>
+      <c r="I29" s="86"/>
+      <c r="J29" s="86"/>
     </row>
     <row r="30" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B30" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C30" s="40">
         <f>Inputs!C60</f>
         <v>0</v>
       </c>
-      <c r="D30" s="197">
+      <c r="D30" s="195">
         <f>Inputs!D60</f>
         <v>0.8</v>
       </c>
-      <c r="E30" s="88">
-        <v>0</v>
-      </c>
-      <c r="F30" s="112"/>
-      <c r="G30" s="87"/>
+      <c r="E30" s="87">
+        <v>0</v>
+      </c>
+      <c r="F30" s="111"/>
+      <c r="G30" s="86"/>
       <c r="H30" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I30" s="40">
         <f>Inputs!C78</f>
         <v>0</v>
       </c>
-      <c r="J30" s="87"/>
+      <c r="J30" s="86"/>
     </row>
     <row r="31" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B31" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C31" s="40">
         <f>Inputs!C61</f>
         <v>0</v>
       </c>
-      <c r="D31" s="197">
+      <c r="D31" s="195">
         <f>Inputs!D61</f>
         <v>0.6</v>
       </c>
-      <c r="E31" s="88">
+      <c r="E31" s="87">
         <f t="shared" ref="E31:E42" si="1">C31*D31</f>
         <v>0</v>
       </c>
-      <c r="F31" s="112"/>
-      <c r="G31" s="87"/>
+      <c r="F31" s="111"/>
+      <c r="G31" s="86"/>
       <c r="H31" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I31" s="40">
         <f>Inputs!C79</f>
         <v>0</v>
       </c>
-      <c r="J31" s="87"/>
+      <c r="J31" s="86"/>
     </row>
     <row r="32" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B32" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C32" s="40">
         <f>Inputs!C62</f>
         <v>0</v>
       </c>
-      <c r="D32" s="197">
+      <c r="D32" s="195">
         <f>Inputs!D62</f>
         <v>0.5</v>
       </c>
-      <c r="E32" s="88">
+      <c r="E32" s="87">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F32" s="112"/>
-      <c r="G32" s="87"/>
+      <c r="F32" s="111"/>
+      <c r="G32" s="86"/>
       <c r="H32" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I32" s="40">
         <f>Inputs!C80</f>
         <v>0</v>
       </c>
-      <c r="J32" s="87"/>
+      <c r="J32" s="86"/>
     </row>
     <row r="33" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B33" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C33" s="40">
         <f>Inputs!C63</f>
         <v>0</v>
       </c>
-      <c r="D33" s="197">
+      <c r="D33" s="195">
         <f>Inputs!D63</f>
         <v>0.5</v>
       </c>
-      <c r="E33" s="88">
+      <c r="E33" s="87">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F33" s="112"/>
+      <c r="F33" s="111"/>
       <c r="G33" s="30">
         <f>IF(F33="Y",0,1)</f>
         <v>1</v>
       </c>
-      <c r="H33" s="86" t="s">
-        <v>63</v>
-      </c>
-      <c r="I33" s="203">
+      <c r="H33" s="85" t="s">
+        <v>62</v>
+      </c>
+      <c r="I33" s="201">
         <f>Inputs!C81</f>
         <v>0</v>
       </c>
-      <c r="J33" s="87"/>
+      <c r="J33" s="86"/>
     </row>
     <row r="34" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B34" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C34" s="40">
         <f>Inputs!C64</f>
         <v>0</v>
       </c>
-      <c r="D34" s="197">
+      <c r="D34" s="195">
         <f>Inputs!D64</f>
         <v>0.4</v>
       </c>
-      <c r="E34" s="88">
+      <c r="E34" s="87">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F34" s="112"/>
-      <c r="G34" s="87"/>
+      <c r="F34" s="111"/>
+      <c r="G34" s="86"/>
       <c r="H34" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="I34" s="84">
+        <v>73</v>
+      </c>
+      <c r="I34" s="83">
         <f>SUM(I30:I33)</f>
         <v>0</v>
       </c>
-      <c r="J34" s="87"/>
+      <c r="J34" s="86"/>
     </row>
     <row r="35" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B35" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C35" s="40">
         <f>Inputs!C65</f>
         <v>0</v>
       </c>
-      <c r="D35" s="197">
+      <c r="D35" s="195">
         <f>Inputs!D65</f>
         <v>0.1</v>
       </c>
-      <c r="E35" s="88">
+      <c r="E35" s="87">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F35" s="133" t="str">
+      <c r="F35" s="132" t="str">
         <f>Inputs!E65</f>
         <v>N</v>
       </c>
@@ -10452,25 +10447,25 @@
         <f>IF(F35="Y",0,1)</f>
         <v>1</v>
       </c>
-      <c r="J35" s="87"/>
+      <c r="J35" s="86"/>
     </row>
     <row r="36" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B36" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C36" s="40">
         <f>Inputs!C66</f>
         <v>0</v>
       </c>
-      <c r="D36" s="197">
+      <c r="D36" s="195">
         <f>Inputs!D66</f>
         <v>0.2</v>
       </c>
-      <c r="E36" s="88">
+      <c r="E36" s="87">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F36" s="133" t="str">
+      <c r="F36" s="132" t="str">
         <f>Inputs!E66</f>
         <v>N</v>
       </c>
@@ -10478,26 +10473,26 @@
         <f>IF(F36="Y",0,1)</f>
         <v>1</v>
       </c>
-      <c r="H36" s="87"/>
-      <c r="I36" s="87"/>
+      <c r="H36" s="86"/>
+      <c r="I36" s="86"/>
     </row>
     <row r="37" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B37" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C37" s="40">
         <f>Inputs!C67</f>
         <v>0</v>
       </c>
-      <c r="D37" s="197">
+      <c r="D37" s="195">
         <f>Inputs!D67</f>
         <v>0.1</v>
       </c>
-      <c r="E37" s="88">
+      <c r="E37" s="87">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F37" s="133" t="str">
+      <c r="F37" s="132" t="str">
         <f>Inputs!E67</f>
         <v>Y</v>
       </c>
@@ -10505,113 +10500,113 @@
         <f>IF(F37="Y",0,1)</f>
         <v>0</v>
       </c>
-      <c r="H37" s="87"/>
-      <c r="I37" s="87"/>
+      <c r="H37" s="86"/>
+      <c r="I37" s="86"/>
     </row>
     <row r="38" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B38" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C38" s="40">
         <f>Inputs!C68</f>
         <v>0</v>
       </c>
-      <c r="D38" s="197">
+      <c r="D38" s="195">
         <f>Inputs!D68</f>
         <v>0.1</v>
       </c>
-      <c r="E38" s="88">
+      <c r="E38" s="87">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F38" s="112"/>
-      <c r="G38" s="87"/>
-      <c r="H38" s="87"/>
-      <c r="I38" s="87"/>
+      <c r="F38" s="111"/>
+      <c r="G38" s="86"/>
+      <c r="H38" s="86"/>
+      <c r="I38" s="86"/>
     </row>
     <row r="39" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B39" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C39" s="40">
         <f>Inputs!C69</f>
         <v>0</v>
       </c>
-      <c r="D39" s="197">
+      <c r="D39" s="195">
         <f>Inputs!D69</f>
         <v>0.05</v>
       </c>
-      <c r="E39" s="88">
+      <c r="E39" s="87">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F39" s="112"/>
-      <c r="G39" s="87"/>
-      <c r="H39" s="87"/>
-      <c r="I39" s="87"/>
+      <c r="F39" s="111"/>
+      <c r="G39" s="86"/>
+      <c r="H39" s="86"/>
+      <c r="I39" s="86"/>
     </row>
     <row r="40" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B40" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C40" s="40">
         <f>Inputs!C70</f>
         <v>0</v>
       </c>
-      <c r="D40" s="197">
+      <c r="D40" s="195">
         <f>Inputs!D70</f>
         <v>0.05</v>
       </c>
-      <c r="E40" s="88">
+      <c r="E40" s="87">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F40" s="112"/>
-      <c r="G40" s="87"/>
-      <c r="H40" s="87"/>
-      <c r="I40" s="87"/>
+      <c r="F40" s="111"/>
+      <c r="G40" s="86"/>
+      <c r="H40" s="86"/>
+      <c r="I40" s="86"/>
     </row>
     <row r="41" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B41" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C41" s="40">
         <f>Inputs!C71</f>
         <v>0</v>
       </c>
-      <c r="D41" s="197">
+      <c r="D41" s="195">
         <f>Inputs!D71</f>
         <v>0.9</v>
       </c>
-      <c r="E41" s="88">
+      <c r="E41" s="87">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F41" s="112"/>
-      <c r="G41" s="87"/>
-      <c r="H41" s="87"/>
-      <c r="I41" s="87"/>
+      <c r="F41" s="111"/>
+      <c r="G41" s="86"/>
+      <c r="H41" s="86"/>
+      <c r="I41" s="86"/>
     </row>
     <row r="42" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B42" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C42" s="40">
         <f>Inputs!C72</f>
         <v>0</v>
       </c>
-      <c r="D42" s="197">
+      <c r="D42" s="195">
         <f>Inputs!D72</f>
         <v>0</v>
       </c>
-      <c r="E42" s="88">
+      <c r="E42" s="87">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F42" s="112"/>
-      <c r="G42" s="87"/>
+      <c r="F42" s="111"/>
+      <c r="G42" s="86"/>
       <c r="H42" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I42" s="52">
         <f>I48-SUM(I30:I33)</f>
@@ -10619,17 +10614,17 @@
       </c>
     </row>
     <row r="43" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C43" s="87"/>
-      <c r="D43" s="87"/>
-      <c r="E43" s="87"/>
-      <c r="F43" s="87"/>
-      <c r="G43" s="87"/>
-      <c r="H43" s="87"/>
-      <c r="I43" s="87"/>
+      <c r="C43" s="86"/>
+      <c r="D43" s="86"/>
+      <c r="E43" s="86"/>
+      <c r="F43" s="86"/>
+      <c r="G43" s="86"/>
+      <c r="H43" s="86"/>
+      <c r="I43" s="86"/>
     </row>
     <row r="44" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B44" s="23" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C44" s="61">
         <f>SUM(C30:C31)</f>
@@ -10639,16 +10634,16 @@
         <f>IF(E44=0,0,E44/C44)</f>
         <v>0</v>
       </c>
-      <c r="E44" s="88">
+      <c r="E44" s="87">
         <f>SUM(E30:E31)</f>
         <v>0</v>
       </c>
       <c r="F44" s="72"/>
-      <c r="G44" s="87"/>
+      <c r="G44" s="86"/>
     </row>
     <row r="45" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B45" s="23" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C45" s="61">
         <f>SUM(C32:C35)</f>
@@ -10658,16 +10653,16 @@
         <f>IF(E45=0,0,E45/C45)</f>
         <v>0</v>
       </c>
-      <c r="E45" s="88">
+      <c r="E45" s="87">
         <f>SUM(E32:E35)</f>
         <v>0</v>
       </c>
       <c r="F45" s="72"/>
-      <c r="G45" s="87"/>
+      <c r="G45" s="86"/>
     </row>
     <row r="46" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B46" s="23" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C46" s="61">
         <f>C36+C37+C38+C39</f>
@@ -10677,14 +10672,14 @@
         <f>IF(E46=0,0,E46/C46)</f>
         <v>0</v>
       </c>
-      <c r="E46" s="88">
+      <c r="E46" s="87">
         <f>E36+E37+E38+E39</f>
         <v>0</v>
       </c>
-      <c r="F46" s="87"/>
-      <c r="G46" s="87"/>
+      <c r="F46" s="86"/>
+      <c r="G46" s="86"/>
       <c r="H46" s="23" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I46" s="63" t="e">
         <f>(E44+E24)/E64</f>
@@ -10697,7 +10692,7 @@
     </row>
     <row r="47" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B47" s="23" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C47" s="61">
         <f>C40+C41+C42</f>
@@ -10707,14 +10702,14 @@
         <f>IF(E47=0,0,E47/C47)</f>
         <v>0</v>
       </c>
-      <c r="E47" s="88">
+      <c r="E47" s="87">
         <f>E40+E41+E42</f>
         <v>0</v>
       </c>
-      <c r="F47" s="87"/>
-      <c r="G47" s="87"/>
+      <c r="F47" s="86"/>
+      <c r="G47" s="86"/>
       <c r="H47" s="23" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="I47" s="63" t="e">
         <f>(E44+E45+E24+E25)/$I$49</f>
@@ -10727,13 +10722,13 @@
     </row>
     <row r="48" spans="2:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B48" s="80" t="s">
-        <v>80</v>
-      </c>
-      <c r="C48" s="81">
+        <v>79</v>
+      </c>
+      <c r="C48" s="281">
         <f>SUM(C30:C42)</f>
         <v>0</v>
       </c>
-      <c r="D48" s="82" t="e">
+      <c r="D48" s="81" t="e">
         <f>E48/C48</f>
         <v>#DIV/0!</v>
       </c>
@@ -10741,12 +10736,12 @@
         <f>SUM(E30:E42)</f>
         <v>0</v>
       </c>
-      <c r="F48" s="87"/>
-      <c r="G48" s="87"/>
+      <c r="F48" s="86"/>
+      <c r="G48" s="86"/>
       <c r="H48" s="80" t="s">
-        <v>81</v>
-      </c>
-      <c r="I48" s="281">
+        <v>80</v>
+      </c>
+      <c r="I48" s="279">
         <f>I49-I28</f>
         <v>0</v>
       </c>
@@ -10757,63 +10752,63 @@
         <v>13</v>
       </c>
       <c r="C49" s="61">
-        <f>C28+C48</f>
+        <f>Inputs!C41+Inputs!C37</f>
         <v>0</v>
       </c>
       <c r="D49" s="56" t="e">
         <f>E49/C49</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E49" s="88">
+      <c r="E49" s="87">
         <f>E28+E48</f>
         <v>0</v>
       </c>
-      <c r="F49" s="87"/>
-      <c r="G49" s="87"/>
+      <c r="F49" s="86"/>
+      <c r="G49" s="86"/>
       <c r="H49" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I49" s="40">
         <f>Inputs!C37</f>
         <v>0</v>
       </c>
-      <c r="J49" s="87"/>
+      <c r="J49" s="86"/>
     </row>
     <row r="50" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C50" s="87"/>
-      <c r="D50" s="87"/>
-      <c r="E50" s="87"/>
-      <c r="I50" s="87"/>
+      <c r="C50" s="86"/>
+      <c r="D50" s="86"/>
+      <c r="E50" s="86"/>
+      <c r="I50" s="86"/>
     </row>
     <row r="51" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B51" s="10" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C51" s="31"/>
       <c r="D51" s="18"/>
     </row>
     <row r="52" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B52" s="44" t="s">
-        <v>84</v>
-      </c>
-      <c r="C52" s="87"/>
+        <v>83</v>
+      </c>
+      <c r="C52" s="86"/>
       <c r="D52" s="74" t="str">
         <f>IF(E53=D4,"BV of the MI","P/B Approach")</f>
         <v>BV of the MI</v>
       </c>
-      <c r="E52" s="87"/>
-      <c r="F52" s="87"/>
-      <c r="G52" s="87"/>
-      <c r="I52" s="87"/>
+      <c r="E52" s="86"/>
+      <c r="F52" s="86"/>
+      <c r="G52" s="86"/>
+      <c r="I52" s="86"/>
       <c r="K52" s="50" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="53" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B53" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="C53" s="88">
+        <v>84</v>
+      </c>
+      <c r="C53" s="87">
         <f>MAX(D4,0)</f>
         <v>0</v>
       </c>
@@ -10821,45 +10816,45 @@
         <f>IF(E53=0, 0,E53/C53)</f>
         <v>0</v>
       </c>
-      <c r="E53" s="88">
+      <c r="E53" s="87">
         <f>IF(C53=0,0,MAX(C53,C53*Dashboard!G23))</f>
         <v>0</v>
       </c>
-      <c r="F53" s="87"/>
-      <c r="G53" s="87"/>
+      <c r="F53" s="86"/>
+      <c r="G53" s="86"/>
       <c r="I53" s="41"/>
       <c r="K53" s="33"/>
     </row>
     <row r="54" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C54" s="87"/>
-      <c r="D54" s="87"/>
-      <c r="E54" s="87"/>
-      <c r="F54" s="87"/>
-      <c r="G54" s="87"/>
-      <c r="I54" s="87"/>
+      <c r="C54" s="86"/>
+      <c r="D54" s="86"/>
+      <c r="E54" s="86"/>
+      <c r="F54" s="86"/>
+      <c r="G54" s="86"/>
+      <c r="I54" s="86"/>
       <c r="K54" s="33"/>
     </row>
     <row r="55" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B55" s="25" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C55" s="3"/>
-      <c r="E55" s="124"/>
+      <c r="E55" s="123"/>
       <c r="F55" s="3"/>
       <c r="G55" s="3"/>
-      <c r="I55" s="87"/>
+      <c r="I55" s="86"/>
       <c r="K55" s="33"/>
     </row>
     <row r="56" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B56" s="20" t="s">
-        <v>86</v>
-      </c>
-      <c r="C56" s="87"/>
-      <c r="D56" s="296">
+        <v>85</v>
+      </c>
+      <c r="C56" s="86"/>
+      <c r="D56" s="295">
         <f>I15+I34</f>
         <v>0</v>
       </c>
-      <c r="E56" s="294"/>
+      <c r="E56" s="293"/>
       <c r="F56" s="3"/>
       <c r="G56" s="3"/>
       <c r="I56" s="56"/>
@@ -10867,61 +10862,61 @@
     </row>
     <row r="57" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B57" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="C57" s="86"/>
+      <c r="D57" s="294">
+        <f>Inputs!C84</f>
+        <v>0</v>
+      </c>
+      <c r="E57" s="293"/>
+      <c r="G57" s="86"/>
+      <c r="I57" s="86"/>
+      <c r="K57" s="33" t="s">
         <v>87</v>
-      </c>
-      <c r="C57" s="87"/>
-      <c r="D57" s="295">
-        <f>Inputs!C84</f>
-        <v>0</v>
-      </c>
-      <c r="E57" s="294"/>
-      <c r="G57" s="87"/>
-      <c r="I57" s="87"/>
-      <c r="K57" s="33" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="58" spans="2:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B58" s="20" t="s">
-        <v>89</v>
-      </c>
-      <c r="C58" s="87"/>
-      <c r="D58" s="295">
+        <v>88</v>
+      </c>
+      <c r="C58" s="86"/>
+      <c r="D58" s="294">
         <f>Inputs!C85</f>
         <v>0</v>
       </c>
-      <c r="E58" s="294"/>
+      <c r="E58" s="293"/>
       <c r="F58" s="3"/>
       <c r="G58" s="3"/>
-      <c r="I58" s="87"/>
+      <c r="I58" s="86"/>
       <c r="K58" s="33"/>
     </row>
     <row r="59" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C59" s="87"/>
-      <c r="D59" s="87"/>
-      <c r="E59" s="87"/>
-      <c r="F59" s="87"/>
-      <c r="G59" s="87"/>
-      <c r="I59" s="87"/>
+      <c r="C59" s="86"/>
+      <c r="D59" s="86"/>
+      <c r="E59" s="86"/>
+      <c r="F59" s="86"/>
+      <c r="G59" s="86"/>
+      <c r="I59" s="86"/>
       <c r="K59" s="33"/>
     </row>
     <row r="60" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B60" s="25" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C60" s="3"/>
       <c r="D60" s="75" t="s">
-        <v>90</v>
-      </c>
-      <c r="E60" s="87"/>
+        <v>89</v>
+      </c>
+      <c r="E60" s="86"/>
       <c r="F60" s="9"/>
       <c r="G60" s="9"/>
-      <c r="I60" s="87"/>
+      <c r="I60" s="86"/>
       <c r="K60" s="33"/>
     </row>
     <row r="61" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B61" s="19" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C61" s="68">
         <f>C14+C15+(C19*G19)+(C20*G20)+C31+C32+(C35*G35)+(C36*G36)+(C37*G37)</f>
@@ -10935,35 +10930,35 @@
         <f>E14+E15+(E19*G19)+(E20*G20)+E31+E32+(E35*G35)+(E36*G36)+(E37*G37)</f>
         <v>0</v>
       </c>
-      <c r="F61" s="87"/>
-      <c r="G61" s="87"/>
-      <c r="I61" s="87"/>
+      <c r="F61" s="86"/>
+      <c r="G61" s="86"/>
+      <c r="I61" s="86"/>
       <c r="K61" s="33"/>
     </row>
     <row r="62" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B62" s="35" t="s">
-        <v>134</v>
-      </c>
-      <c r="C62" s="116">
+        <v>133</v>
+      </c>
+      <c r="C62" s="115">
         <f>C11+C30</f>
         <v>0</v>
       </c>
-      <c r="D62" s="107">
+      <c r="D62" s="106">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="E62" s="117">
+      <c r="E62" s="116">
         <f>E11+E30</f>
         <v>0</v>
       </c>
-      <c r="F62" s="87"/>
-      <c r="G62" s="87"/>
-      <c r="I62" s="87"/>
+      <c r="F62" s="86"/>
+      <c r="G62" s="86"/>
+      <c r="I62" s="86"/>
       <c r="K62" s="33"/>
     </row>
     <row r="63" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B63" s="19" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C63" s="68">
         <f>C61+C62</f>
@@ -10977,29 +10972,29 @@
         <f>E61+E62</f>
         <v>0</v>
       </c>
-      <c r="F63" s="87"/>
-      <c r="G63" s="87"/>
-      <c r="I63" s="87"/>
+      <c r="F63" s="86"/>
+      <c r="G63" s="86"/>
+      <c r="I63" s="86"/>
       <c r="K63" s="33"/>
     </row>
     <row r="64" spans="2:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B64" s="120" t="s">
-        <v>143</v>
-      </c>
-      <c r="C64" s="205"/>
-      <c r="D64" s="205"/>
+      <c r="B64" s="119" t="s">
+        <v>142</v>
+      </c>
+      <c r="C64" s="203"/>
+      <c r="D64" s="203"/>
       <c r="E64" s="69">
         <f>D56+D57+D58</f>
         <v>0</v>
       </c>
-      <c r="F64" s="87"/>
-      <c r="G64" s="87"/>
-      <c r="I64" s="87"/>
+      <c r="F64" s="86"/>
+      <c r="G64" s="86"/>
+      <c r="I64" s="86"/>
       <c r="K64" s="33"/>
     </row>
     <row r="65" spans="1:11" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B65" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C65" s="68">
         <f>C63-E64</f>
@@ -11013,9 +11008,9 @@
         <f>E63-E64</f>
         <v>0</v>
       </c>
-      <c r="F65" s="87"/>
-      <c r="G65" s="87"/>
-      <c r="I65" s="87"/>
+      <c r="F65" s="86"/>
+      <c r="G65" s="86"/>
+      <c r="I65" s="86"/>
       <c r="K65" s="33"/>
     </row>
     <row r="66" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
@@ -11023,28 +11018,28 @@
       <c r="C66" s="68"/>
       <c r="D66" s="29"/>
       <c r="E66" s="61"/>
-      <c r="F66" s="87"/>
-      <c r="G66" s="87"/>
-      <c r="I66" s="87"/>
+      <c r="F66" s="86"/>
+      <c r="G66" s="86"/>
+      <c r="I66" s="86"/>
       <c r="K66" s="33"/>
     </row>
     <row r="67" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B67" s="25" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C67" s="3"/>
       <c r="D67" s="75" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E67" s="61"/>
-      <c r="F67" s="87"/>
-      <c r="G67" s="87"/>
-      <c r="I67" s="87"/>
+      <c r="F67" s="86"/>
+      <c r="G67" s="86"/>
+      <c r="I67" s="86"/>
       <c r="K67" s="33"/>
     </row>
     <row r="68" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B68" s="19" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C68" s="68">
         <f>C49-C63</f>
@@ -11058,29 +11053,29 @@
         <f>E49-E63</f>
         <v>0</v>
       </c>
-      <c r="F68" s="87"/>
-      <c r="G68" s="87"/>
-      <c r="I68" s="87"/>
+      <c r="F68" s="86"/>
+      <c r="G68" s="86"/>
+      <c r="I68" s="86"/>
       <c r="K68" s="33"/>
     </row>
     <row r="69" spans="1:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B69" s="120" t="s">
-        <v>144</v>
-      </c>
-      <c r="C69" s="205"/>
-      <c r="D69" s="205"/>
-      <c r="E69" s="125">
+      <c r="B69" s="119" t="s">
+        <v>143</v>
+      </c>
+      <c r="C69" s="203"/>
+      <c r="D69" s="203"/>
+      <c r="E69" s="124">
         <f>I49-E64</f>
         <v>0</v>
       </c>
-      <c r="F69" s="87"/>
-      <c r="G69" s="87"/>
-      <c r="I69" s="87"/>
+      <c r="F69" s="86"/>
+      <c r="G69" s="86"/>
+      <c r="I69" s="86"/>
       <c r="K69" s="33"/>
     </row>
     <row r="70" spans="1:11" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B70" s="19" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C70" s="68">
         <f>C68-E69</f>
@@ -11094,29 +11089,29 @@
         <f>E68-E69</f>
         <v>0</v>
       </c>
-      <c r="F70" s="87"/>
-      <c r="G70" s="87"/>
-      <c r="I70" s="87"/>
+      <c r="F70" s="86"/>
+      <c r="G70" s="86"/>
+      <c r="I70" s="86"/>
       <c r="K70" s="33"/>
     </row>
     <row r="72" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A72" s="5"/>
-      <c r="B72" s="106" t="s">
-        <v>122</v>
-      </c>
-      <c r="C72" s="283">
+      <c r="B72" s="105" t="s">
+        <v>121</v>
+      </c>
+      <c r="C72" s="282">
         <f>Data!C5</f>
         <v>45291</v>
       </c>
-      <c r="D72" s="283"/>
-      <c r="E72" s="297" t="s">
-        <v>192</v>
-      </c>
-      <c r="F72" s="297"/>
-      <c r="H72" s="297" t="s">
+      <c r="D72" s="282"/>
+      <c r="E72" s="296" t="s">
         <v>191</v>
       </c>
-      <c r="I72" s="297"/>
+      <c r="F72" s="296"/>
+      <c r="H72" s="296" t="s">
+        <v>190</v>
+      </c>
+      <c r="I72" s="296"/>
       <c r="K72" s="50" t="s">
         <v>7</v>
       </c>
@@ -11126,66 +11121,66 @@
         <f>"(Numbers in "&amp;Data!C4&amp;Dashboard!G6&amp;")"</f>
         <v>(Numbers in 1000CNY)</v>
       </c>
-      <c r="C73" s="284" t="s">
+      <c r="C73" s="283" t="s">
+        <v>96</v>
+      </c>
+      <c r="D73" s="283"/>
+      <c r="E73" s="297" t="s">
         <v>97</v>
       </c>
-      <c r="D73" s="284"/>
-      <c r="E73" s="298" t="s">
-        <v>98</v>
-      </c>
-      <c r="F73" s="284"/>
-      <c r="H73" s="298" t="s">
-        <v>98</v>
-      </c>
-      <c r="I73" s="284"/>
+      <c r="F73" s="283"/>
+      <c r="H73" s="297" t="s">
+        <v>97</v>
+      </c>
+      <c r="I73" s="283"/>
       <c r="K73" s="24"/>
     </row>
     <row r="74" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B74" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C74" s="77">
         <f>Data!C6</f>
         <v>6301002</v>
       </c>
-      <c r="D74" s="206"/>
-      <c r="E74" s="235">
+      <c r="D74" s="204"/>
+      <c r="E74" s="233">
         <f>Inputs!E91</f>
         <v>6301002</v>
       </c>
-      <c r="F74" s="206"/>
-      <c r="H74" s="235">
+      <c r="F74" s="204"/>
+      <c r="H74" s="233">
         <f>Inputs!F91</f>
         <v>6301002</v>
       </c>
-      <c r="I74" s="206"/>
+      <c r="I74" s="204"/>
       <c r="K74" s="24"/>
     </row>
     <row r="75" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B75" s="104" t="s">
-        <v>102</v>
+      <c r="B75" s="103" t="s">
+        <v>101</v>
       </c>
       <c r="C75" s="77">
         <f>Data!C8</f>
         <v>2436931</v>
       </c>
-      <c r="D75" s="158">
+      <c r="D75" s="156">
         <f>C75/$C$74</f>
         <v>0.38675293231140062</v>
       </c>
-      <c r="E75" s="235">
+      <c r="E75" s="233">
         <f>Inputs!E92</f>
         <v>2436931</v>
       </c>
-      <c r="F75" s="159">
+      <c r="F75" s="157">
         <f>E75/E74</f>
         <v>0.38675293231140062</v>
       </c>
-      <c r="H75" s="235">
+      <c r="H75" s="233">
         <f>Inputs!F92</f>
         <v>2436931</v>
       </c>
-      <c r="I75" s="159">
+      <c r="I75" s="157">
         <f>H75/$H$74</f>
         <v>0.38675293231140062</v>
       </c>
@@ -11193,50 +11188,50 @@
     </row>
     <row r="76" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B76" s="35" t="s">
-        <v>92</v>
-      </c>
-      <c r="C76" s="160">
+        <v>91</v>
+      </c>
+      <c r="C76" s="158">
         <f>C74-C75</f>
         <v>3864071</v>
       </c>
-      <c r="D76" s="207"/>
-      <c r="E76" s="161">
+      <c r="D76" s="205"/>
+      <c r="E76" s="159">
         <f>E74-E75</f>
         <v>3864071</v>
       </c>
-      <c r="F76" s="207"/>
-      <c r="H76" s="161">
+      <c r="F76" s="205"/>
+      <c r="H76" s="159">
         <f>H74-H75</f>
         <v>3864071</v>
       </c>
-      <c r="I76" s="207"/>
+      <c r="I76" s="205"/>
       <c r="K76" s="24"/>
     </row>
     <row r="77" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B77" s="104" t="s">
-        <v>230</v>
+      <c r="B77" s="103" t="s">
+        <v>229</v>
       </c>
       <c r="C77" s="77">
         <f>Data!C10+MAX(Data!C11,0)</f>
         <v>2712006</v>
       </c>
-      <c r="D77" s="158">
+      <c r="D77" s="156">
         <f>C77/$C$74</f>
         <v>0.43040868738019761</v>
       </c>
-      <c r="E77" s="235">
+      <c r="E77" s="233">
         <f>Inputs!E93</f>
         <v>2712006</v>
       </c>
-      <c r="F77" s="159">
+      <c r="F77" s="157">
         <f>E77/E74</f>
         <v>0.43040868738019761</v>
       </c>
-      <c r="H77" s="235">
+      <c r="H77" s="233">
         <f>Inputs!F93</f>
         <v>2712006</v>
       </c>
-      <c r="I77" s="159">
+      <c r="I77" s="157">
         <f>H77/$H$74</f>
         <v>0.43040868738019761</v>
       </c>
@@ -11244,60 +11239,60 @@
     </row>
     <row r="78" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B78" s="73" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C78" s="77">
         <f>MAX(Data!C12,0)</f>
         <v>8569.3333333333339</v>
       </c>
-      <c r="D78" s="158">
+      <c r="D78" s="156">
         <f>C78/$C$74</f>
         <v>1.3599953361915031E-3</v>
       </c>
-      <c r="E78" s="179">
+      <c r="E78" s="177">
         <f>E74*F78</f>
         <v>8569.3333333333339</v>
       </c>
-      <c r="F78" s="159">
+      <c r="F78" s="157">
         <f>I78</f>
         <v>1.3599953361915031E-3</v>
       </c>
-      <c r="H78" s="235">
+      <c r="H78" s="233">
         <f>Inputs!F97</f>
         <v>8569.3333333333339</v>
       </c>
-      <c r="I78" s="159">
+      <c r="I78" s="157">
         <f>H78/$H$74</f>
         <v>1.3599953361915031E-3</v>
       </c>
       <c r="K78" s="24"/>
     </row>
     <row r="79" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B79" s="253" t="s">
-        <v>217</v>
-      </c>
-      <c r="C79" s="254">
+      <c r="B79" s="251" t="s">
+        <v>216</v>
+      </c>
+      <c r="C79" s="252">
         <f>C76-C77-C78</f>
         <v>1143495.6666666667</v>
       </c>
-      <c r="D79" s="255">
+      <c r="D79" s="253">
         <f>C79/C74</f>
         <v>0.18147838497221025</v>
       </c>
-      <c r="E79" s="256">
+      <c r="E79" s="254">
         <f>E76-E77-E78</f>
         <v>1143495.6666666667</v>
       </c>
-      <c r="F79" s="255">
+      <c r="F79" s="253">
         <f>E79/E74</f>
         <v>0.18147838497221025</v>
       </c>
-      <c r="G79" s="257"/>
-      <c r="H79" s="256">
+      <c r="G79" s="255"/>
+      <c r="H79" s="254">
         <f>H76-H77-H78</f>
         <v>1143495.6666666667</v>
       </c>
-      <c r="I79" s="255">
+      <c r="I79" s="253">
         <f>H79/H74</f>
         <v>0.18147838497221025</v>
       </c>
@@ -11305,61 +11300,61 @@
     </row>
     <row r="80" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B80" s="28" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C80" s="77">
         <f>MAX(Data!C16,0)</f>
         <v>0</v>
       </c>
-      <c r="D80" s="158">
+      <c r="D80" s="156">
         <f>C80/$C$74</f>
         <v>0</v>
       </c>
-      <c r="E80" s="179">
+      <c r="E80" s="177">
         <f>E74*F80</f>
         <v>0</v>
       </c>
-      <c r="F80" s="159">
+      <c r="F80" s="157">
         <f>I80</f>
         <v>0</v>
       </c>
-      <c r="H80" s="235">
+      <c r="H80" s="233">
         <f>Inputs!F96</f>
         <v>0</v>
       </c>
-      <c r="I80" s="159">
+      <c r="I80" s="157">
         <f>H80/$H$74</f>
         <v>0</v>
       </c>
-      <c r="K80" s="180" t="s">
-        <v>126</v>
+      <c r="K80" s="178" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="81" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B81" s="104" t="s">
-        <v>239</v>
+      <c r="B81" s="103" t="s">
+        <v>237</v>
       </c>
       <c r="C81" s="77">
         <f>MAX(Data!C17,0)</f>
         <v>32337</v>
       </c>
-      <c r="D81" s="158">
+      <c r="D81" s="156">
         <f>C81/$C$74</f>
         <v>5.1320409039705113E-3</v>
       </c>
-      <c r="E81" s="179">
+      <c r="E81" s="177">
         <f>E74*F81</f>
         <v>32337</v>
       </c>
-      <c r="F81" s="159">
+      <c r="F81" s="157">
         <f>I81</f>
         <v>5.1320409039705113E-3</v>
       </c>
-      <c r="H81" s="235">
+      <c r="H81" s="233">
         <f>Inputs!F94</f>
         <v>32337</v>
       </c>
-      <c r="I81" s="159">
+      <c r="I81" s="157">
         <f>H81/$H$74</f>
         <v>5.1320409039705113E-3</v>
       </c>
@@ -11367,59 +11362,59 @@
     </row>
     <row r="82" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B82" s="28" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C82" s="77">
         <f>ABS(MAX(Data!C21,0)-MAX(Data!C19,0))</f>
         <v>0</v>
       </c>
-      <c r="D82" s="158">
+      <c r="D82" s="156">
         <f>C82/$C$74</f>
         <v>0</v>
       </c>
-      <c r="E82" s="235">
+      <c r="E82" s="233">
         <f>Inputs!E95</f>
         <v>0</v>
       </c>
-      <c r="F82" s="159">
+      <c r="F82" s="157">
         <f>E82/E74</f>
         <v>0</v>
       </c>
-      <c r="H82" s="235">
+      <c r="H82" s="233">
         <f>Inputs!F95</f>
         <v>0</v>
       </c>
-      <c r="I82" s="159">
+      <c r="I82" s="157">
         <f>H82/$H$74</f>
         <v>0</v>
       </c>
       <c r="K82" s="24"/>
     </row>
     <row r="83" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B83" s="105" t="s">
-        <v>120</v>
-      </c>
-      <c r="C83" s="162">
+      <c r="B83" s="104" t="s">
+        <v>119</v>
+      </c>
+      <c r="C83" s="160">
         <f>C79-C81-C82-C80</f>
         <v>1111158.6666666667</v>
       </c>
-      <c r="D83" s="163">
+      <c r="D83" s="161">
         <f>C83/$C$74</f>
         <v>0.17634634406823974</v>
       </c>
-      <c r="E83" s="164">
+      <c r="E83" s="162">
         <f>E79-E81-E82-E80</f>
         <v>1111158.6666666667</v>
       </c>
-      <c r="F83" s="163">
+      <c r="F83" s="161">
         <f>E83/E74</f>
         <v>0.17634634406823974</v>
       </c>
-      <c r="H83" s="164">
+      <c r="H83" s="162">
         <f>H79-H81-H82-H80</f>
         <v>1111158.6666666667</v>
       </c>
-      <c r="I83" s="163">
+      <c r="I83" s="161">
         <f>H83/$H$74</f>
         <v>0.17634634406823974</v>
       </c>
@@ -11427,184 +11422,184 @@
     </row>
     <row r="84" spans="1:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B84" s="28" t="s">
-        <v>93</v>
-      </c>
-      <c r="C84" s="208"/>
-      <c r="D84" s="158">
+        <v>92</v>
+      </c>
+      <c r="C84" s="206"/>
+      <c r="D84" s="156">
         <f>I84</f>
         <v>0.25</v>
       </c>
-      <c r="E84" s="209"/>
-      <c r="F84" s="178">
+      <c r="E84" s="207"/>
+      <c r="F84" s="176">
         <f t="shared" ref="F84" si="3">I84</f>
         <v>0.25</v>
       </c>
-      <c r="H84" s="209"/>
-      <c r="I84" s="201">
+      <c r="H84" s="207"/>
+      <c r="I84" s="199">
         <f>Inputs!C16</f>
         <v>0.25</v>
       </c>
       <c r="K84" s="24"/>
     </row>
     <row r="85" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B85" s="260" t="s">
-        <v>156</v>
-      </c>
-      <c r="C85" s="254">
+      <c r="B85" s="258" t="s">
+        <v>155</v>
+      </c>
+      <c r="C85" s="252">
         <f>C83*(1-I84)</f>
         <v>833369</v>
       </c>
-      <c r="D85" s="255">
+      <c r="D85" s="253">
         <f>C85/$C$74</f>
         <v>0.13225975805117979</v>
       </c>
-      <c r="E85" s="261">
+      <c r="E85" s="259">
         <f>E83*(1-F84)</f>
         <v>833369</v>
       </c>
-      <c r="F85" s="255">
+      <c r="F85" s="253">
         <f>E85/E74</f>
         <v>0.13225975805117979</v>
       </c>
-      <c r="G85" s="257"/>
-      <c r="H85" s="261">
+      <c r="G85" s="255"/>
+      <c r="H85" s="259">
         <f>H83*(1-I84)</f>
         <v>833369</v>
       </c>
-      <c r="I85" s="255">
+      <c r="I85" s="253">
         <f>H85/$H$74</f>
         <v>0.13225975805117979</v>
       </c>
       <c r="K85" s="24"/>
     </row>
     <row r="86" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B86" s="87" t="s">
-        <v>152</v>
-      </c>
-      <c r="C86" s="166">
+      <c r="B86" s="86" t="s">
+        <v>151</v>
+      </c>
+      <c r="C86" s="164">
         <f>C85*Data!C4/Common_Shares</f>
         <v>0.62055419099460762</v>
       </c>
-      <c r="D86" s="206"/>
-      <c r="E86" s="167">
+      <c r="D86" s="204"/>
+      <c r="E86" s="165">
         <f>E85*Data!C4/Common_Shares</f>
         <v>0.62055419099460762</v>
       </c>
-      <c r="F86" s="206"/>
-      <c r="H86" s="167">
+      <c r="F86" s="204"/>
+      <c r="H86" s="165">
         <f>H85*Data!C4/Common_Shares</f>
         <v>0.62055419099460762</v>
       </c>
-      <c r="I86" s="206"/>
+      <c r="I86" s="204"/>
       <c r="K86" s="24"/>
     </row>
     <row r="87" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B87" s="87" t="s">
-        <v>194</v>
-      </c>
-      <c r="C87" s="258">
+      <c r="B87" s="86" t="s">
+        <v>193</v>
+      </c>
+      <c r="C87" s="256">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>6.9229867568420447E-3</v>
-      </c>
-      <c r="D87" s="206"/>
-      <c r="E87" s="259">
+        <v>7.0353629152971062E-3</v>
+      </c>
+      <c r="D87" s="204"/>
+      <c r="E87" s="257">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>6.9229867568420447E-3</v>
-      </c>
-      <c r="F87" s="206"/>
-      <c r="H87" s="259">
+        <v>7.0353629152971062E-3</v>
+      </c>
+      <c r="F87" s="204"/>
+      <c r="H87" s="257">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>6.9229867568420447E-3</v>
-      </c>
-      <c r="I87" s="206"/>
+        <v>7.0353629152971062E-3</v>
+      </c>
+      <c r="I87" s="204"/>
       <c r="K87" s="24"/>
     </row>
     <row r="88" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B88" s="86" t="s">
-        <v>193</v>
-      </c>
-      <c r="C88" s="168">
+      <c r="B88" s="85" t="s">
+        <v>192</v>
+      </c>
+      <c r="C88" s="166">
         <f>Inputs!C44</f>
         <v>0.28210000000000002</v>
       </c>
-      <c r="D88" s="165">
+      <c r="D88" s="163">
         <f>C88/C86</f>
         <v>0.45459365852941497</v>
       </c>
-      <c r="E88" s="169">
+      <c r="E88" s="167">
         <f>Inputs!E98</f>
         <v>0.28210000000000002</v>
       </c>
-      <c r="F88" s="165">
+      <c r="F88" s="163">
         <f>E88/E86</f>
         <v>0.45459365852941497</v>
       </c>
-      <c r="H88" s="169">
+      <c r="H88" s="167">
         <f>Inputs!F98</f>
         <v>0.28210000000000002</v>
       </c>
-      <c r="I88" s="165">
+      <c r="I88" s="163">
         <f>H88/H86</f>
         <v>0.45459365852941497</v>
       </c>
       <c r="K88" s="24"/>
     </row>
     <row r="89" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B89" s="87" t="s">
-        <v>206</v>
-      </c>
-      <c r="C89" s="258">
+      <c r="B89" s="86" t="s">
+        <v>205</v>
+      </c>
+      <c r="C89" s="256">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>3.1471458777435147E-3</v>
-      </c>
-      <c r="D89" s="206"/>
-      <c r="E89" s="258">
+        <v>3.1982313667470821E-3</v>
+      </c>
+      <c r="D89" s="204"/>
+      <c r="E89" s="256">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>3.1471458777435147E-3</v>
-      </c>
-      <c r="F89" s="206"/>
-      <c r="H89" s="258">
+        <v>3.1982313667470821E-3</v>
+      </c>
+      <c r="F89" s="204"/>
+      <c r="H89" s="256">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>3.1471458777435147E-3</v>
-      </c>
-      <c r="I89" s="206"/>
+        <v>3.1982313667470821E-3</v>
+      </c>
+      <c r="I89" s="204"/>
       <c r="K89" s="24"/>
     </row>
     <row r="90" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B90" s="28"/>
-      <c r="C90" s="88"/>
+      <c r="C90" s="87"/>
     </row>
     <row r="91" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A91" s="5"/>
-      <c r="B91" s="106" t="str">
+      <c r="B91" s="105" t="str">
         <f xml:space="preserve"> "Valuation Drivers in "&amp;Dashboard!H3</f>
         <v>Valuation Drivers in HKD</v>
       </c>
       <c r="C91" s="21"/>
       <c r="K91" s="50" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="92" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B92" s="10" t="s">
-        <v>147</v>
-      </c>
-      <c r="C92" s="197" t="str">
+        <v>146</v>
+      </c>
+      <c r="C92" s="195" t="str">
         <f>Inputs!C15</f>
         <v>CN</v>
       </c>
       <c r="D92" s="10" t="s">
-        <v>148</v>
-      </c>
-      <c r="E92" s="297" t="s">
-        <v>192</v>
-      </c>
-      <c r="F92" s="297"/>
-      <c r="G92" s="87"/>
-      <c r="H92" s="297" t="s">
+        <v>147</v>
+      </c>
+      <c r="E92" s="296" t="s">
         <v>191</v>
       </c>
-      <c r="I92" s="297"/>
+      <c r="F92" s="296"/>
+      <c r="G92" s="86"/>
+      <c r="H92" s="296" t="s">
+        <v>190</v>
+      </c>
+      <c r="I92" s="296"/>
       <c r="K92" s="24"/>
     </row>
     <row r="93" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -11612,55 +11607,55 @@
         <f>C92&amp;" Discount Rate"</f>
         <v>CN Discount Rate</v>
       </c>
-      <c r="C93" s="135">
+      <c r="C93" s="134">
         <f>IF(C92="CN",Dashboard!C17,IF(C92="US",Dashboard!C12,IF(C92="HK",Dashboard!D12,Dashboard!D17)))</f>
         <v>8.6249999999999993E-2</v>
       </c>
-      <c r="D93" s="236">
+      <c r="D93" s="234">
         <f>Inputs!C86</f>
         <v>5</v>
       </c>
-      <c r="E93" s="87" t="s">
-        <v>195</v>
-      </c>
-      <c r="F93" s="143">
+      <c r="E93" s="86" t="s">
+        <v>194</v>
+      </c>
+      <c r="F93" s="142">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>10.356849792790523</v>
-      </c>
-      <c r="H93" s="87" t="s">
-        <v>195</v>
-      </c>
-      <c r="I93" s="143">
+        <v>10.360366826170321</v>
+      </c>
+      <c r="H93" s="86" t="s">
+        <v>194</v>
+      </c>
+      <c r="I93" s="142">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>10.356849792790523</v>
+        <v>10.360366826170321</v>
       </c>
       <c r="K93" s="24"/>
     </row>
     <row r="94" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B94" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="C94" s="181">
+        <v>196</v>
+      </c>
+      <c r="C94" s="179">
         <f>Dashboard!G20</f>
         <v>0.15</v>
       </c>
-      <c r="D94" s="267">
+      <c r="D94" s="265">
         <f>Inputs!D87</f>
         <v>0.02</v>
       </c>
-      <c r="E94" s="87" t="s">
-        <v>196</v>
-      </c>
-      <c r="F94" s="143">
+      <c r="E94" s="86" t="s">
+        <v>195</v>
+      </c>
+      <c r="F94" s="142">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
-        <v>4.6205426487908676</v>
-      </c>
-      <c r="H94" s="87" t="s">
-        <v>196</v>
-      </c>
-      <c r="I94" s="143">
+        <v>4.6207097339069847</v>
+      </c>
+      <c r="H94" s="86" t="s">
+        <v>195</v>
+      </c>
+      <c r="I94" s="142">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>4.6205426487908676</v>
+        <v>4.6207097339069847</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -11670,123 +11665,123 @@
     </row>
     <row r="96" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A96" s="5"/>
-      <c r="B96" s="106" t="str">
+      <c r="B96" s="105" t="str">
         <f xml:space="preserve"> "Valuation in "&amp;Dashboard!H3</f>
         <v>Valuation in HKD</v>
       </c>
-      <c r="C96" s="126" t="str">
+      <c r="C96" s="125" t="str">
         <f>Dashboard!H3</f>
         <v>HKD</v>
       </c>
-      <c r="D96" s="123" t="s">
-        <v>199</v>
-      </c>
-      <c r="E96" s="182" t="str">
+      <c r="D96" s="122" t="s">
+        <v>198</v>
+      </c>
+      <c r="E96" s="180" t="str">
         <f>E72</f>
         <v>Pessimistic Case</v>
       </c>
-      <c r="F96" s="224" t="s">
-        <v>222</v>
-      </c>
-      <c r="H96" s="182" t="str">
+      <c r="F96" s="222" t="s">
+        <v>221</v>
+      </c>
+      <c r="H96" s="180" t="str">
         <f>H72</f>
         <v>Base Case</v>
       </c>
-      <c r="I96" s="123" t="s">
-        <v>111</v>
+      <c r="I96" s="122" t="s">
+        <v>110</v>
       </c>
       <c r="K96" s="24"/>
     </row>
     <row r="97" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B97" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="C97" s="91">
+        <v>124</v>
+      </c>
+      <c r="C97" s="90">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>6915062.4122086503</v>
-      </c>
-      <c r="D97" s="210"/>
-      <c r="E97" s="122">
+        <v>6917410.6653757524</v>
+      </c>
+      <c r="D97" s="208"/>
+      <c r="E97" s="121">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>5.1491847679543623</v>
-      </c>
-      <c r="F97" s="210"/>
-      <c r="H97" s="122">
+        <v>5.1509333551280649</v>
+      </c>
+      <c r="F97" s="208"/>
+      <c r="H97" s="121">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>5.1491847679543623</v>
-      </c>
-      <c r="I97" s="122">
+        <v>5.1509333551280649</v>
+      </c>
+      <c r="I97" s="121">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>6.8482361896051573</v>
+        <v>6.850561749573048</v>
       </c>
       <c r="K97" s="24"/>
     </row>
     <row r="98" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B98" s="28" t="s">
+        <v>138</v>
+      </c>
+      <c r="C98" s="90">
+        <f>-E53*Exchange_Rate</f>
+        <v>0</v>
+      </c>
+      <c r="D98" s="208"/>
+      <c r="E98" s="208"/>
+      <c r="F98" s="208"/>
+      <c r="H98" s="121">
+        <f>C98*Data!$C$4/Common_Shares</f>
+        <v>0</v>
+      </c>
+      <c r="I98" s="210"/>
+      <c r="K98" s="24"/>
+    </row>
+    <row r="99" spans="2:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B99" s="104" t="s">
         <v>139</v>
       </c>
-      <c r="C98" s="91">
-        <f>-E53*Exchange_Rate</f>
-        <v>0</v>
-      </c>
-      <c r="D98" s="210"/>
-      <c r="E98" s="210"/>
-      <c r="F98" s="210"/>
-      <c r="H98" s="122">
-        <f>C98*Data!$C$4/Common_Shares</f>
-        <v>0</v>
-      </c>
-      <c r="I98" s="212"/>
-      <c r="K98" s="24"/>
-    </row>
-    <row r="99" spans="2:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B99" s="105" t="s">
-        <v>140</v>
-      </c>
-      <c r="C99" s="108">
+      <c r="C99" s="107">
         <f>(E65-IF(E70&lt;0,MIN(E65,ABS(E70)),0))*Exchange_Rate</f>
         <v>0</v>
       </c>
-      <c r="D99" s="211"/>
-      <c r="E99" s="144">
+      <c r="D99" s="209"/>
+      <c r="E99" s="143">
         <f>IF(H99&gt;0,H99*(1-C94),H99*(1+C94))</f>
         <v>0</v>
       </c>
-      <c r="F99" s="211"/>
-      <c r="H99" s="144">
+      <c r="F99" s="209"/>
+      <c r="H99" s="143">
         <f>C99*Data!$C$4/Common_Shares</f>
         <v>0</v>
       </c>
-      <c r="I99" s="213"/>
+      <c r="I99" s="211"/>
       <c r="K99" s="24"/>
     </row>
     <row r="100" spans="2:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B100" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="C100" s="91">
+        <v>110</v>
+      </c>
+      <c r="C100" s="90">
         <f>C97+C98+$C$99</f>
-        <v>6915062.4122086503</v>
-      </c>
-      <c r="D100" s="109">
+        <v>6917410.6653757524</v>
+      </c>
+      <c r="D100" s="108">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>4.3768070527612082</v>
-      </c>
-      <c r="E100" s="109">
+        <v>4.3782933518588552</v>
+      </c>
+      <c r="E100" s="108">
         <f>MAX(E97+H98+E99,0)</f>
-        <v>5.1491847679543623</v>
-      </c>
-      <c r="F100" s="109">
+        <v>5.1509333551280649</v>
+      </c>
+      <c r="F100" s="108">
         <f>(E100+H100)/2</f>
-        <v>5.1491847679543623</v>
-      </c>
-      <c r="H100" s="109">
+        <v>5.1509333551280649</v>
+      </c>
+      <c r="H100" s="108">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>5.1491847679543623</v>
-      </c>
-      <c r="I100" s="109">
+        <v>5.1509333551280649</v>
+      </c>
+      <c r="I100" s="108">
         <f>MAX(I97+H98+H99,0)</f>
-        <v>6.8482361896051573</v>
+        <v>6.850561749573048</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -11796,58 +11791,58 @@
     </row>
     <row r="102" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B102" s="10" t="s">
-        <v>154</v>
-      </c>
-      <c r="C102" s="126" t="str">
+        <v>153</v>
+      </c>
+      <c r="C102" s="125" t="str">
         <f>C96</f>
         <v>HKD</v>
       </c>
-      <c r="D102" s="123" t="s">
-        <v>199</v>
-      </c>
-      <c r="E102" s="182" t="str">
+      <c r="D102" s="122" t="s">
+        <v>198</v>
+      </c>
+      <c r="E102" s="180" t="str">
         <f>E96</f>
         <v>Pessimistic Case</v>
       </c>
-      <c r="F102" s="224" t="s">
-        <v>222</v>
-      </c>
-      <c r="H102" s="182" t="str">
+      <c r="F102" s="222" t="s">
+        <v>221</v>
+      </c>
+      <c r="H102" s="180" t="str">
         <f>H96</f>
         <v>Base Case</v>
       </c>
-      <c r="I102" s="123" t="s">
-        <v>111</v>
+      <c r="I102" s="122" t="s">
+        <v>110</v>
       </c>
       <c r="K102" s="24"/>
     </row>
     <row r="103" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B103" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="C103" s="91">
+        <v>152</v>
+      </c>
+      <c r="C103" s="90">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>3085044.3362519634</v>
-      </c>
-      <c r="D103" s="109">
+        <v>3085155.8956574984</v>
+      </c>
+      <c r="D103" s="108">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>1.9526423630175029</v>
-      </c>
-      <c r="E103" s="122">
+        <v>1.9527129732251687</v>
+      </c>
+      <c r="E103" s="121">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>2.2972263094323564</v>
-      </c>
-      <c r="F103" s="109">
+        <v>2.2973093802649043</v>
+      </c>
+      <c r="F103" s="108">
         <f>(E103+H103)/2</f>
-        <v>2.2972263094323564</v>
-      </c>
-      <c r="H103" s="122">
+        <v>2.2973093802649043</v>
+      </c>
+      <c r="H103" s="121">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>2.2972263094323564</v>
-      </c>
-      <c r="I103" s="109">
+        <v>2.2973093802649043</v>
+      </c>
+      <c r="I103" s="108">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>3.0552308873968905</v>
+        <v>3.0553413687075039</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -11857,58 +11852,58 @@
     </row>
     <row r="105" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B105" s="10" t="s">
-        <v>183</v>
-      </c>
-      <c r="C105" s="126" t="str">
+        <v>182</v>
+      </c>
+      <c r="C105" s="125" t="str">
         <f>C102</f>
         <v>HKD</v>
       </c>
-      <c r="D105" s="123" t="s">
-        <v>199</v>
-      </c>
-      <c r="E105" s="183" t="str">
+      <c r="D105" s="122" t="s">
+        <v>198</v>
+      </c>
+      <c r="E105" s="181" t="str">
         <f>E96</f>
         <v>Pessimistic Case</v>
       </c>
-      <c r="F105" s="224" t="s">
-        <v>222</v>
-      </c>
-      <c r="H105" s="183" t="str">
+      <c r="F105" s="222" t="s">
+        <v>221</v>
+      </c>
+      <c r="H105" s="181" t="str">
         <f>H96</f>
         <v>Base Case</v>
       </c>
-      <c r="I105" s="123" t="s">
-        <v>111</v>
+      <c r="I105" s="122" t="s">
+        <v>110</v>
       </c>
       <c r="K105" s="24"/>
     </row>
     <row r="106" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B106" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="C106" s="91">
+        <v>183</v>
+      </c>
+      <c r="C106" s="90">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>5000053.3742303066</v>
-      </c>
-      <c r="D106" s="109">
+        <v>5001283.2805166254</v>
+      </c>
+      <c r="D106" s="108">
         <f>(D100+D103)/2</f>
-        <v>3.1647247078893557</v>
-      </c>
-      <c r="E106" s="122">
+        <v>3.165503162542012</v>
+      </c>
+      <c r="E106" s="121">
         <f>(E100+E103)/2</f>
-        <v>3.7232055386933594</v>
-      </c>
-      <c r="F106" s="109">
+        <v>3.7241213676964846</v>
+      </c>
+      <c r="F106" s="108">
         <f>(F100+F103)/2</f>
-        <v>3.7232055386933594</v>
-      </c>
-      <c r="H106" s="122">
+        <v>3.7241213676964846</v>
+      </c>
+      <c r="H106" s="121">
         <f>(H100+H103)/2</f>
-        <v>3.7232055386933594</v>
-      </c>
-      <c r="I106" s="122">
+        <v>3.7241213676964846</v>
+      </c>
+      <c r="I106" s="121">
         <f>(I100+I103)/2</f>
-        <v>4.9517335385010242</v>
+        <v>4.952951559140276</v>
       </c>
       <c r="K106" s="24"/>
     </row>
@@ -11917,15 +11912,16 @@
     </row>
     <row r="108" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B108" s="10" t="s">
-        <v>157</v>
-      </c>
-      <c r="C108" s="127" t="str">
+        <v>156</v>
+      </c>
+      <c r="C108" s="126" t="str">
         <f>Inputs!C87</f>
         <v>Profit</v>
       </c>
       <c r="K108" s="24"/>
     </row>
   </sheetData>
+  <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="11">
     <mergeCell ref="D56:E56"/>
     <mergeCell ref="D57:E57"/>

--- a/financial_models/opportunities/9992.HK_Valuation.xlsx
+++ b/financial_models/opportunities/9992.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8B34ADEA-CDA4-4B43-801A-0AD018BA8FED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{810B7BAF-8025-408D-85AA-520F9FC22651}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="273">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="275">
   <si>
     <t>Company Info:</t>
   </si>
@@ -986,6 +986,14 @@
   </si>
   <si>
     <t>Contin. Liabilities / Total Assets</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Leverage Ratio</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://pages.stern.nyu.edu/~adamodar/New_Home_Page/datafile/countrytaxrates.html</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
@@ -1678,7 +1686,7 @@
     <xf numFmtId="176" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="298">
+  <cellXfs count="300">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -2330,9 +2338,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="10" fontId="4" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2341,9 +2346,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="4" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="6" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
@@ -2351,6 +2353,18 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="180" fontId="4" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="14" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2806,7 +2820,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48ED7348-D356-493F-B1FA-0B9102624322}">
   <dimension ref="A2:M98"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A73" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C73" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E91" sqref="E91:F98"/>
     </sheetView>
   </sheetViews>
@@ -2828,7 +2842,7 @@
         <v>179</v>
       </c>
       <c r="C4" s="185" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
@@ -2836,7 +2850,7 @@
         <v>180</v>
       </c>
       <c r="C5" s="188" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
@@ -2869,7 +2883,7 @@
         <v>201</v>
       </c>
       <c r="C9" s="189" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
@@ -2885,7 +2899,7 @@
         <v>203</v>
       </c>
       <c r="C11" s="189" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
@@ -2928,6 +2942,9 @@
         <v>0.25</v>
       </c>
       <c r="D16" s="24"/>
+      <c r="E16" s="109" t="s">
+        <v>269</v>
+      </c>
     </row>
     <row r="17" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B17" s="235" t="s">
@@ -3384,11 +3401,11 @@
       </c>
       <c r="C45" s="150">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>3.1982313667470821E-3</v>
+        <v>3.2100725123538308E-3</v>
       </c>
       <c r="D45" s="150">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>9.8633863490604789E-4</v>
+        <v>9.8999045932216694E-4</v>
       </c>
       <c r="E45" s="150" t="str">
         <f>IF(E44="","",E44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -3817,11 +3834,11 @@
       <c r="B89" s="105" t="s">
         <v>121</v>
       </c>
-      <c r="C89" s="282">
+      <c r="C89" s="284">
         <f>C24</f>
         <v>45291</v>
       </c>
-      <c r="D89" s="282"/>
+      <c r="D89" s="284"/>
       <c r="E89" s="88" t="s">
         <v>191</v>
       </c>
@@ -3835,10 +3852,10 @@
         <f>"(Numbers in "&amp;Data!C4&amp;Dashboard!G6&amp;")"</f>
         <v>(Numbers in 1000CNY)</v>
       </c>
-      <c r="C90" s="283" t="s">
+      <c r="C90" s="285" t="s">
         <v>96</v>
       </c>
-      <c r="D90" s="283"/>
+      <c r="D90" s="285"/>
       <c r="E90" s="230" t="s">
         <v>97</v>
       </c>
@@ -4060,8 +4077,11 @@
       <formula1>"Consumer Monopoly,Unclear,Commodity-type Business"</formula1>
     </dataValidation>
   </dataValidations>
+  <hyperlinks>
+    <hyperlink ref="E16" r:id="rId1" xr:uid="{F8B38130-6ADB-477B-BA33-0F2CE7EF4838}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -4074,8 +4094,8 @@
   </sheetPr>
   <dimension ref="A1:J923"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView showGridLines="0" topLeftCell="A9" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B40" sqref="B40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -4118,60 +4138,60 @@
       <c r="B3" s="3" t="s">
         <v>179</v>
       </c>
-      <c r="C3" s="288" t="str">
+      <c r="C3" s="290" t="str">
         <f>Inputs!C4</f>
         <v>9992.HK</v>
       </c>
-      <c r="D3" s="289"/>
+      <c r="D3" s="291"/>
       <c r="E3" s="86"/>
       <c r="F3" s="3" t="s">
         <v>1</v>
       </c>
       <c r="G3" s="130">
-        <v>94.2</v>
+        <v>93.8</v>
       </c>
       <c r="H3" s="132" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B4" s="35" t="s">
         <v>180</v>
       </c>
-      <c r="C4" s="290" t="str">
+      <c r="C4" s="292" t="str">
         <f>Inputs!C5</f>
         <v>POP MART</v>
       </c>
-      <c r="D4" s="291"/>
+      <c r="D4" s="293"/>
       <c r="E4" s="86"/>
       <c r="F4" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="G4" s="294">
+      <c r="G4" s="296">
         <f>Inputs!C10</f>
         <v>1342943150</v>
       </c>
-      <c r="H4" s="294"/>
+      <c r="H4" s="296"/>
       <c r="I4" s="39"/>
     </row>
     <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B5" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="C5" s="292">
+      <c r="C5" s="294">
         <f>Inputs!C6</f>
         <v>45630</v>
       </c>
-      <c r="D5" s="293"/>
+      <c r="D5" s="295"/>
       <c r="E5" s="34"/>
       <c r="F5" s="35" t="s">
         <v>95</v>
       </c>
-      <c r="G5" s="286">
+      <c r="G5" s="288">
         <f>G3*G4/1000000</f>
-        <v>126505.24473000001</v>
-      </c>
-      <c r="H5" s="286"/>
+        <v>125968.06746999999</v>
+      </c>
+      <c r="H5" s="288"/>
       <c r="I5" s="38"/>
       <c r="J5" s="28"/>
     </row>
@@ -4194,11 +4214,11 @@
       <c r="F6" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G6" s="287" t="str">
+      <c r="G6" s="289" t="str">
         <f>Inputs!C11</f>
         <v>CNY</v>
       </c>
-      <c r="H6" s="287"/>
+      <c r="H6" s="289"/>
       <c r="I6" s="38"/>
     </row>
     <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -4218,7 +4238,7 @@
         <v>5</v>
       </c>
       <c r="G7" s="131">
-        <v>1.0679666598637898</v>
+        <v>1.067369023958842</v>
       </c>
       <c r="H7" s="71" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -4339,7 +4359,7 @@
         <v>250</v>
       </c>
       <c r="C20" s="271" t="e">
-        <f>C23*C22*(1/C21)</f>
+        <f>C21*C22*C23</f>
         <v>#DIV/0!</v>
       </c>
       <c r="F20" s="86" t="s">
@@ -4351,20 +4371,20 @@
     </row>
     <row r="21" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B21" s="272" t="s">
-        <v>248</v>
-      </c>
-      <c r="C21" s="273" t="e">
-        <f>Data!C53</f>
-        <v>#DIV/0!</v>
+        <v>255</v>
+      </c>
+      <c r="C21" s="283">
+        <f>Data!C13</f>
+        <v>0.18147838497221025</v>
       </c>
       <c r="F21" s="86"/>
       <c r="G21" s="29"/>
     </row>
     <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B22" s="274" t="s">
+      <c r="B22" s="273" t="s">
         <v>262</v>
       </c>
-      <c r="C22" s="275" t="e">
+      <c r="C22" s="274" t="e">
         <f>Data!C48</f>
         <v>#DIV/0!</v>
       </c>
@@ -4373,12 +4393,12 @@
       </c>
     </row>
     <row r="23" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B23" s="276" t="s">
-        <v>255</v>
-      </c>
-      <c r="C23" s="277">
-        <f>Data!C13</f>
-        <v>0.18147838497221025</v>
+      <c r="B23" s="275" t="s">
+        <v>268</v>
+      </c>
+      <c r="C23" s="282" t="e">
+        <f>1/Data!C53</f>
+        <v>#DIV/0!</v>
       </c>
       <c r="F23" s="138" t="s">
         <v>174</v>
@@ -4389,10 +4409,10 @@
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B24" s="135" t="s">
+      <c r="B24" s="280" t="s">
         <v>256</v>
       </c>
-      <c r="C24" s="168">
+      <c r="C24" s="281">
         <f>Fin_Analysis!I81</f>
         <v>5.1320409039705113E-3</v>
       </c>
@@ -4401,7 +4421,7 @@
       </c>
       <c r="G24" s="263">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>142.1390782593011</v>
+        <v>141.61476314940865</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -4433,7 +4453,7 @@
       </c>
       <c r="G26" s="175">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>3.1982313667470821E-3</v>
+        <v>3.2100725123538308E-3</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -4452,10 +4472,10 @@
       <c r="F28" s="53" t="s">
         <v>221</v>
       </c>
-      <c r="G28" s="284" t="s">
+      <c r="G28" s="286" t="s">
         <v>238</v>
       </c>
-      <c r="H28" s="284"/>
+      <c r="H28" s="286"/>
     </row>
     <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B29" s="86" t="s">
@@ -4463,22 +4483,22 @@
       </c>
       <c r="C29" s="128">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>4.3782933518588552</v>
+        <v>4.3764092040083415</v>
       </c>
       <c r="D29" s="127">
         <f>G29*(1+G20)</f>
-        <v>7.8781460120090046</v>
+        <v>7.8747557430887509</v>
       </c>
       <c r="E29" s="86"/>
       <c r="F29" s="129">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>5.1509333551280649</v>
-      </c>
-      <c r="G29" s="285">
+        <v>5.1487167105980491</v>
+      </c>
+      <c r="G29" s="287">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>6.850561749573048</v>
-      </c>
-      <c r="H29" s="285"/>
+        <v>6.8476136896423929</v>
+      </c>
+      <c r="H29" s="287"/>
     </row>
     <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5509,7 +5529,7 @@
       <formula>LEN(TRIM(G20))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="3">
+  <dataValidations disablePrompts="1" count="3">
     <dataValidation type="list" allowBlank="1" sqref="G6" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"HKD,USD,CNY,EUR"</formula1>
     </dataValidation>
@@ -7750,7 +7770,7 @@
       <c r="B47" s="101" t="s">
         <v>246</v>
       </c>
-      <c r="C47" s="278" t="s">
+      <c r="C47" s="276" t="s">
         <v>263</v>
       </c>
       <c r="D47" s="36"/>
@@ -9677,7 +9697,7 @@
       <c r="H3" s="47" t="s">
         <v>21</v>
       </c>
-      <c r="I3" s="280">
+      <c r="I3" s="278">
         <f>D3-D4</f>
         <v>0</v>
       </c>
@@ -10724,7 +10744,7 @@
       <c r="B48" s="80" t="s">
         <v>79</v>
       </c>
-      <c r="C48" s="281">
+      <c r="C48" s="279">
         <f>SUM(C30:C42)</f>
         <v>0</v>
       </c>
@@ -10741,7 +10761,7 @@
       <c r="H48" s="80" t="s">
         <v>80</v>
       </c>
-      <c r="I48" s="279">
+      <c r="I48" s="277">
         <f>I49-I28</f>
         <v>0</v>
       </c>
@@ -10850,11 +10870,11 @@
         <v>85</v>
       </c>
       <c r="C56" s="86"/>
-      <c r="D56" s="295">
+      <c r="D56" s="297">
         <f>I15+I34</f>
         <v>0</v>
       </c>
-      <c r="E56" s="293"/>
+      <c r="E56" s="295"/>
       <c r="F56" s="3"/>
       <c r="G56" s="3"/>
       <c r="I56" s="56"/>
@@ -10865,11 +10885,11 @@
         <v>86</v>
       </c>
       <c r="C57" s="86"/>
-      <c r="D57" s="294">
+      <c r="D57" s="296">
         <f>Inputs!C84</f>
         <v>0</v>
       </c>
-      <c r="E57" s="293"/>
+      <c r="E57" s="295"/>
       <c r="G57" s="86"/>
       <c r="I57" s="86"/>
       <c r="K57" s="33" t="s">
@@ -10881,11 +10901,11 @@
         <v>88</v>
       </c>
       <c r="C58" s="86"/>
-      <c r="D58" s="294">
+      <c r="D58" s="296">
         <f>Inputs!C85</f>
         <v>0</v>
       </c>
-      <c r="E58" s="293"/>
+      <c r="E58" s="295"/>
       <c r="F58" s="3"/>
       <c r="G58" s="3"/>
       <c r="I58" s="86"/>
@@ -11099,19 +11119,19 @@
       <c r="B72" s="105" t="s">
         <v>121</v>
       </c>
-      <c r="C72" s="282">
+      <c r="C72" s="284">
         <f>Data!C5</f>
         <v>45291</v>
       </c>
-      <c r="D72" s="282"/>
-      <c r="E72" s="296" t="s">
+      <c r="D72" s="284"/>
+      <c r="E72" s="298" t="s">
         <v>191</v>
       </c>
-      <c r="F72" s="296"/>
-      <c r="H72" s="296" t="s">
+      <c r="F72" s="298"/>
+      <c r="H72" s="298" t="s">
         <v>190</v>
       </c>
-      <c r="I72" s="296"/>
+      <c r="I72" s="298"/>
       <c r="K72" s="50" t="s">
         <v>7</v>
       </c>
@@ -11121,18 +11141,18 @@
         <f>"(Numbers in "&amp;Data!C4&amp;Dashboard!G6&amp;")"</f>
         <v>(Numbers in 1000CNY)</v>
       </c>
-      <c r="C73" s="283" t="s">
+      <c r="C73" s="285" t="s">
         <v>96</v>
       </c>
-      <c r="D73" s="283"/>
-      <c r="E73" s="297" t="s">
+      <c r="D73" s="285"/>
+      <c r="E73" s="299" t="s">
         <v>97</v>
       </c>
-      <c r="F73" s="283"/>
-      <c r="H73" s="297" t="s">
+      <c r="F73" s="285"/>
+      <c r="H73" s="299" t="s">
         <v>97</v>
       </c>
-      <c r="I73" s="283"/>
+      <c r="I73" s="285"/>
       <c r="K73" s="24"/>
     </row>
     <row r="74" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -11499,17 +11519,17 @@
       </c>
       <c r="C87" s="256">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>7.0353629152971062E-3</v>
+        <v>7.0614106732993943E-3</v>
       </c>
       <c r="D87" s="204"/>
       <c r="E87" s="257">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>7.0353629152971062E-3</v>
+        <v>7.0614106732993943E-3</v>
       </c>
       <c r="F87" s="204"/>
       <c r="H87" s="257">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>7.0353629152971062E-3</v>
+        <v>7.0614106732993943E-3</v>
       </c>
       <c r="I87" s="204"/>
       <c r="K87" s="24"/>
@@ -11550,17 +11570,17 @@
       </c>
       <c r="C89" s="256">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>3.1982313667470821E-3</v>
+        <v>3.2100725123538308E-3</v>
       </c>
       <c r="D89" s="204"/>
       <c r="E89" s="256">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>3.1982313667470821E-3</v>
+        <v>3.2100725123538308E-3</v>
       </c>
       <c r="F89" s="204"/>
       <c r="H89" s="256">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>3.1982313667470821E-3</v>
+        <v>3.2100725123538308E-3</v>
       </c>
       <c r="I89" s="204"/>
       <c r="K89" s="24"/>
@@ -11591,15 +11611,15 @@
       <c r="D92" s="10" t="s">
         <v>147</v>
       </c>
-      <c r="E92" s="296" t="s">
+      <c r="E92" s="298" t="s">
         <v>191</v>
       </c>
-      <c r="F92" s="296"/>
+      <c r="F92" s="298"/>
       <c r="G92" s="86"/>
-      <c r="H92" s="296" t="s">
+      <c r="H92" s="298" t="s">
         <v>190</v>
       </c>
-      <c r="I92" s="296"/>
+      <c r="I92" s="298"/>
       <c r="K92" s="24"/>
     </row>
     <row r="93" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -11620,14 +11640,14 @@
       </c>
       <c r="F93" s="142">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>10.360366826170321</v>
+        <v>10.35590836226274</v>
       </c>
       <c r="H93" s="86" t="s">
         <v>194</v>
       </c>
       <c r="I93" s="142">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>10.360366826170321</v>
+        <v>10.35590836226274</v>
       </c>
       <c r="K93" s="24"/>
     </row>
@@ -11648,14 +11668,14 @@
       </c>
       <c r="F94" s="142">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
-        <v>4.6207097339069847</v>
+        <v>4.6183965312715625</v>
       </c>
       <c r="H94" s="86" t="s">
         <v>195</v>
       </c>
       <c r="I94" s="142">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>4.6207097339069847</v>
+        <v>4.6183965312715625</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -11698,21 +11718,21 @@
       </c>
       <c r="C97" s="90">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>6917410.6653757524</v>
+        <v>6914433.8377881823</v>
       </c>
       <c r="D97" s="208"/>
       <c r="E97" s="121">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>5.1509333551280649</v>
+        <v>5.1487167105980491</v>
       </c>
       <c r="F97" s="208"/>
       <c r="H97" s="121">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>5.1509333551280649</v>
+        <v>5.1487167105980491</v>
       </c>
       <c r="I97" s="121">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>6.850561749573048</v>
+        <v>6.8476136896423929</v>
       </c>
       <c r="K97" s="24"/>
     </row>
@@ -11761,27 +11781,27 @@
       </c>
       <c r="C100" s="90">
         <f>C97+C98+$C$99</f>
-        <v>6917410.6653757524</v>
+        <v>6914433.8377881823</v>
       </c>
       <c r="D100" s="108">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>4.3782933518588552</v>
+        <v>4.3764092040083415</v>
       </c>
       <c r="E100" s="108">
         <f>MAX(E97+H98+E99,0)</f>
-        <v>5.1509333551280649</v>
+        <v>5.1487167105980491</v>
       </c>
       <c r="F100" s="108">
         <f>(E100+H100)/2</f>
-        <v>5.1509333551280649</v>
+        <v>5.1487167105980491</v>
       </c>
       <c r="H100" s="108">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>5.1509333551280649</v>
+        <v>5.1487167105980491</v>
       </c>
       <c r="I100" s="108">
         <f>MAX(I97+H98+H99,0)</f>
-        <v>6.850561749573048</v>
+        <v>6.8476136896423929</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -11822,27 +11842,27 @@
       </c>
       <c r="C103" s="90">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>3085155.8956574984</v>
+        <v>3083611.41631136</v>
       </c>
       <c r="D103" s="108">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>1.9527129732251687</v>
+        <v>1.9517354132709606</v>
       </c>
       <c r="E103" s="121">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>2.2973093802649043</v>
+        <v>2.2961593097305419</v>
       </c>
       <c r="F103" s="108">
         <f>(E103+H103)/2</f>
-        <v>2.2973093802649043</v>
+        <v>2.2961593097305419</v>
       </c>
       <c r="H103" s="121">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>2.2973093802649043</v>
+        <v>2.2961593097305419</v>
       </c>
       <c r="I103" s="108">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>3.0553413687075039</v>
+        <v>3.0538118149996945</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -11883,27 +11903,27 @@
       </c>
       <c r="C106" s="90">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>5001283.2805166254</v>
+        <v>4999022.6270497711</v>
       </c>
       <c r="D106" s="108">
         <f>(D100+D103)/2</f>
-        <v>3.165503162542012</v>
+        <v>3.1640723086396512</v>
       </c>
       <c r="E106" s="121">
         <f>(E100+E103)/2</f>
-        <v>3.7241213676964846</v>
+        <v>3.7224380101642955</v>
       </c>
       <c r="F106" s="108">
         <f>(F100+F103)/2</f>
-        <v>3.7241213676964846</v>
+        <v>3.7224380101642955</v>
       </c>
       <c r="H106" s="121">
         <f>(H100+H103)/2</f>
-        <v>3.7241213676964846</v>
+        <v>3.7224380101642955</v>
       </c>
       <c r="I106" s="121">
         <f>(I100+I103)/2</f>
-        <v>4.952951559140276</v>
+        <v>4.9507127523210439</v>
       </c>
       <c r="K106" s="24"/>
     </row>

--- a/financial_models/opportunities/9992.HK_Valuation.xlsx
+++ b/financial_models/opportunities/9992.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{810B7BAF-8025-408D-85AA-520F9FC22651}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{EA02A236-1EF9-4CF0-A368-8A0334308487}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3401,11 +3401,11 @@
       </c>
       <c r="C45" s="150">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>3.2100725123538308E-3</v>
+        <v>3.1862839630732082E-3</v>
       </c>
       <c r="D45" s="150">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>9.8999045932216694E-4</v>
+        <v>9.8265404036642712E-4</v>
       </c>
       <c r="E45" s="150" t="str">
         <f>IF(E44="","",E44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -4148,7 +4148,7 @@
         <v>1</v>
       </c>
       <c r="G3" s="130">
-        <v>93.8</v>
+        <v>94.35</v>
       </c>
       <c r="H3" s="132" t="s">
         <v>274</v>
@@ -4189,7 +4189,7 @@
       </c>
       <c r="G5" s="288">
         <f>G3*G4/1000000</f>
-        <v>125968.06746999999</v>
+        <v>126706.68620249999</v>
       </c>
       <c r="H5" s="288"/>
       <c r="I5" s="38"/>
@@ -4238,7 +4238,7 @@
         <v>5</v>
       </c>
       <c r="G7" s="131">
-        <v>1.067369023958842</v>
+        <v>1.0656713644663494</v>
       </c>
       <c r="H7" s="71" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -4421,7 +4421,7 @@
       </c>
       <c r="G24" s="263">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>141.61476314940865</v>
+        <v>142.67204800257477</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -4453,7 +4453,7 @@
       </c>
       <c r="G26" s="175">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>3.2100725123538308E-3</v>
+        <v>3.1862839630732082E-3</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -4483,20 +4483,20 @@
       </c>
       <c r="C29" s="128">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>4.3764092040083415</v>
+        <v>4.3683133723385712</v>
       </c>
       <c r="D29" s="127">
         <f>G29*(1+G20)</f>
-        <v>7.8747557430887509</v>
+        <v>7.8601883902739802</v>
       </c>
       <c r="E29" s="86"/>
       <c r="F29" s="129">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>5.1487167105980491</v>
+        <v>5.1391922027512607</v>
       </c>
       <c r="G29" s="287">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>6.8476136896423929</v>
+        <v>6.8349464263252004</v>
       </c>
       <c r="H29" s="287"/>
     </row>
@@ -9648,7 +9648,7 @@
   <dimension ref="A2:K108"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+      <selection activeCell="C99" sqref="C99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -11519,17 +11519,17 @@
       </c>
       <c r="C87" s="256">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>7.0614106732993943E-3</v>
+        <v>7.0090814143352956E-3</v>
       </c>
       <c r="D87" s="204"/>
       <c r="E87" s="257">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>7.0614106732993943E-3</v>
+        <v>7.0090814143352956E-3</v>
       </c>
       <c r="F87" s="204"/>
       <c r="H87" s="257">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>7.0614106732993943E-3</v>
+        <v>7.0090814143352956E-3</v>
       </c>
       <c r="I87" s="204"/>
       <c r="K87" s="24"/>
@@ -11570,17 +11570,17 @@
       </c>
       <c r="C89" s="256">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>3.2100725123538308E-3</v>
+        <v>3.1862839630732082E-3</v>
       </c>
       <c r="D89" s="204"/>
       <c r="E89" s="256">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>3.2100725123538308E-3</v>
+        <v>3.1862839630732082E-3</v>
       </c>
       <c r="F89" s="204"/>
       <c r="H89" s="256">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>3.2100725123538308E-3</v>
+        <v>3.1862839630732082E-3</v>
       </c>
       <c r="I89" s="204"/>
       <c r="K89" s="24"/>
@@ -11640,14 +11640,14 @@
       </c>
       <c r="F93" s="142">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>10.35590836226274</v>
+        <v>10.336751174947702</v>
       </c>
       <c r="H93" s="86" t="s">
         <v>194</v>
       </c>
       <c r="I93" s="142">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>10.35590836226274</v>
+        <v>10.336751174947702</v>
       </c>
       <c r="K93" s="24"/>
     </row>
@@ -11668,14 +11668,14 @@
       </c>
       <c r="F94" s="142">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
-        <v>4.6183965312715625</v>
+        <v>4.6105042621862564</v>
       </c>
       <c r="H94" s="86" t="s">
         <v>195</v>
       </c>
       <c r="I94" s="142">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>4.6183965312715625</v>
+        <v>4.6105042621862564</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -11718,21 +11718,21 @@
       </c>
       <c r="C97" s="90">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>6914433.8377881823</v>
+        <v>6901642.9652182171</v>
       </c>
       <c r="D97" s="208"/>
       <c r="E97" s="121">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>5.1487167105980491</v>
+        <v>5.1391922027512607</v>
       </c>
       <c r="F97" s="208"/>
       <c r="H97" s="121">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>5.1487167105980491</v>
+        <v>5.1391922027512607</v>
       </c>
       <c r="I97" s="121">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>6.8476136896423929</v>
+        <v>6.8349464263252004</v>
       </c>
       <c r="K97" s="24"/>
     </row>
@@ -11759,7 +11759,7 @@
         <v>139</v>
       </c>
       <c r="C99" s="107">
-        <f>(E65-IF(E70&lt;0,MIN(E65,ABS(E70)),0))*Exchange_Rate</f>
+        <f>(E65+IF(E70&lt;0,E70,0))*Exchange_Rate</f>
         <v>0</v>
       </c>
       <c r="D99" s="209"/>
@@ -11781,27 +11781,27 @@
       </c>
       <c r="C100" s="90">
         <f>C97+C98+$C$99</f>
-        <v>6914433.8377881823</v>
+        <v>6901642.9652182171</v>
       </c>
       <c r="D100" s="108">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>4.3764092040083415</v>
+        <v>4.3683133723385712</v>
       </c>
       <c r="E100" s="108">
         <f>MAX(E97+H98+E99,0)</f>
-        <v>5.1487167105980491</v>
+        <v>5.1391922027512607</v>
       </c>
       <c r="F100" s="108">
         <f>(E100+H100)/2</f>
-        <v>5.1487167105980491</v>
+        <v>5.1391922027512607</v>
       </c>
       <c r="H100" s="108">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>5.1487167105980491</v>
+        <v>5.1391922027512607</v>
       </c>
       <c r="I100" s="108">
         <f>MAX(I97+H98+H99,0)</f>
-        <v>6.8476136896423929</v>
+        <v>6.8349464263252004</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -11842,27 +11842,27 @@
       </c>
       <c r="C103" s="90">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>3083611.41631136</v>
+        <v>3078341.905370221</v>
       </c>
       <c r="D103" s="108">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>1.9517354132709606</v>
+        <v>1.9484001385797216</v>
       </c>
       <c r="E103" s="121">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>2.2961593097305419</v>
+        <v>2.2922354571526138</v>
       </c>
       <c r="F103" s="108">
         <f>(E103+H103)/2</f>
-        <v>2.2961593097305419</v>
+        <v>2.2922354571526138</v>
       </c>
       <c r="H103" s="121">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>2.2961593097305419</v>
+        <v>2.2922354571526138</v>
       </c>
       <c r="I103" s="108">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>3.0538118149996945</v>
+        <v>3.0485932278955619</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -11903,27 +11903,27 @@
       </c>
       <c r="C106" s="90">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>4999022.6270497711</v>
+        <v>4989992.4352942193</v>
       </c>
       <c r="D106" s="108">
         <f>(D100+D103)/2</f>
-        <v>3.1640723086396512</v>
+        <v>3.1583567554591463</v>
       </c>
       <c r="E106" s="121">
         <f>(E100+E103)/2</f>
-        <v>3.7224380101642955</v>
+        <v>3.7157138299519374</v>
       </c>
       <c r="F106" s="108">
         <f>(F100+F103)/2</f>
-        <v>3.7224380101642955</v>
+        <v>3.7157138299519374</v>
       </c>
       <c r="H106" s="121">
         <f>(H100+H103)/2</f>
-        <v>3.7224380101642955</v>
+        <v>3.7157138299519374</v>
       </c>
       <c r="I106" s="121">
         <f>(I100+I103)/2</f>
-        <v>4.9507127523210439</v>
+        <v>4.9417698271103809</v>
       </c>
       <c r="K106" s="24"/>
     </row>

--- a/financial_models/opportunities/9992.HK_Valuation.xlsx
+++ b/financial_models/opportunities/9992.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{00AFD185-D4EC-4E1F-ABA7-B5CEE3D403AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{831B38D4-B5C5-4D7C-AC1C-C7F308E67DCC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3614,11 +3614,11 @@
       </c>
       <c r="C45" s="87">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>3.5371483819842042E-3</v>
+        <v>3.5120916374947607E-3</v>
       </c>
       <c r="D45" s="87">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>1.0908610749118246E-3</v>
+        <v>1.0831335429352859E-3</v>
       </c>
       <c r="E45" s="87" t="str">
         <f>IF(E44="","",E44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -4361,7 +4361,7 @@
         <v>1</v>
       </c>
       <c r="G3" s="10">
-        <v>84.85</v>
+        <v>85.45</v>
       </c>
       <c r="H3" s="11" t="s">
         <v>259</v>
@@ -4402,7 +4402,7 @@
       </c>
       <c r="G5" s="313">
         <f>G3*G4/1000000</f>
-        <v>113948.72627749998</v>
+        <v>114754.49216749999</v>
       </c>
       <c r="H5" s="313"/>
       <c r="I5" s="17"/>
@@ -4451,7 +4451,7 @@
         <v>5</v>
       </c>
       <c r="G7" s="21">
-        <v>1.0639030138651531</v>
+        <v>1.0638363361358643</v>
       </c>
       <c r="H7" s="22" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -4582,7 +4582,7 @@
         <v>0.15</v>
       </c>
       <c r="H20" s="307">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
@@ -4639,7 +4639,7 @@
       </c>
       <c r="G24" s="43">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>128.51981580552339</v>
+        <v>129.43673043044086</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -4671,7 +4671,7 @@
       </c>
       <c r="G26" s="47">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>3.5371483819842042E-3</v>
+        <v>3.5120916374947607E-3</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -4701,20 +4701,20 @@
       </c>
       <c r="C29" s="53">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>5.7005878818260971</v>
+        <v>4.3763316252007112</v>
       </c>
       <c r="D29" s="54">
         <f>G29*(1+G20)</f>
-        <v>9.1517197540648443</v>
+        <v>7.874616150529544</v>
       </c>
       <c r="E29" s="3"/>
       <c r="F29" s="55">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>6.7065739786189384</v>
+        <v>5.1486254414126016</v>
       </c>
       <c r="G29" s="312">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>7.958017177447692</v>
+        <v>6.8474923048082994</v>
       </c>
       <c r="H29" s="312"/>
     </row>
@@ -11751,17 +11751,17 @@
       </c>
       <c r="C87" s="238">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>7.7809012853955794E-3</v>
+        <v>7.7257822928198791E-3</v>
       </c>
       <c r="D87" s="103"/>
       <c r="E87" s="239">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>7.7809012853955794E-3</v>
+        <v>7.7257822928198791E-3</v>
       </c>
       <c r="F87" s="103"/>
       <c r="H87" s="239">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>7.7809012853955794E-3</v>
+        <v>7.7257822928198791E-3</v>
       </c>
       <c r="I87" s="103"/>
       <c r="K87" s="75"/>
@@ -11802,17 +11802,17 @@
       </c>
       <c r="C89" s="238">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>3.5371483819842042E-3</v>
+        <v>3.5120916374947607E-3</v>
       </c>
       <c r="D89" s="103"/>
       <c r="E89" s="238">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>3.5371483819842042E-3</v>
+        <v>3.5120916374947607E-3</v>
       </c>
       <c r="F89" s="103"/>
       <c r="H89" s="238">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>3.5371483819842042E-3</v>
+        <v>3.5120916374947607E-3</v>
       </c>
       <c r="I89" s="103"/>
       <c r="K89" s="75"/>
@@ -11865,21 +11865,21 @@
       </c>
       <c r="D93" s="259">
         <f>Dashboard!H20</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E93" s="3" t="s">
         <v>184</v>
       </c>
       <c r="F93" s="243">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>10.199860699732074</v>
+        <v>10.355724787330594</v>
       </c>
       <c r="H93" s="3" t="s">
         <v>184</v>
       </c>
       <c r="I93" s="243">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>10.199860699732074</v>
+        <v>10.355724787330594</v>
       </c>
       <c r="K93" s="75"/>
     </row>
@@ -11900,14 +11900,14 @@
       </c>
       <c r="F94" s="243">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
-        <v>4.5784618892466939</v>
+        <v>4.6100440212387968</v>
       </c>
       <c r="H94" s="3" t="s">
         <v>185</v>
       </c>
       <c r="I94" s="243">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>4.5784618892466939</v>
+        <v>4.6100440212387968</v>
       </c>
       <c r="K94" s="75"/>
     </row>
@@ -11950,21 +11950,21 @@
       </c>
       <c r="C97" s="249">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>9006547.5845545493</v>
+        <v>6914311.2684607795</v>
       </c>
       <c r="D97" s="250"/>
       <c r="E97" s="251">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>6.7065739786189384</v>
+        <v>5.1486254414126016</v>
       </c>
       <c r="F97" s="250"/>
       <c r="H97" s="251">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>6.7065739786189384</v>
+        <v>5.1486254414126016</v>
       </c>
       <c r="I97" s="251">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>7.958017177447692</v>
+        <v>6.8474923048082994</v>
       </c>
       <c r="K97" s="75"/>
     </row>
@@ -12014,23 +12014,23 @@
       <c r="C100" s="249"/>
       <c r="D100" s="257">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>5.7005878818260971</v>
+        <v>4.3763316252007112</v>
       </c>
       <c r="E100" s="257">
         <f>MAX(E97+H98+E99,0)</f>
-        <v>6.7065739786189384</v>
+        <v>5.1486254414126016</v>
       </c>
       <c r="F100" s="257">
         <f>(E100+H100)/2</f>
-        <v>6.7065739786189384</v>
+        <v>5.1486254414126016</v>
       </c>
       <c r="H100" s="257">
         <f>MAX(H97+H98+H99,0)</f>
-        <v>6.7065739786189384</v>
+        <v>5.1486254414126016</v>
       </c>
       <c r="I100" s="257">
         <f>MAX(I97+H98+H99,0)</f>
-        <v>7.958017177447692</v>
+        <v>6.8474923048082994</v>
       </c>
       <c r="K100" s="75"/>
     </row>
@@ -12069,23 +12069,23 @@
       <c r="C103" s="249"/>
       <c r="D103" s="257">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>2.5588510599882901</v>
+        <v>1.9482056406517692</v>
       </c>
       <c r="E103" s="251">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>3.0104130117509298</v>
+        <v>2.292006636060905</v>
       </c>
       <c r="F103" s="257">
         <f>(E103+H103)/2</f>
-        <v>3.0104130117509298</v>
+        <v>2.292006636060905</v>
       </c>
       <c r="H103" s="251">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>3.0104130117509298</v>
+        <v>2.292006636060905</v>
       </c>
       <c r="I103" s="257">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>3.5721545061759397</v>
+        <v>3.0482889038225678</v>
       </c>
       <c r="K103" s="75"/>
     </row>
@@ -12124,23 +12124,23 @@
       <c r="C106" s="249"/>
       <c r="D106" s="257">
         <f>(D100+D103)/2</f>
-        <v>4.1297194709071938</v>
+        <v>3.1622686329262404</v>
       </c>
       <c r="E106" s="251">
         <f>(E100+E103)/2</f>
-        <v>4.8584934951849341</v>
+        <v>3.7203160387367533</v>
       </c>
       <c r="F106" s="257">
         <f>(F100+F103)/2</f>
-        <v>4.8584934951849341</v>
+        <v>3.7203160387367533</v>
       </c>
       <c r="H106" s="251">
         <f>(H100+H103)/2</f>
-        <v>4.8584934951849341</v>
+        <v>3.7203160387367533</v>
       </c>
       <c r="I106" s="251">
         <f>(I100+I103)/2</f>
-        <v>5.7650858418118158</v>
+        <v>4.9478906043154334</v>
       </c>
       <c r="K106" s="75"/>
     </row>

--- a/financial_models/opportunities/9992.HK_Valuation.xlsx
+++ b/financial_models/opportunities/9992.HK_Valuation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{831B38D4-B5C5-4D7C-AC1C-C7F308E67DCC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1B6C9622-CB66-423F-BBDE-7435E801FD74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Inputs" sheetId="4" r:id="rId1"/>
@@ -2582,6 +2582,9 @@
     <xf numFmtId="181" fontId="37" fillId="13" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -2598,9 +2601,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="177" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2814,11 +2814,11 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FF0000FF"/>
+      <color rgb="FFFFFFCC"/>
       <color rgb="FFB6D7A8"/>
       <color rgb="FF2F75B5"/>
-      <color rgb="FFFFFFCC"/>
       <color rgb="FFFF0000"/>
-      <color rgb="FF0000FF"/>
       <color rgb="FFCCFF33"/>
     </mruColors>
   </colors>
@@ -3033,7 +3033,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48ED7348-D356-493F-B1FA-0B9102624322}">
   <dimension ref="A2:M98"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A69" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A69" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E91" sqref="E91:F98"/>
     </sheetView>
   </sheetViews>
@@ -3058,6 +3058,7 @@
       <c r="C4" s="66" t="s">
         <v>282</v>
       </c>
+      <c r="D4" s="66"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B5" s="46" t="s">
@@ -3614,11 +3615,11 @@
       </c>
       <c r="C45" s="87">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>3.5120916374947607E-3</v>
+        <v>3.499804436430639E-3</v>
       </c>
       <c r="D45" s="87">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>1.0831335429352859E-3</v>
+        <v>1.0793441544468827E-3</v>
       </c>
       <c r="E45" s="87" t="str">
         <f>IF(E44="","",E44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -4266,7 +4267,7 @@
       <formula>LEN(TRIM(E98))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="8">
+  <dataValidations count="9">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C8" xr:uid="{4F1A5CDA-569A-4509-AA2D-9CF95C6DB1A5}">
       <formula1>"Tier 1, Superior Cycl. ,Tier 3, N"</formula1>
     </dataValidation>
@@ -4289,6 +4290,9 @@
     <dataValidation type="list" allowBlank="1" sqref="C22" xr:uid="{AC11383D-4B80-4250-901A-577B0CB0078C}">
       <formula1>"Consumer Monopoly,Unclear,Commodity-type Business"</formula1>
     </dataValidation>
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="D4" xr:uid="{EC47C593-A7DE-4ABB-B6D2-C8BF531E4639}">
+      <formula1>"HOLD"</formula1>
+    </dataValidation>
   </dataValidations>
   <hyperlinks>
     <hyperlink ref="E16" r:id="rId1" xr:uid="{F8B38130-6ADB-477B-BA33-0F2CE7EF4838}"/>
@@ -4307,8 +4311,8 @@
   </sheetPr>
   <dimension ref="A1:J923"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -4344,24 +4348,27 @@
       <c r="D2" s="3"/>
       <c r="E2" s="7"/>
       <c r="F2" s="7"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="8"/>
+      <c r="G2" s="311" t="str">
+        <f>IF(Inputs!D4="","",Inputs!D4)</f>
+        <v/>
+      </c>
+      <c r="H2" s="311"/>
     </row>
     <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B3" s="9" t="s">
         <v>169</v>
       </c>
-      <c r="C3" s="315" t="str">
+      <c r="C3" s="316" t="str">
         <f>Inputs!C4</f>
         <v>9992.HK</v>
       </c>
-      <c r="D3" s="316"/>
+      <c r="D3" s="317"/>
       <c r="E3" s="3"/>
       <c r="F3" s="9" t="s">
         <v>1</v>
       </c>
       <c r="G3" s="10">
-        <v>85.45</v>
+        <v>85.75</v>
       </c>
       <c r="H3" s="11" t="s">
         <v>259</v>
@@ -4371,7 +4378,7 @@
       <c r="B4" s="12" t="s">
         <v>170</v>
       </c>
-      <c r="C4" s="317" t="str">
+      <c r="C4" s="311" t="str">
         <f>Inputs!C5</f>
         <v>POP MART</v>
       </c>
@@ -4400,11 +4407,11 @@
       <c r="F5" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="G5" s="313">
+      <c r="G5" s="314">
         <f>G3*G4/1000000</f>
-        <v>114754.49216749999</v>
-      </c>
-      <c r="H5" s="313"/>
+        <v>115157.3751125</v>
+      </c>
+      <c r="H5" s="314"/>
       <c r="I5" s="17"/>
       <c r="J5" s="18"/>
     </row>
@@ -4427,11 +4434,11 @@
       <c r="F6" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="G6" s="314" t="str">
+      <c r="G6" s="315" t="str">
         <f>Inputs!C11</f>
         <v>CNY</v>
       </c>
-      <c r="H6" s="314"/>
+      <c r="H6" s="315"/>
       <c r="I6" s="17"/>
     </row>
     <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -4499,10 +4506,10 @@
         <v>221</v>
       </c>
       <c r="C12" s="120">
-        <v>7.4999999999999997E-2</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="D12" s="121">
-        <v>8.0625000000000002E-2</v>
+        <v>7.5250000000000011E-2</v>
       </c>
       <c r="F12" s="25"/>
     </row>
@@ -4549,7 +4556,7 @@
         <v>222</v>
       </c>
       <c r="C17" s="119">
-        <v>8.6249999999999993E-2</v>
+        <v>8.0500000000000002E-2</v>
       </c>
       <c r="D17" s="122"/>
     </row>
@@ -4639,7 +4646,7 @@
       </c>
       <c r="G24" s="43">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>129.43673043044086</v>
+        <v>129.89116014523466</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -4671,7 +4678,7 @@
       </c>
       <c r="G26" s="47">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>3.5120916374947607E-3</v>
+        <v>3.499804436430639E-3</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -4690,10 +4697,10 @@
       <c r="F28" s="52" t="s">
         <v>210</v>
       </c>
-      <c r="G28" s="311" t="s">
+      <c r="G28" s="312" t="s">
         <v>225</v>
       </c>
-      <c r="H28" s="311"/>
+      <c r="H28" s="312"/>
     </row>
     <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B29" s="3" t="s">
@@ -4701,22 +4708,22 @@
       </c>
       <c r="C29" s="53">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>4.3763316252007112</v>
+        <v>4.7916213195236077</v>
       </c>
       <c r="D29" s="54">
         <f>G29*(1+G20)</f>
-        <v>7.874616150529544</v>
+        <v>8.8537396859002548</v>
       </c>
       <c r="E29" s="3"/>
       <c r="F29" s="55">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>5.1486254414126016</v>
-      </c>
-      <c r="G29" s="312">
+        <v>5.6372015523807146</v>
+      </c>
+      <c r="G29" s="313">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>6.8474923048082994</v>
-      </c>
-      <c r="H29" s="312"/>
+        <v>7.6989040746958741</v>
+      </c>
+      <c r="H29" s="313"/>
     </row>
     <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -5698,15 +5705,16 @@
     <row r="922" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="923" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="G2:H2"/>
     <mergeCell ref="G28:H28"/>
     <mergeCell ref="G29:H29"/>
     <mergeCell ref="G5:H5"/>
     <mergeCell ref="G6:H6"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="G4:H4"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="C11:C12 C16:C17">
@@ -5734,7 +5742,7 @@
       <formula>LEN(TRIM(G20))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations disablePrompts="1" count="3">
+  <dataValidations count="3">
     <dataValidation type="list" allowBlank="1" sqref="G6" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"HKD,USD,CNY,EUR"</formula1>
     </dataValidation>
@@ -11751,17 +11759,17 @@
       </c>
       <c r="C87" s="238">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>7.7257822928198791E-3</v>
+        <v>7.6987533168683233E-3</v>
       </c>
       <c r="D87" s="103"/>
       <c r="E87" s="239">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>7.7257822928198791E-3</v>
+        <v>7.6987533168683233E-3</v>
       </c>
       <c r="F87" s="103"/>
       <c r="H87" s="239">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>7.7257822928198791E-3</v>
+        <v>7.6987533168683233E-3</v>
       </c>
       <c r="I87" s="103"/>
       <c r="K87" s="75"/>
@@ -11802,17 +11810,17 @@
       </c>
       <c r="C89" s="238">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>3.5120916374947607E-3</v>
+        <v>3.499804436430639E-3</v>
       </c>
       <c r="D89" s="103"/>
       <c r="E89" s="238">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>3.5120916374947607E-3</v>
+        <v>3.499804436430639E-3</v>
       </c>
       <c r="F89" s="103"/>
       <c r="H89" s="238">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>3.5120916374947607E-3</v>
+        <v>3.499804436430639E-3</v>
       </c>
       <c r="I89" s="103"/>
       <c r="K89" s="75"/>
@@ -11861,7 +11869,7 @@
       </c>
       <c r="C93" s="242">
         <f>IF(C92="CN",Dashboard!C17,IF(C92="US",Dashboard!C12,IF(C92="HK",Dashboard!D12,Dashboard!D17)))</f>
-        <v>8.6249999999999993E-2</v>
+        <v>8.0500000000000002E-2</v>
       </c>
       <c r="D93" s="259">
         <f>Dashboard!H20</f>
@@ -11872,14 +11880,14 @@
       </c>
       <c r="F93" s="243">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>10.355724787330594</v>
+        <v>11.338425859767105</v>
       </c>
       <c r="H93" s="3" t="s">
         <v>184</v>
       </c>
       <c r="I93" s="243">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>10.355724787330594</v>
+        <v>11.338425859767105</v>
       </c>
       <c r="K93" s="75"/>
     </row>
@@ -11900,14 +11908,14 @@
       </c>
       <c r="F94" s="243">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
-        <v>4.6100440212387968</v>
+        <v>5.0478796533934904</v>
       </c>
       <c r="H94" s="3" t="s">
         <v>185</v>
       </c>
       <c r="I94" s="243">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>4.6100440212387968</v>
+        <v>5.0478796533934904</v>
       </c>
       <c r="K94" s="75"/>
     </row>
@@ -11950,21 +11958,21 @@
       </c>
       <c r="C97" s="249">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>6914311.2684607795</v>
+        <v>7570441.2099390468</v>
       </c>
       <c r="D97" s="250"/>
       <c r="E97" s="251">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>5.1486254414126016</v>
+        <v>5.6372015523807146</v>
       </c>
       <c r="F97" s="250"/>
       <c r="H97" s="251">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>5.1486254414126016</v>
+        <v>5.6372015523807146</v>
       </c>
       <c r="I97" s="251">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>6.8474923048082994</v>
+        <v>7.6989040746958741</v>
       </c>
       <c r="K97" s="75"/>
     </row>
@@ -12014,23 +12022,23 @@
       <c r="C100" s="249"/>
       <c r="D100" s="257">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>4.3763316252007112</v>
+        <v>4.7916213195236077</v>
       </c>
       <c r="E100" s="257">
         <f>MAX(E97+H98+E99,0)</f>
-        <v>5.1486254414126016</v>
+        <v>5.6372015523807146</v>
       </c>
       <c r="F100" s="257">
         <f>(E100+H100)/2</f>
-        <v>5.1486254414126016</v>
+        <v>5.6372015523807146</v>
       </c>
       <c r="H100" s="257">
         <f>MAX(H97+H98+H99,0)</f>
-        <v>5.1486254414126016</v>
+        <v>5.6372015523807146</v>
       </c>
       <c r="I100" s="257">
         <f>MAX(I97+H98+H99,0)</f>
-        <v>6.8474923048082994</v>
+        <v>7.6989040746958741</v>
       </c>
       <c r="K100" s="75"/>
     </row>
@@ -12069,23 +12077,23 @@
       <c r="C103" s="249"/>
       <c r="D103" s="257">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>1.9482056406517692</v>
+        <v>2.1332350773149127</v>
       </c>
       <c r="E103" s="251">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>2.292006636060905</v>
+        <v>2.5096883262528387</v>
       </c>
       <c r="F103" s="257">
         <f>(E103+H103)/2</f>
-        <v>2.292006636060905</v>
+        <v>2.5096883262528387</v>
       </c>
       <c r="H103" s="251">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>2.292006636060905</v>
+        <v>2.5096883262528387</v>
       </c>
       <c r="I103" s="257">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>3.0482889038225678</v>
+        <v>3.4275605549431889</v>
       </c>
       <c r="K103" s="75"/>
     </row>
@@ -12124,23 +12132,23 @@
       <c r="C106" s="249"/>
       <c r="D106" s="257">
         <f>(D100+D103)/2</f>
-        <v>3.1622686329262404</v>
+        <v>3.4624281984192602</v>
       </c>
       <c r="E106" s="251">
         <f>(E100+E103)/2</f>
-        <v>3.7203160387367533</v>
+        <v>4.0734449393167766</v>
       </c>
       <c r="F106" s="257">
         <f>(F100+F103)/2</f>
-        <v>3.7203160387367533</v>
+        <v>4.0734449393167766</v>
       </c>
       <c r="H106" s="251">
         <f>(H100+H103)/2</f>
-        <v>3.7203160387367533</v>
+        <v>4.0734449393167766</v>
       </c>
       <c r="I106" s="251">
         <f>(I100+I103)/2</f>
-        <v>4.9478906043154334</v>
+        <v>5.5632323148195315</v>
       </c>
       <c r="K106" s="75"/>
     </row>

--- a/financial_models/opportunities/9992.HK_Valuation.xlsx
+++ b/financial_models/opportunities/9992.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1B6C9622-CB66-423F-BBDE-7435E801FD74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0C6CAB3B-CAEF-4B6C-AA29-634D81ABDE00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2582,31 +2582,31 @@
     <xf numFmtId="181" fontId="37" fillId="13" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="2" fontId="6" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="178" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="177" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="178" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="9" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3615,11 +3615,11 @@
       </c>
       <c r="C45" s="87">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>3.499804436430639E-3</v>
+        <v>3.4896305863247362E-3</v>
       </c>
       <c r="D45" s="87">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>1.0793441544468827E-3</v>
+        <v>1.0762065260909324E-3</v>
       </c>
       <c r="E45" s="87" t="str">
         <f>IF(E44="","",E44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -4348,27 +4348,27 @@
       <c r="D2" s="3"/>
       <c r="E2" s="7"/>
       <c r="F2" s="7"/>
-      <c r="G2" s="311" t="str">
+      <c r="G2" s="313" t="str">
         <f>IF(Inputs!D4="","",Inputs!D4)</f>
         <v/>
       </c>
-      <c r="H2" s="311"/>
+      <c r="H2" s="313"/>
     </row>
     <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B3" s="9" t="s">
         <v>169</v>
       </c>
-      <c r="C3" s="316" t="str">
+      <c r="C3" s="311" t="str">
         <f>Inputs!C4</f>
         <v>9992.HK</v>
       </c>
-      <c r="D3" s="317"/>
+      <c r="D3" s="312"/>
       <c r="E3" s="3"/>
       <c r="F3" s="9" t="s">
         <v>1</v>
       </c>
       <c r="G3" s="10">
-        <v>85.75</v>
+        <v>86</v>
       </c>
       <c r="H3" s="11" t="s">
         <v>259</v>
@@ -4378,40 +4378,40 @@
       <c r="B4" s="12" t="s">
         <v>170</v>
       </c>
-      <c r="C4" s="311" t="str">
+      <c r="C4" s="313" t="str">
         <f>Inputs!C5</f>
         <v>POP MART</v>
       </c>
-      <c r="D4" s="318"/>
+      <c r="D4" s="314"/>
       <c r="E4" s="3"/>
       <c r="F4" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="G4" s="321">
+      <c r="G4" s="317">
         <f>Inputs!C10</f>
         <v>1342943150</v>
       </c>
-      <c r="H4" s="321"/>
+      <c r="H4" s="317"/>
       <c r="I4" s="14"/>
     </row>
     <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B5" s="9" t="s">
         <v>147</v>
       </c>
-      <c r="C5" s="319">
+      <c r="C5" s="315">
         <f>Inputs!C6</f>
         <v>45630</v>
       </c>
-      <c r="D5" s="320"/>
+      <c r="D5" s="316"/>
       <c r="E5" s="16"/>
       <c r="F5" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="G5" s="314">
+      <c r="G5" s="320">
         <f>G3*G4/1000000</f>
-        <v>115157.3751125</v>
-      </c>
-      <c r="H5" s="314"/>
+        <v>115493.1109</v>
+      </c>
+      <c r="H5" s="320"/>
       <c r="I5" s="17"/>
       <c r="J5" s="18"/>
     </row>
@@ -4434,11 +4434,11 @@
       <c r="F6" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="G6" s="315" t="str">
+      <c r="G6" s="321" t="str">
         <f>Inputs!C11</f>
         <v>CNY</v>
       </c>
-      <c r="H6" s="315"/>
+      <c r="H6" s="321"/>
       <c r="I6" s="17"/>
     </row>
     <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -4589,7 +4589,7 @@
         <v>0.15</v>
       </c>
       <c r="H20" s="307">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
@@ -4646,7 +4646,7 @@
       </c>
       <c r="G24" s="43">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>129.89116014523466</v>
+        <v>130.26985157422953</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -4678,7 +4678,7 @@
       </c>
       <c r="G26" s="47">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>3.499804436430639E-3</v>
+        <v>3.4896305863247362E-3</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -4697,10 +4697,10 @@
       <c r="F28" s="52" t="s">
         <v>210</v>
       </c>
-      <c r="G28" s="312" t="s">
+      <c r="G28" s="318" t="s">
         <v>225</v>
       </c>
-      <c r="H28" s="312"/>
+      <c r="H28" s="318"/>
     </row>
     <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B29" s="3" t="s">
@@ -4708,22 +4708,22 @@
       </c>
       <c r="C29" s="53">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>4.7916213195236077</v>
+        <v>5.4677799236734694</v>
       </c>
       <c r="D29" s="54">
         <f>G29*(1+G20)</f>
-        <v>8.8537396859002548</v>
+        <v>9.4925352209827576</v>
       </c>
       <c r="E29" s="3"/>
       <c r="F29" s="55">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>5.6372015523807146</v>
-      </c>
-      <c r="G29" s="313">
+        <v>6.4326822631452583</v>
+      </c>
+      <c r="G29" s="319">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>7.6989040746958741</v>
-      </c>
-      <c r="H29" s="313"/>
+        <v>8.2543784530284849</v>
+      </c>
+      <c r="H29" s="319"/>
     </row>
     <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -5706,15 +5706,15 @@
     <row r="923" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="G6:H6"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="C5:D5"/>
     <mergeCell ref="G4:H4"/>
     <mergeCell ref="G2:H2"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="G6:H6"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="C11:C12 C16:C17">
@@ -11087,7 +11087,7 @@
         <f>I15+I34</f>
         <v>0</v>
       </c>
-      <c r="E56" s="320"/>
+      <c r="E56" s="316"/>
       <c r="F56" s="9"/>
       <c r="G56" s="9"/>
       <c r="I56" s="176"/>
@@ -11098,11 +11098,11 @@
         <v>82</v>
       </c>
       <c r="C57" s="3"/>
-      <c r="D57" s="321">
+      <c r="D57" s="317">
         <f>Inputs!C84</f>
         <v>0</v>
       </c>
-      <c r="E57" s="320"/>
+      <c r="E57" s="316"/>
       <c r="G57" s="3"/>
       <c r="I57" s="3"/>
       <c r="K57" s="178" t="s">
@@ -11114,11 +11114,11 @@
         <v>84</v>
       </c>
       <c r="C58" s="3"/>
-      <c r="D58" s="321">
+      <c r="D58" s="317">
         <f>Inputs!C85</f>
         <v>0</v>
       </c>
-      <c r="E58" s="320"/>
+      <c r="E58" s="316"/>
       <c r="F58" s="9"/>
       <c r="G58" s="9"/>
       <c r="I58" s="3"/>
@@ -11759,17 +11759,17 @@
       </c>
       <c r="C87" s="238">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>7.6987533168683233E-3</v>
+        <v>7.6763732200169623E-3</v>
       </c>
       <c r="D87" s="103"/>
       <c r="E87" s="239">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>7.6987533168683233E-3</v>
+        <v>7.6763732200169623E-3</v>
       </c>
       <c r="F87" s="103"/>
       <c r="H87" s="239">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>7.6987533168683233E-3</v>
+        <v>7.6763732200169623E-3</v>
       </c>
       <c r="I87" s="103"/>
       <c r="K87" s="75"/>
@@ -11810,17 +11810,17 @@
       </c>
       <c r="C89" s="238">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>3.499804436430639E-3</v>
+        <v>3.4896305863247362E-3</v>
       </c>
       <c r="D89" s="103"/>
       <c r="E89" s="238">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>3.499804436430639E-3</v>
+        <v>3.4896305863247362E-3</v>
       </c>
       <c r="F89" s="103"/>
       <c r="H89" s="238">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>3.499804436430639E-3</v>
+        <v>3.4896305863247362E-3</v>
       </c>
       <c r="I89" s="103"/>
       <c r="K89" s="75"/>
@@ -11873,21 +11873,21 @@
       </c>
       <c r="D93" s="259">
         <f>Dashboard!H20</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E93" s="3" t="s">
         <v>184</v>
       </c>
       <c r="F93" s="243">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>11.338425859767105</v>
+        <v>11.250801482505198</v>
       </c>
       <c r="H93" s="3" t="s">
         <v>184</v>
       </c>
       <c r="I93" s="243">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>11.338425859767105</v>
+        <v>11.250801482505198</v>
       </c>
       <c r="K93" s="75"/>
     </row>
@@ -11908,14 +11908,14 @@
       </c>
       <c r="F94" s="243">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
-        <v>5.0478796533934904</v>
+        <v>5.0300706837698046</v>
       </c>
       <c r="H94" s="3" t="s">
         <v>185</v>
       </c>
       <c r="I94" s="243">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>5.0478796533934904</v>
+        <v>5.0300706837698046</v>
       </c>
       <c r="K94" s="75"/>
     </row>
@@ -11958,21 +11958,21 @@
       </c>
       <c r="C97" s="249">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>7570441.2099390468</v>
+        <v>8638726.5814174209</v>
       </c>
       <c r="D97" s="250"/>
       <c r="E97" s="251">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>5.6372015523807146</v>
+        <v>6.4326822631452583</v>
       </c>
       <c r="F97" s="250"/>
       <c r="H97" s="251">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>5.6372015523807146</v>
+        <v>6.4326822631452583</v>
       </c>
       <c r="I97" s="251">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>7.6989040746958741</v>
+        <v>8.2543784530284849</v>
       </c>
       <c r="K97" s="75"/>
     </row>
@@ -12022,23 +12022,23 @@
       <c r="C100" s="249"/>
       <c r="D100" s="257">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>4.7916213195236077</v>
+        <v>5.4677799236734694</v>
       </c>
       <c r="E100" s="257">
         <f>MAX(E97+H98+E99,0)</f>
-        <v>5.6372015523807146</v>
+        <v>6.4326822631452583</v>
       </c>
       <c r="F100" s="257">
         <f>(E100+H100)/2</f>
-        <v>5.6372015523807146</v>
+        <v>6.4326822631452583</v>
       </c>
       <c r="H100" s="257">
         <f>MAX(H97+H98+H99,0)</f>
-        <v>5.6372015523807146</v>
+        <v>6.4326822631452583</v>
       </c>
       <c r="I100" s="257">
         <f>MAX(I97+H98+H99,0)</f>
-        <v>7.6989040746958741</v>
+        <v>8.2543784530284849</v>
       </c>
       <c r="K100" s="75"/>
     </row>
@@ -12077,23 +12077,23 @@
       <c r="C103" s="249"/>
       <c r="D103" s="257">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>2.1332350773149127</v>
+        <v>2.4445653531565914</v>
       </c>
       <c r="E103" s="251">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>2.5096883262528387</v>
+        <v>2.8759592390077544</v>
       </c>
       <c r="F103" s="257">
         <f>(E103+H103)/2</f>
-        <v>2.5096883262528387</v>
+        <v>2.8759592390077544</v>
       </c>
       <c r="H103" s="251">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>2.5096883262528387</v>
+        <v>2.8759592390077544</v>
       </c>
       <c r="I103" s="257">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>3.4275605549431889</v>
+        <v>3.6904132682354036</v>
       </c>
       <c r="K103" s="75"/>
     </row>
@@ -12132,23 +12132,23 @@
       <c r="C106" s="249"/>
       <c r="D106" s="257">
         <f>(D100+D103)/2</f>
-        <v>3.4624281984192602</v>
+        <v>3.9561726384150306</v>
       </c>
       <c r="E106" s="251">
         <f>(E100+E103)/2</f>
-        <v>4.0734449393167766</v>
+        <v>4.6543207510765061</v>
       </c>
       <c r="F106" s="257">
         <f>(F100+F103)/2</f>
-        <v>4.0734449393167766</v>
+        <v>4.6543207510765061</v>
       </c>
       <c r="H106" s="251">
         <f>(H100+H103)/2</f>
-        <v>4.0734449393167766</v>
+        <v>4.6543207510765061</v>
       </c>
       <c r="I106" s="251">
         <f>(I100+I103)/2</f>
-        <v>5.5632323148195315</v>
+        <v>5.9723958606319441</v>
       </c>
       <c r="K106" s="75"/>
     </row>

--- a/financial_models/opportunities/9992.HK_Valuation.xlsx
+++ b/financial_models/opportunities/9992.HK_Valuation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{34688A67-5939-4BA5-8570-19EB0CFF0AFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{FE3E920A-F336-41EB-9D40-E13B43FD2253}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2205" yWindow="2205" windowWidth="12690" windowHeight="7642" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Inputs" sheetId="4" r:id="rId1"/>
@@ -2595,6 +2595,9 @@
     <xf numFmtId="181" fontId="37" fillId="12" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -2611,9 +2614,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="177" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3638,11 +3638,11 @@
       </c>
       <c r="C45" s="82">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>3.4895213574402091E-3</v>
+        <v>3.1673987629376719E-3</v>
       </c>
       <c r="D45" s="82">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>1.0761728397635526E-3</v>
+        <v>9.7682982054440783E-4</v>
       </c>
       <c r="E45" s="82" t="str">
         <f>IF(E44="","",E44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -4376,27 +4376,27 @@
       <c r="D2" s="3"/>
       <c r="E2" s="7"/>
       <c r="F2" s="7"/>
-      <c r="G2" s="318" t="str">
+      <c r="G2" s="312" t="str">
         <f>IF(Inputs!D4="","",Inputs!D4)</f>
         <v/>
       </c>
-      <c r="H2" s="318"/>
+      <c r="H2" s="312"/>
     </row>
     <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B3" s="9" t="s">
         <v>167</v>
       </c>
-      <c r="C3" s="316" t="str">
+      <c r="C3" s="317" t="str">
         <f>Inputs!C4</f>
         <v>9992.HK</v>
       </c>
-      <c r="D3" s="317"/>
+      <c r="D3" s="318"/>
       <c r="E3" s="3"/>
       <c r="F3" s="9" t="s">
         <v>1</v>
       </c>
       <c r="G3" s="10">
-        <v>86</v>
+        <v>94.8</v>
       </c>
       <c r="H3" s="11" t="s">
         <v>256</v>
@@ -4406,7 +4406,7 @@
       <c r="B4" s="12" t="s">
         <v>168</v>
       </c>
-      <c r="C4" s="318" t="str">
+      <c r="C4" s="312" t="str">
         <f>Inputs!C5</f>
         <v>POP MART</v>
       </c>
@@ -4435,11 +4435,11 @@
       <c r="F5" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="G5" s="314">
+      <c r="G5" s="315">
         <f>G3*G4/1000000</f>
-        <v>115493.1109</v>
-      </c>
-      <c r="H5" s="314"/>
+        <v>127311.01062</v>
+      </c>
+      <c r="H5" s="315"/>
       <c r="I5" s="17"/>
       <c r="J5" s="18"/>
     </row>
@@ -4462,11 +4462,11 @@
       <c r="F6" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="G6" s="315" t="str">
+      <c r="G6" s="316" t="str">
         <f>Inputs!C11</f>
         <v>CNY</v>
       </c>
-      <c r="H6" s="315"/>
+      <c r="H6" s="316"/>
       <c r="I6" s="17"/>
     </row>
     <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -4486,7 +4486,7 @@
         <v>5</v>
       </c>
       <c r="G7" s="21">
-        <v>1.0638030370076497</v>
+        <v>1.0644076665242512</v>
       </c>
       <c r="H7" s="22" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -4674,7 +4674,7 @@
       </c>
       <c r="G24" s="43">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>130.27392927690488</v>
+        <v>143.52271139608337</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -4706,7 +4706,7 @@
       </c>
       <c r="G26" s="47">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>3.4895213574402091E-3</v>
+        <v>3.1673987629376719E-3</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -4725,10 +4725,10 @@
       <c r="F28" s="52" t="s">
         <v>208</v>
       </c>
-      <c r="G28" s="312" t="s">
+      <c r="G28" s="313" t="s">
         <v>223</v>
       </c>
-      <c r="H28" s="312"/>
+      <c r="H28" s="313"/>
     </row>
     <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B29" s="3" t="s">
@@ -4736,22 +4736,22 @@
       </c>
       <c r="C29" s="53">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>5.5131669248236443</v>
+        <v>5.5008006026894609</v>
       </c>
       <c r="D29" s="54">
         <f>G29*(1+G20)</f>
-        <v>9.5890679498842939</v>
+        <v>9.5675591682979935</v>
       </c>
       <c r="E29" s="3"/>
       <c r="F29" s="55">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>6.4860787350866405</v>
-      </c>
-      <c r="G29" s="313">
+        <v>6.4715301208111304</v>
+      </c>
+      <c r="G29" s="314">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>8.3383199564211257</v>
-      </c>
-      <c r="H29" s="313"/>
+        <v>8.3196166680852119</v>
+      </c>
+      <c r="H29" s="314"/>
     </row>
     <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -5734,15 +5734,15 @@
     <row r="923" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="G4:H4"/>
     <mergeCell ref="G2:H2"/>
     <mergeCell ref="G28:H28"/>
     <mergeCell ref="G29:H29"/>
     <mergeCell ref="G5:H5"/>
     <mergeCell ref="G6:H6"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="G4:H4"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="C11:C12 C16:C17">
@@ -11889,17 +11889,17 @@
       </c>
       <c r="C87" s="232">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>7.6761329419521938E-3</v>
+        <v>6.9675383796246292E-3</v>
       </c>
       <c r="D87" s="98"/>
       <c r="E87" s="233">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>7.6761329419521938E-3</v>
+        <v>6.9675383796246292E-3</v>
       </c>
       <c r="F87" s="98"/>
       <c r="H87" s="233">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>7.6761329419521938E-3</v>
+        <v>6.9675383796246292E-3</v>
       </c>
       <c r="I87" s="98"/>
       <c r="K87" s="75"/>
@@ -11940,17 +11940,17 @@
       </c>
       <c r="C89" s="232">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>3.4895213574402091E-3</v>
+        <v>3.1673987629376719E-3</v>
       </c>
       <c r="D89" s="98"/>
       <c r="E89" s="232">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>3.4895213574402091E-3</v>
+        <v>3.1673987629376719E-3</v>
       </c>
       <c r="F89" s="98"/>
       <c r="H89" s="232">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>3.4895213574402091E-3</v>
+        <v>3.1673987629376719E-3</v>
       </c>
       <c r="I89" s="98"/>
       <c r="K89" s="75"/>
@@ -12010,14 +12010,14 @@
       </c>
       <c r="F93" s="237">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>11.344192245658625</v>
+        <v>11.318746628361918</v>
       </c>
       <c r="H93" s="3" t="s">
         <v>182</v>
       </c>
       <c r="I93" s="237">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>11.344192245658625</v>
+        <v>11.318746628361918</v>
       </c>
       <c r="K93" s="75"/>
     </row>
@@ -12038,14 +12038,14 @@
       </c>
       <c r="F94" s="237">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
-        <v>5.0718269729804755</v>
+        <v>5.0681967870890672</v>
       </c>
       <c r="H94" s="3" t="s">
         <v>183</v>
       </c>
       <c r="I94" s="237">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>5.0718269729804755</v>
+        <v>5.0681967870890672</v>
       </c>
       <c r="K94" s="75"/>
     </row>
@@ -12088,21 +12088,21 @@
       </c>
       <c r="C97" s="243">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>8710435.0076452699</v>
+        <v>8690897.0457619801</v>
       </c>
       <c r="D97" s="244"/>
       <c r="E97" s="245">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>6.4860787350866405</v>
+        <v>6.4715301208111304</v>
       </c>
       <c r="F97" s="244"/>
       <c r="H97" s="245">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>6.4860787350866405</v>
+        <v>6.4715301208111304</v>
       </c>
       <c r="I97" s="245">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>8.3383199564211257</v>
+        <v>8.3196166680852119</v>
       </c>
       <c r="K97" s="75"/>
     </row>
@@ -12152,23 +12152,23 @@
       <c r="C100" s="243"/>
       <c r="D100" s="251">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>5.5131669248236443</v>
+        <v>5.5008006026894609</v>
       </c>
       <c r="E100" s="251">
         <f>MAX(E97+H98+E99,0)</f>
-        <v>6.4860787350866405</v>
+        <v>6.4715301208111304</v>
       </c>
       <c r="F100" s="251">
         <f>(E100+H100)/2</f>
-        <v>6.4860787350866405</v>
+        <v>6.4715301208111304</v>
       </c>
       <c r="H100" s="251">
         <f>MAX(H97+H98+H99,0)</f>
-        <v>6.4860787350866405</v>
+        <v>6.4715301208111304</v>
       </c>
       <c r="I100" s="251">
         <f>MAX(I97+H98+H99,0)</f>
-        <v>8.3383199564211257</v>
+        <v>8.3196166680852119</v>
       </c>
       <c r="K100" s="75"/>
     </row>
@@ -12207,23 +12207,23 @@
       <c r="C103" s="243"/>
       <c r="D103" s="251">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>2.4648585029546952</v>
+        <v>2.4630942679740042</v>
       </c>
       <c r="E103" s="245">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>2.899833532887877</v>
+        <v>2.8977579623223582</v>
       </c>
       <c r="F103" s="251">
         <f>(E103+H103)/2</f>
-        <v>2.899833532887877</v>
+        <v>2.8977579623223582</v>
       </c>
       <c r="H103" s="245">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>2.899833532887877</v>
+        <v>2.8977579623223582</v>
       </c>
       <c r="I103" s="251">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>3.7279442333589201</v>
+        <v>3.7252759383575342</v>
       </c>
       <c r="K103" s="75"/>
     </row>
@@ -12262,23 +12262,23 @@
       <c r="C106" s="243"/>
       <c r="D106" s="251">
         <f>(D100+D103)/2</f>
-        <v>3.9890127138891698</v>
+        <v>3.9819474353317323</v>
       </c>
       <c r="E106" s="245">
         <f>(E100+E103)/2</f>
-        <v>4.6929561339872592</v>
+        <v>4.6846440415667443</v>
       </c>
       <c r="F106" s="251">
         <f>(F100+F103)/2</f>
-        <v>4.6929561339872592</v>
+        <v>4.6846440415667443</v>
       </c>
       <c r="H106" s="245">
         <f>(H100+H103)/2</f>
-        <v>4.6929561339872592</v>
+        <v>4.6846440415667443</v>
       </c>
       <c r="I106" s="245">
         <f>(I100+I103)/2</f>
-        <v>6.0331320948900231</v>
+        <v>6.0224463032213729</v>
       </c>
       <c r="K106" s="75"/>
     </row>

--- a/financial_models/opportunities/9992.HK_Valuation.xlsx
+++ b/financial_models/opportunities/9992.HK_Valuation.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FE3E920A-F336-41EB-9D40-E13B43FD2253}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{05474CEA-A971-481C-9B17-E265795E213B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2595,31 +2595,31 @@
     <xf numFmtId="181" fontId="37" fillId="12" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="2" fontId="6" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="178" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="177" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="178" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="9" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3638,11 +3638,11 @@
       </c>
       <c r="C45" s="82">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>3.1673987629376719E-3</v>
+        <v>3.5903336263770204E-3</v>
       </c>
       <c r="D45" s="82">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>9.7682982054440783E-4</v>
+        <v>1.1072634721545577E-3</v>
       </c>
       <c r="E45" s="82" t="str">
         <f>IF(E44="","",E44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -4376,27 +4376,27 @@
       <c r="D2" s="3"/>
       <c r="E2" s="7"/>
       <c r="F2" s="7"/>
-      <c r="G2" s="312" t="str">
+      <c r="G2" s="314" t="str">
         <f>IF(Inputs!D4="","",Inputs!D4)</f>
         <v/>
       </c>
-      <c r="H2" s="312"/>
+      <c r="H2" s="314"/>
     </row>
     <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B3" s="9" t="s">
         <v>167</v>
       </c>
-      <c r="C3" s="317" t="str">
+      <c r="C3" s="312" t="str">
         <f>Inputs!C4</f>
         <v>9992.HK</v>
       </c>
-      <c r="D3" s="318"/>
+      <c r="D3" s="313"/>
       <c r="E3" s="3"/>
       <c r="F3" s="9" t="s">
         <v>1</v>
       </c>
       <c r="G3" s="10">
-        <v>94.8</v>
+        <v>83.4</v>
       </c>
       <c r="H3" s="11" t="s">
         <v>256</v>
@@ -4406,40 +4406,40 @@
       <c r="B4" s="12" t="s">
         <v>168</v>
       </c>
-      <c r="C4" s="312" t="str">
+      <c r="C4" s="314" t="str">
         <f>Inputs!C5</f>
         <v>POP MART</v>
       </c>
-      <c r="D4" s="319"/>
+      <c r="D4" s="315"/>
       <c r="E4" s="3"/>
       <c r="F4" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="G4" s="322">
+      <c r="G4" s="318">
         <f>Inputs!C10</f>
         <v>1342943150</v>
       </c>
-      <c r="H4" s="322"/>
+      <c r="H4" s="318"/>
       <c r="I4" s="14"/>
     </row>
     <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B5" s="9" t="s">
         <v>145</v>
       </c>
-      <c r="C5" s="320">
+      <c r="C5" s="316">
         <f>Inputs!C6</f>
         <v>45630</v>
       </c>
-      <c r="D5" s="321"/>
+      <c r="D5" s="317"/>
       <c r="E5" s="16"/>
       <c r="F5" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="G5" s="315">
+      <c r="G5" s="321">
         <f>G3*G4/1000000</f>
-        <v>127311.01062</v>
-      </c>
-      <c r="H5" s="315"/>
+        <v>112001.45871000002</v>
+      </c>
+      <c r="H5" s="321"/>
       <c r="I5" s="17"/>
       <c r="J5" s="18"/>
     </row>
@@ -4462,11 +4462,11 @@
       <c r="F6" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="G6" s="316" t="str">
+      <c r="G6" s="322" t="str">
         <f>Inputs!C11</f>
         <v>CNY</v>
       </c>
-      <c r="H6" s="316"/>
+      <c r="H6" s="322"/>
       <c r="I6" s="17"/>
     </row>
     <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -4486,7 +4486,7 @@
         <v>5</v>
       </c>
       <c r="G7" s="21">
-        <v>1.0644076665242512</v>
+        <v>1.061445673306783</v>
       </c>
       <c r="H7" s="22" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -4674,7 +4674,7 @@
       </c>
       <c r="G24" s="43">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>143.52271139608337</v>
+        <v>126.61599334102613</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -4706,7 +4706,7 @@
       </c>
       <c r="G26" s="47">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>3.1673987629376719E-3</v>
+        <v>3.5903336263770204E-3</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -4725,10 +4725,10 @@
       <c r="F28" s="52" t="s">
         <v>208</v>
       </c>
-      <c r="G28" s="313" t="s">
+      <c r="G28" s="319" t="s">
         <v>223</v>
       </c>
-      <c r="H28" s="313"/>
+      <c r="H28" s="319"/>
     </row>
     <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B29" s="3" t="s">
@@ -4736,22 +4736,22 @@
       </c>
       <c r="C29" s="53">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>5.5008006026894609</v>
+        <v>5.5057939367879198</v>
       </c>
       <c r="D29" s="54">
         <f>G29*(1+G20)</f>
-        <v>9.5675591682979935</v>
+        <v>9.5762440894366971</v>
       </c>
       <c r="E29" s="3"/>
       <c r="F29" s="55">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>6.4715301208111304</v>
-      </c>
-      <c r="G29" s="314">
+        <v>6.4774046315152001</v>
+      </c>
+      <c r="G29" s="320">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>8.3196166680852119</v>
-      </c>
-      <c r="H29" s="314"/>
+        <v>8.3271687734232156</v>
+      </c>
+      <c r="H29" s="320"/>
     </row>
     <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -5734,15 +5734,15 @@
     <row r="923" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="G6:H6"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="C5:D5"/>
     <mergeCell ref="G4:H4"/>
     <mergeCell ref="G2:H2"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="G6:H6"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="C11:C12 C16:C17">
@@ -11217,7 +11217,7 @@
         <f>I15+I34</f>
         <v>0</v>
       </c>
-      <c r="E56" s="321"/>
+      <c r="E56" s="317"/>
       <c r="F56" s="9"/>
       <c r="G56" s="9"/>
       <c r="I56" s="170"/>
@@ -11228,11 +11228,11 @@
         <v>82</v>
       </c>
       <c r="C57" s="3"/>
-      <c r="D57" s="322">
+      <c r="D57" s="318">
         <f>Inputs!C84</f>
         <v>0</v>
       </c>
-      <c r="E57" s="321"/>
+      <c r="E57" s="317"/>
       <c r="G57" s="3"/>
       <c r="I57" s="3"/>
       <c r="K57" s="172" t="s">
@@ -11244,11 +11244,11 @@
         <v>84</v>
       </c>
       <c r="C58" s="3"/>
-      <c r="D58" s="322">
+      <c r="D58" s="318">
         <f>Inputs!C85</f>
         <v>0</v>
       </c>
-      <c r="E58" s="321"/>
+      <c r="E58" s="317"/>
       <c r="F58" s="9"/>
       <c r="G58" s="9"/>
       <c r="I58" s="3"/>
@@ -11889,17 +11889,17 @@
       </c>
       <c r="C87" s="232">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>6.9675383796246292E-3</v>
+        <v>7.8978964158707109E-3</v>
       </c>
       <c r="D87" s="98"/>
       <c r="E87" s="233">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>6.9675383796246292E-3</v>
+        <v>7.8978964158707109E-3</v>
       </c>
       <c r="F87" s="98"/>
       <c r="H87" s="233">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>6.9675383796246292E-3</v>
+        <v>7.8978964158707109E-3</v>
       </c>
       <c r="I87" s="98"/>
       <c r="K87" s="75"/>
@@ -11940,17 +11940,17 @@
       </c>
       <c r="C89" s="232">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>3.1673987629376719E-3</v>
+        <v>3.5903336263770204E-3</v>
       </c>
       <c r="D89" s="98"/>
       <c r="E89" s="232">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>3.1673987629376719E-3</v>
+        <v>3.5903336263770204E-3</v>
       </c>
       <c r="F89" s="98"/>
       <c r="H89" s="232">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>3.1673987629376719E-3</v>
+        <v>3.5903336263770204E-3</v>
       </c>
       <c r="I89" s="98"/>
       <c r="K89" s="75"/>
@@ -12010,14 +12010,14 @@
       </c>
       <c r="F93" s="237">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>11.318746628361918</v>
+        <v>11.329021184299028</v>
       </c>
       <c r="H93" s="3" t="s">
         <v>182</v>
       </c>
       <c r="I93" s="237">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>11.318746628361918</v>
+        <v>11.329021184299028</v>
       </c>
       <c r="K93" s="75"/>
     </row>
@@ -12038,14 +12038,14 @@
       </c>
       <c r="F94" s="237">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
-        <v>5.0681967870890672</v>
+        <v>5.062621805658865</v>
       </c>
       <c r="H94" s="3" t="s">
         <v>183</v>
       </c>
       <c r="I94" s="237">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>5.0681967870890672</v>
+        <v>5.062621805658865</v>
       </c>
       <c r="K94" s="75"/>
     </row>
@@ -12088,21 +12088,21 @@
       </c>
       <c r="C97" s="243">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>8690897.0457619801</v>
+        <v>8698786.1796716116</v>
       </c>
       <c r="D97" s="244"/>
       <c r="E97" s="245">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>6.4715301208111304</v>
+        <v>6.4774046315152001</v>
       </c>
       <c r="F97" s="244"/>
       <c r="H97" s="245">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>6.4715301208111304</v>
+        <v>6.4774046315152001</v>
       </c>
       <c r="I97" s="245">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>8.3196166680852119</v>
+        <v>8.3271687734232156</v>
       </c>
       <c r="K97" s="75"/>
     </row>
@@ -12152,23 +12152,23 @@
       <c r="C100" s="243"/>
       <c r="D100" s="251">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>5.5008006026894609</v>
+        <v>5.5057939367879198</v>
       </c>
       <c r="E100" s="251">
         <f>MAX(E97+H98+E99,0)</f>
-        <v>6.4715301208111304</v>
+        <v>6.4774046315152001</v>
       </c>
       <c r="F100" s="251">
         <f>(E100+H100)/2</f>
-        <v>6.4715301208111304</v>
+        <v>6.4774046315152001</v>
       </c>
       <c r="H100" s="251">
         <f>MAX(H97+H98+H99,0)</f>
-        <v>6.4715301208111304</v>
+        <v>6.4774046315152001</v>
       </c>
       <c r="I100" s="251">
         <f>MAX(I97+H98+H99,0)</f>
-        <v>8.3196166680852119</v>
+        <v>8.3271687734232156</v>
       </c>
       <c r="K100" s="75"/>
     </row>
@@ -12207,23 +12207,23 @@
       <c r="C103" s="243"/>
       <c r="D103" s="251">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>2.4630942679740042</v>
+        <v>2.4603848813061915</v>
       </c>
       <c r="E103" s="245">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>2.8977579623223582</v>
+        <v>2.8945704485955193</v>
       </c>
       <c r="F103" s="251">
         <f>(E103+H103)/2</f>
-        <v>2.8977579623223582</v>
+        <v>2.8945704485955193</v>
       </c>
       <c r="H103" s="245">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>2.8977579623223582</v>
+        <v>2.8945704485955193</v>
       </c>
       <c r="I103" s="251">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>3.7252759383575342</v>
+        <v>3.72117816057755</v>
       </c>
       <c r="K103" s="75"/>
     </row>
@@ -12262,23 +12262,23 @@
       <c r="C106" s="243"/>
       <c r="D106" s="251">
         <f>(D100+D103)/2</f>
-        <v>3.9819474353317323</v>
+        <v>3.9830894090470554</v>
       </c>
       <c r="E106" s="245">
         <f>(E100+E103)/2</f>
-        <v>4.6846440415667443</v>
+        <v>4.6859875400553594</v>
       </c>
       <c r="F106" s="251">
         <f>(F100+F103)/2</f>
-        <v>4.6846440415667443</v>
+        <v>4.6859875400553594</v>
       </c>
       <c r="H106" s="245">
         <f>(H100+H103)/2</f>
-        <v>4.6846440415667443</v>
+        <v>4.6859875400553594</v>
       </c>
       <c r="I106" s="245">
         <f>(I100+I103)/2</f>
-        <v>6.0224463032213729</v>
+        <v>6.0241734670003826</v>
       </c>
       <c r="K106" s="75"/>
     </row>
